--- a/author-affiliation-example.xlsx
+++ b/author-affiliation-example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Enter names/affiliations as they should be written in LaTeX, e.g. Ren\'{e} for René</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Name</t>
   </si>
   <si>
+    <t>Email</t>
+  </si>
+  <si>
     <t>Affiliation 1</t>
   </si>
   <si>
@@ -39,6 +42,9 @@
   </si>
   <si>
     <t>Sean M. O'Brien</t>
+  </si>
+  <si>
+    <t>name@university.ac.uk</t>
   </si>
   <si>
     <t>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</t>
@@ -74,7 +80,7 @@
     <t>Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA</t>
   </si>
   <si>
-    <t>Change the ranges searched in cell B4 so that the entire affiliation range is searched. Currently C5:E9</t>
+    <t>Change the ranges searched in cell B4 so that the entire affiliation range is searched. Currently D5:F9</t>
   </si>
   <si>
     <t>Ensure that none of the affiliations appear twice due to typos. Any typos must be fixed in the other sheet</t>
@@ -415,6 +421,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -424,6 +431,7 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -433,6 +441,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -450,22 +459,28 @@
       <c r="E4" s="3" t="s">
         <v>7</v>
       </c>
+      <c r="F4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -473,5023 +488,6020 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>3.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>16</v>
       </c>
-      <c r="D7" s="4"/>
       <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>5.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>4.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>19</v>
+      <c r="E9" s="3" t="s">
+        <v>21</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10">
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11">
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12">
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13">
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14">
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15">
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16">
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17">
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18">
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19">
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
     <row r="25">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
     </row>
     <row r="26">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
     </row>
     <row r="27">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
     </row>
     <row r="28">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
     </row>
     <row r="29">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
     </row>
     <row r="30">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
     </row>
     <row r="31">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
     <row r="32">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
     </row>
     <row r="33">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
     </row>
     <row r="34">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
     </row>
     <row r="35">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
     </row>
     <row r="36">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
     </row>
     <row r="37">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
     </row>
     <row r="38">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
     </row>
     <row r="39">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
     </row>
     <row r="40">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
     </row>
     <row r="41">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
     </row>
     <row r="42">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
     </row>
     <row r="43">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
     </row>
     <row r="44">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
     </row>
     <row r="45">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
     </row>
     <row r="46">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
     </row>
     <row r="47">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
     </row>
     <row r="48">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
     </row>
     <row r="49">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
     <row r="50">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
     </row>
     <row r="51">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
     </row>
     <row r="52">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
     </row>
     <row r="53">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
     </row>
     <row r="54">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
     </row>
     <row r="55">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
     </row>
     <row r="56">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
     </row>
     <row r="57">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
     </row>
     <row r="58">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
     </row>
     <row r="59">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
     </row>
     <row r="60">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
     </row>
     <row r="61">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
     </row>
     <row r="62">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
     </row>
     <row r="63">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
     </row>
     <row r="64">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
     </row>
     <row r="65">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
     </row>
     <row r="66">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
     </row>
     <row r="67">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
     </row>
     <row r="68">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
     </row>
     <row r="69">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
     </row>
     <row r="70">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
     </row>
     <row r="71">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
     </row>
     <row r="72">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
     </row>
     <row r="73">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
     </row>
     <row r="74">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
     </row>
     <row r="75">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
     </row>
     <row r="76">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
     </row>
     <row r="77">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
     </row>
     <row r="78">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
     </row>
     <row r="79">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
     </row>
     <row r="80">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
     </row>
     <row r="81">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
     </row>
     <row r="82">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
     </row>
     <row r="83">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
     </row>
     <row r="84">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
     </row>
     <row r="85">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
     </row>
     <row r="86">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
     </row>
     <row r="87">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
     </row>
     <row r="88">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
     </row>
     <row r="89">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
     </row>
     <row r="90">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
     </row>
     <row r="91">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
     </row>
     <row r="92">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
     </row>
     <row r="93">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
     </row>
     <row r="94">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
     </row>
     <row r="95">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
     </row>
     <row r="96">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
     </row>
     <row r="97">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
     </row>
     <row r="98">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
     </row>
     <row r="99">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
     </row>
     <row r="100">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
     </row>
     <row r="101">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
     </row>
     <row r="102">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
     </row>
     <row r="103">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
     </row>
     <row r="104">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
     </row>
     <row r="105">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
     </row>
     <row r="106">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
     </row>
     <row r="107">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
     </row>
     <row r="108">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
     </row>
     <row r="109">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
     </row>
     <row r="110">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
     </row>
     <row r="111">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
     </row>
     <row r="112">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
     </row>
     <row r="113">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
     </row>
     <row r="114">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
     </row>
     <row r="115">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
     </row>
     <row r="116">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
     </row>
     <row r="117">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
     </row>
     <row r="118">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
     </row>
     <row r="119">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
     </row>
     <row r="120">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
     </row>
     <row r="121">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
     </row>
     <row r="122">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
     </row>
     <row r="123">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
     </row>
     <row r="124">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
     </row>
     <row r="125">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
     </row>
     <row r="126">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
     </row>
     <row r="127">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
     </row>
     <row r="128">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
     </row>
     <row r="129">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
     </row>
     <row r="130">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
     </row>
     <row r="131">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
     </row>
     <row r="132">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
     </row>
     <row r="133">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
     </row>
     <row r="134">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
     </row>
     <row r="135">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
     </row>
     <row r="136">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
     </row>
     <row r="137">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
     </row>
     <row r="138">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
     </row>
     <row r="139">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
     </row>
     <row r="140">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
+      <c r="F140" s="4"/>
     </row>
     <row r="141">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
+      <c r="F141" s="4"/>
     </row>
     <row r="142">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
     </row>
     <row r="143">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
     </row>
     <row r="144">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
+      <c r="F144" s="4"/>
     </row>
     <row r="145">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
+      <c r="F145" s="4"/>
     </row>
     <row r="146">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
+      <c r="F146" s="4"/>
     </row>
     <row r="147">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
     </row>
     <row r="148">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
+      <c r="F148" s="4"/>
     </row>
     <row r="149">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
+      <c r="F149" s="4"/>
     </row>
     <row r="150">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
+      <c r="F150" s="4"/>
     </row>
     <row r="151">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
+      <c r="F151" s="4"/>
     </row>
     <row r="152">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
+      <c r="F152" s="4"/>
     </row>
     <row r="153">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
+      <c r="F153" s="4"/>
     </row>
     <row r="154">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
+      <c r="F154" s="4"/>
     </row>
     <row r="155">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
+      <c r="F155" s="4"/>
     </row>
     <row r="156">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
+      <c r="F156" s="4"/>
     </row>
     <row r="157">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
+      <c r="F157" s="4"/>
     </row>
     <row r="158">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
+      <c r="F158" s="4"/>
     </row>
     <row r="159">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
+      <c r="F159" s="4"/>
     </row>
     <row r="160">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
     </row>
     <row r="161">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
     </row>
     <row r="162">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
+      <c r="F162" s="4"/>
     </row>
     <row r="163">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
+      <c r="F163" s="4"/>
     </row>
     <row r="164">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
+      <c r="F164" s="4"/>
     </row>
     <row r="165">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
+      <c r="F165" s="4"/>
     </row>
     <row r="166">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
+      <c r="F166" s="4"/>
     </row>
     <row r="167">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
+      <c r="F167" s="4"/>
     </row>
     <row r="168">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
+      <c r="F168" s="4"/>
     </row>
     <row r="169">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
+      <c r="F169" s="4"/>
     </row>
     <row r="170">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
+      <c r="F170" s="4"/>
     </row>
     <row r="171">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
+      <c r="F171" s="4"/>
     </row>
     <row r="172">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
+      <c r="F172" s="4"/>
     </row>
     <row r="173">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
+      <c r="F173" s="4"/>
     </row>
     <row r="174">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
     </row>
     <row r="175">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
+      <c r="F175" s="4"/>
     </row>
     <row r="176">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
+      <c r="F176" s="4"/>
     </row>
     <row r="177">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
+      <c r="F177" s="4"/>
     </row>
     <row r="178">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
+      <c r="F178" s="4"/>
     </row>
     <row r="179">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
+      <c r="F179" s="4"/>
     </row>
     <row r="180">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
+      <c r="F180" s="4"/>
     </row>
     <row r="181">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
+      <c r="F181" s="4"/>
     </row>
     <row r="182">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
+      <c r="F182" s="4"/>
     </row>
     <row r="183">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
+      <c r="F183" s="4"/>
     </row>
     <row r="184">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
+      <c r="F184" s="4"/>
     </row>
     <row r="185">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
+      <c r="F185" s="4"/>
     </row>
     <row r="186">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
+      <c r="F186" s="4"/>
     </row>
     <row r="187">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
+      <c r="F187" s="4"/>
     </row>
     <row r="188">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
+      <c r="F188" s="4"/>
     </row>
     <row r="189">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
+      <c r="F189" s="4"/>
     </row>
     <row r="190">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
+      <c r="F190" s="4"/>
     </row>
     <row r="191">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
+      <c r="F191" s="4"/>
     </row>
     <row r="192">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
+      <c r="F192" s="4"/>
     </row>
     <row r="193">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
+      <c r="F193" s="4"/>
     </row>
     <row r="194">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
+      <c r="F194" s="4"/>
     </row>
     <row r="195">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
+      <c r="F195" s="4"/>
     </row>
     <row r="196">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
+      <c r="F196" s="4"/>
     </row>
     <row r="197">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
+      <c r="F197" s="4"/>
     </row>
     <row r="198">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
+      <c r="F198" s="4"/>
     </row>
     <row r="199">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
+      <c r="F199" s="4"/>
     </row>
     <row r="200">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
+      <c r="F200" s="4"/>
     </row>
     <row r="201">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
+      <c r="F201" s="4"/>
     </row>
     <row r="202">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
+      <c r="F202" s="4"/>
     </row>
     <row r="203">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
     </row>
     <row r="204">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
+      <c r="F204" s="4"/>
     </row>
     <row r="205">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
+      <c r="F205" s="4"/>
     </row>
     <row r="206">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
+      <c r="F206" s="4"/>
     </row>
     <row r="207">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
+      <c r="F207" s="4"/>
     </row>
     <row r="208">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
+      <c r="F208" s="4"/>
     </row>
     <row r="209">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
+      <c r="F209" s="4"/>
     </row>
     <row r="210">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
+      <c r="F210" s="4"/>
     </row>
     <row r="211">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
+      <c r="F211" s="4"/>
     </row>
     <row r="212">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
+      <c r="F212" s="4"/>
     </row>
     <row r="213">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
+      <c r="F213" s="4"/>
     </row>
     <row r="214">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
+      <c r="F214" s="4"/>
     </row>
     <row r="215">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
+      <c r="F215" s="4"/>
     </row>
     <row r="216">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
+      <c r="F216" s="4"/>
     </row>
     <row r="217">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
+      <c r="F217" s="4"/>
     </row>
     <row r="218">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
+      <c r="F218" s="4"/>
     </row>
     <row r="219">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
+      <c r="F219" s="4"/>
     </row>
     <row r="220">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
+      <c r="F220" s="4"/>
     </row>
     <row r="221">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
+      <c r="F221" s="4"/>
     </row>
     <row r="222">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
+      <c r="F222" s="4"/>
     </row>
     <row r="223">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
+      <c r="F223" s="4"/>
     </row>
     <row r="224">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
+      <c r="F224" s="4"/>
     </row>
     <row r="225">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
+      <c r="F225" s="4"/>
     </row>
     <row r="226">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
+      <c r="F226" s="4"/>
     </row>
     <row r="227">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
+      <c r="F227" s="4"/>
     </row>
     <row r="228">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
+      <c r="F228" s="4"/>
     </row>
     <row r="229">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
+      <c r="F229" s="4"/>
     </row>
     <row r="230">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
+      <c r="F230" s="4"/>
     </row>
     <row r="231">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
+      <c r="F231" s="4"/>
     </row>
     <row r="232">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
+      <c r="F232" s="4"/>
     </row>
     <row r="233">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
+      <c r="F233" s="4"/>
     </row>
     <row r="234">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
+      <c r="F234" s="4"/>
     </row>
     <row r="235">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
+      <c r="F235" s="4"/>
     </row>
     <row r="236">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
+      <c r="F236" s="4"/>
     </row>
     <row r="237">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
+      <c r="F237" s="4"/>
     </row>
     <row r="238">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
+      <c r="F238" s="4"/>
     </row>
     <row r="239">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
+      <c r="F239" s="4"/>
     </row>
     <row r="240">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
+      <c r="F240" s="4"/>
     </row>
     <row r="241">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
+      <c r="F241" s="4"/>
     </row>
     <row r="242">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
+      <c r="F242" s="4"/>
     </row>
     <row r="243">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
+      <c r="F243" s="4"/>
     </row>
     <row r="244">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
+      <c r="F244" s="4"/>
     </row>
     <row r="245">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
+      <c r="F245" s="4"/>
     </row>
     <row r="246">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
+      <c r="F246" s="4"/>
     </row>
     <row r="247">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
+      <c r="F247" s="4"/>
     </row>
     <row r="248">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
+      <c r="F248" s="4"/>
     </row>
     <row r="249">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
+      <c r="F249" s="4"/>
     </row>
     <row r="250">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
+      <c r="F250" s="4"/>
     </row>
     <row r="251">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
+      <c r="F251" s="4"/>
     </row>
     <row r="252">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
     </row>
     <row r="253">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
+      <c r="F253" s="4"/>
     </row>
     <row r="254">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
+      <c r="F254" s="4"/>
     </row>
     <row r="255">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
+      <c r="F255" s="4"/>
     </row>
     <row r="256">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
+      <c r="F256" s="4"/>
     </row>
     <row r="257">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
+      <c r="F257" s="4"/>
     </row>
     <row r="258">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
+      <c r="F258" s="4"/>
     </row>
     <row r="259">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
+      <c r="F259" s="4"/>
     </row>
     <row r="260">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
+      <c r="F260" s="4"/>
     </row>
     <row r="261">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
+      <c r="F261" s="4"/>
     </row>
     <row r="262">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
+      <c r="F262" s="4"/>
     </row>
     <row r="263">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
+      <c r="F263" s="4"/>
     </row>
     <row r="264">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
+      <c r="F264" s="4"/>
     </row>
     <row r="265">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
+      <c r="F265" s="4"/>
     </row>
     <row r="266">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
+      <c r="F266" s="4"/>
     </row>
     <row r="267">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
+      <c r="F267" s="4"/>
     </row>
     <row r="268">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
+      <c r="F268" s="4"/>
     </row>
     <row r="269">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
+      <c r="F269" s="4"/>
     </row>
     <row r="270">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
+      <c r="F270" s="4"/>
     </row>
     <row r="271">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
+      <c r="F271" s="4"/>
     </row>
     <row r="272">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
+      <c r="F272" s="4"/>
     </row>
     <row r="273">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
+      <c r="F273" s="4"/>
     </row>
     <row r="274">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
+      <c r="F274" s="4"/>
     </row>
     <row r="275">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
+      <c r="F275" s="4"/>
     </row>
     <row r="276">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
+      <c r="F276" s="4"/>
     </row>
     <row r="277">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
+      <c r="F277" s="4"/>
     </row>
     <row r="278">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
+      <c r="F278" s="4"/>
     </row>
     <row r="279">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
+      <c r="F279" s="4"/>
     </row>
     <row r="280">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
+      <c r="F280" s="4"/>
     </row>
     <row r="281">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
+      <c r="F281" s="4"/>
     </row>
     <row r="282">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
+      <c r="F282" s="4"/>
     </row>
     <row r="283">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
+      <c r="F283" s="4"/>
     </row>
     <row r="284">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
+      <c r="F284" s="4"/>
     </row>
     <row r="285">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
+      <c r="F285" s="4"/>
     </row>
     <row r="286">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
+      <c r="F286" s="4"/>
     </row>
     <row r="287">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
+      <c r="F287" s="4"/>
     </row>
     <row r="288">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
+      <c r="F288" s="4"/>
     </row>
     <row r="289">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
+      <c r="F289" s="4"/>
     </row>
     <row r="290">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
+      <c r="F290" s="4"/>
     </row>
     <row r="291">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
+      <c r="F291" s="4"/>
     </row>
     <row r="292">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
+      <c r="F292" s="4"/>
     </row>
     <row r="293">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
+      <c r="F293" s="4"/>
     </row>
     <row r="294">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
+      <c r="F294" s="4"/>
     </row>
     <row r="295">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
+      <c r="F295" s="4"/>
     </row>
     <row r="296">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
+      <c r="F296" s="4"/>
     </row>
     <row r="297">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
+      <c r="F297" s="4"/>
     </row>
     <row r="298">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
+      <c r="F298" s="4"/>
     </row>
     <row r="299">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
+      <c r="F299" s="4"/>
     </row>
     <row r="300">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
+      <c r="F300" s="4"/>
     </row>
     <row r="301">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
+      <c r="F301" s="4"/>
     </row>
     <row r="302">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
+      <c r="F302" s="4"/>
     </row>
     <row r="303">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
+      <c r="F303" s="4"/>
     </row>
     <row r="304">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
+      <c r="F304" s="4"/>
     </row>
     <row r="305">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
+      <c r="F305" s="4"/>
     </row>
     <row r="306">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
+      <c r="F306" s="4"/>
     </row>
     <row r="307">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
+      <c r="F307" s="4"/>
     </row>
     <row r="308">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
+      <c r="F308" s="4"/>
     </row>
     <row r="309">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
+      <c r="F309" s="4"/>
     </row>
     <row r="310">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
+      <c r="F310" s="4"/>
     </row>
     <row r="311">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
+      <c r="F311" s="4"/>
     </row>
     <row r="312">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
+      <c r="F312" s="4"/>
     </row>
     <row r="313">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
+      <c r="F313" s="4"/>
     </row>
     <row r="314">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
+      <c r="F314" s="4"/>
     </row>
     <row r="315">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
+      <c r="F315" s="4"/>
     </row>
     <row r="316">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
+      <c r="F316" s="4"/>
     </row>
     <row r="317">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
+      <c r="F317" s="4"/>
     </row>
     <row r="318">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
+      <c r="F318" s="4"/>
     </row>
     <row r="319">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
+      <c r="F319" s="4"/>
     </row>
     <row r="320">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
+      <c r="F320" s="4"/>
     </row>
     <row r="321">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
+      <c r="F321" s="4"/>
     </row>
     <row r="322">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
+      <c r="F322" s="4"/>
     </row>
     <row r="323">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
+      <c r="F323" s="4"/>
     </row>
     <row r="324">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
+      <c r="F324" s="4"/>
     </row>
     <row r="325">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
+      <c r="F325" s="4"/>
     </row>
     <row r="326">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
+      <c r="F326" s="4"/>
     </row>
     <row r="327">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
+      <c r="F327" s="4"/>
     </row>
     <row r="328">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
+      <c r="F328" s="4"/>
     </row>
     <row r="329">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
+      <c r="F329" s="4"/>
     </row>
     <row r="330">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
+      <c r="F330" s="4"/>
     </row>
     <row r="331">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
+      <c r="F331" s="4"/>
     </row>
     <row r="332">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
+      <c r="F332" s="4"/>
     </row>
     <row r="333">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
+      <c r="F333" s="4"/>
     </row>
     <row r="334">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
+      <c r="F334" s="4"/>
     </row>
     <row r="335">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
+      <c r="F335" s="4"/>
     </row>
     <row r="336">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
+      <c r="F336" s="4"/>
     </row>
     <row r="337">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
+      <c r="F337" s="4"/>
     </row>
     <row r="338">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
+      <c r="F338" s="4"/>
     </row>
     <row r="339">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
+      <c r="F339" s="4"/>
     </row>
     <row r="340">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
+      <c r="F340" s="4"/>
     </row>
     <row r="341">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
+      <c r="F341" s="4"/>
     </row>
     <row r="342">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
+      <c r="F342" s="4"/>
     </row>
     <row r="343">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
+      <c r="F343" s="4"/>
     </row>
     <row r="344">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
+      <c r="F344" s="4"/>
     </row>
     <row r="345">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
+      <c r="F345" s="4"/>
     </row>
     <row r="346">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
+      <c r="F346" s="4"/>
     </row>
     <row r="347">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
+      <c r="F347" s="4"/>
     </row>
     <row r="348">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
+      <c r="F348" s="4"/>
     </row>
     <row r="349">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
+      <c r="F349" s="4"/>
     </row>
     <row r="350">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
+      <c r="F350" s="4"/>
     </row>
     <row r="351">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
+      <c r="F351" s="4"/>
     </row>
     <row r="352">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
+      <c r="F352" s="4"/>
     </row>
     <row r="353">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
+      <c r="F353" s="4"/>
     </row>
     <row r="354">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
+      <c r="F354" s="4"/>
     </row>
     <row r="355">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
+      <c r="F355" s="4"/>
     </row>
     <row r="356">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
+      <c r="F356" s="4"/>
     </row>
     <row r="357">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
+      <c r="F357" s="4"/>
     </row>
     <row r="358">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
+      <c r="F358" s="4"/>
     </row>
     <row r="359">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
+      <c r="F359" s="4"/>
     </row>
     <row r="360">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
+      <c r="F360" s="4"/>
     </row>
     <row r="361">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
+      <c r="F361" s="4"/>
     </row>
     <row r="362">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
+      <c r="F362" s="4"/>
     </row>
     <row r="363">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
+      <c r="F363" s="4"/>
     </row>
     <row r="364">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
+      <c r="F364" s="4"/>
     </row>
     <row r="365">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
+      <c r="F365" s="4"/>
     </row>
     <row r="366">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
+      <c r="F366" s="4"/>
     </row>
     <row r="367">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
+      <c r="F367" s="4"/>
     </row>
     <row r="368">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
+      <c r="F368" s="4"/>
     </row>
     <row r="369">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
+      <c r="F369" s="4"/>
     </row>
     <row r="370">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
+      <c r="F370" s="4"/>
     </row>
     <row r="371">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
+      <c r="F371" s="4"/>
     </row>
     <row r="372">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
+      <c r="F372" s="4"/>
     </row>
     <row r="373">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
+      <c r="F373" s="4"/>
     </row>
     <row r="374">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
+      <c r="F374" s="4"/>
     </row>
     <row r="375">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
+      <c r="F375" s="4"/>
     </row>
     <row r="376">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
+      <c r="F376" s="4"/>
     </row>
     <row r="377">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
+      <c r="F377" s="4"/>
     </row>
     <row r="378">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
+      <c r="F378" s="4"/>
     </row>
     <row r="379">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
+      <c r="F379" s="4"/>
     </row>
     <row r="380">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
+      <c r="F380" s="4"/>
     </row>
     <row r="381">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
+      <c r="F381" s="4"/>
     </row>
     <row r="382">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
+      <c r="F382" s="4"/>
     </row>
     <row r="383">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
+      <c r="F383" s="4"/>
     </row>
     <row r="384">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
+      <c r="F384" s="4"/>
     </row>
     <row r="385">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
+      <c r="F385" s="4"/>
     </row>
     <row r="386">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
+      <c r="F386" s="4"/>
     </row>
     <row r="387">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
+      <c r="F387" s="4"/>
     </row>
     <row r="388">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
+      <c r="F388" s="4"/>
     </row>
     <row r="389">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
+      <c r="F389" s="4"/>
     </row>
     <row r="390">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
+      <c r="F390" s="4"/>
     </row>
     <row r="391">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
+      <c r="F391" s="4"/>
     </row>
     <row r="392">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
+      <c r="F392" s="4"/>
     </row>
     <row r="393">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
+      <c r="F393" s="4"/>
     </row>
     <row r="394">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
+      <c r="F394" s="4"/>
     </row>
     <row r="395">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
+      <c r="F395" s="4"/>
     </row>
     <row r="396">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
+      <c r="F396" s="4"/>
     </row>
     <row r="397">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
+      <c r="F397" s="4"/>
     </row>
     <row r="398">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
+      <c r="F398" s="4"/>
     </row>
     <row r="399">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
+      <c r="F399" s="4"/>
     </row>
     <row r="400">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
+      <c r="F400" s="4"/>
     </row>
     <row r="401">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
+      <c r="F401" s="4"/>
     </row>
     <row r="402">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
+      <c r="F402" s="4"/>
     </row>
     <row r="403">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
+      <c r="F403" s="4"/>
     </row>
     <row r="404">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
+      <c r="F404" s="4"/>
     </row>
     <row r="405">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
+      <c r="F405" s="4"/>
     </row>
     <row r="406">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
+      <c r="F406" s="4"/>
     </row>
     <row r="407">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
+      <c r="F407" s="4"/>
     </row>
     <row r="408">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
+      <c r="F408" s="4"/>
     </row>
     <row r="409">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
+      <c r="F409" s="4"/>
     </row>
     <row r="410">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
+      <c r="F410" s="4"/>
     </row>
     <row r="411">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
+      <c r="F411" s="4"/>
     </row>
     <row r="412">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
+      <c r="F412" s="4"/>
     </row>
     <row r="413">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
+      <c r="F413" s="4"/>
     </row>
     <row r="414">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
+      <c r="F414" s="4"/>
     </row>
     <row r="415">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
+      <c r="F415" s="4"/>
     </row>
     <row r="416">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
+      <c r="F416" s="4"/>
     </row>
     <row r="417">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
+      <c r="F417" s="4"/>
     </row>
     <row r="418">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
+      <c r="F418" s="4"/>
     </row>
     <row r="419">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
+      <c r="F419" s="4"/>
     </row>
     <row r="420">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
+      <c r="F420" s="4"/>
     </row>
     <row r="421">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
+      <c r="F421" s="4"/>
     </row>
     <row r="422">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
+      <c r="F422" s="4"/>
     </row>
     <row r="423">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
+      <c r="F423" s="4"/>
     </row>
     <row r="424">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
+      <c r="F424" s="4"/>
     </row>
     <row r="425">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
+      <c r="F425" s="4"/>
     </row>
     <row r="426">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
+      <c r="F426" s="4"/>
     </row>
     <row r="427">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
+      <c r="F427" s="4"/>
     </row>
     <row r="428">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
+      <c r="F428" s="4"/>
     </row>
     <row r="429">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
+      <c r="F429" s="4"/>
     </row>
     <row r="430">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
+      <c r="F430" s="4"/>
     </row>
     <row r="431">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
+      <c r="F431" s="4"/>
     </row>
     <row r="432">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
+      <c r="F432" s="4"/>
     </row>
     <row r="433">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
+      <c r="F433" s="4"/>
     </row>
     <row r="434">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
+      <c r="F434" s="4"/>
     </row>
     <row r="435">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
+      <c r="F435" s="4"/>
     </row>
     <row r="436">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
+      <c r="F436" s="4"/>
     </row>
     <row r="437">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
+      <c r="F437" s="4"/>
     </row>
     <row r="438">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
+      <c r="F438" s="4"/>
     </row>
     <row r="439">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
+      <c r="F439" s="4"/>
     </row>
     <row r="440">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
+      <c r="F440" s="4"/>
     </row>
     <row r="441">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
+      <c r="F441" s="4"/>
     </row>
     <row r="442">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
+      <c r="F442" s="4"/>
     </row>
     <row r="443">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
+      <c r="F443" s="4"/>
     </row>
     <row r="444">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
+      <c r="F444" s="4"/>
     </row>
     <row r="445">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
+      <c r="F445" s="4"/>
     </row>
     <row r="446">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
+      <c r="F446" s="4"/>
     </row>
     <row r="447">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
+      <c r="F447" s="4"/>
     </row>
     <row r="448">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
+      <c r="F448" s="4"/>
     </row>
     <row r="449">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
+      <c r="F449" s="4"/>
     </row>
     <row r="450">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
+      <c r="F450" s="4"/>
     </row>
     <row r="451">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
+      <c r="F451" s="4"/>
     </row>
     <row r="452">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
+      <c r="F452" s="4"/>
     </row>
     <row r="453">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
+      <c r="F453" s="4"/>
     </row>
     <row r="454">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
+      <c r="F454" s="4"/>
     </row>
     <row r="455">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
+      <c r="F455" s="4"/>
     </row>
     <row r="456">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
+      <c r="F456" s="4"/>
     </row>
     <row r="457">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
+      <c r="F457" s="4"/>
     </row>
     <row r="458">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
+      <c r="F458" s="4"/>
     </row>
     <row r="459">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
+      <c r="F459" s="4"/>
     </row>
     <row r="460">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
+      <c r="F460" s="4"/>
     </row>
     <row r="461">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
+      <c r="F461" s="4"/>
     </row>
     <row r="462">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
+      <c r="F462" s="4"/>
     </row>
     <row r="463">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
+      <c r="F463" s="4"/>
     </row>
     <row r="464">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
+      <c r="F464" s="4"/>
     </row>
     <row r="465">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
+      <c r="F465" s="4"/>
     </row>
     <row r="466">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
+      <c r="F466" s="4"/>
     </row>
     <row r="467">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
+      <c r="F467" s="4"/>
     </row>
     <row r="468">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
+      <c r="F468" s="4"/>
     </row>
     <row r="469">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
+      <c r="F469" s="4"/>
     </row>
     <row r="470">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
+      <c r="F470" s="4"/>
     </row>
     <row r="471">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
+      <c r="F471" s="4"/>
     </row>
     <row r="472">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
+      <c r="F472" s="4"/>
     </row>
     <row r="473">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
+      <c r="F473" s="4"/>
     </row>
     <row r="474">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
+      <c r="F474" s="4"/>
     </row>
     <row r="475">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
+      <c r="F475" s="4"/>
     </row>
     <row r="476">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
+      <c r="F476" s="4"/>
     </row>
     <row r="477">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
+      <c r="F477" s="4"/>
     </row>
     <row r="478">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
+      <c r="F478" s="4"/>
     </row>
     <row r="479">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
+      <c r="F479" s="4"/>
     </row>
     <row r="480">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
+      <c r="F480" s="4"/>
     </row>
     <row r="481">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
+      <c r="F481" s="4"/>
     </row>
     <row r="482">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
+      <c r="F482" s="4"/>
     </row>
     <row r="483">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
+      <c r="F483" s="4"/>
     </row>
     <row r="484">
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
+      <c r="F484" s="4"/>
     </row>
     <row r="485">
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
+      <c r="F485" s="4"/>
     </row>
     <row r="486">
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
+      <c r="F486" s="4"/>
     </row>
     <row r="487">
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
+      <c r="F487" s="4"/>
     </row>
     <row r="488">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
+      <c r="F488" s="4"/>
     </row>
     <row r="489">
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
+      <c r="F489" s="4"/>
     </row>
     <row r="490">
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
+      <c r="F490" s="4"/>
     </row>
     <row r="491">
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
+      <c r="F491" s="4"/>
     </row>
     <row r="492">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
+      <c r="F492" s="4"/>
     </row>
     <row r="493">
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
+      <c r="F493" s="4"/>
     </row>
     <row r="494">
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
+      <c r="F494" s="4"/>
     </row>
     <row r="495">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
+      <c r="F495" s="4"/>
     </row>
     <row r="496">
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
+      <c r="F496" s="4"/>
     </row>
     <row r="497">
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
+      <c r="F497" s="4"/>
     </row>
     <row r="498">
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
+      <c r="F498" s="4"/>
     </row>
     <row r="499">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
+      <c r="F499" s="4"/>
     </row>
     <row r="500">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
+      <c r="F500" s="4"/>
     </row>
     <row r="501">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
+      <c r="F501" s="4"/>
     </row>
     <row r="502">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
+      <c r="F502" s="4"/>
     </row>
     <row r="503">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
+      <c r="F503" s="4"/>
     </row>
     <row r="504">
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
+      <c r="F504" s="4"/>
     </row>
     <row r="505">
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
+      <c r="F505" s="4"/>
     </row>
     <row r="506">
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
+      <c r="F506" s="4"/>
     </row>
     <row r="507">
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
+      <c r="F507" s="4"/>
     </row>
     <row r="508">
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
+      <c r="F508" s="4"/>
     </row>
     <row r="509">
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
+      <c r="F509" s="4"/>
     </row>
     <row r="510">
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
+      <c r="F510" s="4"/>
     </row>
     <row r="511">
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
+      <c r="F511" s="4"/>
     </row>
     <row r="512">
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
+      <c r="F512" s="4"/>
     </row>
     <row r="513">
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
+      <c r="F513" s="4"/>
     </row>
     <row r="514">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
+      <c r="F514" s="4"/>
     </row>
     <row r="515">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
+      <c r="F515" s="4"/>
     </row>
     <row r="516">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
+      <c r="F516" s="4"/>
     </row>
     <row r="517">
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
+      <c r="F517" s="4"/>
     </row>
     <row r="518">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
+      <c r="F518" s="4"/>
     </row>
     <row r="519">
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
+      <c r="F519" s="4"/>
     </row>
     <row r="520">
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
+      <c r="F520" s="4"/>
     </row>
     <row r="521">
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
+      <c r="F521" s="4"/>
     </row>
     <row r="522">
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
+      <c r="F522" s="4"/>
     </row>
     <row r="523">
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
+      <c r="F523" s="4"/>
     </row>
     <row r="524">
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
+      <c r="F524" s="4"/>
     </row>
     <row r="525">
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
+      <c r="F525" s="4"/>
     </row>
     <row r="526">
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
+      <c r="F526" s="4"/>
     </row>
     <row r="527">
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
+      <c r="F527" s="4"/>
     </row>
     <row r="528">
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
+      <c r="F528" s="4"/>
     </row>
     <row r="529">
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
+      <c r="F529" s="4"/>
     </row>
     <row r="530">
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
+      <c r="F530" s="4"/>
     </row>
     <row r="531">
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
+      <c r="F531" s="4"/>
     </row>
     <row r="532">
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
+      <c r="F532" s="4"/>
     </row>
     <row r="533">
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
+      <c r="F533" s="4"/>
     </row>
     <row r="534">
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
+      <c r="F534" s="4"/>
     </row>
     <row r="535">
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
+      <c r="F535" s="4"/>
     </row>
     <row r="536">
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
+      <c r="F536" s="4"/>
     </row>
     <row r="537">
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
+      <c r="F537" s="4"/>
     </row>
     <row r="538">
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
+      <c r="F538" s="4"/>
     </row>
     <row r="539">
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
+      <c r="F539" s="4"/>
     </row>
     <row r="540">
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
+      <c r="F540" s="4"/>
     </row>
     <row r="541">
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
+      <c r="F541" s="4"/>
     </row>
     <row r="542">
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
+      <c r="F542" s="4"/>
     </row>
     <row r="543">
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
+      <c r="F543" s="4"/>
     </row>
     <row r="544">
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
+      <c r="F544" s="4"/>
     </row>
     <row r="545">
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
+      <c r="F545" s="4"/>
     </row>
     <row r="546">
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
+      <c r="F546" s="4"/>
     </row>
     <row r="547">
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
+      <c r="F547" s="4"/>
     </row>
     <row r="548">
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
+      <c r="F548" s="4"/>
     </row>
     <row r="549">
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
+      <c r="F549" s="4"/>
     </row>
     <row r="550">
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
+      <c r="F550" s="4"/>
     </row>
     <row r="551">
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
+      <c r="F551" s="4"/>
     </row>
     <row r="552">
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
+      <c r="F552" s="4"/>
     </row>
     <row r="553">
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
+      <c r="F553" s="4"/>
     </row>
     <row r="554">
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
+      <c r="F554" s="4"/>
     </row>
     <row r="555">
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
+      <c r="F555" s="4"/>
     </row>
     <row r="556">
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
+      <c r="F556" s="4"/>
     </row>
     <row r="557">
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
+      <c r="F557" s="4"/>
     </row>
     <row r="558">
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
+      <c r="F558" s="4"/>
     </row>
     <row r="559">
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
+      <c r="F559" s="4"/>
     </row>
     <row r="560">
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
+      <c r="F560" s="4"/>
     </row>
     <row r="561">
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
+      <c r="F561" s="4"/>
     </row>
     <row r="562">
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
+      <c r="F562" s="4"/>
     </row>
     <row r="563">
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
+      <c r="F563" s="4"/>
     </row>
     <row r="564">
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
+      <c r="F564" s="4"/>
     </row>
     <row r="565">
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
+      <c r="F565" s="4"/>
     </row>
     <row r="566">
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
+      <c r="F566" s="4"/>
     </row>
     <row r="567">
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
+      <c r="F567" s="4"/>
     </row>
     <row r="568">
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
+      <c r="F568" s="4"/>
     </row>
     <row r="569">
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
+      <c r="F569" s="4"/>
     </row>
     <row r="570">
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
+      <c r="F570" s="4"/>
     </row>
     <row r="571">
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
+      <c r="F571" s="4"/>
     </row>
     <row r="572">
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
+      <c r="F572" s="4"/>
     </row>
     <row r="573">
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
+      <c r="F573" s="4"/>
     </row>
     <row r="574">
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
+      <c r="F574" s="4"/>
     </row>
     <row r="575">
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
+      <c r="F575" s="4"/>
     </row>
     <row r="576">
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
+      <c r="F576" s="4"/>
     </row>
     <row r="577">
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
+      <c r="F577" s="4"/>
     </row>
     <row r="578">
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
+      <c r="F578" s="4"/>
     </row>
     <row r="579">
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
+      <c r="F579" s="4"/>
     </row>
     <row r="580">
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
+      <c r="F580" s="4"/>
     </row>
     <row r="581">
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
+      <c r="F581" s="4"/>
     </row>
     <row r="582">
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
+      <c r="F582" s="4"/>
     </row>
     <row r="583">
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
+      <c r="F583" s="4"/>
     </row>
     <row r="584">
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
+      <c r="F584" s="4"/>
     </row>
     <row r="585">
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
+      <c r="F585" s="4"/>
     </row>
     <row r="586">
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
+      <c r="F586" s="4"/>
     </row>
     <row r="587">
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
+      <c r="F587" s="4"/>
     </row>
     <row r="588">
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
+      <c r="F588" s="4"/>
     </row>
     <row r="589">
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
+      <c r="F589" s="4"/>
     </row>
     <row r="590">
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
+      <c r="F590" s="4"/>
     </row>
     <row r="591">
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
+      <c r="F591" s="4"/>
     </row>
     <row r="592">
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
+      <c r="F592" s="4"/>
     </row>
     <row r="593">
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
+      <c r="F593" s="4"/>
     </row>
     <row r="594">
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
+      <c r="F594" s="4"/>
     </row>
     <row r="595">
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
+      <c r="F595" s="4"/>
     </row>
     <row r="596">
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
+      <c r="F596" s="4"/>
     </row>
     <row r="597">
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
+      <c r="F597" s="4"/>
     </row>
     <row r="598">
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
+      <c r="F598" s="4"/>
     </row>
     <row r="599">
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
+      <c r="F599" s="4"/>
     </row>
     <row r="600">
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
+      <c r="F600" s="4"/>
     </row>
     <row r="601">
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
+      <c r="F601" s="4"/>
     </row>
     <row r="602">
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
+      <c r="F602" s="4"/>
     </row>
     <row r="603">
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
+      <c r="F603" s="4"/>
     </row>
     <row r="604">
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
+      <c r="F604" s="4"/>
     </row>
     <row r="605">
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
+      <c r="F605" s="4"/>
     </row>
     <row r="606">
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
+      <c r="F606" s="4"/>
     </row>
     <row r="607">
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
+      <c r="F607" s="4"/>
     </row>
     <row r="608">
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
+      <c r="F608" s="4"/>
     </row>
     <row r="609">
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
+      <c r="F609" s="4"/>
     </row>
     <row r="610">
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
+      <c r="F610" s="4"/>
     </row>
     <row r="611">
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
+      <c r="F611" s="4"/>
     </row>
     <row r="612">
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
+      <c r="F612" s="4"/>
     </row>
     <row r="613">
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
+      <c r="F613" s="4"/>
     </row>
     <row r="614">
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
+      <c r="F614" s="4"/>
     </row>
     <row r="615">
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
+      <c r="F615" s="4"/>
     </row>
     <row r="616">
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
+      <c r="F616" s="4"/>
     </row>
     <row r="617">
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
+      <c r="F617" s="4"/>
     </row>
     <row r="618">
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
+      <c r="F618" s="4"/>
     </row>
     <row r="619">
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
+      <c r="F619" s="4"/>
     </row>
     <row r="620">
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
+      <c r="F620" s="4"/>
     </row>
     <row r="621">
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
+      <c r="F621" s="4"/>
     </row>
     <row r="622">
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
+      <c r="F622" s="4"/>
     </row>
     <row r="623">
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
+      <c r="F623" s="4"/>
     </row>
     <row r="624">
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
+      <c r="F624" s="4"/>
     </row>
     <row r="625">
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
+      <c r="F625" s="4"/>
     </row>
     <row r="626">
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
+      <c r="F626" s="4"/>
     </row>
     <row r="627">
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
+      <c r="F627" s="4"/>
     </row>
     <row r="628">
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
+      <c r="F628" s="4"/>
     </row>
     <row r="629">
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
+      <c r="F629" s="4"/>
     </row>
     <row r="630">
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
+      <c r="F630" s="4"/>
     </row>
     <row r="631">
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
+      <c r="F631" s="4"/>
     </row>
     <row r="632">
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
+      <c r="F632" s="4"/>
     </row>
     <row r="633">
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
+      <c r="F633" s="4"/>
     </row>
     <row r="634">
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
+      <c r="F634" s="4"/>
     </row>
     <row r="635">
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
+      <c r="F635" s="4"/>
     </row>
     <row r="636">
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
+      <c r="F636" s="4"/>
     </row>
     <row r="637">
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
+      <c r="F637" s="4"/>
     </row>
     <row r="638">
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
+      <c r="F638" s="4"/>
     </row>
     <row r="639">
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
+      <c r="F639" s="4"/>
     </row>
     <row r="640">
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
+      <c r="F640" s="4"/>
     </row>
     <row r="641">
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
+      <c r="F641" s="4"/>
     </row>
     <row r="642">
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
+      <c r="F642" s="4"/>
     </row>
     <row r="643">
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
+      <c r="F643" s="4"/>
     </row>
     <row r="644">
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
+      <c r="F644" s="4"/>
     </row>
     <row r="645">
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
+      <c r="F645" s="4"/>
     </row>
     <row r="646">
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
+      <c r="F646" s="4"/>
     </row>
     <row r="647">
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
+      <c r="F647" s="4"/>
     </row>
     <row r="648">
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
+      <c r="F648" s="4"/>
     </row>
     <row r="649">
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
+      <c r="F649" s="4"/>
     </row>
     <row r="650">
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
+      <c r="F650" s="4"/>
     </row>
     <row r="651">
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
+      <c r="F651" s="4"/>
     </row>
     <row r="652">
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
+      <c r="F652" s="4"/>
     </row>
     <row r="653">
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
+      <c r="F653" s="4"/>
     </row>
     <row r="654">
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
+      <c r="F654" s="4"/>
     </row>
     <row r="655">
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
+      <c r="F655" s="4"/>
     </row>
     <row r="656">
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
+      <c r="F656" s="4"/>
     </row>
     <row r="657">
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
+      <c r="F657" s="4"/>
     </row>
     <row r="658">
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
+      <c r="F658" s="4"/>
     </row>
     <row r="659">
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
+      <c r="F659" s="4"/>
     </row>
     <row r="660">
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
+      <c r="F660" s="4"/>
     </row>
     <row r="661">
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
+      <c r="F661" s="4"/>
     </row>
     <row r="662">
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
+      <c r="F662" s="4"/>
     </row>
     <row r="663">
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
+      <c r="F663" s="4"/>
     </row>
     <row r="664">
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
+      <c r="F664" s="4"/>
     </row>
     <row r="665">
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
+      <c r="F665" s="4"/>
     </row>
     <row r="666">
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
+      <c r="F666" s="4"/>
     </row>
     <row r="667">
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
+      <c r="F667" s="4"/>
     </row>
     <row r="668">
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
+      <c r="F668" s="4"/>
     </row>
     <row r="669">
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
+      <c r="F669" s="4"/>
     </row>
     <row r="670">
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
+      <c r="F670" s="4"/>
     </row>
     <row r="671">
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
+      <c r="F671" s="4"/>
     </row>
     <row r="672">
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
+      <c r="F672" s="4"/>
     </row>
     <row r="673">
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
+      <c r="F673" s="4"/>
     </row>
     <row r="674">
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
+      <c r="F674" s="4"/>
     </row>
     <row r="675">
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
+      <c r="F675" s="4"/>
     </row>
     <row r="676">
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
+      <c r="F676" s="4"/>
     </row>
     <row r="677">
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
+      <c r="F677" s="4"/>
     </row>
     <row r="678">
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
+      <c r="F678" s="4"/>
     </row>
     <row r="679">
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
+      <c r="F679" s="4"/>
     </row>
     <row r="680">
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
+      <c r="F680" s="4"/>
     </row>
     <row r="681">
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
+      <c r="F681" s="4"/>
     </row>
     <row r="682">
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
+      <c r="F682" s="4"/>
     </row>
     <row r="683">
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
+      <c r="F683" s="4"/>
     </row>
     <row r="684">
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
+      <c r="F684" s="4"/>
     </row>
     <row r="685">
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
+      <c r="F685" s="4"/>
     </row>
     <row r="686">
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
+      <c r="F686" s="4"/>
     </row>
     <row r="687">
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
+      <c r="F687" s="4"/>
     </row>
     <row r="688">
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
+      <c r="F688" s="4"/>
     </row>
     <row r="689">
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
+      <c r="F689" s="4"/>
     </row>
     <row r="690">
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
+      <c r="F690" s="4"/>
     </row>
     <row r="691">
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
+      <c r="F691" s="4"/>
     </row>
     <row r="692">
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
+      <c r="F692" s="4"/>
     </row>
     <row r="693">
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
+      <c r="F693" s="4"/>
     </row>
     <row r="694">
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
+      <c r="F694" s="4"/>
     </row>
     <row r="695">
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
+      <c r="F695" s="4"/>
     </row>
     <row r="696">
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
+      <c r="F696" s="4"/>
     </row>
     <row r="697">
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
+      <c r="F697" s="4"/>
     </row>
     <row r="698">
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
+      <c r="F698" s="4"/>
     </row>
     <row r="699">
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
+      <c r="F699" s="4"/>
     </row>
     <row r="700">
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
+      <c r="F700" s="4"/>
     </row>
     <row r="701">
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
+      <c r="F701" s="4"/>
     </row>
     <row r="702">
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
+      <c r="F702" s="4"/>
     </row>
     <row r="703">
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
+      <c r="F703" s="4"/>
     </row>
     <row r="704">
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
+      <c r="F704" s="4"/>
     </row>
     <row r="705">
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
+      <c r="F705" s="4"/>
     </row>
     <row r="706">
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
+      <c r="F706" s="4"/>
     </row>
     <row r="707">
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
+      <c r="F707" s="4"/>
     </row>
     <row r="708">
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
+      <c r="F708" s="4"/>
     </row>
     <row r="709">
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
+      <c r="F709" s="4"/>
     </row>
     <row r="710">
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
+      <c r="F710" s="4"/>
     </row>
     <row r="711">
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
+      <c r="F711" s="4"/>
     </row>
     <row r="712">
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
+      <c r="F712" s="4"/>
     </row>
     <row r="713">
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
+      <c r="F713" s="4"/>
     </row>
     <row r="714">
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
+      <c r="F714" s="4"/>
     </row>
     <row r="715">
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
+      <c r="F715" s="4"/>
     </row>
     <row r="716">
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
+      <c r="F716" s="4"/>
     </row>
     <row r="717">
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
+      <c r="F717" s="4"/>
     </row>
     <row r="718">
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
+      <c r="F718" s="4"/>
     </row>
     <row r="719">
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
+      <c r="F719" s="4"/>
     </row>
     <row r="720">
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
+      <c r="F720" s="4"/>
     </row>
     <row r="721">
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
+      <c r="F721" s="4"/>
     </row>
     <row r="722">
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
+      <c r="F722" s="4"/>
     </row>
     <row r="723">
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
+      <c r="F723" s="4"/>
     </row>
     <row r="724">
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
+      <c r="F724" s="4"/>
     </row>
     <row r="725">
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
+      <c r="F725" s="4"/>
     </row>
     <row r="726">
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
+      <c r="F726" s="4"/>
     </row>
     <row r="727">
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
+      <c r="F727" s="4"/>
     </row>
     <row r="728">
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
+      <c r="F728" s="4"/>
     </row>
     <row r="729">
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
+      <c r="F729" s="4"/>
     </row>
     <row r="730">
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
+      <c r="F730" s="4"/>
     </row>
     <row r="731">
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
+      <c r="F731" s="4"/>
     </row>
     <row r="732">
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
+      <c r="F732" s="4"/>
     </row>
     <row r="733">
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
+      <c r="F733" s="4"/>
     </row>
     <row r="734">
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
+      <c r="F734" s="4"/>
     </row>
     <row r="735">
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
+      <c r="F735" s="4"/>
     </row>
     <row r="736">
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
+      <c r="F736" s="4"/>
     </row>
     <row r="737">
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
+      <c r="F737" s="4"/>
     </row>
     <row r="738">
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
+      <c r="F738" s="4"/>
     </row>
     <row r="739">
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
+      <c r="F739" s="4"/>
     </row>
     <row r="740">
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
+      <c r="F740" s="4"/>
     </row>
     <row r="741">
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
+      <c r="F741" s="4"/>
     </row>
     <row r="742">
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
+      <c r="F742" s="4"/>
     </row>
     <row r="743">
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
+      <c r="F743" s="4"/>
     </row>
     <row r="744">
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
+      <c r="F744" s="4"/>
     </row>
     <row r="745">
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
+      <c r="F745" s="4"/>
     </row>
     <row r="746">
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
+      <c r="F746" s="4"/>
     </row>
     <row r="747">
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
+      <c r="F747" s="4"/>
     </row>
     <row r="748">
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
+      <c r="F748" s="4"/>
     </row>
     <row r="749">
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
+      <c r="F749" s="4"/>
     </row>
     <row r="750">
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
+      <c r="F750" s="4"/>
     </row>
     <row r="751">
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
+      <c r="F751" s="4"/>
     </row>
     <row r="752">
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
+      <c r="F752" s="4"/>
     </row>
     <row r="753">
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
+      <c r="F753" s="4"/>
     </row>
     <row r="754">
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
+      <c r="F754" s="4"/>
     </row>
     <row r="755">
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
+      <c r="F755" s="4"/>
     </row>
     <row r="756">
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
+      <c r="F756" s="4"/>
     </row>
     <row r="757">
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
+      <c r="F757" s="4"/>
     </row>
     <row r="758">
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
+      <c r="F758" s="4"/>
     </row>
     <row r="759">
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
+      <c r="F759" s="4"/>
     </row>
     <row r="760">
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
+      <c r="F760" s="4"/>
     </row>
     <row r="761">
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
+      <c r="F761" s="4"/>
     </row>
     <row r="762">
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
+      <c r="F762" s="4"/>
     </row>
     <row r="763">
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
+      <c r="F763" s="4"/>
     </row>
     <row r="764">
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
+      <c r="F764" s="4"/>
     </row>
     <row r="765">
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
+      <c r="F765" s="4"/>
     </row>
     <row r="766">
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
+      <c r="F766" s="4"/>
     </row>
     <row r="767">
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
+      <c r="F767" s="4"/>
     </row>
     <row r="768">
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
+      <c r="F768" s="4"/>
     </row>
     <row r="769">
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
+      <c r="F769" s="4"/>
     </row>
     <row r="770">
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
+      <c r="F770" s="4"/>
     </row>
     <row r="771">
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
+      <c r="F771" s="4"/>
     </row>
     <row r="772">
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
+      <c r="F772" s="4"/>
     </row>
     <row r="773">
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
+      <c r="F773" s="4"/>
     </row>
     <row r="774">
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
+      <c r="F774" s="4"/>
     </row>
     <row r="775">
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
+      <c r="F775" s="4"/>
     </row>
     <row r="776">
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
+      <c r="F776" s="4"/>
     </row>
     <row r="777">
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
+      <c r="F777" s="4"/>
     </row>
     <row r="778">
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
+      <c r="F778" s="4"/>
     </row>
     <row r="779">
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
+      <c r="F779" s="4"/>
     </row>
     <row r="780">
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
+      <c r="F780" s="4"/>
     </row>
     <row r="781">
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
+      <c r="F781" s="4"/>
     </row>
     <row r="782">
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
+      <c r="F782" s="4"/>
     </row>
     <row r="783">
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
+      <c r="F783" s="4"/>
     </row>
     <row r="784">
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
+      <c r="F784" s="4"/>
     </row>
     <row r="785">
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
+      <c r="F785" s="4"/>
     </row>
     <row r="786">
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
+      <c r="F786" s="4"/>
     </row>
     <row r="787">
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
+      <c r="F787" s="4"/>
     </row>
     <row r="788">
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
+      <c r="F788" s="4"/>
     </row>
     <row r="789">
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
+      <c r="F789" s="4"/>
     </row>
     <row r="790">
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
+      <c r="F790" s="4"/>
     </row>
     <row r="791">
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
+      <c r="F791" s="4"/>
     </row>
     <row r="792">
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
+      <c r="F792" s="4"/>
     </row>
     <row r="793">
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
+      <c r="F793" s="4"/>
     </row>
     <row r="794">
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
+      <c r="F794" s="4"/>
     </row>
     <row r="795">
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
+      <c r="F795" s="4"/>
     </row>
     <row r="796">
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
+      <c r="F796" s="4"/>
     </row>
     <row r="797">
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
+      <c r="F797" s="4"/>
     </row>
     <row r="798">
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
+      <c r="F798" s="4"/>
     </row>
     <row r="799">
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
+      <c r="F799" s="4"/>
     </row>
     <row r="800">
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
+      <c r="F800" s="4"/>
     </row>
     <row r="801">
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
+      <c r="F801" s="4"/>
     </row>
     <row r="802">
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
+      <c r="F802" s="4"/>
     </row>
     <row r="803">
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
+      <c r="F803" s="4"/>
     </row>
     <row r="804">
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
+      <c r="F804" s="4"/>
     </row>
     <row r="805">
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
+      <c r="F805" s="4"/>
     </row>
     <row r="806">
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
+      <c r="F806" s="4"/>
     </row>
     <row r="807">
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
+      <c r="F807" s="4"/>
     </row>
     <row r="808">
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
+      <c r="F808" s="4"/>
     </row>
     <row r="809">
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
+      <c r="F809" s="4"/>
     </row>
     <row r="810">
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
+      <c r="F810" s="4"/>
     </row>
     <row r="811">
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
+      <c r="F811" s="4"/>
     </row>
     <row r="812">
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
+      <c r="F812" s="4"/>
     </row>
     <row r="813">
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
+      <c r="F813" s="4"/>
     </row>
     <row r="814">
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
+      <c r="F814" s="4"/>
     </row>
     <row r="815">
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
+      <c r="F815" s="4"/>
     </row>
     <row r="816">
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
+      <c r="F816" s="4"/>
     </row>
     <row r="817">
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
+      <c r="F817" s="4"/>
     </row>
     <row r="818">
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
+      <c r="F818" s="4"/>
     </row>
     <row r="819">
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
+      <c r="F819" s="4"/>
     </row>
     <row r="820">
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
+      <c r="F820" s="4"/>
     </row>
     <row r="821">
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
+      <c r="F821" s="4"/>
     </row>
     <row r="822">
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
+      <c r="F822" s="4"/>
     </row>
     <row r="823">
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
+      <c r="F823" s="4"/>
     </row>
     <row r="824">
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
+      <c r="F824" s="4"/>
     </row>
     <row r="825">
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
+      <c r="F825" s="4"/>
     </row>
     <row r="826">
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
+      <c r="F826" s="4"/>
     </row>
     <row r="827">
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
+      <c r="F827" s="4"/>
     </row>
     <row r="828">
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
+      <c r="F828" s="4"/>
     </row>
     <row r="829">
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
+      <c r="F829" s="4"/>
     </row>
     <row r="830">
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
+      <c r="F830" s="4"/>
     </row>
     <row r="831">
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
+      <c r="F831" s="4"/>
     </row>
     <row r="832">
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
+      <c r="F832" s="4"/>
     </row>
     <row r="833">
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
+      <c r="F833" s="4"/>
     </row>
     <row r="834">
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
+      <c r="F834" s="4"/>
     </row>
     <row r="835">
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
+      <c r="F835" s="4"/>
     </row>
     <row r="836">
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
+      <c r="F836" s="4"/>
     </row>
     <row r="837">
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
+      <c r="F837" s="4"/>
     </row>
     <row r="838">
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
+      <c r="F838" s="4"/>
     </row>
     <row r="839">
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
+      <c r="F839" s="4"/>
     </row>
     <row r="840">
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
+      <c r="F840" s="4"/>
     </row>
     <row r="841">
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
+      <c r="F841" s="4"/>
     </row>
     <row r="842">
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
+      <c r="F842" s="4"/>
     </row>
     <row r="843">
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
+      <c r="F843" s="4"/>
     </row>
     <row r="844">
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
+      <c r="F844" s="4"/>
     </row>
     <row r="845">
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
+      <c r="F845" s="4"/>
     </row>
     <row r="846">
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
+      <c r="F846" s="4"/>
     </row>
     <row r="847">
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
+      <c r="F847" s="4"/>
     </row>
     <row r="848">
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
+      <c r="F848" s="4"/>
     </row>
     <row r="849">
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
+      <c r="F849" s="4"/>
     </row>
     <row r="850">
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
+      <c r="F850" s="4"/>
     </row>
     <row r="851">
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
+      <c r="F851" s="4"/>
     </row>
     <row r="852">
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
+      <c r="F852" s="4"/>
     </row>
     <row r="853">
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
+      <c r="F853" s="4"/>
     </row>
     <row r="854">
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
+      <c r="F854" s="4"/>
     </row>
     <row r="855">
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
+      <c r="F855" s="4"/>
     </row>
     <row r="856">
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
+      <c r="F856" s="4"/>
     </row>
     <row r="857">
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
+      <c r="F857" s="4"/>
     </row>
     <row r="858">
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
+      <c r="F858" s="4"/>
     </row>
     <row r="859">
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
+      <c r="F859" s="4"/>
     </row>
     <row r="860">
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
+      <c r="F860" s="4"/>
     </row>
     <row r="861">
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
+      <c r="F861" s="4"/>
     </row>
     <row r="862">
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
+      <c r="F862" s="4"/>
     </row>
     <row r="863">
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
+      <c r="F863" s="4"/>
     </row>
     <row r="864">
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
+      <c r="F864" s="4"/>
     </row>
     <row r="865">
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
+      <c r="F865" s="4"/>
     </row>
     <row r="866">
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
+      <c r="F866" s="4"/>
     </row>
     <row r="867">
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
+      <c r="F867" s="4"/>
     </row>
     <row r="868">
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
+      <c r="F868" s="4"/>
     </row>
     <row r="869">
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
+      <c r="F869" s="4"/>
     </row>
     <row r="870">
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
+      <c r="F870" s="4"/>
     </row>
     <row r="871">
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
+      <c r="F871" s="4"/>
     </row>
     <row r="872">
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
+      <c r="F872" s="4"/>
     </row>
     <row r="873">
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
+      <c r="F873" s="4"/>
     </row>
     <row r="874">
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
+      <c r="F874" s="4"/>
     </row>
     <row r="875">
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
+      <c r="F875" s="4"/>
     </row>
     <row r="876">
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
+      <c r="F876" s="4"/>
     </row>
     <row r="877">
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
+      <c r="F877" s="4"/>
     </row>
     <row r="878">
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
+      <c r="F878" s="4"/>
     </row>
     <row r="879">
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
+      <c r="F879" s="4"/>
     </row>
     <row r="880">
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
+      <c r="F880" s="4"/>
     </row>
     <row r="881">
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
+      <c r="F881" s="4"/>
     </row>
     <row r="882">
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
+      <c r="F882" s="4"/>
     </row>
     <row r="883">
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
+      <c r="F883" s="4"/>
     </row>
     <row r="884">
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
+      <c r="F884" s="4"/>
     </row>
     <row r="885">
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
+      <c r="F885" s="4"/>
     </row>
     <row r="886">
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
+      <c r="F886" s="4"/>
     </row>
     <row r="887">
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
+      <c r="F887" s="4"/>
     </row>
     <row r="888">
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
+      <c r="F888" s="4"/>
     </row>
     <row r="889">
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
+      <c r="F889" s="4"/>
     </row>
     <row r="890">
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
+      <c r="F890" s="4"/>
     </row>
     <row r="891">
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
+      <c r="F891" s="4"/>
     </row>
     <row r="892">
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
+      <c r="F892" s="4"/>
     </row>
     <row r="893">
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
+      <c r="F893" s="4"/>
     </row>
     <row r="894">
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
+      <c r="F894" s="4"/>
     </row>
     <row r="895">
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
+      <c r="F895" s="4"/>
     </row>
     <row r="896">
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
+      <c r="F896" s="4"/>
     </row>
     <row r="897">
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
+      <c r="F897" s="4"/>
     </row>
     <row r="898">
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
+      <c r="F898" s="4"/>
     </row>
     <row r="899">
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
+      <c r="F899" s="4"/>
     </row>
     <row r="900">
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
+      <c r="F900" s="4"/>
     </row>
     <row r="901">
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
+      <c r="F901" s="4"/>
     </row>
     <row r="902">
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
+      <c r="F902" s="4"/>
     </row>
     <row r="903">
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
+      <c r="F903" s="4"/>
     </row>
     <row r="904">
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
+      <c r="F904" s="4"/>
     </row>
     <row r="905">
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
+      <c r="F905" s="4"/>
     </row>
     <row r="906">
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
+      <c r="F906" s="4"/>
     </row>
     <row r="907">
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
+      <c r="F907" s="4"/>
     </row>
     <row r="908">
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
+      <c r="F908" s="4"/>
     </row>
     <row r="909">
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
+      <c r="F909" s="4"/>
     </row>
     <row r="910">
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
+      <c r="F910" s="4"/>
     </row>
     <row r="911">
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
+      <c r="F911" s="4"/>
     </row>
     <row r="912">
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
+      <c r="F912" s="4"/>
     </row>
     <row r="913">
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
+      <c r="F913" s="4"/>
     </row>
     <row r="914">
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
+      <c r="F914" s="4"/>
     </row>
     <row r="915">
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
+      <c r="F915" s="4"/>
     </row>
     <row r="916">
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
+      <c r="F916" s="4"/>
     </row>
     <row r="917">
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
+      <c r="F917" s="4"/>
     </row>
     <row r="918">
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
+      <c r="F918" s="4"/>
     </row>
     <row r="919">
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
+      <c r="F919" s="4"/>
     </row>
     <row r="920">
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
+      <c r="F920" s="4"/>
     </row>
     <row r="921">
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
+      <c r="F921" s="4"/>
     </row>
     <row r="922">
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
+      <c r="F922" s="4"/>
     </row>
     <row r="923">
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
+      <c r="F923" s="4"/>
     </row>
     <row r="924">
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
+      <c r="F924" s="4"/>
     </row>
     <row r="925">
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
+      <c r="F925" s="4"/>
     </row>
     <row r="926">
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
+      <c r="F926" s="4"/>
     </row>
     <row r="927">
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
+      <c r="F927" s="4"/>
     </row>
     <row r="928">
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
+      <c r="F928" s="4"/>
     </row>
     <row r="929">
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
+      <c r="F929" s="4"/>
     </row>
     <row r="930">
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
+      <c r="F930" s="4"/>
     </row>
     <row r="931">
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
+      <c r="F931" s="4"/>
     </row>
     <row r="932">
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
+      <c r="F932" s="4"/>
     </row>
     <row r="933">
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
+      <c r="F933" s="4"/>
     </row>
     <row r="934">
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
+      <c r="F934" s="4"/>
     </row>
     <row r="935">
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
+      <c r="F935" s="4"/>
     </row>
     <row r="936">
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
+      <c r="F936" s="4"/>
     </row>
     <row r="937">
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
+      <c r="F937" s="4"/>
     </row>
     <row r="938">
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
+      <c r="F938" s="4"/>
     </row>
     <row r="939">
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
+      <c r="F939" s="4"/>
     </row>
     <row r="940">
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
+      <c r="F940" s="4"/>
     </row>
     <row r="941">
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
+      <c r="F941" s="4"/>
     </row>
     <row r="942">
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
+      <c r="F942" s="4"/>
     </row>
     <row r="943">
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
+      <c r="F943" s="4"/>
     </row>
     <row r="944">
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
+      <c r="F944" s="4"/>
     </row>
     <row r="945">
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
+      <c r="F945" s="4"/>
     </row>
     <row r="946">
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
+      <c r="F946" s="4"/>
     </row>
     <row r="947">
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
+      <c r="F947" s="4"/>
     </row>
     <row r="948">
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
+      <c r="F948" s="4"/>
     </row>
     <row r="949">
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
+      <c r="F949" s="4"/>
     </row>
     <row r="950">
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
+      <c r="F950" s="4"/>
     </row>
     <row r="951">
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
+      <c r="F951" s="4"/>
     </row>
     <row r="952">
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
+      <c r="F952" s="4"/>
     </row>
     <row r="953">
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
+      <c r="F953" s="4"/>
     </row>
     <row r="954">
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
+      <c r="F954" s="4"/>
     </row>
     <row r="955">
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
+      <c r="F955" s="4"/>
     </row>
     <row r="956">
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
+      <c r="F956" s="4"/>
     </row>
     <row r="957">
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
+      <c r="F957" s="4"/>
     </row>
     <row r="958">
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
+      <c r="F958" s="4"/>
     </row>
     <row r="959">
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
+      <c r="F959" s="4"/>
     </row>
     <row r="960">
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
+      <c r="F960" s="4"/>
     </row>
     <row r="961">
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
+      <c r="F961" s="4"/>
     </row>
     <row r="962">
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
+      <c r="F962" s="4"/>
     </row>
     <row r="963">
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
+      <c r="F963" s="4"/>
     </row>
     <row r="964">
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
+      <c r="F964" s="4"/>
     </row>
     <row r="965">
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
+      <c r="F965" s="4"/>
     </row>
     <row r="966">
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
+      <c r="F966" s="4"/>
     </row>
     <row r="967">
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
+      <c r="F967" s="4"/>
     </row>
     <row r="968">
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
+      <c r="F968" s="4"/>
     </row>
     <row r="969">
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
+      <c r="F969" s="4"/>
     </row>
     <row r="970">
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
+      <c r="F970" s="4"/>
     </row>
     <row r="971">
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
+      <c r="F971" s="4"/>
     </row>
     <row r="972">
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
+      <c r="F972" s="4"/>
     </row>
     <row r="973">
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
+      <c r="F973" s="4"/>
     </row>
     <row r="974">
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
+      <c r="F974" s="4"/>
     </row>
     <row r="975">
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
+      <c r="F975" s="4"/>
     </row>
     <row r="976">
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
+      <c r="F976" s="4"/>
     </row>
     <row r="977">
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
+      <c r="F977" s="4"/>
     </row>
     <row r="978">
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
+      <c r="F978" s="4"/>
     </row>
     <row r="979">
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
+      <c r="F979" s="4"/>
     </row>
     <row r="980">
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
+      <c r="F980" s="4"/>
     </row>
     <row r="981">
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
+      <c r="F981" s="4"/>
     </row>
     <row r="982">
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
+      <c r="F982" s="4"/>
     </row>
     <row r="983">
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
+      <c r="F983" s="4"/>
     </row>
     <row r="984">
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
+      <c r="F984" s="4"/>
     </row>
     <row r="985">
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
+      <c r="F985" s="4"/>
     </row>
     <row r="986">
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
+      <c r="F986" s="4"/>
     </row>
     <row r="987">
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
+      <c r="F987" s="4"/>
     </row>
     <row r="988">
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
+      <c r="F988" s="4"/>
     </row>
     <row r="989">
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
+      <c r="F989" s="4"/>
     </row>
     <row r="990">
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
+      <c r="F990" s="4"/>
     </row>
     <row r="991">
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
+      <c r="F991" s="4"/>
     </row>
     <row r="992">
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
+      <c r="F992" s="4"/>
     </row>
     <row r="993">
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
+      <c r="F993" s="4"/>
     </row>
     <row r="994">
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
+      <c r="F994" s="4"/>
     </row>
     <row r="995">
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
+      <c r="F995" s="4"/>
     </row>
     <row r="996">
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
+      <c r="F996" s="4"/>
     </row>
     <row r="997">
       <c r="C997" s="4"/>
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
+      <c r="F997" s="4"/>
     </row>
     <row r="998">
       <c r="C998" s="4"/>
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
+      <c r="F998" s="4"/>
     </row>
     <row r="999">
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
+      <c r="F999" s="4"/>
     </row>
     <row r="1000">
       <c r="C1000" s="4"/>
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
+      <c r="F1000" s="4"/>
     </row>
     <row r="1001">
       <c r="C1001" s="4"/>
       <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
+      <c r="F1001" s="4"/>
     </row>
     <row r="1002">
       <c r="C1002" s="4"/>
       <c r="D1002" s="4"/>
       <c r="E1002" s="4"/>
+      <c r="F1002" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -5508,42 +6520,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!C5:E9),FLATTEN(Authors_Affiliations!C5:E9)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!D5:F9),FLATTEN(Authors_Affiliations!D5:F9)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
         <v>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B6" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Centre for Author Lists, University of LaTeX, AB12 3CD, UK")</f>
@@ -5552,7 +6564,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Community College, Greendale, CO, USA")</f>
@@ -5561,7 +6573,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana University, Bloomington, IN, USA")</f>
@@ -5570,7 +6582,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"{\""U}mlaut University, City, Country")</f>
@@ -5579,7 +6591,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"City College, Greendale, CO, USA")</f>
@@ -5588,7 +6600,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA")</f>

--- a/author-affiliation-example.xlsx
+++ b/author-affiliation-example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Enter names/affiliations as they should be written in LaTeX, e.g. Ren\'{e} for René</t>
   </si>
@@ -80,6 +80,12 @@
     <t>Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA</t>
   </si>
   <si>
+    <t>Lisa Simpson</t>
+  </si>
+  <si>
+    <t>Springfield Elementary School, Springfield, State, USA</t>
+  </si>
+  <si>
     <t>Change the ranges searched in cell B4 so that the entire affiliation range is searched. Currently D5:F9</t>
   </si>
   <si>
@@ -114,6 +120,9 @@
   </si>
   <si>
     <t>air</t>
+  </si>
+  <si>
+    <t>spr</t>
   </si>
 </sst>
 </file>
@@ -546,8 +555,16 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10">
+      <c r="A10" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="D10" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
     </row>
@@ -6520,42 +6537,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!D5:F9),FLATTEN(Authors_Affiliations!D5:F9)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!D5:F10),FLATTEN(Authors_Affiliations!D5:F10)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
         <v>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Centre for Author Lists, University of LaTeX, AB12 3CD, UK")</f>
@@ -6564,7 +6581,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B7" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Community College, Greendale, CO, USA")</f>
@@ -6573,7 +6590,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana University, Bloomington, IN, USA")</f>
@@ -6582,7 +6599,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B9" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"{\""U}mlaut University, City, Country")</f>
@@ -6591,7 +6608,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"City College, Greendale, CO, USA")</f>
@@ -6600,13 +6617,22 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B11" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA")</f>
         <v>Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="6" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Springfield Elementary School, Springfield, State, USA")</f>
+        <v>Springfield Elementary School, Springfield, State, USA</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/author-affiliation-example.xlsx
+++ b/author-affiliation-example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
   <si>
     <t>Enter names/affiliations as they should be written in LaTeX, e.g. Ren\'{e} for René</t>
   </si>
@@ -26,7 +26,10 @@
     <t>Order</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>First Name(s)</t>
+  </si>
+  <si>
+    <t>Last Name</t>
   </si>
   <si>
     <t>Email</t>
@@ -41,7 +44,10 @@
     <t>Affiliation 3</t>
   </si>
   <si>
-    <t>Sean M. O'Brien</t>
+    <t>Sean M.</t>
+  </si>
+  <si>
+    <t>O'Brien</t>
   </si>
   <si>
     <t>name@university.ac.uk</t>
@@ -56,16 +62,25 @@
     <t>Greendale Community College, Greendale, CO, USA</t>
   </si>
   <si>
-    <t>Aaron A. Aaronson</t>
+    <t>Aaron A.</t>
   </si>
   <si>
-    <t>Leslie Knope</t>
+    <t>Aaronson</t>
+  </si>
+  <si>
+    <t>Leslie</t>
+  </si>
+  <si>
+    <t>Knope</t>
   </si>
   <si>
     <t>Indiana University, Bloomington, IN, USA</t>
   </si>
   <si>
-    <t>Ren\'{e} Artois</t>
+    <t>Ren\'{e}</t>
+  </si>
+  <si>
+    <t>Artois</t>
   </si>
   <si>
     <t>{\"U}mlaut University, City, Country</t>
@@ -74,16 +89,76 @@
     <t>City College, Greendale, CO, USA</t>
   </si>
   <si>
-    <t>Troy Barnes</t>
+    <t>Troy</t>
+  </si>
+  <si>
+    <t>Barnes</t>
   </si>
   <si>
     <t>Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA</t>
   </si>
   <si>
-    <t>Lisa Simpson</t>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Simpson</t>
   </si>
   <si>
     <t>Springfield Elementary School, Springfield, State, USA</t>
+  </si>
+  <si>
+    <t>Bart</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Winger</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Edison</t>
+  </si>
+  <si>
+    <t>Britta</t>
+  </si>
+  <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Abed</t>
+  </si>
+  <si>
+    <t>Nadir</t>
+  </si>
+  <si>
+    <t>Shirley</t>
+  </si>
+  <si>
+    <t>Bennett</t>
+  </si>
+  <si>
+    <t>Craig</t>
+  </si>
+  <si>
+    <t>Pelton</t>
+  </si>
+  <si>
+    <t>Nelson</t>
+  </si>
+  <si>
+    <t>Muntz</t>
+  </si>
+  <si>
+    <t>Sherri</t>
+  </si>
+  <si>
+    <t>Mackleberry</t>
+  </si>
+  <si>
+    <t>Terri</t>
   </si>
   <si>
     <t>Change the ranges searched in cell B4 so that the entire affiliation range is searched. Currently D5:F9</t>
@@ -431,6 +506,7 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -441,6 +517,7 @@
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -451,6 +528,7 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -471,25 +549,31 @@
       <c r="F4" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="G4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -497,6028 +581,7102 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>3.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>5.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>4.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10">
-      <c r="A10" s="2">
-        <v>6.0</v>
-      </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11">
-      <c r="C11" s="4"/>
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12">
-      <c r="C12" s="4"/>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="13">
-      <c r="C13" s="4"/>
+      <c r="B13" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
     </row>
     <row r="14">
-      <c r="C14" s="4"/>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
     </row>
     <row r="15">
-      <c r="C15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="E15" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
     </row>
     <row r="16">
-      <c r="C16" s="4"/>
+      <c r="B16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="E16" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
     </row>
     <row r="17">
-      <c r="C17" s="4"/>
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>43</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
     </row>
     <row r="18">
-      <c r="C18" s="4"/>
+      <c r="B18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
     </row>
     <row r="19">
-      <c r="C19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
     </row>
     <row r="20">
-      <c r="C20" s="4"/>
+      <c r="B20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
     </row>
     <row r="23">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
     </row>
     <row r="24">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
     </row>
     <row r="25">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
     </row>
     <row r="26">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
     </row>
     <row r="27">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
     </row>
     <row r="28">
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
     </row>
     <row r="29">
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
     </row>
     <row r="30">
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
     </row>
     <row r="31">
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
     </row>
     <row r="32">
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
     </row>
     <row r="33">
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
     </row>
     <row r="34">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
     </row>
     <row r="35">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
     </row>
     <row r="36">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
     </row>
     <row r="37">
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
     </row>
     <row r="38">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
     </row>
     <row r="39">
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
     </row>
     <row r="40">
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
     </row>
     <row r="41">
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
     </row>
     <row r="42">
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
     </row>
     <row r="43">
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
     <row r="44">
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
     </row>
     <row r="45">
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
     </row>
     <row r="46">
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
     </row>
     <row r="47">
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
     </row>
     <row r="48">
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
     </row>
     <row r="49">
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
     </row>
     <row r="50">
       <c r="C50" s="4"/>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
     </row>
     <row r="51">
       <c r="C51" s="4"/>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
     </row>
     <row r="52">
       <c r="C52" s="4"/>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
     </row>
     <row r="53">
       <c r="C53" s="4"/>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
     </row>
     <row r="54">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
     </row>
     <row r="55">
       <c r="C55" s="4"/>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
     </row>
     <row r="56">
       <c r="C56" s="4"/>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
     </row>
     <row r="57">
       <c r="C57" s="4"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
     </row>
     <row r="58">
       <c r="C58" s="4"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
     </row>
     <row r="59">
       <c r="C59" s="4"/>
       <c r="D59" s="4"/>
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
     </row>
     <row r="60">
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
     </row>
     <row r="61">
       <c r="C61" s="4"/>
       <c r="D61" s="4"/>
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
     </row>
     <row r="62">
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
     </row>
     <row r="63">
       <c r="C63" s="4"/>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
     </row>
     <row r="64">
       <c r="C64" s="4"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
     </row>
     <row r="65">
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
     </row>
     <row r="66">
       <c r="C66" s="4"/>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
     </row>
     <row r="67">
       <c r="C67" s="4"/>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
     </row>
     <row r="68">
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
     </row>
     <row r="69">
       <c r="C69" s="4"/>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
     </row>
     <row r="70">
       <c r="C70" s="4"/>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
     </row>
     <row r="71">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
     </row>
     <row r="72">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
     </row>
     <row r="73">
       <c r="C73" s="4"/>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
     </row>
     <row r="74">
       <c r="C74" s="4"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
     </row>
     <row r="75">
       <c r="C75" s="4"/>
       <c r="D75" s="4"/>
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
     </row>
     <row r="76">
       <c r="C76" s="4"/>
       <c r="D76" s="4"/>
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
     </row>
     <row r="77">
       <c r="C77" s="4"/>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
     </row>
     <row r="78">
       <c r="C78" s="4"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
     </row>
     <row r="79">
       <c r="C79" s="4"/>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
     </row>
     <row r="80">
       <c r="C80" s="4"/>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
     </row>
     <row r="81">
       <c r="C81" s="4"/>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
     </row>
     <row r="82">
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
     </row>
     <row r="83">
       <c r="C83" s="4"/>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
     </row>
     <row r="84">
       <c r="C84" s="4"/>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
     </row>
     <row r="85">
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
     </row>
     <row r="86">
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
     </row>
     <row r="87">
       <c r="C87" s="4"/>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
     </row>
     <row r="88">
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
     </row>
     <row r="89">
       <c r="C89" s="4"/>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
     </row>
     <row r="90">
       <c r="C90" s="4"/>
       <c r="D90" s="4"/>
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
     </row>
     <row r="91">
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
     </row>
     <row r="92">
       <c r="C92" s="4"/>
       <c r="D92" s="4"/>
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
     </row>
     <row r="93">
       <c r="C93" s="4"/>
       <c r="D93" s="4"/>
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
     </row>
     <row r="94">
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
     </row>
     <row r="95">
       <c r="C95" s="4"/>
       <c r="D95" s="4"/>
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
     </row>
     <row r="96">
       <c r="C96" s="4"/>
       <c r="D96" s="4"/>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
     </row>
     <row r="97">
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
     </row>
     <row r="98">
       <c r="C98" s="4"/>
       <c r="D98" s="4"/>
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
     </row>
     <row r="99">
       <c r="C99" s="4"/>
       <c r="D99" s="4"/>
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
     </row>
     <row r="100">
       <c r="C100" s="4"/>
       <c r="D100" s="4"/>
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
     </row>
     <row r="101">
       <c r="C101" s="4"/>
       <c r="D101" s="4"/>
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
     </row>
     <row r="102">
       <c r="C102" s="4"/>
       <c r="D102" s="4"/>
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
     </row>
     <row r="103">
       <c r="C103" s="4"/>
       <c r="D103" s="4"/>
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
     </row>
     <row r="104">
       <c r="C104" s="4"/>
       <c r="D104" s="4"/>
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
     </row>
     <row r="105">
       <c r="C105" s="4"/>
       <c r="D105" s="4"/>
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
     </row>
     <row r="106">
       <c r="C106" s="4"/>
       <c r="D106" s="4"/>
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
     </row>
     <row r="107">
       <c r="C107" s="4"/>
       <c r="D107" s="4"/>
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
     </row>
     <row r="108">
       <c r="C108" s="4"/>
       <c r="D108" s="4"/>
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
     </row>
     <row r="109">
       <c r="C109" s="4"/>
       <c r="D109" s="4"/>
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
     </row>
     <row r="110">
       <c r="C110" s="4"/>
       <c r="D110" s="4"/>
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
     </row>
     <row r="111">
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
     </row>
     <row r="112">
       <c r="C112" s="4"/>
       <c r="D112" s="4"/>
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
     </row>
     <row r="113">
       <c r="C113" s="4"/>
       <c r="D113" s="4"/>
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
     </row>
     <row r="114">
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
     </row>
     <row r="115">
       <c r="C115" s="4"/>
       <c r="D115" s="4"/>
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
     </row>
     <row r="116">
       <c r="C116" s="4"/>
       <c r="D116" s="4"/>
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
     </row>
     <row r="117">
       <c r="C117" s="4"/>
       <c r="D117" s="4"/>
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
     </row>
     <row r="118">
       <c r="C118" s="4"/>
       <c r="D118" s="4"/>
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
     </row>
     <row r="119">
       <c r="C119" s="4"/>
       <c r="D119" s="4"/>
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
     </row>
     <row r="120">
       <c r="C120" s="4"/>
       <c r="D120" s="4"/>
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
     </row>
     <row r="121">
       <c r="C121" s="4"/>
       <c r="D121" s="4"/>
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
     </row>
     <row r="122">
       <c r="C122" s="4"/>
       <c r="D122" s="4"/>
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
     </row>
     <row r="123">
       <c r="C123" s="4"/>
       <c r="D123" s="4"/>
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
     </row>
     <row r="124">
       <c r="C124" s="4"/>
       <c r="D124" s="4"/>
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
     </row>
     <row r="125">
       <c r="C125" s="4"/>
       <c r="D125" s="4"/>
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
     </row>
     <row r="126">
       <c r="C126" s="4"/>
       <c r="D126" s="4"/>
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
     </row>
     <row r="127">
       <c r="C127" s="4"/>
       <c r="D127" s="4"/>
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
     </row>
     <row r="128">
       <c r="C128" s="4"/>
       <c r="D128" s="4"/>
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
     </row>
     <row r="129">
       <c r="C129" s="4"/>
       <c r="D129" s="4"/>
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
     </row>
     <row r="130">
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
     </row>
     <row r="131">
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
     </row>
     <row r="132">
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
     </row>
     <row r="133">
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
     </row>
     <row r="134">
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
     </row>
     <row r="135">
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
     </row>
     <row r="136">
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
     </row>
     <row r="137">
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
     </row>
     <row r="138">
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
+      <c r="G138" s="4"/>
     </row>
     <row r="139">
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
     </row>
     <row r="140">
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
+      <c r="G140" s="4"/>
     </row>
     <row r="141">
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
+      <c r="G141" s="4"/>
     </row>
     <row r="142">
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
     </row>
     <row r="143">
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
     </row>
     <row r="144">
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
+      <c r="G144" s="4"/>
     </row>
     <row r="145">
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
+      <c r="G145" s="4"/>
     </row>
     <row r="146">
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
+      <c r="G146" s="4"/>
     </row>
     <row r="147">
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
     </row>
     <row r="148">
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
+      <c r="G148" s="4"/>
     </row>
     <row r="149">
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
+      <c r="G149" s="4"/>
     </row>
     <row r="150">
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
+      <c r="G150" s="4"/>
     </row>
     <row r="151">
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
+      <c r="G151" s="4"/>
     </row>
     <row r="152">
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
+      <c r="G152" s="4"/>
     </row>
     <row r="153">
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
+      <c r="G153" s="4"/>
     </row>
     <row r="154">
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
+      <c r="G154" s="4"/>
     </row>
     <row r="155">
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
+      <c r="G155" s="4"/>
     </row>
     <row r="156">
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
+      <c r="G156" s="4"/>
     </row>
     <row r="157">
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
+      <c r="G157" s="4"/>
     </row>
     <row r="158">
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
+      <c r="G158" s="4"/>
     </row>
     <row r="159">
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
+      <c r="G159" s="4"/>
     </row>
     <row r="160">
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
+      <c r="G160" s="4"/>
     </row>
     <row r="161">
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
+      <c r="G161" s="4"/>
     </row>
     <row r="162">
       <c r="C162" s="4"/>
       <c r="D162" s="4"/>
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
+      <c r="G162" s="4"/>
     </row>
     <row r="163">
       <c r="C163" s="4"/>
       <c r="D163" s="4"/>
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
+      <c r="G163" s="4"/>
     </row>
     <row r="164">
       <c r="C164" s="4"/>
       <c r="D164" s="4"/>
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
+      <c r="G164" s="4"/>
     </row>
     <row r="165">
       <c r="C165" s="4"/>
       <c r="D165" s="4"/>
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
+      <c r="G165" s="4"/>
     </row>
     <row r="166">
       <c r="C166" s="4"/>
       <c r="D166" s="4"/>
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
+      <c r="G166" s="4"/>
     </row>
     <row r="167">
       <c r="C167" s="4"/>
       <c r="D167" s="4"/>
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
+      <c r="G167" s="4"/>
     </row>
     <row r="168">
       <c r="C168" s="4"/>
       <c r="D168" s="4"/>
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
+      <c r="G168" s="4"/>
     </row>
     <row r="169">
       <c r="C169" s="4"/>
       <c r="D169" s="4"/>
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
+      <c r="G169" s="4"/>
     </row>
     <row r="170">
       <c r="C170" s="4"/>
       <c r="D170" s="4"/>
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
+      <c r="G170" s="4"/>
     </row>
     <row r="171">
       <c r="C171" s="4"/>
       <c r="D171" s="4"/>
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
+      <c r="G171" s="4"/>
     </row>
     <row r="172">
       <c r="C172" s="4"/>
       <c r="D172" s="4"/>
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
+      <c r="G172" s="4"/>
     </row>
     <row r="173">
       <c r="C173" s="4"/>
       <c r="D173" s="4"/>
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
+      <c r="G173" s="4"/>
     </row>
     <row r="174">
       <c r="C174" s="4"/>
       <c r="D174" s="4"/>
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
     </row>
     <row r="175">
       <c r="C175" s="4"/>
       <c r="D175" s="4"/>
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
+      <c r="G175" s="4"/>
     </row>
     <row r="176">
       <c r="C176" s="4"/>
       <c r="D176" s="4"/>
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
+      <c r="G176" s="4"/>
     </row>
     <row r="177">
       <c r="C177" s="4"/>
       <c r="D177" s="4"/>
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
+      <c r="G177" s="4"/>
     </row>
     <row r="178">
       <c r="C178" s="4"/>
       <c r="D178" s="4"/>
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
+      <c r="G178" s="4"/>
     </row>
     <row r="179">
       <c r="C179" s="4"/>
       <c r="D179" s="4"/>
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
+      <c r="G179" s="4"/>
     </row>
     <row r="180">
       <c r="C180" s="4"/>
       <c r="D180" s="4"/>
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
+      <c r="G180" s="4"/>
     </row>
     <row r="181">
       <c r="C181" s="4"/>
       <c r="D181" s="4"/>
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
+      <c r="G181" s="4"/>
     </row>
     <row r="182">
       <c r="C182" s="4"/>
       <c r="D182" s="4"/>
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
+      <c r="G182" s="4"/>
     </row>
     <row r="183">
       <c r="C183" s="4"/>
       <c r="D183" s="4"/>
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
+      <c r="G183" s="4"/>
     </row>
     <row r="184">
       <c r="C184" s="4"/>
       <c r="D184" s="4"/>
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
+      <c r="G184" s="4"/>
     </row>
     <row r="185">
       <c r="C185" s="4"/>
       <c r="D185" s="4"/>
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
+      <c r="G185" s="4"/>
     </row>
     <row r="186">
       <c r="C186" s="4"/>
       <c r="D186" s="4"/>
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
+      <c r="G186" s="4"/>
     </row>
     <row r="187">
       <c r="C187" s="4"/>
       <c r="D187" s="4"/>
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
+      <c r="G187" s="4"/>
     </row>
     <row r="188">
       <c r="C188" s="4"/>
       <c r="D188" s="4"/>
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
+      <c r="G188" s="4"/>
     </row>
     <row r="189">
       <c r="C189" s="4"/>
       <c r="D189" s="4"/>
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
+      <c r="G189" s="4"/>
     </row>
     <row r="190">
       <c r="C190" s="4"/>
       <c r="D190" s="4"/>
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
+      <c r="G190" s="4"/>
     </row>
     <row r="191">
       <c r="C191" s="4"/>
       <c r="D191" s="4"/>
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
+      <c r="G191" s="4"/>
     </row>
     <row r="192">
       <c r="C192" s="4"/>
       <c r="D192" s="4"/>
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
+      <c r="G192" s="4"/>
     </row>
     <row r="193">
       <c r="C193" s="4"/>
       <c r="D193" s="4"/>
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
+      <c r="G193" s="4"/>
     </row>
     <row r="194">
       <c r="C194" s="4"/>
       <c r="D194" s="4"/>
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
+      <c r="G194" s="4"/>
     </row>
     <row r="195">
       <c r="C195" s="4"/>
       <c r="D195" s="4"/>
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
+      <c r="G195" s="4"/>
     </row>
     <row r="196">
       <c r="C196" s="4"/>
       <c r="D196" s="4"/>
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
+      <c r="G196" s="4"/>
     </row>
     <row r="197">
       <c r="C197" s="4"/>
       <c r="D197" s="4"/>
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
+      <c r="G197" s="4"/>
     </row>
     <row r="198">
       <c r="C198" s="4"/>
       <c r="D198" s="4"/>
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
+      <c r="G198" s="4"/>
     </row>
     <row r="199">
       <c r="C199" s="4"/>
       <c r="D199" s="4"/>
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
+      <c r="G199" s="4"/>
     </row>
     <row r="200">
       <c r="C200" s="4"/>
       <c r="D200" s="4"/>
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
+      <c r="G200" s="4"/>
     </row>
     <row r="201">
       <c r="C201" s="4"/>
       <c r="D201" s="4"/>
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
+      <c r="G201" s="4"/>
     </row>
     <row r="202">
       <c r="C202" s="4"/>
       <c r="D202" s="4"/>
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
+      <c r="G202" s="4"/>
     </row>
     <row r="203">
       <c r="C203" s="4"/>
       <c r="D203" s="4"/>
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
     </row>
     <row r="204">
       <c r="C204" s="4"/>
       <c r="D204" s="4"/>
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
+      <c r="G204" s="4"/>
     </row>
     <row r="205">
       <c r="C205" s="4"/>
       <c r="D205" s="4"/>
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
+      <c r="G205" s="4"/>
     </row>
     <row r="206">
       <c r="C206" s="4"/>
       <c r="D206" s="4"/>
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
+      <c r="G206" s="4"/>
     </row>
     <row r="207">
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
+      <c r="G207" s="4"/>
     </row>
     <row r="208">
       <c r="C208" s="4"/>
       <c r="D208" s="4"/>
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
+      <c r="G208" s="4"/>
     </row>
     <row r="209">
       <c r="C209" s="4"/>
       <c r="D209" s="4"/>
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
+      <c r="G209" s="4"/>
     </row>
     <row r="210">
       <c r="C210" s="4"/>
       <c r="D210" s="4"/>
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
+      <c r="G210" s="4"/>
     </row>
     <row r="211">
       <c r="C211" s="4"/>
       <c r="D211" s="4"/>
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
+      <c r="G211" s="4"/>
     </row>
     <row r="212">
       <c r="C212" s="4"/>
       <c r="D212" s="4"/>
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
+      <c r="G212" s="4"/>
     </row>
     <row r="213">
       <c r="C213" s="4"/>
       <c r="D213" s="4"/>
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
+      <c r="G213" s="4"/>
     </row>
     <row r="214">
       <c r="C214" s="4"/>
       <c r="D214" s="4"/>
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
+      <c r="G214" s="4"/>
     </row>
     <row r="215">
       <c r="C215" s="4"/>
       <c r="D215" s="4"/>
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
+      <c r="G215" s="4"/>
     </row>
     <row r="216">
       <c r="C216" s="4"/>
       <c r="D216" s="4"/>
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
+      <c r="G216" s="4"/>
     </row>
     <row r="217">
       <c r="C217" s="4"/>
       <c r="D217" s="4"/>
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
+      <c r="G217" s="4"/>
     </row>
     <row r="218">
       <c r="C218" s="4"/>
       <c r="D218" s="4"/>
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
+      <c r="G218" s="4"/>
     </row>
     <row r="219">
       <c r="C219" s="4"/>
       <c r="D219" s="4"/>
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
+      <c r="G219" s="4"/>
     </row>
     <row r="220">
       <c r="C220" s="4"/>
       <c r="D220" s="4"/>
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
+      <c r="G220" s="4"/>
     </row>
     <row r="221">
       <c r="C221" s="4"/>
       <c r="D221" s="4"/>
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
+      <c r="G221" s="4"/>
     </row>
     <row r="222">
       <c r="C222" s="4"/>
       <c r="D222" s="4"/>
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
+      <c r="G222" s="4"/>
     </row>
     <row r="223">
       <c r="C223" s="4"/>
       <c r="D223" s="4"/>
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
+      <c r="G223" s="4"/>
     </row>
     <row r="224">
       <c r="C224" s="4"/>
       <c r="D224" s="4"/>
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
+      <c r="G224" s="4"/>
     </row>
     <row r="225">
       <c r="C225" s="4"/>
       <c r="D225" s="4"/>
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
+      <c r="G225" s="4"/>
     </row>
     <row r="226">
       <c r="C226" s="4"/>
       <c r="D226" s="4"/>
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
+      <c r="G226" s="4"/>
     </row>
     <row r="227">
       <c r="C227" s="4"/>
       <c r="D227" s="4"/>
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
+      <c r="G227" s="4"/>
     </row>
     <row r="228">
       <c r="C228" s="4"/>
       <c r="D228" s="4"/>
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
+      <c r="G228" s="4"/>
     </row>
     <row r="229">
       <c r="C229" s="4"/>
       <c r="D229" s="4"/>
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
+      <c r="G229" s="4"/>
     </row>
     <row r="230">
       <c r="C230" s="4"/>
       <c r="D230" s="4"/>
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
+      <c r="G230" s="4"/>
     </row>
     <row r="231">
       <c r="C231" s="4"/>
       <c r="D231" s="4"/>
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
+      <c r="G231" s="4"/>
     </row>
     <row r="232">
       <c r="C232" s="4"/>
       <c r="D232" s="4"/>
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
+      <c r="G232" s="4"/>
     </row>
     <row r="233">
       <c r="C233" s="4"/>
       <c r="D233" s="4"/>
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
+      <c r="G233" s="4"/>
     </row>
     <row r="234">
       <c r="C234" s="4"/>
       <c r="D234" s="4"/>
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
+      <c r="G234" s="4"/>
     </row>
     <row r="235">
       <c r="C235" s="4"/>
       <c r="D235" s="4"/>
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
+      <c r="G235" s="4"/>
     </row>
     <row r="236">
       <c r="C236" s="4"/>
       <c r="D236" s="4"/>
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
+      <c r="G236" s="4"/>
     </row>
     <row r="237">
       <c r="C237" s="4"/>
       <c r="D237" s="4"/>
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
+      <c r="G237" s="4"/>
     </row>
     <row r="238">
       <c r="C238" s="4"/>
       <c r="D238" s="4"/>
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
+      <c r="G238" s="4"/>
     </row>
     <row r="239">
       <c r="C239" s="4"/>
       <c r="D239" s="4"/>
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
+      <c r="G239" s="4"/>
     </row>
     <row r="240">
       <c r="C240" s="4"/>
       <c r="D240" s="4"/>
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
+      <c r="G240" s="4"/>
     </row>
     <row r="241">
       <c r="C241" s="4"/>
       <c r="D241" s="4"/>
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
+      <c r="G241" s="4"/>
     </row>
     <row r="242">
       <c r="C242" s="4"/>
       <c r="D242" s="4"/>
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
+      <c r="G242" s="4"/>
     </row>
     <row r="243">
       <c r="C243" s="4"/>
       <c r="D243" s="4"/>
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
+      <c r="G243" s="4"/>
     </row>
     <row r="244">
       <c r="C244" s="4"/>
       <c r="D244" s="4"/>
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
+      <c r="G244" s="4"/>
     </row>
     <row r="245">
       <c r="C245" s="4"/>
       <c r="D245" s="4"/>
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
+      <c r="G245" s="4"/>
     </row>
     <row r="246">
       <c r="C246" s="4"/>
       <c r="D246" s="4"/>
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
+      <c r="G246" s="4"/>
     </row>
     <row r="247">
       <c r="C247" s="4"/>
       <c r="D247" s="4"/>
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
+      <c r="G247" s="4"/>
     </row>
     <row r="248">
       <c r="C248" s="4"/>
       <c r="D248" s="4"/>
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
+      <c r="G248" s="4"/>
     </row>
     <row r="249">
       <c r="C249" s="4"/>
       <c r="D249" s="4"/>
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
+      <c r="G249" s="4"/>
     </row>
     <row r="250">
       <c r="C250" s="4"/>
       <c r="D250" s="4"/>
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
+      <c r="G250" s="4"/>
     </row>
     <row r="251">
       <c r="C251" s="4"/>
       <c r="D251" s="4"/>
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
+      <c r="G251" s="4"/>
     </row>
     <row r="252">
       <c r="C252" s="4"/>
       <c r="D252" s="4"/>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
     </row>
     <row r="253">
       <c r="C253" s="4"/>
       <c r="D253" s="4"/>
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
+      <c r="G253" s="4"/>
     </row>
     <row r="254">
       <c r="C254" s="4"/>
       <c r="D254" s="4"/>
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
+      <c r="G254" s="4"/>
     </row>
     <row r="255">
       <c r="C255" s="4"/>
       <c r="D255" s="4"/>
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
+      <c r="G255" s="4"/>
     </row>
     <row r="256">
       <c r="C256" s="4"/>
       <c r="D256" s="4"/>
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
+      <c r="G256" s="4"/>
     </row>
     <row r="257">
       <c r="C257" s="4"/>
       <c r="D257" s="4"/>
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
+      <c r="G257" s="4"/>
     </row>
     <row r="258">
       <c r="C258" s="4"/>
       <c r="D258" s="4"/>
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
+      <c r="G258" s="4"/>
     </row>
     <row r="259">
       <c r="C259" s="4"/>
       <c r="D259" s="4"/>
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
+      <c r="G259" s="4"/>
     </row>
     <row r="260">
       <c r="C260" s="4"/>
       <c r="D260" s="4"/>
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
+      <c r="G260" s="4"/>
     </row>
     <row r="261">
       <c r="C261" s="4"/>
       <c r="D261" s="4"/>
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
+      <c r="G261" s="4"/>
     </row>
     <row r="262">
       <c r="C262" s="4"/>
       <c r="D262" s="4"/>
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
+      <c r="G262" s="4"/>
     </row>
     <row r="263">
       <c r="C263" s="4"/>
       <c r="D263" s="4"/>
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
+      <c r="G263" s="4"/>
     </row>
     <row r="264">
       <c r="C264" s="4"/>
       <c r="D264" s="4"/>
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
+      <c r="G264" s="4"/>
     </row>
     <row r="265">
       <c r="C265" s="4"/>
       <c r="D265" s="4"/>
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
+      <c r="G265" s="4"/>
     </row>
     <row r="266">
       <c r="C266" s="4"/>
       <c r="D266" s="4"/>
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
+      <c r="G266" s="4"/>
     </row>
     <row r="267">
       <c r="C267" s="4"/>
       <c r="D267" s="4"/>
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
+      <c r="G267" s="4"/>
     </row>
     <row r="268">
       <c r="C268" s="4"/>
       <c r="D268" s="4"/>
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
+      <c r="G268" s="4"/>
     </row>
     <row r="269">
       <c r="C269" s="4"/>
       <c r="D269" s="4"/>
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
+      <c r="G269" s="4"/>
     </row>
     <row r="270">
       <c r="C270" s="4"/>
       <c r="D270" s="4"/>
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
+      <c r="G270" s="4"/>
     </row>
     <row r="271">
       <c r="C271" s="4"/>
       <c r="D271" s="4"/>
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
+      <c r="G271" s="4"/>
     </row>
     <row r="272">
       <c r="C272" s="4"/>
       <c r="D272" s="4"/>
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
+      <c r="G272" s="4"/>
     </row>
     <row r="273">
       <c r="C273" s="4"/>
       <c r="D273" s="4"/>
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
+      <c r="G273" s="4"/>
     </row>
     <row r="274">
       <c r="C274" s="4"/>
       <c r="D274" s="4"/>
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
+      <c r="G274" s="4"/>
     </row>
     <row r="275">
       <c r="C275" s="4"/>
       <c r="D275" s="4"/>
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
+      <c r="G275" s="4"/>
     </row>
     <row r="276">
       <c r="C276" s="4"/>
       <c r="D276" s="4"/>
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
+      <c r="G276" s="4"/>
     </row>
     <row r="277">
       <c r="C277" s="4"/>
       <c r="D277" s="4"/>
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
+      <c r="G277" s="4"/>
     </row>
     <row r="278">
       <c r="C278" s="4"/>
       <c r="D278" s="4"/>
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
+      <c r="G278" s="4"/>
     </row>
     <row r="279">
       <c r="C279" s="4"/>
       <c r="D279" s="4"/>
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
+      <c r="G279" s="4"/>
     </row>
     <row r="280">
       <c r="C280" s="4"/>
       <c r="D280" s="4"/>
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
+      <c r="G280" s="4"/>
     </row>
     <row r="281">
       <c r="C281" s="4"/>
       <c r="D281" s="4"/>
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
+      <c r="G281" s="4"/>
     </row>
     <row r="282">
       <c r="C282" s="4"/>
       <c r="D282" s="4"/>
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
+      <c r="G282" s="4"/>
     </row>
     <row r="283">
       <c r="C283" s="4"/>
       <c r="D283" s="4"/>
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
+      <c r="G283" s="4"/>
     </row>
     <row r="284">
       <c r="C284" s="4"/>
       <c r="D284" s="4"/>
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
+      <c r="G284" s="4"/>
     </row>
     <row r="285">
       <c r="C285" s="4"/>
       <c r="D285" s="4"/>
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
+      <c r="G285" s="4"/>
     </row>
     <row r="286">
       <c r="C286" s="4"/>
       <c r="D286" s="4"/>
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
+      <c r="G286" s="4"/>
     </row>
     <row r="287">
       <c r="C287" s="4"/>
       <c r="D287" s="4"/>
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
+      <c r="G287" s="4"/>
     </row>
     <row r="288">
       <c r="C288" s="4"/>
       <c r="D288" s="4"/>
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
+      <c r="G288" s="4"/>
     </row>
     <row r="289">
       <c r="C289" s="4"/>
       <c r="D289" s="4"/>
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
+      <c r="G289" s="4"/>
     </row>
     <row r="290">
       <c r="C290" s="4"/>
       <c r="D290" s="4"/>
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
+      <c r="G290" s="4"/>
     </row>
     <row r="291">
       <c r="C291" s="4"/>
       <c r="D291" s="4"/>
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
+      <c r="G291" s="4"/>
     </row>
     <row r="292">
       <c r="C292" s="4"/>
       <c r="D292" s="4"/>
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
+      <c r="G292" s="4"/>
     </row>
     <row r="293">
       <c r="C293" s="4"/>
       <c r="D293" s="4"/>
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
+      <c r="G293" s="4"/>
     </row>
     <row r="294">
       <c r="C294" s="4"/>
       <c r="D294" s="4"/>
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
+      <c r="G294" s="4"/>
     </row>
     <row r="295">
       <c r="C295" s="4"/>
       <c r="D295" s="4"/>
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
+      <c r="G295" s="4"/>
     </row>
     <row r="296">
       <c r="C296" s="4"/>
       <c r="D296" s="4"/>
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
+      <c r="G296" s="4"/>
     </row>
     <row r="297">
       <c r="C297" s="4"/>
       <c r="D297" s="4"/>
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
+      <c r="G297" s="4"/>
     </row>
     <row r="298">
       <c r="C298" s="4"/>
       <c r="D298" s="4"/>
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
+      <c r="G298" s="4"/>
     </row>
     <row r="299">
       <c r="C299" s="4"/>
       <c r="D299" s="4"/>
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
+      <c r="G299" s="4"/>
     </row>
     <row r="300">
       <c r="C300" s="4"/>
       <c r="D300" s="4"/>
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
+      <c r="G300" s="4"/>
     </row>
     <row r="301">
       <c r="C301" s="4"/>
       <c r="D301" s="4"/>
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
+      <c r="G301" s="4"/>
     </row>
     <row r="302">
       <c r="C302" s="4"/>
       <c r="D302" s="4"/>
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
+      <c r="G302" s="4"/>
     </row>
     <row r="303">
       <c r="C303" s="4"/>
       <c r="D303" s="4"/>
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
+      <c r="G303" s="4"/>
     </row>
     <row r="304">
       <c r="C304" s="4"/>
       <c r="D304" s="4"/>
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
+      <c r="G304" s="4"/>
     </row>
     <row r="305">
       <c r="C305" s="4"/>
       <c r="D305" s="4"/>
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
+      <c r="G305" s="4"/>
     </row>
     <row r="306">
       <c r="C306" s="4"/>
       <c r="D306" s="4"/>
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
+      <c r="G306" s="4"/>
     </row>
     <row r="307">
       <c r="C307" s="4"/>
       <c r="D307" s="4"/>
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
+      <c r="G307" s="4"/>
     </row>
     <row r="308">
       <c r="C308" s="4"/>
       <c r="D308" s="4"/>
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
+      <c r="G308" s="4"/>
     </row>
     <row r="309">
       <c r="C309" s="4"/>
       <c r="D309" s="4"/>
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
+      <c r="G309" s="4"/>
     </row>
     <row r="310">
       <c r="C310" s="4"/>
       <c r="D310" s="4"/>
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
+      <c r="G310" s="4"/>
     </row>
     <row r="311">
       <c r="C311" s="4"/>
       <c r="D311" s="4"/>
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
+      <c r="G311" s="4"/>
     </row>
     <row r="312">
       <c r="C312" s="4"/>
       <c r="D312" s="4"/>
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
+      <c r="G312" s="4"/>
     </row>
     <row r="313">
       <c r="C313" s="4"/>
       <c r="D313" s="4"/>
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
+      <c r="G313" s="4"/>
     </row>
     <row r="314">
       <c r="C314" s="4"/>
       <c r="D314" s="4"/>
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
+      <c r="G314" s="4"/>
     </row>
     <row r="315">
       <c r="C315" s="4"/>
       <c r="D315" s="4"/>
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
+      <c r="G315" s="4"/>
     </row>
     <row r="316">
       <c r="C316" s="4"/>
       <c r="D316" s="4"/>
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
     </row>
     <row r="317">
       <c r="C317" s="4"/>
       <c r="D317" s="4"/>
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
     </row>
     <row r="318">
       <c r="C318" s="4"/>
       <c r="D318" s="4"/>
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
     </row>
     <row r="319">
       <c r="C319" s="4"/>
       <c r="D319" s="4"/>
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
     </row>
     <row r="320">
       <c r="C320" s="4"/>
       <c r="D320" s="4"/>
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
     </row>
     <row r="321">
       <c r="C321" s="4"/>
       <c r="D321" s="4"/>
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
     </row>
     <row r="322">
       <c r="C322" s="4"/>
       <c r="D322" s="4"/>
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
     </row>
     <row r="323">
       <c r="C323" s="4"/>
       <c r="D323" s="4"/>
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
     </row>
     <row r="324">
       <c r="C324" s="4"/>
       <c r="D324" s="4"/>
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
     </row>
     <row r="325">
       <c r="C325" s="4"/>
       <c r="D325" s="4"/>
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
+      <c r="G325" s="4"/>
     </row>
     <row r="326">
       <c r="C326" s="4"/>
       <c r="D326" s="4"/>
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
+      <c r="G326" s="4"/>
     </row>
     <row r="327">
       <c r="C327" s="4"/>
       <c r="D327" s="4"/>
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
+      <c r="G327" s="4"/>
     </row>
     <row r="328">
       <c r="C328" s="4"/>
       <c r="D328" s="4"/>
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
+      <c r="G328" s="4"/>
     </row>
     <row r="329">
       <c r="C329" s="4"/>
       <c r="D329" s="4"/>
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
+      <c r="G329" s="4"/>
     </row>
     <row r="330">
       <c r="C330" s="4"/>
       <c r="D330" s="4"/>
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
+      <c r="G330" s="4"/>
     </row>
     <row r="331">
       <c r="C331" s="4"/>
       <c r="D331" s="4"/>
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
+      <c r="G331" s="4"/>
     </row>
     <row r="332">
       <c r="C332" s="4"/>
       <c r="D332" s="4"/>
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
+      <c r="G332" s="4"/>
     </row>
     <row r="333">
       <c r="C333" s="4"/>
       <c r="D333" s="4"/>
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
+      <c r="G333" s="4"/>
     </row>
     <row r="334">
       <c r="C334" s="4"/>
       <c r="D334" s="4"/>
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
+      <c r="G334" s="4"/>
     </row>
     <row r="335">
       <c r="C335" s="4"/>
       <c r="D335" s="4"/>
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
+      <c r="G335" s="4"/>
     </row>
     <row r="336">
       <c r="C336" s="4"/>
       <c r="D336" s="4"/>
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
+      <c r="G336" s="4"/>
     </row>
     <row r="337">
       <c r="C337" s="4"/>
       <c r="D337" s="4"/>
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
+      <c r="G337" s="4"/>
     </row>
     <row r="338">
       <c r="C338" s="4"/>
       <c r="D338" s="4"/>
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
+      <c r="G338" s="4"/>
     </row>
     <row r="339">
       <c r="C339" s="4"/>
       <c r="D339" s="4"/>
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
+      <c r="G339" s="4"/>
     </row>
     <row r="340">
       <c r="C340" s="4"/>
       <c r="D340" s="4"/>
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
+      <c r="G340" s="4"/>
     </row>
     <row r="341">
       <c r="C341" s="4"/>
       <c r="D341" s="4"/>
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
+      <c r="G341" s="4"/>
     </row>
     <row r="342">
       <c r="C342" s="4"/>
       <c r="D342" s="4"/>
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
+      <c r="G342" s="4"/>
     </row>
     <row r="343">
       <c r="C343" s="4"/>
       <c r="D343" s="4"/>
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
+      <c r="G343" s="4"/>
     </row>
     <row r="344">
       <c r="C344" s="4"/>
       <c r="D344" s="4"/>
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
+      <c r="G344" s="4"/>
     </row>
     <row r="345">
       <c r="C345" s="4"/>
       <c r="D345" s="4"/>
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
+      <c r="G345" s="4"/>
     </row>
     <row r="346">
       <c r="C346" s="4"/>
       <c r="D346" s="4"/>
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
+      <c r="G346" s="4"/>
     </row>
     <row r="347">
       <c r="C347" s="4"/>
       <c r="D347" s="4"/>
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
+      <c r="G347" s="4"/>
     </row>
     <row r="348">
       <c r="C348" s="4"/>
       <c r="D348" s="4"/>
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
+      <c r="G348" s="4"/>
     </row>
     <row r="349">
       <c r="C349" s="4"/>
       <c r="D349" s="4"/>
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
+      <c r="G349" s="4"/>
     </row>
     <row r="350">
       <c r="C350" s="4"/>
       <c r="D350" s="4"/>
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
+      <c r="G350" s="4"/>
     </row>
     <row r="351">
       <c r="C351" s="4"/>
       <c r="D351" s="4"/>
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
+      <c r="G351" s="4"/>
     </row>
     <row r="352">
       <c r="C352" s="4"/>
       <c r="D352" s="4"/>
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
+      <c r="G352" s="4"/>
     </row>
     <row r="353">
       <c r="C353" s="4"/>
       <c r="D353" s="4"/>
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
+      <c r="G353" s="4"/>
     </row>
     <row r="354">
       <c r="C354" s="4"/>
       <c r="D354" s="4"/>
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
+      <c r="G354" s="4"/>
     </row>
     <row r="355">
       <c r="C355" s="4"/>
       <c r="D355" s="4"/>
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
+      <c r="G355" s="4"/>
     </row>
     <row r="356">
       <c r="C356" s="4"/>
       <c r="D356" s="4"/>
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
+      <c r="G356" s="4"/>
     </row>
     <row r="357">
       <c r="C357" s="4"/>
       <c r="D357" s="4"/>
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
+      <c r="G357" s="4"/>
     </row>
     <row r="358">
       <c r="C358" s="4"/>
       <c r="D358" s="4"/>
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
+      <c r="G358" s="4"/>
     </row>
     <row r="359">
       <c r="C359" s="4"/>
       <c r="D359" s="4"/>
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
+      <c r="G359" s="4"/>
     </row>
     <row r="360">
       <c r="C360" s="4"/>
       <c r="D360" s="4"/>
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
+      <c r="G360" s="4"/>
     </row>
     <row r="361">
       <c r="C361" s="4"/>
       <c r="D361" s="4"/>
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
+      <c r="G361" s="4"/>
     </row>
     <row r="362">
       <c r="C362" s="4"/>
       <c r="D362" s="4"/>
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
+      <c r="G362" s="4"/>
     </row>
     <row r="363">
       <c r="C363" s="4"/>
       <c r="D363" s="4"/>
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
+      <c r="G363" s="4"/>
     </row>
     <row r="364">
       <c r="C364" s="4"/>
       <c r="D364" s="4"/>
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
+      <c r="G364" s="4"/>
     </row>
     <row r="365">
       <c r="C365" s="4"/>
       <c r="D365" s="4"/>
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
+      <c r="G365" s="4"/>
     </row>
     <row r="366">
       <c r="C366" s="4"/>
       <c r="D366" s="4"/>
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
+      <c r="G366" s="4"/>
     </row>
     <row r="367">
       <c r="C367" s="4"/>
       <c r="D367" s="4"/>
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
+      <c r="G367" s="4"/>
     </row>
     <row r="368">
       <c r="C368" s="4"/>
       <c r="D368" s="4"/>
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
+      <c r="G368" s="4"/>
     </row>
     <row r="369">
       <c r="C369" s="4"/>
       <c r="D369" s="4"/>
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
+      <c r="G369" s="4"/>
     </row>
     <row r="370">
       <c r="C370" s="4"/>
       <c r="D370" s="4"/>
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
+      <c r="G370" s="4"/>
     </row>
     <row r="371">
       <c r="C371" s="4"/>
       <c r="D371" s="4"/>
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
+      <c r="G371" s="4"/>
     </row>
     <row r="372">
       <c r="C372" s="4"/>
       <c r="D372" s="4"/>
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
+      <c r="G372" s="4"/>
     </row>
     <row r="373">
       <c r="C373" s="4"/>
       <c r="D373" s="4"/>
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
+      <c r="G373" s="4"/>
     </row>
     <row r="374">
       <c r="C374" s="4"/>
       <c r="D374" s="4"/>
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
+      <c r="G374" s="4"/>
     </row>
     <row r="375">
       <c r="C375" s="4"/>
       <c r="D375" s="4"/>
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
+      <c r="G375" s="4"/>
     </row>
     <row r="376">
       <c r="C376" s="4"/>
       <c r="D376" s="4"/>
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
+      <c r="G376" s="4"/>
     </row>
     <row r="377">
       <c r="C377" s="4"/>
       <c r="D377" s="4"/>
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
     </row>
     <row r="378">
       <c r="C378" s="4"/>
       <c r="D378" s="4"/>
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
+      <c r="G378" s="4"/>
     </row>
     <row r="379">
       <c r="C379" s="4"/>
       <c r="D379" s="4"/>
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
+      <c r="G379" s="4"/>
     </row>
     <row r="380">
       <c r="C380" s="4"/>
       <c r="D380" s="4"/>
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
+      <c r="G380" s="4"/>
     </row>
     <row r="381">
       <c r="C381" s="4"/>
       <c r="D381" s="4"/>
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
+      <c r="G381" s="4"/>
     </row>
     <row r="382">
       <c r="C382" s="4"/>
       <c r="D382" s="4"/>
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
+      <c r="G382" s="4"/>
     </row>
     <row r="383">
       <c r="C383" s="4"/>
       <c r="D383" s="4"/>
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
+      <c r="G383" s="4"/>
     </row>
     <row r="384">
       <c r="C384" s="4"/>
       <c r="D384" s="4"/>
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
+      <c r="G384" s="4"/>
     </row>
     <row r="385">
       <c r="C385" s="4"/>
       <c r="D385" s="4"/>
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
+      <c r="G385" s="4"/>
     </row>
     <row r="386">
       <c r="C386" s="4"/>
       <c r="D386" s="4"/>
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
+      <c r="G386" s="4"/>
     </row>
     <row r="387">
       <c r="C387" s="4"/>
       <c r="D387" s="4"/>
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
+      <c r="G387" s="4"/>
     </row>
     <row r="388">
       <c r="C388" s="4"/>
       <c r="D388" s="4"/>
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
+      <c r="G388" s="4"/>
     </row>
     <row r="389">
       <c r="C389" s="4"/>
       <c r="D389" s="4"/>
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
+      <c r="G389" s="4"/>
     </row>
     <row r="390">
       <c r="C390" s="4"/>
       <c r="D390" s="4"/>
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
+      <c r="G390" s="4"/>
     </row>
     <row r="391">
       <c r="C391" s="4"/>
       <c r="D391" s="4"/>
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
+      <c r="G391" s="4"/>
     </row>
     <row r="392">
       <c r="C392" s="4"/>
       <c r="D392" s="4"/>
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
+      <c r="G392" s="4"/>
     </row>
     <row r="393">
       <c r="C393" s="4"/>
       <c r="D393" s="4"/>
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
+      <c r="G393" s="4"/>
     </row>
     <row r="394">
       <c r="C394" s="4"/>
       <c r="D394" s="4"/>
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
+      <c r="G394" s="4"/>
     </row>
     <row r="395">
       <c r="C395" s="4"/>
       <c r="D395" s="4"/>
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
+      <c r="G395" s="4"/>
     </row>
     <row r="396">
       <c r="C396" s="4"/>
       <c r="D396" s="4"/>
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
+      <c r="G396" s="4"/>
     </row>
     <row r="397">
       <c r="C397" s="4"/>
       <c r="D397" s="4"/>
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
+      <c r="G397" s="4"/>
     </row>
     <row r="398">
       <c r="C398" s="4"/>
       <c r="D398" s="4"/>
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
+      <c r="G398" s="4"/>
     </row>
     <row r="399">
       <c r="C399" s="4"/>
       <c r="D399" s="4"/>
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
+      <c r="G399" s="4"/>
     </row>
     <row r="400">
       <c r="C400" s="4"/>
       <c r="D400" s="4"/>
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
+      <c r="G400" s="4"/>
     </row>
     <row r="401">
       <c r="C401" s="4"/>
       <c r="D401" s="4"/>
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
+      <c r="G401" s="4"/>
     </row>
     <row r="402">
       <c r="C402" s="4"/>
       <c r="D402" s="4"/>
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
+      <c r="G402" s="4"/>
     </row>
     <row r="403">
       <c r="C403" s="4"/>
       <c r="D403" s="4"/>
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
+      <c r="G403" s="4"/>
     </row>
     <row r="404">
       <c r="C404" s="4"/>
       <c r="D404" s="4"/>
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
+      <c r="G404" s="4"/>
     </row>
     <row r="405">
       <c r="C405" s="4"/>
       <c r="D405" s="4"/>
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
+      <c r="G405" s="4"/>
     </row>
     <row r="406">
       <c r="C406" s="4"/>
       <c r="D406" s="4"/>
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
+      <c r="G406" s="4"/>
     </row>
     <row r="407">
       <c r="C407" s="4"/>
       <c r="D407" s="4"/>
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
+      <c r="G407" s="4"/>
     </row>
     <row r="408">
       <c r="C408" s="4"/>
       <c r="D408" s="4"/>
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
+      <c r="G408" s="4"/>
     </row>
     <row r="409">
       <c r="C409" s="4"/>
       <c r="D409" s="4"/>
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
+      <c r="G409" s="4"/>
     </row>
     <row r="410">
       <c r="C410" s="4"/>
       <c r="D410" s="4"/>
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
+      <c r="G410" s="4"/>
     </row>
     <row r="411">
       <c r="C411" s="4"/>
       <c r="D411" s="4"/>
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
+      <c r="G411" s="4"/>
     </row>
     <row r="412">
       <c r="C412" s="4"/>
       <c r="D412" s="4"/>
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
+      <c r="G412" s="4"/>
     </row>
     <row r="413">
       <c r="C413" s="4"/>
       <c r="D413" s="4"/>
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
+      <c r="G413" s="4"/>
     </row>
     <row r="414">
       <c r="C414" s="4"/>
       <c r="D414" s="4"/>
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
+      <c r="G414" s="4"/>
     </row>
     <row r="415">
       <c r="C415" s="4"/>
       <c r="D415" s="4"/>
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
+      <c r="G415" s="4"/>
     </row>
     <row r="416">
       <c r="C416" s="4"/>
       <c r="D416" s="4"/>
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
+      <c r="G416" s="4"/>
     </row>
     <row r="417">
       <c r="C417" s="4"/>
       <c r="D417" s="4"/>
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
+      <c r="G417" s="4"/>
     </row>
     <row r="418">
       <c r="C418" s="4"/>
       <c r="D418" s="4"/>
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
+      <c r="G418" s="4"/>
     </row>
     <row r="419">
       <c r="C419" s="4"/>
       <c r="D419" s="4"/>
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
+      <c r="G419" s="4"/>
     </row>
     <row r="420">
       <c r="C420" s="4"/>
       <c r="D420" s="4"/>
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
+      <c r="G420" s="4"/>
     </row>
     <row r="421">
       <c r="C421" s="4"/>
       <c r="D421" s="4"/>
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
+      <c r="G421" s="4"/>
     </row>
     <row r="422">
       <c r="C422" s="4"/>
       <c r="D422" s="4"/>
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
+      <c r="G422" s="4"/>
     </row>
     <row r="423">
       <c r="C423" s="4"/>
       <c r="D423" s="4"/>
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
+      <c r="G423" s="4"/>
     </row>
     <row r="424">
       <c r="C424" s="4"/>
       <c r="D424" s="4"/>
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
+      <c r="G424" s="4"/>
     </row>
     <row r="425">
       <c r="C425" s="4"/>
       <c r="D425" s="4"/>
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
+      <c r="G425" s="4"/>
     </row>
     <row r="426">
       <c r="C426" s="4"/>
       <c r="D426" s="4"/>
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
+      <c r="G426" s="4"/>
     </row>
     <row r="427">
       <c r="C427" s="4"/>
       <c r="D427" s="4"/>
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
+      <c r="G427" s="4"/>
     </row>
     <row r="428">
       <c r="C428" s="4"/>
       <c r="D428" s="4"/>
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
+      <c r="G428" s="4"/>
     </row>
     <row r="429">
       <c r="C429" s="4"/>
       <c r="D429" s="4"/>
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
+      <c r="G429" s="4"/>
     </row>
     <row r="430">
       <c r="C430" s="4"/>
       <c r="D430" s="4"/>
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
+      <c r="G430" s="4"/>
     </row>
     <row r="431">
       <c r="C431" s="4"/>
       <c r="D431" s="4"/>
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
+      <c r="G431" s="4"/>
     </row>
     <row r="432">
       <c r="C432" s="4"/>
       <c r="D432" s="4"/>
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
+      <c r="G432" s="4"/>
     </row>
     <row r="433">
       <c r="C433" s="4"/>
       <c r="D433" s="4"/>
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
+      <c r="G433" s="4"/>
     </row>
     <row r="434">
       <c r="C434" s="4"/>
       <c r="D434" s="4"/>
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
+      <c r="G434" s="4"/>
     </row>
     <row r="435">
       <c r="C435" s="4"/>
       <c r="D435" s="4"/>
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
+      <c r="G435" s="4"/>
     </row>
     <row r="436">
       <c r="C436" s="4"/>
       <c r="D436" s="4"/>
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
+      <c r="G436" s="4"/>
     </row>
     <row r="437">
       <c r="C437" s="4"/>
       <c r="D437" s="4"/>
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
+      <c r="G437" s="4"/>
     </row>
     <row r="438">
       <c r="C438" s="4"/>
       <c r="D438" s="4"/>
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
+      <c r="G438" s="4"/>
     </row>
     <row r="439">
       <c r="C439" s="4"/>
       <c r="D439" s="4"/>
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
+      <c r="G439" s="4"/>
     </row>
     <row r="440">
       <c r="C440" s="4"/>
       <c r="D440" s="4"/>
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
+      <c r="G440" s="4"/>
     </row>
     <row r="441">
       <c r="C441" s="4"/>
       <c r="D441" s="4"/>
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
+      <c r="G441" s="4"/>
     </row>
     <row r="442">
       <c r="C442" s="4"/>
       <c r="D442" s="4"/>
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
+      <c r="G442" s="4"/>
     </row>
     <row r="443">
       <c r="C443" s="4"/>
       <c r="D443" s="4"/>
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
+      <c r="G443" s="4"/>
     </row>
     <row r="444">
       <c r="C444" s="4"/>
       <c r="D444" s="4"/>
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
+      <c r="G444" s="4"/>
     </row>
     <row r="445">
       <c r="C445" s="4"/>
       <c r="D445" s="4"/>
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
+      <c r="G445" s="4"/>
     </row>
     <row r="446">
       <c r="C446" s="4"/>
       <c r="D446" s="4"/>
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
+      <c r="G446" s="4"/>
     </row>
     <row r="447">
       <c r="C447" s="4"/>
       <c r="D447" s="4"/>
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
+      <c r="G447" s="4"/>
     </row>
     <row r="448">
       <c r="C448" s="4"/>
       <c r="D448" s="4"/>
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
+      <c r="G448" s="4"/>
     </row>
     <row r="449">
       <c r="C449" s="4"/>
       <c r="D449" s="4"/>
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
+      <c r="G449" s="4"/>
     </row>
     <row r="450">
       <c r="C450" s="4"/>
       <c r="D450" s="4"/>
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
+      <c r="G450" s="4"/>
     </row>
     <row r="451">
       <c r="C451" s="4"/>
       <c r="D451" s="4"/>
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
+      <c r="G451" s="4"/>
     </row>
     <row r="452">
       <c r="C452" s="4"/>
       <c r="D452" s="4"/>
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
+      <c r="G452" s="4"/>
     </row>
     <row r="453">
       <c r="C453" s="4"/>
       <c r="D453" s="4"/>
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
+      <c r="G453" s="4"/>
     </row>
     <row r="454">
       <c r="C454" s="4"/>
       <c r="D454" s="4"/>
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
+      <c r="G454" s="4"/>
     </row>
     <row r="455">
       <c r="C455" s="4"/>
       <c r="D455" s="4"/>
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
+      <c r="G455" s="4"/>
     </row>
     <row r="456">
       <c r="C456" s="4"/>
       <c r="D456" s="4"/>
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
+      <c r="G456" s="4"/>
     </row>
     <row r="457">
       <c r="C457" s="4"/>
       <c r="D457" s="4"/>
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
+      <c r="G457" s="4"/>
     </row>
     <row r="458">
       <c r="C458" s="4"/>
       <c r="D458" s="4"/>
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
+      <c r="G458" s="4"/>
     </row>
     <row r="459">
       <c r="C459" s="4"/>
       <c r="D459" s="4"/>
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
+      <c r="G459" s="4"/>
     </row>
     <row r="460">
       <c r="C460" s="4"/>
       <c r="D460" s="4"/>
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
+      <c r="G460" s="4"/>
     </row>
     <row r="461">
       <c r="C461" s="4"/>
       <c r="D461" s="4"/>
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
+      <c r="G461" s="4"/>
     </row>
     <row r="462">
       <c r="C462" s="4"/>
       <c r="D462" s="4"/>
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
+      <c r="G462" s="4"/>
     </row>
     <row r="463">
       <c r="C463" s="4"/>
       <c r="D463" s="4"/>
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
+      <c r="G463" s="4"/>
     </row>
     <row r="464">
       <c r="C464" s="4"/>
       <c r="D464" s="4"/>
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
+      <c r="G464" s="4"/>
     </row>
     <row r="465">
       <c r="C465" s="4"/>
       <c r="D465" s="4"/>
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
+      <c r="G465" s="4"/>
     </row>
     <row r="466">
       <c r="C466" s="4"/>
       <c r="D466" s="4"/>
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
+      <c r="G466" s="4"/>
     </row>
     <row r="467">
       <c r="C467" s="4"/>
       <c r="D467" s="4"/>
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
+      <c r="G467" s="4"/>
     </row>
     <row r="468">
       <c r="C468" s="4"/>
       <c r="D468" s="4"/>
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
+      <c r="G468" s="4"/>
     </row>
     <row r="469">
       <c r="C469" s="4"/>
       <c r="D469" s="4"/>
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
+      <c r="G469" s="4"/>
     </row>
     <row r="470">
       <c r="C470" s="4"/>
       <c r="D470" s="4"/>
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
+      <c r="G470" s="4"/>
     </row>
     <row r="471">
       <c r="C471" s="4"/>
       <c r="D471" s="4"/>
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
+      <c r="G471" s="4"/>
     </row>
     <row r="472">
       <c r="C472" s="4"/>
       <c r="D472" s="4"/>
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
+      <c r="G472" s="4"/>
     </row>
     <row r="473">
       <c r="C473" s="4"/>
       <c r="D473" s="4"/>
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
+      <c r="G473" s="4"/>
     </row>
     <row r="474">
       <c r="C474" s="4"/>
       <c r="D474" s="4"/>
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
+      <c r="G474" s="4"/>
     </row>
     <row r="475">
       <c r="C475" s="4"/>
       <c r="D475" s="4"/>
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
+      <c r="G475" s="4"/>
     </row>
     <row r="476">
       <c r="C476" s="4"/>
       <c r="D476" s="4"/>
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
+      <c r="G476" s="4"/>
     </row>
     <row r="477">
       <c r="C477" s="4"/>
       <c r="D477" s="4"/>
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
+      <c r="G477" s="4"/>
     </row>
     <row r="478">
       <c r="C478" s="4"/>
       <c r="D478" s="4"/>
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
+      <c r="G478" s="4"/>
     </row>
     <row r="479">
       <c r="C479" s="4"/>
       <c r="D479" s="4"/>
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
+      <c r="G479" s="4"/>
     </row>
     <row r="480">
       <c r="C480" s="4"/>
       <c r="D480" s="4"/>
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
+      <c r="G480" s="4"/>
     </row>
     <row r="481">
       <c r="C481" s="4"/>
       <c r="D481" s="4"/>
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
+      <c r="G481" s="4"/>
     </row>
     <row r="482">
       <c r="C482" s="4"/>
       <c r="D482" s="4"/>
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
+      <c r="G482" s="4"/>
     </row>
     <row r="483">
       <c r="C483" s="4"/>
       <c r="D483" s="4"/>
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
+      <c r="G483" s="4"/>
     </row>
     <row r="484">
       <c r="C484" s="4"/>
       <c r="D484" s="4"/>
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
+      <c r="G484" s="4"/>
     </row>
     <row r="485">
       <c r="C485" s="4"/>
       <c r="D485" s="4"/>
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
+      <c r="G485" s="4"/>
     </row>
     <row r="486">
       <c r="C486" s="4"/>
       <c r="D486" s="4"/>
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
+      <c r="G486" s="4"/>
     </row>
     <row r="487">
       <c r="C487" s="4"/>
       <c r="D487" s="4"/>
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
+      <c r="G487" s="4"/>
     </row>
     <row r="488">
       <c r="C488" s="4"/>
       <c r="D488" s="4"/>
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
+      <c r="G488" s="4"/>
     </row>
     <row r="489">
       <c r="C489" s="4"/>
       <c r="D489" s="4"/>
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
+      <c r="G489" s="4"/>
     </row>
     <row r="490">
       <c r="C490" s="4"/>
       <c r="D490" s="4"/>
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
+      <c r="G490" s="4"/>
     </row>
     <row r="491">
       <c r="C491" s="4"/>
       <c r="D491" s="4"/>
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
+      <c r="G491" s="4"/>
     </row>
     <row r="492">
       <c r="C492" s="4"/>
       <c r="D492" s="4"/>
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
+      <c r="G492" s="4"/>
     </row>
     <row r="493">
       <c r="C493" s="4"/>
       <c r="D493" s="4"/>
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
+      <c r="G493" s="4"/>
     </row>
     <row r="494">
       <c r="C494" s="4"/>
       <c r="D494" s="4"/>
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
+      <c r="G494" s="4"/>
     </row>
     <row r="495">
       <c r="C495" s="4"/>
       <c r="D495" s="4"/>
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
+      <c r="G495" s="4"/>
     </row>
     <row r="496">
       <c r="C496" s="4"/>
       <c r="D496" s="4"/>
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
+      <c r="G496" s="4"/>
     </row>
     <row r="497">
       <c r="C497" s="4"/>
       <c r="D497" s="4"/>
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
+      <c r="G497" s="4"/>
     </row>
     <row r="498">
       <c r="C498" s="4"/>
       <c r="D498" s="4"/>
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
+      <c r="G498" s="4"/>
     </row>
     <row r="499">
       <c r="C499" s="4"/>
       <c r="D499" s="4"/>
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
+      <c r="G499" s="4"/>
     </row>
     <row r="500">
       <c r="C500" s="4"/>
       <c r="D500" s="4"/>
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
+      <c r="G500" s="4"/>
     </row>
     <row r="501">
       <c r="C501" s="4"/>
       <c r="D501" s="4"/>
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
+      <c r="G501" s="4"/>
     </row>
     <row r="502">
       <c r="C502" s="4"/>
       <c r="D502" s="4"/>
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
+      <c r="G502" s="4"/>
     </row>
     <row r="503">
       <c r="C503" s="4"/>
       <c r="D503" s="4"/>
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
+      <c r="G503" s="4"/>
     </row>
     <row r="504">
       <c r="C504" s="4"/>
       <c r="D504" s="4"/>
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
+      <c r="G504" s="4"/>
     </row>
     <row r="505">
       <c r="C505" s="4"/>
       <c r="D505" s="4"/>
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
+      <c r="G505" s="4"/>
     </row>
     <row r="506">
       <c r="C506" s="4"/>
       <c r="D506" s="4"/>
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
+      <c r="G506" s="4"/>
     </row>
     <row r="507">
       <c r="C507" s="4"/>
       <c r="D507" s="4"/>
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
+      <c r="G507" s="4"/>
     </row>
     <row r="508">
       <c r="C508" s="4"/>
       <c r="D508" s="4"/>
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
+      <c r="G508" s="4"/>
     </row>
     <row r="509">
       <c r="C509" s="4"/>
       <c r="D509" s="4"/>
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
+      <c r="G509" s="4"/>
     </row>
     <row r="510">
       <c r="C510" s="4"/>
       <c r="D510" s="4"/>
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
+      <c r="G510" s="4"/>
     </row>
     <row r="511">
       <c r="C511" s="4"/>
       <c r="D511" s="4"/>
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
+      <c r="G511" s="4"/>
     </row>
     <row r="512">
       <c r="C512" s="4"/>
       <c r="D512" s="4"/>
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
+      <c r="G512" s="4"/>
     </row>
     <row r="513">
       <c r="C513" s="4"/>
       <c r="D513" s="4"/>
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
+      <c r="G513" s="4"/>
     </row>
     <row r="514">
       <c r="C514" s="4"/>
       <c r="D514" s="4"/>
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
+      <c r="G514" s="4"/>
     </row>
     <row r="515">
       <c r="C515" s="4"/>
       <c r="D515" s="4"/>
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
+      <c r="G515" s="4"/>
     </row>
     <row r="516">
       <c r="C516" s="4"/>
       <c r="D516" s="4"/>
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
+      <c r="G516" s="4"/>
     </row>
     <row r="517">
       <c r="C517" s="4"/>
       <c r="D517" s="4"/>
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
+      <c r="G517" s="4"/>
     </row>
     <row r="518">
       <c r="C518" s="4"/>
       <c r="D518" s="4"/>
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
+      <c r="G518" s="4"/>
     </row>
     <row r="519">
       <c r="C519" s="4"/>
       <c r="D519" s="4"/>
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
+      <c r="G519" s="4"/>
     </row>
     <row r="520">
       <c r="C520" s="4"/>
       <c r="D520" s="4"/>
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
+      <c r="G520" s="4"/>
     </row>
     <row r="521">
       <c r="C521" s="4"/>
       <c r="D521" s="4"/>
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
+      <c r="G521" s="4"/>
     </row>
     <row r="522">
       <c r="C522" s="4"/>
       <c r="D522" s="4"/>
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
+      <c r="G522" s="4"/>
     </row>
     <row r="523">
       <c r="C523" s="4"/>
       <c r="D523" s="4"/>
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
+      <c r="G523" s="4"/>
     </row>
     <row r="524">
       <c r="C524" s="4"/>
       <c r="D524" s="4"/>
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
+      <c r="G524" s="4"/>
     </row>
     <row r="525">
       <c r="C525" s="4"/>
       <c r="D525" s="4"/>
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
+      <c r="G525" s="4"/>
     </row>
     <row r="526">
       <c r="C526" s="4"/>
       <c r="D526" s="4"/>
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
+      <c r="G526" s="4"/>
     </row>
     <row r="527">
       <c r="C527" s="4"/>
       <c r="D527" s="4"/>
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
+      <c r="G527" s="4"/>
     </row>
     <row r="528">
       <c r="C528" s="4"/>
       <c r="D528" s="4"/>
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
+      <c r="G528" s="4"/>
     </row>
     <row r="529">
       <c r="C529" s="4"/>
       <c r="D529" s="4"/>
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
+      <c r="G529" s="4"/>
     </row>
     <row r="530">
       <c r="C530" s="4"/>
       <c r="D530" s="4"/>
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
+      <c r="G530" s="4"/>
     </row>
     <row r="531">
       <c r="C531" s="4"/>
       <c r="D531" s="4"/>
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
+      <c r="G531" s="4"/>
     </row>
     <row r="532">
       <c r="C532" s="4"/>
       <c r="D532" s="4"/>
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
+      <c r="G532" s="4"/>
     </row>
     <row r="533">
       <c r="C533" s="4"/>
       <c r="D533" s="4"/>
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
+      <c r="G533" s="4"/>
     </row>
     <row r="534">
       <c r="C534" s="4"/>
       <c r="D534" s="4"/>
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
+      <c r="G534" s="4"/>
     </row>
     <row r="535">
       <c r="C535" s="4"/>
       <c r="D535" s="4"/>
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
+      <c r="G535" s="4"/>
     </row>
     <row r="536">
       <c r="C536" s="4"/>
       <c r="D536" s="4"/>
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
+      <c r="G536" s="4"/>
     </row>
     <row r="537">
       <c r="C537" s="4"/>
       <c r="D537" s="4"/>
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
+      <c r="G537" s="4"/>
     </row>
     <row r="538">
       <c r="C538" s="4"/>
       <c r="D538" s="4"/>
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
+      <c r="G538" s="4"/>
     </row>
     <row r="539">
       <c r="C539" s="4"/>
       <c r="D539" s="4"/>
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
+      <c r="G539" s="4"/>
     </row>
     <row r="540">
       <c r="C540" s="4"/>
       <c r="D540" s="4"/>
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
+      <c r="G540" s="4"/>
     </row>
     <row r="541">
       <c r="C541" s="4"/>
       <c r="D541" s="4"/>
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
+      <c r="G541" s="4"/>
     </row>
     <row r="542">
       <c r="C542" s="4"/>
       <c r="D542" s="4"/>
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
+      <c r="G542" s="4"/>
     </row>
     <row r="543">
       <c r="C543" s="4"/>
       <c r="D543" s="4"/>
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
+      <c r="G543" s="4"/>
     </row>
     <row r="544">
       <c r="C544" s="4"/>
       <c r="D544" s="4"/>
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
+      <c r="G544" s="4"/>
     </row>
     <row r="545">
       <c r="C545" s="4"/>
       <c r="D545" s="4"/>
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
+      <c r="G545" s="4"/>
     </row>
     <row r="546">
       <c r="C546" s="4"/>
       <c r="D546" s="4"/>
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
+      <c r="G546" s="4"/>
     </row>
     <row r="547">
       <c r="C547" s="4"/>
       <c r="D547" s="4"/>
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
+      <c r="G547" s="4"/>
     </row>
     <row r="548">
       <c r="C548" s="4"/>
       <c r="D548" s="4"/>
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
+      <c r="G548" s="4"/>
     </row>
     <row r="549">
       <c r="C549" s="4"/>
       <c r="D549" s="4"/>
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
+      <c r="G549" s="4"/>
     </row>
     <row r="550">
       <c r="C550" s="4"/>
       <c r="D550" s="4"/>
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
+      <c r="G550" s="4"/>
     </row>
     <row r="551">
       <c r="C551" s="4"/>
       <c r="D551" s="4"/>
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
+      <c r="G551" s="4"/>
     </row>
     <row r="552">
       <c r="C552" s="4"/>
       <c r="D552" s="4"/>
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
+      <c r="G552" s="4"/>
     </row>
     <row r="553">
       <c r="C553" s="4"/>
       <c r="D553" s="4"/>
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
+      <c r="G553" s="4"/>
     </row>
     <row r="554">
       <c r="C554" s="4"/>
       <c r="D554" s="4"/>
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
+      <c r="G554" s="4"/>
     </row>
     <row r="555">
       <c r="C555" s="4"/>
       <c r="D555" s="4"/>
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
+      <c r="G555" s="4"/>
     </row>
     <row r="556">
       <c r="C556" s="4"/>
       <c r="D556" s="4"/>
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
+      <c r="G556" s="4"/>
     </row>
     <row r="557">
       <c r="C557" s="4"/>
       <c r="D557" s="4"/>
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
+      <c r="G557" s="4"/>
     </row>
     <row r="558">
       <c r="C558" s="4"/>
       <c r="D558" s="4"/>
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
+      <c r="G558" s="4"/>
     </row>
     <row r="559">
       <c r="C559" s="4"/>
       <c r="D559" s="4"/>
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
+      <c r="G559" s="4"/>
     </row>
     <row r="560">
       <c r="C560" s="4"/>
       <c r="D560" s="4"/>
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
+      <c r="G560" s="4"/>
     </row>
     <row r="561">
       <c r="C561" s="4"/>
       <c r="D561" s="4"/>
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
+      <c r="G561" s="4"/>
     </row>
     <row r="562">
       <c r="C562" s="4"/>
       <c r="D562" s="4"/>
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
+      <c r="G562" s="4"/>
     </row>
     <row r="563">
       <c r="C563" s="4"/>
       <c r="D563" s="4"/>
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
+      <c r="G563" s="4"/>
     </row>
     <row r="564">
       <c r="C564" s="4"/>
       <c r="D564" s="4"/>
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
+      <c r="G564" s="4"/>
     </row>
     <row r="565">
       <c r="C565" s="4"/>
       <c r="D565" s="4"/>
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
+      <c r="G565" s="4"/>
     </row>
     <row r="566">
       <c r="C566" s="4"/>
       <c r="D566" s="4"/>
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
+      <c r="G566" s="4"/>
     </row>
     <row r="567">
       <c r="C567" s="4"/>
       <c r="D567" s="4"/>
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
+      <c r="G567" s="4"/>
     </row>
     <row r="568">
       <c r="C568" s="4"/>
       <c r="D568" s="4"/>
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
+      <c r="G568" s="4"/>
     </row>
     <row r="569">
       <c r="C569" s="4"/>
       <c r="D569" s="4"/>
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
+      <c r="G569" s="4"/>
     </row>
     <row r="570">
       <c r="C570" s="4"/>
       <c r="D570" s="4"/>
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
+      <c r="G570" s="4"/>
     </row>
     <row r="571">
       <c r="C571" s="4"/>
       <c r="D571" s="4"/>
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
+      <c r="G571" s="4"/>
     </row>
     <row r="572">
       <c r="C572" s="4"/>
       <c r="D572" s="4"/>
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
+      <c r="G572" s="4"/>
     </row>
     <row r="573">
       <c r="C573" s="4"/>
       <c r="D573" s="4"/>
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
+      <c r="G573" s="4"/>
     </row>
     <row r="574">
       <c r="C574" s="4"/>
       <c r="D574" s="4"/>
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
+      <c r="G574" s="4"/>
     </row>
     <row r="575">
       <c r="C575" s="4"/>
       <c r="D575" s="4"/>
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
+      <c r="G575" s="4"/>
     </row>
     <row r="576">
       <c r="C576" s="4"/>
       <c r="D576" s="4"/>
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
+      <c r="G576" s="4"/>
     </row>
     <row r="577">
       <c r="C577" s="4"/>
       <c r="D577" s="4"/>
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
+      <c r="G577" s="4"/>
     </row>
     <row r="578">
       <c r="C578" s="4"/>
       <c r="D578" s="4"/>
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
+      <c r="G578" s="4"/>
     </row>
     <row r="579">
       <c r="C579" s="4"/>
       <c r="D579" s="4"/>
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
+      <c r="G579" s="4"/>
     </row>
     <row r="580">
       <c r="C580" s="4"/>
       <c r="D580" s="4"/>
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
+      <c r="G580" s="4"/>
     </row>
     <row r="581">
       <c r="C581" s="4"/>
       <c r="D581" s="4"/>
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
+      <c r="G581" s="4"/>
     </row>
     <row r="582">
       <c r="C582" s="4"/>
       <c r="D582" s="4"/>
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
+      <c r="G582" s="4"/>
     </row>
     <row r="583">
       <c r="C583" s="4"/>
       <c r="D583" s="4"/>
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
+      <c r="G583" s="4"/>
     </row>
     <row r="584">
       <c r="C584" s="4"/>
       <c r="D584" s="4"/>
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
+      <c r="G584" s="4"/>
     </row>
     <row r="585">
       <c r="C585" s="4"/>
       <c r="D585" s="4"/>
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
+      <c r="G585" s="4"/>
     </row>
     <row r="586">
       <c r="C586" s="4"/>
       <c r="D586" s="4"/>
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
+      <c r="G586" s="4"/>
     </row>
     <row r="587">
       <c r="C587" s="4"/>
       <c r="D587" s="4"/>
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
+      <c r="G587" s="4"/>
     </row>
     <row r="588">
       <c r="C588" s="4"/>
       <c r="D588" s="4"/>
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
+      <c r="G588" s="4"/>
     </row>
     <row r="589">
       <c r="C589" s="4"/>
       <c r="D589" s="4"/>
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
+      <c r="G589" s="4"/>
     </row>
     <row r="590">
       <c r="C590" s="4"/>
       <c r="D590" s="4"/>
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
+      <c r="G590" s="4"/>
     </row>
     <row r="591">
       <c r="C591" s="4"/>
       <c r="D591" s="4"/>
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
+      <c r="G591" s="4"/>
     </row>
     <row r="592">
       <c r="C592" s="4"/>
       <c r="D592" s="4"/>
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
+      <c r="G592" s="4"/>
     </row>
     <row r="593">
       <c r="C593" s="4"/>
       <c r="D593" s="4"/>
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
+      <c r="G593" s="4"/>
     </row>
     <row r="594">
       <c r="C594" s="4"/>
       <c r="D594" s="4"/>
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
+      <c r="G594" s="4"/>
     </row>
     <row r="595">
       <c r="C595" s="4"/>
       <c r="D595" s="4"/>
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
+      <c r="G595" s="4"/>
     </row>
     <row r="596">
       <c r="C596" s="4"/>
       <c r="D596" s="4"/>
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
+      <c r="G596" s="4"/>
     </row>
     <row r="597">
       <c r="C597" s="4"/>
       <c r="D597" s="4"/>
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
+      <c r="G597" s="4"/>
     </row>
     <row r="598">
       <c r="C598" s="4"/>
       <c r="D598" s="4"/>
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
+      <c r="G598" s="4"/>
     </row>
     <row r="599">
       <c r="C599" s="4"/>
       <c r="D599" s="4"/>
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
+      <c r="G599" s="4"/>
     </row>
     <row r="600">
       <c r="C600" s="4"/>
       <c r="D600" s="4"/>
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
+      <c r="G600" s="4"/>
     </row>
     <row r="601">
       <c r="C601" s="4"/>
       <c r="D601" s="4"/>
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
+      <c r="G601" s="4"/>
     </row>
     <row r="602">
       <c r="C602" s="4"/>
       <c r="D602" s="4"/>
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
+      <c r="G602" s="4"/>
     </row>
     <row r="603">
       <c r="C603" s="4"/>
       <c r="D603" s="4"/>
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
+      <c r="G603" s="4"/>
     </row>
     <row r="604">
       <c r="C604" s="4"/>
       <c r="D604" s="4"/>
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
+      <c r="G604" s="4"/>
     </row>
     <row r="605">
       <c r="C605" s="4"/>
       <c r="D605" s="4"/>
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
+      <c r="G605" s="4"/>
     </row>
     <row r="606">
       <c r="C606" s="4"/>
       <c r="D606" s="4"/>
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
+      <c r="G606" s="4"/>
     </row>
     <row r="607">
       <c r="C607" s="4"/>
       <c r="D607" s="4"/>
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
+      <c r="G607" s="4"/>
     </row>
     <row r="608">
       <c r="C608" s="4"/>
       <c r="D608" s="4"/>
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
+      <c r="G608" s="4"/>
     </row>
     <row r="609">
       <c r="C609" s="4"/>
       <c r="D609" s="4"/>
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
+      <c r="G609" s="4"/>
     </row>
     <row r="610">
       <c r="C610" s="4"/>
       <c r="D610" s="4"/>
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
+      <c r="G610" s="4"/>
     </row>
     <row r="611">
       <c r="C611" s="4"/>
       <c r="D611" s="4"/>
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
+      <c r="G611" s="4"/>
     </row>
     <row r="612">
       <c r="C612" s="4"/>
       <c r="D612" s="4"/>
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
+      <c r="G612" s="4"/>
     </row>
     <row r="613">
       <c r="C613" s="4"/>
       <c r="D613" s="4"/>
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
+      <c r="G613" s="4"/>
     </row>
     <row r="614">
       <c r="C614" s="4"/>
       <c r="D614" s="4"/>
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
+      <c r="G614" s="4"/>
     </row>
     <row r="615">
       <c r="C615" s="4"/>
       <c r="D615" s="4"/>
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
+      <c r="G615" s="4"/>
     </row>
     <row r="616">
       <c r="C616" s="4"/>
       <c r="D616" s="4"/>
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
+      <c r="G616" s="4"/>
     </row>
     <row r="617">
       <c r="C617" s="4"/>
       <c r="D617" s="4"/>
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
+      <c r="G617" s="4"/>
     </row>
     <row r="618">
       <c r="C618" s="4"/>
       <c r="D618" s="4"/>
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
+      <c r="G618" s="4"/>
     </row>
     <row r="619">
       <c r="C619" s="4"/>
       <c r="D619" s="4"/>
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
+      <c r="G619" s="4"/>
     </row>
     <row r="620">
       <c r="C620" s="4"/>
       <c r="D620" s="4"/>
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
+      <c r="G620" s="4"/>
     </row>
     <row r="621">
       <c r="C621" s="4"/>
       <c r="D621" s="4"/>
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
+      <c r="G621" s="4"/>
     </row>
     <row r="622">
       <c r="C622" s="4"/>
       <c r="D622" s="4"/>
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
+      <c r="G622" s="4"/>
     </row>
     <row r="623">
       <c r="C623" s="4"/>
       <c r="D623" s="4"/>
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
+      <c r="G623" s="4"/>
     </row>
     <row r="624">
       <c r="C624" s="4"/>
       <c r="D624" s="4"/>
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
+      <c r="G624" s="4"/>
     </row>
     <row r="625">
       <c r="C625" s="4"/>
       <c r="D625" s="4"/>
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
+      <c r="G625" s="4"/>
     </row>
     <row r="626">
       <c r="C626" s="4"/>
       <c r="D626" s="4"/>
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
+      <c r="G626" s="4"/>
     </row>
     <row r="627">
       <c r="C627" s="4"/>
       <c r="D627" s="4"/>
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
+      <c r="G627" s="4"/>
     </row>
     <row r="628">
       <c r="C628" s="4"/>
       <c r="D628" s="4"/>
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
+      <c r="G628" s="4"/>
     </row>
     <row r="629">
       <c r="C629" s="4"/>
       <c r="D629" s="4"/>
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
+      <c r="G629" s="4"/>
     </row>
     <row r="630">
       <c r="C630" s="4"/>
       <c r="D630" s="4"/>
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
+      <c r="G630" s="4"/>
     </row>
     <row r="631">
       <c r="C631" s="4"/>
       <c r="D631" s="4"/>
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
+      <c r="G631" s="4"/>
     </row>
     <row r="632">
       <c r="C632" s="4"/>
       <c r="D632" s="4"/>
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
+      <c r="G632" s="4"/>
     </row>
     <row r="633">
       <c r="C633" s="4"/>
       <c r="D633" s="4"/>
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
+      <c r="G633" s="4"/>
     </row>
     <row r="634">
       <c r="C634" s="4"/>
       <c r="D634" s="4"/>
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
+      <c r="G634" s="4"/>
     </row>
     <row r="635">
       <c r="C635" s="4"/>
       <c r="D635" s="4"/>
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
+      <c r="G635" s="4"/>
     </row>
     <row r="636">
       <c r="C636" s="4"/>
       <c r="D636" s="4"/>
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
+      <c r="G636" s="4"/>
     </row>
     <row r="637">
       <c r="C637" s="4"/>
       <c r="D637" s="4"/>
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
+      <c r="G637" s="4"/>
     </row>
     <row r="638">
       <c r="C638" s="4"/>
       <c r="D638" s="4"/>
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
+      <c r="G638" s="4"/>
     </row>
     <row r="639">
       <c r="C639" s="4"/>
       <c r="D639" s="4"/>
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
+      <c r="G639" s="4"/>
     </row>
     <row r="640">
       <c r="C640" s="4"/>
       <c r="D640" s="4"/>
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
+      <c r="G640" s="4"/>
     </row>
     <row r="641">
       <c r="C641" s="4"/>
       <c r="D641" s="4"/>
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
+      <c r="G641" s="4"/>
     </row>
     <row r="642">
       <c r="C642" s="4"/>
       <c r="D642" s="4"/>
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
+      <c r="G642" s="4"/>
     </row>
     <row r="643">
       <c r="C643" s="4"/>
       <c r="D643" s="4"/>
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
+      <c r="G643" s="4"/>
     </row>
     <row r="644">
       <c r="C644" s="4"/>
       <c r="D644" s="4"/>
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
+      <c r="G644" s="4"/>
     </row>
     <row r="645">
       <c r="C645" s="4"/>
       <c r="D645" s="4"/>
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
+      <c r="G645" s="4"/>
     </row>
     <row r="646">
       <c r="C646" s="4"/>
       <c r="D646" s="4"/>
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
+      <c r="G646" s="4"/>
     </row>
     <row r="647">
       <c r="C647" s="4"/>
       <c r="D647" s="4"/>
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
+      <c r="G647" s="4"/>
     </row>
     <row r="648">
       <c r="C648" s="4"/>
       <c r="D648" s="4"/>
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
+      <c r="G648" s="4"/>
     </row>
     <row r="649">
       <c r="C649" s="4"/>
       <c r="D649" s="4"/>
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
+      <c r="G649" s="4"/>
     </row>
     <row r="650">
       <c r="C650" s="4"/>
       <c r="D650" s="4"/>
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
+      <c r="G650" s="4"/>
     </row>
     <row r="651">
       <c r="C651" s="4"/>
       <c r="D651" s="4"/>
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
+      <c r="G651" s="4"/>
     </row>
     <row r="652">
       <c r="C652" s="4"/>
       <c r="D652" s="4"/>
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
+      <c r="G652" s="4"/>
     </row>
     <row r="653">
       <c r="C653" s="4"/>
       <c r="D653" s="4"/>
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
+      <c r="G653" s="4"/>
     </row>
     <row r="654">
       <c r="C654" s="4"/>
       <c r="D654" s="4"/>
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
+      <c r="G654" s="4"/>
     </row>
     <row r="655">
       <c r="C655" s="4"/>
       <c r="D655" s="4"/>
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
+      <c r="G655" s="4"/>
     </row>
     <row r="656">
       <c r="C656" s="4"/>
       <c r="D656" s="4"/>
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
+      <c r="G656" s="4"/>
     </row>
     <row r="657">
       <c r="C657" s="4"/>
       <c r="D657" s="4"/>
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
+      <c r="G657" s="4"/>
     </row>
     <row r="658">
       <c r="C658" s="4"/>
       <c r="D658" s="4"/>
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
+      <c r="G658" s="4"/>
     </row>
     <row r="659">
       <c r="C659" s="4"/>
       <c r="D659" s="4"/>
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
+      <c r="G659" s="4"/>
     </row>
     <row r="660">
       <c r="C660" s="4"/>
       <c r="D660" s="4"/>
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
+      <c r="G660" s="4"/>
     </row>
     <row r="661">
       <c r="C661" s="4"/>
       <c r="D661" s="4"/>
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
+      <c r="G661" s="4"/>
     </row>
     <row r="662">
       <c r="C662" s="4"/>
       <c r="D662" s="4"/>
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
+      <c r="G662" s="4"/>
     </row>
     <row r="663">
       <c r="C663" s="4"/>
       <c r="D663" s="4"/>
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
+      <c r="G663" s="4"/>
     </row>
     <row r="664">
       <c r="C664" s="4"/>
       <c r="D664" s="4"/>
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
+      <c r="G664" s="4"/>
     </row>
     <row r="665">
       <c r="C665" s="4"/>
       <c r="D665" s="4"/>
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
+      <c r="G665" s="4"/>
     </row>
     <row r="666">
       <c r="C666" s="4"/>
       <c r="D666" s="4"/>
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
+      <c r="G666" s="4"/>
     </row>
     <row r="667">
       <c r="C667" s="4"/>
       <c r="D667" s="4"/>
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
+      <c r="G667" s="4"/>
     </row>
     <row r="668">
       <c r="C668" s="4"/>
       <c r="D668" s="4"/>
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
+      <c r="G668" s="4"/>
     </row>
     <row r="669">
       <c r="C669" s="4"/>
       <c r="D669" s="4"/>
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
+      <c r="G669" s="4"/>
     </row>
     <row r="670">
       <c r="C670" s="4"/>
       <c r="D670" s="4"/>
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
+      <c r="G670" s="4"/>
     </row>
     <row r="671">
       <c r="C671" s="4"/>
       <c r="D671" s="4"/>
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
+      <c r="G671" s="4"/>
     </row>
     <row r="672">
       <c r="C672" s="4"/>
       <c r="D672" s="4"/>
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
+      <c r="G672" s="4"/>
     </row>
     <row r="673">
       <c r="C673" s="4"/>
       <c r="D673" s="4"/>
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
+      <c r="G673" s="4"/>
     </row>
     <row r="674">
       <c r="C674" s="4"/>
       <c r="D674" s="4"/>
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
+      <c r="G674" s="4"/>
     </row>
     <row r="675">
       <c r="C675" s="4"/>
       <c r="D675" s="4"/>
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
+      <c r="G675" s="4"/>
     </row>
     <row r="676">
       <c r="C676" s="4"/>
       <c r="D676" s="4"/>
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
+      <c r="G676" s="4"/>
     </row>
     <row r="677">
       <c r="C677" s="4"/>
       <c r="D677" s="4"/>
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
+      <c r="G677" s="4"/>
     </row>
     <row r="678">
       <c r="C678" s="4"/>
       <c r="D678" s="4"/>
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
+      <c r="G678" s="4"/>
     </row>
     <row r="679">
       <c r="C679" s="4"/>
       <c r="D679" s="4"/>
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
+      <c r="G679" s="4"/>
     </row>
     <row r="680">
       <c r="C680" s="4"/>
       <c r="D680" s="4"/>
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
+      <c r="G680" s="4"/>
     </row>
     <row r="681">
       <c r="C681" s="4"/>
       <c r="D681" s="4"/>
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
+      <c r="G681" s="4"/>
     </row>
     <row r="682">
       <c r="C682" s="4"/>
       <c r="D682" s="4"/>
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
+      <c r="G682" s="4"/>
     </row>
     <row r="683">
       <c r="C683" s="4"/>
       <c r="D683" s="4"/>
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
+      <c r="G683" s="4"/>
     </row>
     <row r="684">
       <c r="C684" s="4"/>
       <c r="D684" s="4"/>
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
+      <c r="G684" s="4"/>
     </row>
     <row r="685">
       <c r="C685" s="4"/>
       <c r="D685" s="4"/>
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
+      <c r="G685" s="4"/>
     </row>
     <row r="686">
       <c r="C686" s="4"/>
       <c r="D686" s="4"/>
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
+      <c r="G686" s="4"/>
     </row>
     <row r="687">
       <c r="C687" s="4"/>
       <c r="D687" s="4"/>
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
+      <c r="G687" s="4"/>
     </row>
     <row r="688">
       <c r="C688" s="4"/>
       <c r="D688" s="4"/>
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
+      <c r="G688" s="4"/>
     </row>
     <row r="689">
       <c r="C689" s="4"/>
       <c r="D689" s="4"/>
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
+      <c r="G689" s="4"/>
     </row>
     <row r="690">
       <c r="C690" s="4"/>
       <c r="D690" s="4"/>
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
+      <c r="G690" s="4"/>
     </row>
     <row r="691">
       <c r="C691" s="4"/>
       <c r="D691" s="4"/>
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
+      <c r="G691" s="4"/>
     </row>
     <row r="692">
       <c r="C692" s="4"/>
       <c r="D692" s="4"/>
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
+      <c r="G692" s="4"/>
     </row>
     <row r="693">
       <c r="C693" s="4"/>
       <c r="D693" s="4"/>
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
+      <c r="G693" s="4"/>
     </row>
     <row r="694">
       <c r="C694" s="4"/>
       <c r="D694" s="4"/>
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
+      <c r="G694" s="4"/>
     </row>
     <row r="695">
       <c r="C695" s="4"/>
       <c r="D695" s="4"/>
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
+      <c r="G695" s="4"/>
     </row>
     <row r="696">
       <c r="C696" s="4"/>
       <c r="D696" s="4"/>
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
+      <c r="G696" s="4"/>
     </row>
     <row r="697">
       <c r="C697" s="4"/>
       <c r="D697" s="4"/>
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
+      <c r="G697" s="4"/>
     </row>
     <row r="698">
       <c r="C698" s="4"/>
       <c r="D698" s="4"/>
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
+      <c r="G698" s="4"/>
     </row>
     <row r="699">
       <c r="C699" s="4"/>
       <c r="D699" s="4"/>
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
+      <c r="G699" s="4"/>
     </row>
     <row r="700">
       <c r="C700" s="4"/>
       <c r="D700" s="4"/>
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
+      <c r="G700" s="4"/>
     </row>
     <row r="701">
       <c r="C701" s="4"/>
       <c r="D701" s="4"/>
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
+      <c r="G701" s="4"/>
     </row>
     <row r="702">
       <c r="C702" s="4"/>
       <c r="D702" s="4"/>
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
+      <c r="G702" s="4"/>
     </row>
     <row r="703">
       <c r="C703" s="4"/>
       <c r="D703" s="4"/>
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
+      <c r="G703" s="4"/>
     </row>
     <row r="704">
       <c r="C704" s="4"/>
       <c r="D704" s="4"/>
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
+      <c r="G704" s="4"/>
     </row>
     <row r="705">
       <c r="C705" s="4"/>
       <c r="D705" s="4"/>
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
+      <c r="G705" s="4"/>
     </row>
     <row r="706">
       <c r="C706" s="4"/>
       <c r="D706" s="4"/>
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
+      <c r="G706" s="4"/>
     </row>
     <row r="707">
       <c r="C707" s="4"/>
       <c r="D707" s="4"/>
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
+      <c r="G707" s="4"/>
     </row>
     <row r="708">
       <c r="C708" s="4"/>
       <c r="D708" s="4"/>
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
+      <c r="G708" s="4"/>
     </row>
     <row r="709">
       <c r="C709" s="4"/>
       <c r="D709" s="4"/>
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
+      <c r="G709" s="4"/>
     </row>
     <row r="710">
       <c r="C710" s="4"/>
       <c r="D710" s="4"/>
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
+      <c r="G710" s="4"/>
     </row>
     <row r="711">
       <c r="C711" s="4"/>
       <c r="D711" s="4"/>
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
+      <c r="G711" s="4"/>
     </row>
     <row r="712">
       <c r="C712" s="4"/>
       <c r="D712" s="4"/>
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
+      <c r="G712" s="4"/>
     </row>
     <row r="713">
       <c r="C713" s="4"/>
       <c r="D713" s="4"/>
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
+      <c r="G713" s="4"/>
     </row>
     <row r="714">
       <c r="C714" s="4"/>
       <c r="D714" s="4"/>
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
+      <c r="G714" s="4"/>
     </row>
     <row r="715">
       <c r="C715" s="4"/>
       <c r="D715" s="4"/>
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
+      <c r="G715" s="4"/>
     </row>
     <row r="716">
       <c r="C716" s="4"/>
       <c r="D716" s="4"/>
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
+      <c r="G716" s="4"/>
     </row>
     <row r="717">
       <c r="C717" s="4"/>
       <c r="D717" s="4"/>
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
+      <c r="G717" s="4"/>
     </row>
     <row r="718">
       <c r="C718" s="4"/>
       <c r="D718" s="4"/>
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
+      <c r="G718" s="4"/>
     </row>
     <row r="719">
       <c r="C719" s="4"/>
       <c r="D719" s="4"/>
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
+      <c r="G719" s="4"/>
     </row>
     <row r="720">
       <c r="C720" s="4"/>
       <c r="D720" s="4"/>
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
+      <c r="G720" s="4"/>
     </row>
     <row r="721">
       <c r="C721" s="4"/>
       <c r="D721" s="4"/>
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
+      <c r="G721" s="4"/>
     </row>
     <row r="722">
       <c r="C722" s="4"/>
       <c r="D722" s="4"/>
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
+      <c r="G722" s="4"/>
     </row>
     <row r="723">
       <c r="C723" s="4"/>
       <c r="D723" s="4"/>
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
+      <c r="G723" s="4"/>
     </row>
     <row r="724">
       <c r="C724" s="4"/>
       <c r="D724" s="4"/>
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
+      <c r="G724" s="4"/>
     </row>
     <row r="725">
       <c r="C725" s="4"/>
       <c r="D725" s="4"/>
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
+      <c r="G725" s="4"/>
     </row>
     <row r="726">
       <c r="C726" s="4"/>
       <c r="D726" s="4"/>
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
+      <c r="G726" s="4"/>
     </row>
     <row r="727">
       <c r="C727" s="4"/>
       <c r="D727" s="4"/>
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
+      <c r="G727" s="4"/>
     </row>
     <row r="728">
       <c r="C728" s="4"/>
       <c r="D728" s="4"/>
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
+      <c r="G728" s="4"/>
     </row>
     <row r="729">
       <c r="C729" s="4"/>
       <c r="D729" s="4"/>
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
+      <c r="G729" s="4"/>
     </row>
     <row r="730">
       <c r="C730" s="4"/>
       <c r="D730" s="4"/>
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
+      <c r="G730" s="4"/>
     </row>
     <row r="731">
       <c r="C731" s="4"/>
       <c r="D731" s="4"/>
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
+      <c r="G731" s="4"/>
     </row>
     <row r="732">
       <c r="C732" s="4"/>
       <c r="D732" s="4"/>
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
+      <c r="G732" s="4"/>
     </row>
     <row r="733">
       <c r="C733" s="4"/>
       <c r="D733" s="4"/>
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
+      <c r="G733" s="4"/>
     </row>
     <row r="734">
       <c r="C734" s="4"/>
       <c r="D734" s="4"/>
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
+      <c r="G734" s="4"/>
     </row>
     <row r="735">
       <c r="C735" s="4"/>
       <c r="D735" s="4"/>
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
+      <c r="G735" s="4"/>
     </row>
     <row r="736">
       <c r="C736" s="4"/>
       <c r="D736" s="4"/>
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
+      <c r="G736" s="4"/>
     </row>
     <row r="737">
       <c r="C737" s="4"/>
       <c r="D737" s="4"/>
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
+      <c r="G737" s="4"/>
     </row>
     <row r="738">
       <c r="C738" s="4"/>
       <c r="D738" s="4"/>
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
+      <c r="G738" s="4"/>
     </row>
     <row r="739">
       <c r="C739" s="4"/>
       <c r="D739" s="4"/>
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
+      <c r="G739" s="4"/>
     </row>
     <row r="740">
       <c r="C740" s="4"/>
       <c r="D740" s="4"/>
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
+      <c r="G740" s="4"/>
     </row>
     <row r="741">
       <c r="C741" s="4"/>
       <c r="D741" s="4"/>
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
+      <c r="G741" s="4"/>
     </row>
     <row r="742">
       <c r="C742" s="4"/>
       <c r="D742" s="4"/>
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
+      <c r="G742" s="4"/>
     </row>
     <row r="743">
       <c r="C743" s="4"/>
       <c r="D743" s="4"/>
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
+      <c r="G743" s="4"/>
     </row>
     <row r="744">
       <c r="C744" s="4"/>
       <c r="D744" s="4"/>
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
+      <c r="G744" s="4"/>
     </row>
     <row r="745">
       <c r="C745" s="4"/>
       <c r="D745" s="4"/>
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
+      <c r="G745" s="4"/>
     </row>
     <row r="746">
       <c r="C746" s="4"/>
       <c r="D746" s="4"/>
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
+      <c r="G746" s="4"/>
     </row>
     <row r="747">
       <c r="C747" s="4"/>
       <c r="D747" s="4"/>
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
+      <c r="G747" s="4"/>
     </row>
     <row r="748">
       <c r="C748" s="4"/>
       <c r="D748" s="4"/>
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
+      <c r="G748" s="4"/>
     </row>
     <row r="749">
       <c r="C749" s="4"/>
       <c r="D749" s="4"/>
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
+      <c r="G749" s="4"/>
     </row>
     <row r="750">
       <c r="C750" s="4"/>
       <c r="D750" s="4"/>
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
+      <c r="G750" s="4"/>
     </row>
     <row r="751">
       <c r="C751" s="4"/>
       <c r="D751" s="4"/>
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
+      <c r="G751" s="4"/>
     </row>
     <row r="752">
       <c r="C752" s="4"/>
       <c r="D752" s="4"/>
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
+      <c r="G752" s="4"/>
     </row>
     <row r="753">
       <c r="C753" s="4"/>
       <c r="D753" s="4"/>
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
+      <c r="G753" s="4"/>
     </row>
     <row r="754">
       <c r="C754" s="4"/>
       <c r="D754" s="4"/>
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
+      <c r="G754" s="4"/>
     </row>
     <row r="755">
       <c r="C755" s="4"/>
       <c r="D755" s="4"/>
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
+      <c r="G755" s="4"/>
     </row>
     <row r="756">
       <c r="C756" s="4"/>
       <c r="D756" s="4"/>
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
+      <c r="G756" s="4"/>
     </row>
     <row r="757">
       <c r="C757" s="4"/>
       <c r="D757" s="4"/>
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
+      <c r="G757" s="4"/>
     </row>
     <row r="758">
       <c r="C758" s="4"/>
       <c r="D758" s="4"/>
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
+      <c r="G758" s="4"/>
     </row>
     <row r="759">
       <c r="C759" s="4"/>
       <c r="D759" s="4"/>
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
+      <c r="G759" s="4"/>
     </row>
     <row r="760">
       <c r="C760" s="4"/>
       <c r="D760" s="4"/>
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
+      <c r="G760" s="4"/>
     </row>
     <row r="761">
       <c r="C761" s="4"/>
       <c r="D761" s="4"/>
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
+      <c r="G761" s="4"/>
     </row>
     <row r="762">
       <c r="C762" s="4"/>
       <c r="D762" s="4"/>
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
+      <c r="G762" s="4"/>
     </row>
     <row r="763">
       <c r="C763" s="4"/>
       <c r="D763" s="4"/>
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
+      <c r="G763" s="4"/>
     </row>
     <row r="764">
       <c r="C764" s="4"/>
       <c r="D764" s="4"/>
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
+      <c r="G764" s="4"/>
     </row>
     <row r="765">
       <c r="C765" s="4"/>
       <c r="D765" s="4"/>
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
+      <c r="G765" s="4"/>
     </row>
     <row r="766">
       <c r="C766" s="4"/>
       <c r="D766" s="4"/>
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
+      <c r="G766" s="4"/>
     </row>
     <row r="767">
       <c r="C767" s="4"/>
       <c r="D767" s="4"/>
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
+      <c r="G767" s="4"/>
     </row>
     <row r="768">
       <c r="C768" s="4"/>
       <c r="D768" s="4"/>
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
+      <c r="G768" s="4"/>
     </row>
     <row r="769">
       <c r="C769" s="4"/>
       <c r="D769" s="4"/>
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
+      <c r="G769" s="4"/>
     </row>
     <row r="770">
       <c r="C770" s="4"/>
       <c r="D770" s="4"/>
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
+      <c r="G770" s="4"/>
     </row>
     <row r="771">
       <c r="C771" s="4"/>
       <c r="D771" s="4"/>
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
+      <c r="G771" s="4"/>
     </row>
     <row r="772">
       <c r="C772" s="4"/>
       <c r="D772" s="4"/>
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
+      <c r="G772" s="4"/>
     </row>
     <row r="773">
       <c r="C773" s="4"/>
       <c r="D773" s="4"/>
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
+      <c r="G773" s="4"/>
     </row>
     <row r="774">
       <c r="C774" s="4"/>
       <c r="D774" s="4"/>
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
+      <c r="G774" s="4"/>
     </row>
     <row r="775">
       <c r="C775" s="4"/>
       <c r="D775" s="4"/>
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
+      <c r="G775" s="4"/>
     </row>
     <row r="776">
       <c r="C776" s="4"/>
       <c r="D776" s="4"/>
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
+      <c r="G776" s="4"/>
     </row>
     <row r="777">
       <c r="C777" s="4"/>
       <c r="D777" s="4"/>
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
+      <c r="G777" s="4"/>
     </row>
     <row r="778">
       <c r="C778" s="4"/>
       <c r="D778" s="4"/>
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
+      <c r="G778" s="4"/>
     </row>
     <row r="779">
       <c r="C779" s="4"/>
       <c r="D779" s="4"/>
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
+      <c r="G779" s="4"/>
     </row>
     <row r="780">
       <c r="C780" s="4"/>
       <c r="D780" s="4"/>
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
+      <c r="G780" s="4"/>
     </row>
     <row r="781">
       <c r="C781" s="4"/>
       <c r="D781" s="4"/>
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
+      <c r="G781" s="4"/>
     </row>
     <row r="782">
       <c r="C782" s="4"/>
       <c r="D782" s="4"/>
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
+      <c r="G782" s="4"/>
     </row>
     <row r="783">
       <c r="C783" s="4"/>
       <c r="D783" s="4"/>
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
+      <c r="G783" s="4"/>
     </row>
     <row r="784">
       <c r="C784" s="4"/>
       <c r="D784" s="4"/>
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
+      <c r="G784" s="4"/>
     </row>
     <row r="785">
       <c r="C785" s="4"/>
       <c r="D785" s="4"/>
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
+      <c r="G785" s="4"/>
     </row>
     <row r="786">
       <c r="C786" s="4"/>
       <c r="D786" s="4"/>
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
+      <c r="G786" s="4"/>
     </row>
     <row r="787">
       <c r="C787" s="4"/>
       <c r="D787" s="4"/>
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
+      <c r="G787" s="4"/>
     </row>
     <row r="788">
       <c r="C788" s="4"/>
       <c r="D788" s="4"/>
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
+      <c r="G788" s="4"/>
     </row>
     <row r="789">
       <c r="C789" s="4"/>
       <c r="D789" s="4"/>
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
+      <c r="G789" s="4"/>
     </row>
     <row r="790">
       <c r="C790" s="4"/>
       <c r="D790" s="4"/>
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
+      <c r="G790" s="4"/>
     </row>
     <row r="791">
       <c r="C791" s="4"/>
       <c r="D791" s="4"/>
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
+      <c r="G791" s="4"/>
     </row>
     <row r="792">
       <c r="C792" s="4"/>
       <c r="D792" s="4"/>
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
+      <c r="G792" s="4"/>
     </row>
     <row r="793">
       <c r="C793" s="4"/>
       <c r="D793" s="4"/>
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
+      <c r="G793" s="4"/>
     </row>
     <row r="794">
       <c r="C794" s="4"/>
       <c r="D794" s="4"/>
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
+      <c r="G794" s="4"/>
     </row>
     <row r="795">
       <c r="C795" s="4"/>
       <c r="D795" s="4"/>
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
+      <c r="G795" s="4"/>
     </row>
     <row r="796">
       <c r="C796" s="4"/>
       <c r="D796" s="4"/>
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
+      <c r="G796" s="4"/>
     </row>
     <row r="797">
       <c r="C797" s="4"/>
       <c r="D797" s="4"/>
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
+      <c r="G797" s="4"/>
     </row>
     <row r="798">
       <c r="C798" s="4"/>
       <c r="D798" s="4"/>
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
+      <c r="G798" s="4"/>
     </row>
     <row r="799">
       <c r="C799" s="4"/>
       <c r="D799" s="4"/>
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
+      <c r="G799" s="4"/>
     </row>
     <row r="800">
       <c r="C800" s="4"/>
       <c r="D800" s="4"/>
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
+      <c r="G800" s="4"/>
     </row>
     <row r="801">
       <c r="C801" s="4"/>
       <c r="D801" s="4"/>
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
+      <c r="G801" s="4"/>
     </row>
     <row r="802">
       <c r="C802" s="4"/>
       <c r="D802" s="4"/>
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
+      <c r="G802" s="4"/>
     </row>
     <row r="803">
       <c r="C803" s="4"/>
       <c r="D803" s="4"/>
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
+      <c r="G803" s="4"/>
     </row>
     <row r="804">
       <c r="C804" s="4"/>
       <c r="D804" s="4"/>
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
+      <c r="G804" s="4"/>
     </row>
     <row r="805">
       <c r="C805" s="4"/>
       <c r="D805" s="4"/>
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
+      <c r="G805" s="4"/>
     </row>
     <row r="806">
       <c r="C806" s="4"/>
       <c r="D806" s="4"/>
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
+      <c r="G806" s="4"/>
     </row>
     <row r="807">
       <c r="C807" s="4"/>
       <c r="D807" s="4"/>
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
+      <c r="G807" s="4"/>
     </row>
     <row r="808">
       <c r="C808" s="4"/>
       <c r="D808" s="4"/>
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
+      <c r="G808" s="4"/>
     </row>
     <row r="809">
       <c r="C809" s="4"/>
       <c r="D809" s="4"/>
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
+      <c r="G809" s="4"/>
     </row>
     <row r="810">
       <c r="C810" s="4"/>
       <c r="D810" s="4"/>
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
+      <c r="G810" s="4"/>
     </row>
     <row r="811">
       <c r="C811" s="4"/>
       <c r="D811" s="4"/>
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
+      <c r="G811" s="4"/>
     </row>
     <row r="812">
       <c r="C812" s="4"/>
       <c r="D812" s="4"/>
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
+      <c r="G812" s="4"/>
     </row>
     <row r="813">
       <c r="C813" s="4"/>
       <c r="D813" s="4"/>
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
+      <c r="G813" s="4"/>
     </row>
     <row r="814">
       <c r="C814" s="4"/>
       <c r="D814" s="4"/>
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
+      <c r="G814" s="4"/>
     </row>
     <row r="815">
       <c r="C815" s="4"/>
       <c r="D815" s="4"/>
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
+      <c r="G815" s="4"/>
     </row>
     <row r="816">
       <c r="C816" s="4"/>
       <c r="D816" s="4"/>
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
+      <c r="G816" s="4"/>
     </row>
     <row r="817">
       <c r="C817" s="4"/>
       <c r="D817" s="4"/>
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
+      <c r="G817" s="4"/>
     </row>
     <row r="818">
       <c r="C818" s="4"/>
       <c r="D818" s="4"/>
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
+      <c r="G818" s="4"/>
     </row>
     <row r="819">
       <c r="C819" s="4"/>
       <c r="D819" s="4"/>
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
+      <c r="G819" s="4"/>
     </row>
     <row r="820">
       <c r="C820" s="4"/>
       <c r="D820" s="4"/>
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
+      <c r="G820" s="4"/>
     </row>
     <row r="821">
       <c r="C821" s="4"/>
       <c r="D821" s="4"/>
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
+      <c r="G821" s="4"/>
     </row>
     <row r="822">
       <c r="C822" s="4"/>
       <c r="D822" s="4"/>
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
+      <c r="G822" s="4"/>
     </row>
     <row r="823">
       <c r="C823" s="4"/>
       <c r="D823" s="4"/>
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
+      <c r="G823" s="4"/>
     </row>
     <row r="824">
       <c r="C824" s="4"/>
       <c r="D824" s="4"/>
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
+      <c r="G824" s="4"/>
     </row>
     <row r="825">
       <c r="C825" s="4"/>
       <c r="D825" s="4"/>
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
+      <c r="G825" s="4"/>
     </row>
     <row r="826">
       <c r="C826" s="4"/>
       <c r="D826" s="4"/>
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
+      <c r="G826" s="4"/>
     </row>
     <row r="827">
       <c r="C827" s="4"/>
       <c r="D827" s="4"/>
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
+      <c r="G827" s="4"/>
     </row>
     <row r="828">
       <c r="C828" s="4"/>
       <c r="D828" s="4"/>
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
+      <c r="G828" s="4"/>
     </row>
     <row r="829">
       <c r="C829" s="4"/>
       <c r="D829" s="4"/>
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
+      <c r="G829" s="4"/>
     </row>
     <row r="830">
       <c r="C830" s="4"/>
       <c r="D830" s="4"/>
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
+      <c r="G830" s="4"/>
     </row>
     <row r="831">
       <c r="C831" s="4"/>
       <c r="D831" s="4"/>
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
+      <c r="G831" s="4"/>
     </row>
     <row r="832">
       <c r="C832" s="4"/>
       <c r="D832" s="4"/>
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
+      <c r="G832" s="4"/>
     </row>
     <row r="833">
       <c r="C833" s="4"/>
       <c r="D833" s="4"/>
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
+      <c r="G833" s="4"/>
     </row>
     <row r="834">
       <c r="C834" s="4"/>
       <c r="D834" s="4"/>
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
+      <c r="G834" s="4"/>
     </row>
     <row r="835">
       <c r="C835" s="4"/>
       <c r="D835" s="4"/>
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
+      <c r="G835" s="4"/>
     </row>
     <row r="836">
       <c r="C836" s="4"/>
       <c r="D836" s="4"/>
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
+      <c r="G836" s="4"/>
     </row>
     <row r="837">
       <c r="C837" s="4"/>
       <c r="D837" s="4"/>
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
+      <c r="G837" s="4"/>
     </row>
     <row r="838">
       <c r="C838" s="4"/>
       <c r="D838" s="4"/>
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
+      <c r="G838" s="4"/>
     </row>
     <row r="839">
       <c r="C839" s="4"/>
       <c r="D839" s="4"/>
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
+      <c r="G839" s="4"/>
     </row>
     <row r="840">
       <c r="C840" s="4"/>
       <c r="D840" s="4"/>
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
+      <c r="G840" s="4"/>
     </row>
     <row r="841">
       <c r="C841" s="4"/>
       <c r="D841" s="4"/>
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
+      <c r="G841" s="4"/>
     </row>
     <row r="842">
       <c r="C842" s="4"/>
       <c r="D842" s="4"/>
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
+      <c r="G842" s="4"/>
     </row>
     <row r="843">
       <c r="C843" s="4"/>
       <c r="D843" s="4"/>
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
+      <c r="G843" s="4"/>
     </row>
     <row r="844">
       <c r="C844" s="4"/>
       <c r="D844" s="4"/>
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
+      <c r="G844" s="4"/>
     </row>
     <row r="845">
       <c r="C845" s="4"/>
       <c r="D845" s="4"/>
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
+      <c r="G845" s="4"/>
     </row>
     <row r="846">
       <c r="C846" s="4"/>
       <c r="D846" s="4"/>
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
+      <c r="G846" s="4"/>
     </row>
     <row r="847">
       <c r="C847" s="4"/>
       <c r="D847" s="4"/>
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
+      <c r="G847" s="4"/>
     </row>
     <row r="848">
       <c r="C848" s="4"/>
       <c r="D848" s="4"/>
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
+      <c r="G848" s="4"/>
     </row>
     <row r="849">
       <c r="C849" s="4"/>
       <c r="D849" s="4"/>
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
+      <c r="G849" s="4"/>
     </row>
     <row r="850">
       <c r="C850" s="4"/>
       <c r="D850" s="4"/>
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
+      <c r="G850" s="4"/>
     </row>
     <row r="851">
       <c r="C851" s="4"/>
       <c r="D851" s="4"/>
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
+      <c r="G851" s="4"/>
     </row>
     <row r="852">
       <c r="C852" s="4"/>
       <c r="D852" s="4"/>
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
+      <c r="G852" s="4"/>
     </row>
     <row r="853">
       <c r="C853" s="4"/>
       <c r="D853" s="4"/>
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
+      <c r="G853" s="4"/>
     </row>
     <row r="854">
       <c r="C854" s="4"/>
       <c r="D854" s="4"/>
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
+      <c r="G854" s="4"/>
     </row>
     <row r="855">
       <c r="C855" s="4"/>
       <c r="D855" s="4"/>
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
+      <c r="G855" s="4"/>
     </row>
     <row r="856">
       <c r="C856" s="4"/>
       <c r="D856" s="4"/>
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
+      <c r="G856" s="4"/>
     </row>
     <row r="857">
       <c r="C857" s="4"/>
       <c r="D857" s="4"/>
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
+      <c r="G857" s="4"/>
     </row>
     <row r="858">
       <c r="C858" s="4"/>
       <c r="D858" s="4"/>
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
+      <c r="G858" s="4"/>
     </row>
     <row r="859">
       <c r="C859" s="4"/>
       <c r="D859" s="4"/>
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
+      <c r="G859" s="4"/>
     </row>
     <row r="860">
       <c r="C860" s="4"/>
       <c r="D860" s="4"/>
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
+      <c r="G860" s="4"/>
     </row>
     <row r="861">
       <c r="C861" s="4"/>
       <c r="D861" s="4"/>
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
+      <c r="G861" s="4"/>
     </row>
     <row r="862">
       <c r="C862" s="4"/>
       <c r="D862" s="4"/>
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
+      <c r="G862" s="4"/>
     </row>
     <row r="863">
       <c r="C863" s="4"/>
       <c r="D863" s="4"/>
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
+      <c r="G863" s="4"/>
     </row>
     <row r="864">
       <c r="C864" s="4"/>
       <c r="D864" s="4"/>
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
+      <c r="G864" s="4"/>
     </row>
     <row r="865">
       <c r="C865" s="4"/>
       <c r="D865" s="4"/>
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
+      <c r="G865" s="4"/>
     </row>
     <row r="866">
       <c r="C866" s="4"/>
       <c r="D866" s="4"/>
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
+      <c r="G866" s="4"/>
     </row>
     <row r="867">
       <c r="C867" s="4"/>
       <c r="D867" s="4"/>
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
+      <c r="G867" s="4"/>
     </row>
     <row r="868">
       <c r="C868" s="4"/>
       <c r="D868" s="4"/>
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
+      <c r="G868" s="4"/>
     </row>
     <row r="869">
       <c r="C869" s="4"/>
       <c r="D869" s="4"/>
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
+      <c r="G869" s="4"/>
     </row>
     <row r="870">
       <c r="C870" s="4"/>
       <c r="D870" s="4"/>
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
+      <c r="G870" s="4"/>
     </row>
     <row r="871">
       <c r="C871" s="4"/>
       <c r="D871" s="4"/>
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
+      <c r="G871" s="4"/>
     </row>
     <row r="872">
       <c r="C872" s="4"/>
       <c r="D872" s="4"/>
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
+      <c r="G872" s="4"/>
     </row>
     <row r="873">
       <c r="C873" s="4"/>
       <c r="D873" s="4"/>
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
+      <c r="G873" s="4"/>
     </row>
     <row r="874">
       <c r="C874" s="4"/>
       <c r="D874" s="4"/>
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
+      <c r="G874" s="4"/>
     </row>
     <row r="875">
       <c r="C875" s="4"/>
       <c r="D875" s="4"/>
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
+      <c r="G875" s="4"/>
     </row>
     <row r="876">
       <c r="C876" s="4"/>
       <c r="D876" s="4"/>
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
+      <c r="G876" s="4"/>
     </row>
     <row r="877">
       <c r="C877" s="4"/>
       <c r="D877" s="4"/>
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
+      <c r="G877" s="4"/>
     </row>
     <row r="878">
       <c r="C878" s="4"/>
       <c r="D878" s="4"/>
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
+      <c r="G878" s="4"/>
     </row>
     <row r="879">
       <c r="C879" s="4"/>
       <c r="D879" s="4"/>
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
+      <c r="G879" s="4"/>
     </row>
     <row r="880">
       <c r="C880" s="4"/>
       <c r="D880" s="4"/>
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
+      <c r="G880" s="4"/>
     </row>
     <row r="881">
       <c r="C881" s="4"/>
       <c r="D881" s="4"/>
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
+      <c r="G881" s="4"/>
     </row>
     <row r="882">
       <c r="C882" s="4"/>
       <c r="D882" s="4"/>
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
+      <c r="G882" s="4"/>
     </row>
     <row r="883">
       <c r="C883" s="4"/>
       <c r="D883" s="4"/>
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
+      <c r="G883" s="4"/>
     </row>
     <row r="884">
       <c r="C884" s="4"/>
       <c r="D884" s="4"/>
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
+      <c r="G884" s="4"/>
     </row>
     <row r="885">
       <c r="C885" s="4"/>
       <c r="D885" s="4"/>
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
+      <c r="G885" s="4"/>
     </row>
     <row r="886">
       <c r="C886" s="4"/>
       <c r="D886" s="4"/>
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
+      <c r="G886" s="4"/>
     </row>
     <row r="887">
       <c r="C887" s="4"/>
       <c r="D887" s="4"/>
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
+      <c r="G887" s="4"/>
     </row>
     <row r="888">
       <c r="C888" s="4"/>
       <c r="D888" s="4"/>
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
+      <c r="G888" s="4"/>
     </row>
     <row r="889">
       <c r="C889" s="4"/>
       <c r="D889" s="4"/>
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
+      <c r="G889" s="4"/>
     </row>
     <row r="890">
       <c r="C890" s="4"/>
       <c r="D890" s="4"/>
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
+      <c r="G890" s="4"/>
     </row>
     <row r="891">
       <c r="C891" s="4"/>
       <c r="D891" s="4"/>
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
+      <c r="G891" s="4"/>
     </row>
     <row r="892">
       <c r="C892" s="4"/>
       <c r="D892" s="4"/>
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
+      <c r="G892" s="4"/>
     </row>
     <row r="893">
       <c r="C893" s="4"/>
       <c r="D893" s="4"/>
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
+      <c r="G893" s="4"/>
     </row>
     <row r="894">
       <c r="C894" s="4"/>
       <c r="D894" s="4"/>
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
+      <c r="G894" s="4"/>
     </row>
     <row r="895">
       <c r="C895" s="4"/>
       <c r="D895" s="4"/>
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
+      <c r="G895" s="4"/>
     </row>
     <row r="896">
       <c r="C896" s="4"/>
       <c r="D896" s="4"/>
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
+      <c r="G896" s="4"/>
     </row>
     <row r="897">
       <c r="C897" s="4"/>
       <c r="D897" s="4"/>
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
+      <c r="G897" s="4"/>
     </row>
     <row r="898">
       <c r="C898" s="4"/>
       <c r="D898" s="4"/>
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
+      <c r="G898" s="4"/>
     </row>
     <row r="899">
       <c r="C899" s="4"/>
       <c r="D899" s="4"/>
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
+      <c r="G899" s="4"/>
     </row>
     <row r="900">
       <c r="C900" s="4"/>
       <c r="D900" s="4"/>
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
+      <c r="G900" s="4"/>
     </row>
     <row r="901">
       <c r="C901" s="4"/>
       <c r="D901" s="4"/>
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
+      <c r="G901" s="4"/>
     </row>
     <row r="902">
       <c r="C902" s="4"/>
       <c r="D902" s="4"/>
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
+      <c r="G902" s="4"/>
     </row>
     <row r="903">
       <c r="C903" s="4"/>
       <c r="D903" s="4"/>
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
+      <c r="G903" s="4"/>
     </row>
     <row r="904">
       <c r="C904" s="4"/>
       <c r="D904" s="4"/>
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
+      <c r="G904" s="4"/>
     </row>
     <row r="905">
       <c r="C905" s="4"/>
       <c r="D905" s="4"/>
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
+      <c r="G905" s="4"/>
     </row>
     <row r="906">
       <c r="C906" s="4"/>
       <c r="D906" s="4"/>
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
+      <c r="G906" s="4"/>
     </row>
     <row r="907">
       <c r="C907" s="4"/>
       <c r="D907" s="4"/>
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
+      <c r="G907" s="4"/>
     </row>
     <row r="908">
       <c r="C908" s="4"/>
       <c r="D908" s="4"/>
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
+      <c r="G908" s="4"/>
     </row>
     <row r="909">
       <c r="C909" s="4"/>
       <c r="D909" s="4"/>
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
+      <c r="G909" s="4"/>
     </row>
     <row r="910">
       <c r="C910" s="4"/>
       <c r="D910" s="4"/>
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
+      <c r="G910" s="4"/>
     </row>
     <row r="911">
       <c r="C911" s="4"/>
       <c r="D911" s="4"/>
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
+      <c r="G911" s="4"/>
     </row>
     <row r="912">
       <c r="C912" s="4"/>
       <c r="D912" s="4"/>
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
+      <c r="G912" s="4"/>
     </row>
     <row r="913">
       <c r="C913" s="4"/>
       <c r="D913" s="4"/>
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
+      <c r="G913" s="4"/>
     </row>
     <row r="914">
       <c r="C914" s="4"/>
       <c r="D914" s="4"/>
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
+      <c r="G914" s="4"/>
     </row>
     <row r="915">
       <c r="C915" s="4"/>
       <c r="D915" s="4"/>
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
+      <c r="G915" s="4"/>
     </row>
     <row r="916">
       <c r="C916" s="4"/>
       <c r="D916" s="4"/>
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
+      <c r="G916" s="4"/>
     </row>
     <row r="917">
       <c r="C917" s="4"/>
       <c r="D917" s="4"/>
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
+      <c r="G917" s="4"/>
     </row>
     <row r="918">
       <c r="C918" s="4"/>
       <c r="D918" s="4"/>
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
+      <c r="G918" s="4"/>
     </row>
     <row r="919">
       <c r="C919" s="4"/>
       <c r="D919" s="4"/>
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
+      <c r="G919" s="4"/>
     </row>
     <row r="920">
       <c r="C920" s="4"/>
       <c r="D920" s="4"/>
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
+      <c r="G920" s="4"/>
     </row>
     <row r="921">
       <c r="C921" s="4"/>
       <c r="D921" s="4"/>
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
+      <c r="G921" s="4"/>
     </row>
     <row r="922">
       <c r="C922" s="4"/>
       <c r="D922" s="4"/>
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
+      <c r="G922" s="4"/>
     </row>
     <row r="923">
       <c r="C923" s="4"/>
       <c r="D923" s="4"/>
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
+      <c r="G923" s="4"/>
     </row>
     <row r="924">
       <c r="C924" s="4"/>
       <c r="D924" s="4"/>
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
+      <c r="G924" s="4"/>
     </row>
     <row r="925">
       <c r="C925" s="4"/>
       <c r="D925" s="4"/>
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
+      <c r="G925" s="4"/>
     </row>
     <row r="926">
       <c r="C926" s="4"/>
       <c r="D926" s="4"/>
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
+      <c r="G926" s="4"/>
     </row>
     <row r="927">
       <c r="C927" s="4"/>
       <c r="D927" s="4"/>
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
+      <c r="G927" s="4"/>
     </row>
     <row r="928">
       <c r="C928" s="4"/>
       <c r="D928" s="4"/>
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
+      <c r="G928" s="4"/>
     </row>
     <row r="929">
       <c r="C929" s="4"/>
       <c r="D929" s="4"/>
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
+      <c r="G929" s="4"/>
     </row>
     <row r="930">
       <c r="C930" s="4"/>
       <c r="D930" s="4"/>
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
+      <c r="G930" s="4"/>
     </row>
     <row r="931">
       <c r="C931" s="4"/>
       <c r="D931" s="4"/>
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
+      <c r="G931" s="4"/>
     </row>
     <row r="932">
       <c r="C932" s="4"/>
       <c r="D932" s="4"/>
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
+      <c r="G932" s="4"/>
     </row>
     <row r="933">
       <c r="C933" s="4"/>
       <c r="D933" s="4"/>
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
+      <c r="G933" s="4"/>
     </row>
     <row r="934">
       <c r="C934" s="4"/>
       <c r="D934" s="4"/>
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
+      <c r="G934" s="4"/>
     </row>
     <row r="935">
       <c r="C935" s="4"/>
       <c r="D935" s="4"/>
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
+      <c r="G935" s="4"/>
     </row>
     <row r="936">
       <c r="C936" s="4"/>
       <c r="D936" s="4"/>
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
+      <c r="G936" s="4"/>
     </row>
     <row r="937">
       <c r="C937" s="4"/>
       <c r="D937" s="4"/>
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
+      <c r="G937" s="4"/>
     </row>
     <row r="938">
       <c r="C938" s="4"/>
       <c r="D938" s="4"/>
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
+      <c r="G938" s="4"/>
     </row>
     <row r="939">
       <c r="C939" s="4"/>
       <c r="D939" s="4"/>
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
+      <c r="G939" s="4"/>
     </row>
     <row r="940">
       <c r="C940" s="4"/>
       <c r="D940" s="4"/>
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
+      <c r="G940" s="4"/>
     </row>
     <row r="941">
       <c r="C941" s="4"/>
       <c r="D941" s="4"/>
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
+      <c r="G941" s="4"/>
     </row>
     <row r="942">
       <c r="C942" s="4"/>
       <c r="D942" s="4"/>
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
+      <c r="G942" s="4"/>
     </row>
     <row r="943">
       <c r="C943" s="4"/>
       <c r="D943" s="4"/>
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
+      <c r="G943" s="4"/>
     </row>
     <row r="944">
       <c r="C944" s="4"/>
       <c r="D944" s="4"/>
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
+      <c r="G944" s="4"/>
     </row>
     <row r="945">
       <c r="C945" s="4"/>
       <c r="D945" s="4"/>
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
+      <c r="G945" s="4"/>
     </row>
     <row r="946">
       <c r="C946" s="4"/>
       <c r="D946" s="4"/>
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
+      <c r="G946" s="4"/>
     </row>
     <row r="947">
       <c r="C947" s="4"/>
       <c r="D947" s="4"/>
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
+      <c r="G947" s="4"/>
     </row>
     <row r="948">
       <c r="C948" s="4"/>
       <c r="D948" s="4"/>
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
+      <c r="G948" s="4"/>
     </row>
     <row r="949">
       <c r="C949" s="4"/>
       <c r="D949" s="4"/>
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
+      <c r="G949" s="4"/>
     </row>
     <row r="950">
       <c r="C950" s="4"/>
       <c r="D950" s="4"/>
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
+      <c r="G950" s="4"/>
     </row>
     <row r="951">
       <c r="C951" s="4"/>
       <c r="D951" s="4"/>
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
+      <c r="G951" s="4"/>
     </row>
     <row r="952">
       <c r="C952" s="4"/>
       <c r="D952" s="4"/>
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
+      <c r="G952" s="4"/>
     </row>
     <row r="953">
       <c r="C953" s="4"/>
       <c r="D953" s="4"/>
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
+      <c r="G953" s="4"/>
     </row>
     <row r="954">
       <c r="C954" s="4"/>
       <c r="D954" s="4"/>
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
+      <c r="G954" s="4"/>
     </row>
     <row r="955">
       <c r="C955" s="4"/>
       <c r="D955" s="4"/>
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
+      <c r="G955" s="4"/>
     </row>
     <row r="956">
       <c r="C956" s="4"/>
       <c r="D956" s="4"/>
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
+      <c r="G956" s="4"/>
     </row>
     <row r="957">
       <c r="C957" s="4"/>
       <c r="D957" s="4"/>
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
+      <c r="G957" s="4"/>
     </row>
     <row r="958">
       <c r="C958" s="4"/>
       <c r="D958" s="4"/>
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
+      <c r="G958" s="4"/>
     </row>
     <row r="959">
       <c r="C959" s="4"/>
       <c r="D959" s="4"/>
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
+      <c r="G959" s="4"/>
     </row>
     <row r="960">
       <c r="C960" s="4"/>
       <c r="D960" s="4"/>
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
+      <c r="G960" s="4"/>
     </row>
     <row r="961">
       <c r="C961" s="4"/>
       <c r="D961" s="4"/>
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
+      <c r="G961" s="4"/>
     </row>
     <row r="962">
       <c r="C962" s="4"/>
       <c r="D962" s="4"/>
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
+      <c r="G962" s="4"/>
     </row>
     <row r="963">
       <c r="C963" s="4"/>
       <c r="D963" s="4"/>
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
+      <c r="G963" s="4"/>
     </row>
     <row r="964">
       <c r="C964" s="4"/>
       <c r="D964" s="4"/>
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
+      <c r="G964" s="4"/>
     </row>
     <row r="965">
       <c r="C965" s="4"/>
       <c r="D965" s="4"/>
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
+      <c r="G965" s="4"/>
     </row>
     <row r="966">
       <c r="C966" s="4"/>
       <c r="D966" s="4"/>
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
+      <c r="G966" s="4"/>
     </row>
     <row r="967">
       <c r="C967" s="4"/>
       <c r="D967" s="4"/>
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
+      <c r="G967" s="4"/>
     </row>
     <row r="968">
       <c r="C968" s="4"/>
       <c r="D968" s="4"/>
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
+      <c r="G968" s="4"/>
     </row>
     <row r="969">
       <c r="C969" s="4"/>
       <c r="D969" s="4"/>
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
+      <c r="G969" s="4"/>
     </row>
     <row r="970">
       <c r="C970" s="4"/>
       <c r="D970" s="4"/>
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
+      <c r="G970" s="4"/>
     </row>
     <row r="971">
       <c r="C971" s="4"/>
       <c r="D971" s="4"/>
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
+      <c r="G971" s="4"/>
     </row>
     <row r="972">
       <c r="C972" s="4"/>
       <c r="D972" s="4"/>
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
+      <c r="G972" s="4"/>
     </row>
     <row r="973">
       <c r="C973" s="4"/>
       <c r="D973" s="4"/>
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
+      <c r="G973" s="4"/>
     </row>
     <row r="974">
       <c r="C974" s="4"/>
       <c r="D974" s="4"/>
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
+      <c r="G974" s="4"/>
     </row>
     <row r="975">
       <c r="C975" s="4"/>
       <c r="D975" s="4"/>
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
+      <c r="G975" s="4"/>
     </row>
     <row r="976">
       <c r="C976" s="4"/>
       <c r="D976" s="4"/>
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
+      <c r="G976" s="4"/>
     </row>
     <row r="977">
       <c r="C977" s="4"/>
       <c r="D977" s="4"/>
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
+      <c r="G977" s="4"/>
     </row>
     <row r="978">
       <c r="C978" s="4"/>
       <c r="D978" s="4"/>
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
+      <c r="G978" s="4"/>
     </row>
     <row r="979">
       <c r="C979" s="4"/>
       <c r="D979" s="4"/>
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
+      <c r="G979" s="4"/>
     </row>
     <row r="980">
       <c r="C980" s="4"/>
       <c r="D980" s="4"/>
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
+      <c r="G980" s="4"/>
     </row>
     <row r="981">
       <c r="C981" s="4"/>
       <c r="D981" s="4"/>
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
+      <c r="G981" s="4"/>
     </row>
     <row r="982">
       <c r="C982" s="4"/>
       <c r="D982" s="4"/>
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
+      <c r="G982" s="4"/>
     </row>
     <row r="983">
       <c r="C983" s="4"/>
       <c r="D983" s="4"/>
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
+      <c r="G983" s="4"/>
     </row>
     <row r="984">
       <c r="C984" s="4"/>
       <c r="D984" s="4"/>
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
+      <c r="G984" s="4"/>
     </row>
     <row r="985">
       <c r="C985" s="4"/>
       <c r="D985" s="4"/>
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
+      <c r="G985" s="4"/>
     </row>
     <row r="986">
       <c r="C986" s="4"/>
       <c r="D986" s="4"/>
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
+      <c r="G986" s="4"/>
     </row>
     <row r="987">
       <c r="C987" s="4"/>
       <c r="D987" s="4"/>
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
+      <c r="G987" s="4"/>
     </row>
     <row r="988">
       <c r="C988" s="4"/>
       <c r="D988" s="4"/>
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
+      <c r="G988" s="4"/>
     </row>
     <row r="989">
       <c r="C989" s="4"/>
       <c r="D989" s="4"/>
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
+      <c r="G989" s="4"/>
     </row>
     <row r="990">
       <c r="C990" s="4"/>
       <c r="D990" s="4"/>
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
+      <c r="G990" s="4"/>
     </row>
     <row r="991">
       <c r="C991" s="4"/>
       <c r="D991" s="4"/>
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
+      <c r="G991" s="4"/>
     </row>
     <row r="992">
       <c r="C992" s="4"/>
       <c r="D992" s="4"/>
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
+      <c r="G992" s="4"/>
     </row>
     <row r="993">
       <c r="C993" s="4"/>
       <c r="D993" s="4"/>
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
+      <c r="G993" s="4"/>
     </row>
     <row r="994">
       <c r="C994" s="4"/>
       <c r="D994" s="4"/>
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
+      <c r="G994" s="4"/>
     </row>
     <row r="995">
       <c r="C995" s="4"/>
       <c r="D995" s="4"/>
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
+      <c r="G995" s="4"/>
     </row>
     <row r="996">
       <c r="C996" s="4"/>
       <c r="D996" s="4"/>
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
+      <c r="G996" s="4"/>
     </row>
     <row r="997">
       <c r="C997" s="4"/>
       <c r="D997" s="4"/>
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
+      <c r="G997" s="4"/>
     </row>
     <row r="998">
       <c r="C998" s="4"/>
       <c r="D998" s="4"/>
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
+      <c r="G998" s="4"/>
     </row>
     <row r="999">
       <c r="C999" s="4"/>
       <c r="D999" s="4"/>
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
+      <c r="G999" s="4"/>
     </row>
     <row r="1000">
       <c r="C1000" s="4"/>
       <c r="D1000" s="4"/>
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
+      <c r="G1000" s="4"/>
     </row>
     <row r="1001">
       <c r="C1001" s="4"/>
       <c r="D1001" s="4"/>
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
+      <c r="G1001" s="4"/>
     </row>
     <row r="1002">
       <c r="C1002" s="4"/>
       <c r="D1002" s="4"/>
       <c r="E1002" s="4"/>
       <c r="F1002" s="4"/>
+      <c r="G1002" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -6537,42 +7695,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>28</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!D5:F10),FLATTEN(Authors_Affiliations!D5:F10)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!E5:G10),FLATTEN(Authors_Affiliations!E5:G10)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
         <v>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="B6" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Centre for Author Lists, University of LaTeX, AB12 3CD, UK")</f>
@@ -6581,7 +7739,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Community College, Greendale, CO, USA")</f>
@@ -6590,7 +7748,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana University, Bloomington, IN, USA")</f>
@@ -6599,7 +7757,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="B9" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"{\""U}mlaut University, City, Country")</f>
@@ -6608,7 +7766,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"City College, Greendale, CO, USA")</f>
@@ -6617,7 +7775,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="B11" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA")</f>
@@ -6626,7 +7784,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="B12" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Springfield Elementary School, Springfield, State, USA")</f>

--- a/author-affiliation-example.xlsx
+++ b/author-affiliation-example.xlsx
@@ -20,7 +20,7 @@
     <t>Additional affiliation columns can be added</t>
   </si>
   <si>
-    <t>Order can be set and changed whenever, the list does NOT need to be sorted</t>
+    <t>Order for first n authors can be set and changed whenever, the list does NOT need to be sorted. Any author with Order left blank will be sorted automatically in the alphabetical section of the author list</t>
   </si>
   <si>
     <t>Order</t>

--- a/author-affiliation-example.xlsx
+++ b/author-affiliation-example.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="64">
   <si>
     <t>Enter names/affiliations as they should be written in LaTeX, e.g. Ren\'{e} for René</t>
   </si>
@@ -35,6 +35,9 @@
     <t>Email</t>
   </si>
   <si>
+    <t>ORCID</t>
+  </si>
+  <si>
     <t>Affiliation 1</t>
   </si>
   <si>
@@ -51,6 +54,9 @@
   </si>
   <si>
     <t>name@university.ac.uk</t>
+  </si>
+  <si>
+    <t>0000-0001-7367-1188</t>
   </si>
   <si>
     <t>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</t>
@@ -495,6 +501,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="15.13"/>
+    <col customWidth="1" min="5" max="5" width="17.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -507,6 +514,7 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -518,6 +526,7 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
@@ -529,6 +538,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -552,28 +562,34 @@
       <c r="G4" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2">
         <v>1.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6">
@@ -581,228 +597,243 @@
         <v>2.0</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="2">
         <v>3.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="4"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="2">
         <v>5.0</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="4"/>
+        <v>25</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
         <v>4.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="4"/>
     </row>
     <row r="10">
       <c r="B10" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="4"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11">
       <c r="B11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="4"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12">
       <c r="B12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="4"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="4"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14">
       <c r="B14" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="4"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="4"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="4"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="4"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="4"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F19" s="4"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F20" s="4"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21">
       <c r="C21" s="4"/>
@@ -810,6 +841,7 @@
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22">
       <c r="C22" s="4"/>
@@ -817,6 +849,7 @@
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23">
       <c r="C23" s="4"/>
@@ -824,6 +857,7 @@
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24">
       <c r="C24" s="4"/>
@@ -831,6 +865,7 @@
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25">
       <c r="C25" s="4"/>
@@ -838,6 +873,7 @@
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26">
       <c r="C26" s="4"/>
@@ -845,6 +881,7 @@
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27">
       <c r="C27" s="4"/>
@@ -852,6 +889,7 @@
       <c r="E27" s="4"/>
       <c r="F27" s="4"/>
       <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28">
       <c r="C28" s="4"/>
@@ -859,6 +897,7 @@
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29">
       <c r="C29" s="4"/>
@@ -866,6 +905,7 @@
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30">
       <c r="C30" s="4"/>
@@ -873,6 +913,7 @@
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31">
       <c r="C31" s="4"/>
@@ -880,6 +921,7 @@
       <c r="E31" s="4"/>
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32">
       <c r="C32" s="4"/>
@@ -887,6 +929,7 @@
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
     </row>
     <row r="33">
       <c r="C33" s="4"/>
@@ -894,6 +937,7 @@
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
     </row>
     <row r="34">
       <c r="C34" s="4"/>
@@ -901,6 +945,7 @@
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
     </row>
     <row r="35">
       <c r="C35" s="4"/>
@@ -908,6 +953,7 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
     </row>
     <row r="36">
       <c r="C36" s="4"/>
@@ -915,6 +961,7 @@
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
     <row r="37">
       <c r="C37" s="4"/>
@@ -922,6 +969,7 @@
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
     </row>
     <row r="38">
       <c r="C38" s="4"/>
@@ -929,6 +977,7 @@
       <c r="E38" s="4"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
     </row>
     <row r="39">
       <c r="C39" s="4"/>
@@ -936,6 +985,7 @@
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
     </row>
     <row r="40">
       <c r="C40" s="4"/>
@@ -943,6 +993,7 @@
       <c r="E40" s="4"/>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
     </row>
     <row r="41">
       <c r="C41" s="4"/>
@@ -950,6 +1001,7 @@
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
     </row>
     <row r="42">
       <c r="C42" s="4"/>
@@ -957,6 +1009,7 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
     </row>
     <row r="43">
       <c r="C43" s="4"/>
@@ -964,6 +1017,7 @@
       <c r="E43" s="4"/>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
     </row>
     <row r="44">
       <c r="C44" s="4"/>
@@ -971,6 +1025,7 @@
       <c r="E44" s="4"/>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
     </row>
     <row r="45">
       <c r="C45" s="4"/>
@@ -978,6 +1033,7 @@
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
     </row>
     <row r="46">
       <c r="C46" s="4"/>
@@ -985,6 +1041,7 @@
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
     </row>
     <row r="47">
       <c r="C47" s="4"/>
@@ -992,6 +1049,7 @@
       <c r="E47" s="4"/>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
     </row>
     <row r="48">
       <c r="C48" s="4"/>
@@ -999,6 +1057,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
     </row>
     <row r="49">
       <c r="C49" s="4"/>
@@ -1006,6 +1065,7 @@
       <c r="E49" s="4"/>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
     </row>
     <row r="50">
       <c r="C50" s="4"/>
@@ -1013,6 +1073,7 @@
       <c r="E50" s="4"/>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
     </row>
     <row r="51">
       <c r="C51" s="4"/>
@@ -1020,6 +1081,7 @@
       <c r="E51" s="4"/>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
     </row>
     <row r="52">
       <c r="C52" s="4"/>
@@ -1027,6 +1089,7 @@
       <c r="E52" s="4"/>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
     </row>
     <row r="53">
       <c r="C53" s="4"/>
@@ -1034,6 +1097,7 @@
       <c r="E53" s="4"/>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
     </row>
     <row r="54">
       <c r="C54" s="4"/>
@@ -1041,6 +1105,7 @@
       <c r="E54" s="4"/>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
     </row>
     <row r="55">
       <c r="C55" s="4"/>
@@ -1048,6 +1113,7 @@
       <c r="E55" s="4"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
     </row>
     <row r="56">
       <c r="C56" s="4"/>
@@ -1055,6 +1121,7 @@
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
     </row>
     <row r="57">
       <c r="C57" s="4"/>
@@ -1062,6 +1129,7 @@
       <c r="E57" s="4"/>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
     </row>
     <row r="58">
       <c r="C58" s="4"/>
@@ -1069,6 +1137,7 @@
       <c r="E58" s="4"/>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
     </row>
     <row r="59">
       <c r="C59" s="4"/>
@@ -1076,6 +1145,7 @@
       <c r="E59" s="4"/>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
     </row>
     <row r="60">
       <c r="C60" s="4"/>
@@ -1083,6 +1153,7 @@
       <c r="E60" s="4"/>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
     </row>
     <row r="61">
       <c r="C61" s="4"/>
@@ -1090,6 +1161,7 @@
       <c r="E61" s="4"/>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
     </row>
     <row r="62">
       <c r="C62" s="4"/>
@@ -1097,6 +1169,7 @@
       <c r="E62" s="4"/>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
     </row>
     <row r="63">
       <c r="C63" s="4"/>
@@ -1104,6 +1177,7 @@
       <c r="E63" s="4"/>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
     </row>
     <row r="64">
       <c r="C64" s="4"/>
@@ -1111,6 +1185,7 @@
       <c r="E64" s="4"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
     </row>
     <row r="65">
       <c r="C65" s="4"/>
@@ -1118,6 +1193,7 @@
       <c r="E65" s="4"/>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
     </row>
     <row r="66">
       <c r="C66" s="4"/>
@@ -1125,6 +1201,7 @@
       <c r="E66" s="4"/>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
     </row>
     <row r="67">
       <c r="C67" s="4"/>
@@ -1132,6 +1209,7 @@
       <c r="E67" s="4"/>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
     </row>
     <row r="68">
       <c r="C68" s="4"/>
@@ -1139,6 +1217,7 @@
       <c r="E68" s="4"/>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
     </row>
     <row r="69">
       <c r="C69" s="4"/>
@@ -1146,6 +1225,7 @@
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
     </row>
     <row r="70">
       <c r="C70" s="4"/>
@@ -1153,6 +1233,7 @@
       <c r="E70" s="4"/>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
     </row>
     <row r="71">
       <c r="C71" s="4"/>
@@ -1160,6 +1241,7 @@
       <c r="E71" s="4"/>
       <c r="F71" s="4"/>
       <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
     </row>
     <row r="72">
       <c r="C72" s="4"/>
@@ -1167,6 +1249,7 @@
       <c r="E72" s="4"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
     </row>
     <row r="73">
       <c r="C73" s="4"/>
@@ -1174,6 +1257,7 @@
       <c r="E73" s="4"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
     </row>
     <row r="74">
       <c r="C74" s="4"/>
@@ -1181,6 +1265,7 @@
       <c r="E74" s="4"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
     </row>
     <row r="75">
       <c r="C75" s="4"/>
@@ -1188,6 +1273,7 @@
       <c r="E75" s="4"/>
       <c r="F75" s="4"/>
       <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
     </row>
     <row r="76">
       <c r="C76" s="4"/>
@@ -1195,6 +1281,7 @@
       <c r="E76" s="4"/>
       <c r="F76" s="4"/>
       <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
     </row>
     <row r="77">
       <c r="C77" s="4"/>
@@ -1202,6 +1289,7 @@
       <c r="E77" s="4"/>
       <c r="F77" s="4"/>
       <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
     </row>
     <row r="78">
       <c r="C78" s="4"/>
@@ -1209,6 +1297,7 @@
       <c r="E78" s="4"/>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
     </row>
     <row r="79">
       <c r="C79" s="4"/>
@@ -1216,6 +1305,7 @@
       <c r="E79" s="4"/>
       <c r="F79" s="4"/>
       <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
     </row>
     <row r="80">
       <c r="C80" s="4"/>
@@ -1223,6 +1313,7 @@
       <c r="E80" s="4"/>
       <c r="F80" s="4"/>
       <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
     </row>
     <row r="81">
       <c r="C81" s="4"/>
@@ -1230,6 +1321,7 @@
       <c r="E81" s="4"/>
       <c r="F81" s="4"/>
       <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
     </row>
     <row r="82">
       <c r="C82" s="4"/>
@@ -1237,6 +1329,7 @@
       <c r="E82" s="4"/>
       <c r="F82" s="4"/>
       <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
     </row>
     <row r="83">
       <c r="C83" s="4"/>
@@ -1244,6 +1337,7 @@
       <c r="E83" s="4"/>
       <c r="F83" s="4"/>
       <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
     </row>
     <row r="84">
       <c r="C84" s="4"/>
@@ -1251,6 +1345,7 @@
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
       <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
     </row>
     <row r="85">
       <c r="C85" s="4"/>
@@ -1258,6 +1353,7 @@
       <c r="E85" s="4"/>
       <c r="F85" s="4"/>
       <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
     </row>
     <row r="86">
       <c r="C86" s="4"/>
@@ -1265,6 +1361,7 @@
       <c r="E86" s="4"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
     </row>
     <row r="87">
       <c r="C87" s="4"/>
@@ -1272,6 +1369,7 @@
       <c r="E87" s="4"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
     </row>
     <row r="88">
       <c r="C88" s="4"/>
@@ -1279,6 +1377,7 @@
       <c r="E88" s="4"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
     </row>
     <row r="89">
       <c r="C89" s="4"/>
@@ -1286,6 +1385,7 @@
       <c r="E89" s="4"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
     </row>
     <row r="90">
       <c r="C90" s="4"/>
@@ -1293,6 +1393,7 @@
       <c r="E90" s="4"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
     </row>
     <row r="91">
       <c r="C91" s="4"/>
@@ -1300,6 +1401,7 @@
       <c r="E91" s="4"/>
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
     </row>
     <row r="92">
       <c r="C92" s="4"/>
@@ -1307,6 +1409,7 @@
       <c r="E92" s="4"/>
       <c r="F92" s="4"/>
       <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
     </row>
     <row r="93">
       <c r="C93" s="4"/>
@@ -1314,6 +1417,7 @@
       <c r="E93" s="4"/>
       <c r="F93" s="4"/>
       <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
     </row>
     <row r="94">
       <c r="C94" s="4"/>
@@ -1321,6 +1425,7 @@
       <c r="E94" s="4"/>
       <c r="F94" s="4"/>
       <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
     </row>
     <row r="95">
       <c r="C95" s="4"/>
@@ -1328,6 +1433,7 @@
       <c r="E95" s="4"/>
       <c r="F95" s="4"/>
       <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
     </row>
     <row r="96">
       <c r="C96" s="4"/>
@@ -1335,6 +1441,7 @@
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
       <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
     </row>
     <row r="97">
       <c r="C97" s="4"/>
@@ -1342,6 +1449,7 @@
       <c r="E97" s="4"/>
       <c r="F97" s="4"/>
       <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
     </row>
     <row r="98">
       <c r="C98" s="4"/>
@@ -1349,6 +1457,7 @@
       <c r="E98" s="4"/>
       <c r="F98" s="4"/>
       <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
     </row>
     <row r="99">
       <c r="C99" s="4"/>
@@ -1356,6 +1465,7 @@
       <c r="E99" s="4"/>
       <c r="F99" s="4"/>
       <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
     </row>
     <row r="100">
       <c r="C100" s="4"/>
@@ -1363,6 +1473,7 @@
       <c r="E100" s="4"/>
       <c r="F100" s="4"/>
       <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
     </row>
     <row r="101">
       <c r="C101" s="4"/>
@@ -1370,6 +1481,7 @@
       <c r="E101" s="4"/>
       <c r="F101" s="4"/>
       <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
     </row>
     <row r="102">
       <c r="C102" s="4"/>
@@ -1377,6 +1489,7 @@
       <c r="E102" s="4"/>
       <c r="F102" s="4"/>
       <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
     </row>
     <row r="103">
       <c r="C103" s="4"/>
@@ -1384,6 +1497,7 @@
       <c r="E103" s="4"/>
       <c r="F103" s="4"/>
       <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
     </row>
     <row r="104">
       <c r="C104" s="4"/>
@@ -1391,6 +1505,7 @@
       <c r="E104" s="4"/>
       <c r="F104" s="4"/>
       <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
     </row>
     <row r="105">
       <c r="C105" s="4"/>
@@ -1398,6 +1513,7 @@
       <c r="E105" s="4"/>
       <c r="F105" s="4"/>
       <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
     </row>
     <row r="106">
       <c r="C106" s="4"/>
@@ -1405,6 +1521,7 @@
       <c r="E106" s="4"/>
       <c r="F106" s="4"/>
       <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
     </row>
     <row r="107">
       <c r="C107" s="4"/>
@@ -1412,6 +1529,7 @@
       <c r="E107" s="4"/>
       <c r="F107" s="4"/>
       <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
     </row>
     <row r="108">
       <c r="C108" s="4"/>
@@ -1419,6 +1537,7 @@
       <c r="E108" s="4"/>
       <c r="F108" s="4"/>
       <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
     </row>
     <row r="109">
       <c r="C109" s="4"/>
@@ -1426,6 +1545,7 @@
       <c r="E109" s="4"/>
       <c r="F109" s="4"/>
       <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
     </row>
     <row r="110">
       <c r="C110" s="4"/>
@@ -1433,6 +1553,7 @@
       <c r="E110" s="4"/>
       <c r="F110" s="4"/>
       <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
     </row>
     <row r="111">
       <c r="C111" s="4"/>
@@ -1440,6 +1561,7 @@
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
     </row>
     <row r="112">
       <c r="C112" s="4"/>
@@ -1447,6 +1569,7 @@
       <c r="E112" s="4"/>
       <c r="F112" s="4"/>
       <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
     </row>
     <row r="113">
       <c r="C113" s="4"/>
@@ -1454,6 +1577,7 @@
       <c r="E113" s="4"/>
       <c r="F113" s="4"/>
       <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
     </row>
     <row r="114">
       <c r="C114" s="4"/>
@@ -1461,6 +1585,7 @@
       <c r="E114" s="4"/>
       <c r="F114" s="4"/>
       <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
     </row>
     <row r="115">
       <c r="C115" s="4"/>
@@ -1468,6 +1593,7 @@
       <c r="E115" s="4"/>
       <c r="F115" s="4"/>
       <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
     </row>
     <row r="116">
       <c r="C116" s="4"/>
@@ -1475,6 +1601,7 @@
       <c r="E116" s="4"/>
       <c r="F116" s="4"/>
       <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
     </row>
     <row r="117">
       <c r="C117" s="4"/>
@@ -1482,6 +1609,7 @@
       <c r="E117" s="4"/>
       <c r="F117" s="4"/>
       <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
     </row>
     <row r="118">
       <c r="C118" s="4"/>
@@ -1489,6 +1617,7 @@
       <c r="E118" s="4"/>
       <c r="F118" s="4"/>
       <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
     </row>
     <row r="119">
       <c r="C119" s="4"/>
@@ -1496,6 +1625,7 @@
       <c r="E119" s="4"/>
       <c r="F119" s="4"/>
       <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
     </row>
     <row r="120">
       <c r="C120" s="4"/>
@@ -1503,6 +1633,7 @@
       <c r="E120" s="4"/>
       <c r="F120" s="4"/>
       <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
     </row>
     <row r="121">
       <c r="C121" s="4"/>
@@ -1510,6 +1641,7 @@
       <c r="E121" s="4"/>
       <c r="F121" s="4"/>
       <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
     </row>
     <row r="122">
       <c r="C122" s="4"/>
@@ -1517,6 +1649,7 @@
       <c r="E122" s="4"/>
       <c r="F122" s="4"/>
       <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
     </row>
     <row r="123">
       <c r="C123" s="4"/>
@@ -1524,6 +1657,7 @@
       <c r="E123" s="4"/>
       <c r="F123" s="4"/>
       <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
     </row>
     <row r="124">
       <c r="C124" s="4"/>
@@ -1531,6 +1665,7 @@
       <c r="E124" s="4"/>
       <c r="F124" s="4"/>
       <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
     </row>
     <row r="125">
       <c r="C125" s="4"/>
@@ -1538,6 +1673,7 @@
       <c r="E125" s="4"/>
       <c r="F125" s="4"/>
       <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
     </row>
     <row r="126">
       <c r="C126" s="4"/>
@@ -1545,6 +1681,7 @@
       <c r="E126" s="4"/>
       <c r="F126" s="4"/>
       <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
     </row>
     <row r="127">
       <c r="C127" s="4"/>
@@ -1552,6 +1689,7 @@
       <c r="E127" s="4"/>
       <c r="F127" s="4"/>
       <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
     </row>
     <row r="128">
       <c r="C128" s="4"/>
@@ -1559,6 +1697,7 @@
       <c r="E128" s="4"/>
       <c r="F128" s="4"/>
       <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
     </row>
     <row r="129">
       <c r="C129" s="4"/>
@@ -1566,6 +1705,7 @@
       <c r="E129" s="4"/>
       <c r="F129" s="4"/>
       <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
     </row>
     <row r="130">
       <c r="C130" s="4"/>
@@ -1573,6 +1713,7 @@
       <c r="E130" s="4"/>
       <c r="F130" s="4"/>
       <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
     </row>
     <row r="131">
       <c r="C131" s="4"/>
@@ -1580,6 +1721,7 @@
       <c r="E131" s="4"/>
       <c r="F131" s="4"/>
       <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
     </row>
     <row r="132">
       <c r="C132" s="4"/>
@@ -1587,6 +1729,7 @@
       <c r="E132" s="4"/>
       <c r="F132" s="4"/>
       <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
     </row>
     <row r="133">
       <c r="C133" s="4"/>
@@ -1594,6 +1737,7 @@
       <c r="E133" s="4"/>
       <c r="F133" s="4"/>
       <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
     </row>
     <row r="134">
       <c r="C134" s="4"/>
@@ -1601,6 +1745,7 @@
       <c r="E134" s="4"/>
       <c r="F134" s="4"/>
       <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
     </row>
     <row r="135">
       <c r="C135" s="4"/>
@@ -1608,6 +1753,7 @@
       <c r="E135" s="4"/>
       <c r="F135" s="4"/>
       <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
     </row>
     <row r="136">
       <c r="C136" s="4"/>
@@ -1615,6 +1761,7 @@
       <c r="E136" s="4"/>
       <c r="F136" s="4"/>
       <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
     </row>
     <row r="137">
       <c r="C137" s="4"/>
@@ -1622,6 +1769,7 @@
       <c r="E137" s="4"/>
       <c r="F137" s="4"/>
       <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
     </row>
     <row r="138">
       <c r="C138" s="4"/>
@@ -1629,6 +1777,7 @@
       <c r="E138" s="4"/>
       <c r="F138" s="4"/>
       <c r="G138" s="4"/>
+      <c r="H138" s="4"/>
     </row>
     <row r="139">
       <c r="C139" s="4"/>
@@ -1636,6 +1785,7 @@
       <c r="E139" s="4"/>
       <c r="F139" s="4"/>
       <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
     </row>
     <row r="140">
       <c r="C140" s="4"/>
@@ -1643,6 +1793,7 @@
       <c r="E140" s="4"/>
       <c r="F140" s="4"/>
       <c r="G140" s="4"/>
+      <c r="H140" s="4"/>
     </row>
     <row r="141">
       <c r="C141" s="4"/>
@@ -1650,6 +1801,7 @@
       <c r="E141" s="4"/>
       <c r="F141" s="4"/>
       <c r="G141" s="4"/>
+      <c r="H141" s="4"/>
     </row>
     <row r="142">
       <c r="C142" s="4"/>
@@ -1657,6 +1809,7 @@
       <c r="E142" s="4"/>
       <c r="F142" s="4"/>
       <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
     </row>
     <row r="143">
       <c r="C143" s="4"/>
@@ -1664,6 +1817,7 @@
       <c r="E143" s="4"/>
       <c r="F143" s="4"/>
       <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
     </row>
     <row r="144">
       <c r="C144" s="4"/>
@@ -1671,6 +1825,7 @@
       <c r="E144" s="4"/>
       <c r="F144" s="4"/>
       <c r="G144" s="4"/>
+      <c r="H144" s="4"/>
     </row>
     <row r="145">
       <c r="C145" s="4"/>
@@ -1678,6 +1833,7 @@
       <c r="E145" s="4"/>
       <c r="F145" s="4"/>
       <c r="G145" s="4"/>
+      <c r="H145" s="4"/>
     </row>
     <row r="146">
       <c r="C146" s="4"/>
@@ -1685,6 +1841,7 @@
       <c r="E146" s="4"/>
       <c r="F146" s="4"/>
       <c r="G146" s="4"/>
+      <c r="H146" s="4"/>
     </row>
     <row r="147">
       <c r="C147" s="4"/>
@@ -1692,6 +1849,7 @@
       <c r="E147" s="4"/>
       <c r="F147" s="4"/>
       <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
     </row>
     <row r="148">
       <c r="C148" s="4"/>
@@ -1699,6 +1857,7 @@
       <c r="E148" s="4"/>
       <c r="F148" s="4"/>
       <c r="G148" s="4"/>
+      <c r="H148" s="4"/>
     </row>
     <row r="149">
       <c r="C149" s="4"/>
@@ -1706,6 +1865,7 @@
       <c r="E149" s="4"/>
       <c r="F149" s="4"/>
       <c r="G149" s="4"/>
+      <c r="H149" s="4"/>
     </row>
     <row r="150">
       <c r="C150" s="4"/>
@@ -1713,6 +1873,7 @@
       <c r="E150" s="4"/>
       <c r="F150" s="4"/>
       <c r="G150" s="4"/>
+      <c r="H150" s="4"/>
     </row>
     <row r="151">
       <c r="C151" s="4"/>
@@ -1720,6 +1881,7 @@
       <c r="E151" s="4"/>
       <c r="F151" s="4"/>
       <c r="G151" s="4"/>
+      <c r="H151" s="4"/>
     </row>
     <row r="152">
       <c r="C152" s="4"/>
@@ -1727,6 +1889,7 @@
       <c r="E152" s="4"/>
       <c r="F152" s="4"/>
       <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
     </row>
     <row r="153">
       <c r="C153" s="4"/>
@@ -1734,6 +1897,7 @@
       <c r="E153" s="4"/>
       <c r="F153" s="4"/>
       <c r="G153" s="4"/>
+      <c r="H153" s="4"/>
     </row>
     <row r="154">
       <c r="C154" s="4"/>
@@ -1741,6 +1905,7 @@
       <c r="E154" s="4"/>
       <c r="F154" s="4"/>
       <c r="G154" s="4"/>
+      <c r="H154" s="4"/>
     </row>
     <row r="155">
       <c r="C155" s="4"/>
@@ -1748,6 +1913,7 @@
       <c r="E155" s="4"/>
       <c r="F155" s="4"/>
       <c r="G155" s="4"/>
+      <c r="H155" s="4"/>
     </row>
     <row r="156">
       <c r="C156" s="4"/>
@@ -1755,6 +1921,7 @@
       <c r="E156" s="4"/>
       <c r="F156" s="4"/>
       <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
     </row>
     <row r="157">
       <c r="C157" s="4"/>
@@ -1762,6 +1929,7 @@
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
       <c r="G157" s="4"/>
+      <c r="H157" s="4"/>
     </row>
     <row r="158">
       <c r="C158" s="4"/>
@@ -1769,6 +1937,7 @@
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
       <c r="G158" s="4"/>
+      <c r="H158" s="4"/>
     </row>
     <row r="159">
       <c r="C159" s="4"/>
@@ -1776,6 +1945,7 @@
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="4"/>
+      <c r="H159" s="4"/>
     </row>
     <row r="160">
       <c r="C160" s="4"/>
@@ -1783,6 +1953,7 @@
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
       <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
     </row>
     <row r="161">
       <c r="C161" s="4"/>
@@ -1790,6 +1961,7 @@
       <c r="E161" s="4"/>
       <c r="F161" s="4"/>
       <c r="G161" s="4"/>
+      <c r="H161" s="4"/>
     </row>
     <row r="162">
       <c r="C162" s="4"/>
@@ -1797,6 +1969,7 @@
       <c r="E162" s="4"/>
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
+      <c r="H162" s="4"/>
     </row>
     <row r="163">
       <c r="C163" s="4"/>
@@ -1804,6 +1977,7 @@
       <c r="E163" s="4"/>
       <c r="F163" s="4"/>
       <c r="G163" s="4"/>
+      <c r="H163" s="4"/>
     </row>
     <row r="164">
       <c r="C164" s="4"/>
@@ -1811,6 +1985,7 @@
       <c r="E164" s="4"/>
       <c r="F164" s="4"/>
       <c r="G164" s="4"/>
+      <c r="H164" s="4"/>
     </row>
     <row r="165">
       <c r="C165" s="4"/>
@@ -1818,6 +1993,7 @@
       <c r="E165" s="4"/>
       <c r="F165" s="4"/>
       <c r="G165" s="4"/>
+      <c r="H165" s="4"/>
     </row>
     <row r="166">
       <c r="C166" s="4"/>
@@ -1825,6 +2001,7 @@
       <c r="E166" s="4"/>
       <c r="F166" s="4"/>
       <c r="G166" s="4"/>
+      <c r="H166" s="4"/>
     </row>
     <row r="167">
       <c r="C167" s="4"/>
@@ -1832,6 +2009,7 @@
       <c r="E167" s="4"/>
       <c r="F167" s="4"/>
       <c r="G167" s="4"/>
+      <c r="H167" s="4"/>
     </row>
     <row r="168">
       <c r="C168" s="4"/>
@@ -1839,6 +2017,7 @@
       <c r="E168" s="4"/>
       <c r="F168" s="4"/>
       <c r="G168" s="4"/>
+      <c r="H168" s="4"/>
     </row>
     <row r="169">
       <c r="C169" s="4"/>
@@ -1846,6 +2025,7 @@
       <c r="E169" s="4"/>
       <c r="F169" s="4"/>
       <c r="G169" s="4"/>
+      <c r="H169" s="4"/>
     </row>
     <row r="170">
       <c r="C170" s="4"/>
@@ -1853,6 +2033,7 @@
       <c r="E170" s="4"/>
       <c r="F170" s="4"/>
       <c r="G170" s="4"/>
+      <c r="H170" s="4"/>
     </row>
     <row r="171">
       <c r="C171" s="4"/>
@@ -1860,6 +2041,7 @@
       <c r="E171" s="4"/>
       <c r="F171" s="4"/>
       <c r="G171" s="4"/>
+      <c r="H171" s="4"/>
     </row>
     <row r="172">
       <c r="C172" s="4"/>
@@ -1867,6 +2049,7 @@
       <c r="E172" s="4"/>
       <c r="F172" s="4"/>
       <c r="G172" s="4"/>
+      <c r="H172" s="4"/>
     </row>
     <row r="173">
       <c r="C173" s="4"/>
@@ -1874,6 +2057,7 @@
       <c r="E173" s="4"/>
       <c r="F173" s="4"/>
       <c r="G173" s="4"/>
+      <c r="H173" s="4"/>
     </row>
     <row r="174">
       <c r="C174" s="4"/>
@@ -1881,6 +2065,7 @@
       <c r="E174" s="4"/>
       <c r="F174" s="4"/>
       <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
     </row>
     <row r="175">
       <c r="C175" s="4"/>
@@ -1888,6 +2073,7 @@
       <c r="E175" s="4"/>
       <c r="F175" s="4"/>
       <c r="G175" s="4"/>
+      <c r="H175" s="4"/>
     </row>
     <row r="176">
       <c r="C176" s="4"/>
@@ -1895,6 +2081,7 @@
       <c r="E176" s="4"/>
       <c r="F176" s="4"/>
       <c r="G176" s="4"/>
+      <c r="H176" s="4"/>
     </row>
     <row r="177">
       <c r="C177" s="4"/>
@@ -1902,6 +2089,7 @@
       <c r="E177" s="4"/>
       <c r="F177" s="4"/>
       <c r="G177" s="4"/>
+      <c r="H177" s="4"/>
     </row>
     <row r="178">
       <c r="C178" s="4"/>
@@ -1909,6 +2097,7 @@
       <c r="E178" s="4"/>
       <c r="F178" s="4"/>
       <c r="G178" s="4"/>
+      <c r="H178" s="4"/>
     </row>
     <row r="179">
       <c r="C179" s="4"/>
@@ -1916,6 +2105,7 @@
       <c r="E179" s="4"/>
       <c r="F179" s="4"/>
       <c r="G179" s="4"/>
+      <c r="H179" s="4"/>
     </row>
     <row r="180">
       <c r="C180" s="4"/>
@@ -1923,6 +2113,7 @@
       <c r="E180" s="4"/>
       <c r="F180" s="4"/>
       <c r="G180" s="4"/>
+      <c r="H180" s="4"/>
     </row>
     <row r="181">
       <c r="C181" s="4"/>
@@ -1930,6 +2121,7 @@
       <c r="E181" s="4"/>
       <c r="F181" s="4"/>
       <c r="G181" s="4"/>
+      <c r="H181" s="4"/>
     </row>
     <row r="182">
       <c r="C182" s="4"/>
@@ -1937,6 +2129,7 @@
       <c r="E182" s="4"/>
       <c r="F182" s="4"/>
       <c r="G182" s="4"/>
+      <c r="H182" s="4"/>
     </row>
     <row r="183">
       <c r="C183" s="4"/>
@@ -1944,6 +2137,7 @@
       <c r="E183" s="4"/>
       <c r="F183" s="4"/>
       <c r="G183" s="4"/>
+      <c r="H183" s="4"/>
     </row>
     <row r="184">
       <c r="C184" s="4"/>
@@ -1951,6 +2145,7 @@
       <c r="E184" s="4"/>
       <c r="F184" s="4"/>
       <c r="G184" s="4"/>
+      <c r="H184" s="4"/>
     </row>
     <row r="185">
       <c r="C185" s="4"/>
@@ -1958,6 +2153,7 @@
       <c r="E185" s="4"/>
       <c r="F185" s="4"/>
       <c r="G185" s="4"/>
+      <c r="H185" s="4"/>
     </row>
     <row r="186">
       <c r="C186" s="4"/>
@@ -1965,6 +2161,7 @@
       <c r="E186" s="4"/>
       <c r="F186" s="4"/>
       <c r="G186" s="4"/>
+      <c r="H186" s="4"/>
     </row>
     <row r="187">
       <c r="C187" s="4"/>
@@ -1972,6 +2169,7 @@
       <c r="E187" s="4"/>
       <c r="F187" s="4"/>
       <c r="G187" s="4"/>
+      <c r="H187" s="4"/>
     </row>
     <row r="188">
       <c r="C188" s="4"/>
@@ -1979,6 +2177,7 @@
       <c r="E188" s="4"/>
       <c r="F188" s="4"/>
       <c r="G188" s="4"/>
+      <c r="H188" s="4"/>
     </row>
     <row r="189">
       <c r="C189" s="4"/>
@@ -1986,6 +2185,7 @@
       <c r="E189" s="4"/>
       <c r="F189" s="4"/>
       <c r="G189" s="4"/>
+      <c r="H189" s="4"/>
     </row>
     <row r="190">
       <c r="C190" s="4"/>
@@ -1993,6 +2193,7 @@
       <c r="E190" s="4"/>
       <c r="F190" s="4"/>
       <c r="G190" s="4"/>
+      <c r="H190" s="4"/>
     </row>
     <row r="191">
       <c r="C191" s="4"/>
@@ -2000,6 +2201,7 @@
       <c r="E191" s="4"/>
       <c r="F191" s="4"/>
       <c r="G191" s="4"/>
+      <c r="H191" s="4"/>
     </row>
     <row r="192">
       <c r="C192" s="4"/>
@@ -2007,6 +2209,7 @@
       <c r="E192" s="4"/>
       <c r="F192" s="4"/>
       <c r="G192" s="4"/>
+      <c r="H192" s="4"/>
     </row>
     <row r="193">
       <c r="C193" s="4"/>
@@ -2014,6 +2217,7 @@
       <c r="E193" s="4"/>
       <c r="F193" s="4"/>
       <c r="G193" s="4"/>
+      <c r="H193" s="4"/>
     </row>
     <row r="194">
       <c r="C194" s="4"/>
@@ -2021,6 +2225,7 @@
       <c r="E194" s="4"/>
       <c r="F194" s="4"/>
       <c r="G194" s="4"/>
+      <c r="H194" s="4"/>
     </row>
     <row r="195">
       <c r="C195" s="4"/>
@@ -2028,6 +2233,7 @@
       <c r="E195" s="4"/>
       <c r="F195" s="4"/>
       <c r="G195" s="4"/>
+      <c r="H195" s="4"/>
     </row>
     <row r="196">
       <c r="C196" s="4"/>
@@ -2035,6 +2241,7 @@
       <c r="E196" s="4"/>
       <c r="F196" s="4"/>
       <c r="G196" s="4"/>
+      <c r="H196" s="4"/>
     </row>
     <row r="197">
       <c r="C197" s="4"/>
@@ -2042,6 +2249,7 @@
       <c r="E197" s="4"/>
       <c r="F197" s="4"/>
       <c r="G197" s="4"/>
+      <c r="H197" s="4"/>
     </row>
     <row r="198">
       <c r="C198" s="4"/>
@@ -2049,6 +2257,7 @@
       <c r="E198" s="4"/>
       <c r="F198" s="4"/>
       <c r="G198" s="4"/>
+      <c r="H198" s="4"/>
     </row>
     <row r="199">
       <c r="C199" s="4"/>
@@ -2056,6 +2265,7 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
+      <c r="H199" s="4"/>
     </row>
     <row r="200">
       <c r="C200" s="4"/>
@@ -2063,6 +2273,7 @@
       <c r="E200" s="4"/>
       <c r="F200" s="4"/>
       <c r="G200" s="4"/>
+      <c r="H200" s="4"/>
     </row>
     <row r="201">
       <c r="C201" s="4"/>
@@ -2070,6 +2281,7 @@
       <c r="E201" s="4"/>
       <c r="F201" s="4"/>
       <c r="G201" s="4"/>
+      <c r="H201" s="4"/>
     </row>
     <row r="202">
       <c r="C202" s="4"/>
@@ -2077,6 +2289,7 @@
       <c r="E202" s="4"/>
       <c r="F202" s="4"/>
       <c r="G202" s="4"/>
+      <c r="H202" s="4"/>
     </row>
     <row r="203">
       <c r="C203" s="4"/>
@@ -2084,6 +2297,7 @@
       <c r="E203" s="4"/>
       <c r="F203" s="4"/>
       <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
     </row>
     <row r="204">
       <c r="C204" s="4"/>
@@ -2091,6 +2305,7 @@
       <c r="E204" s="4"/>
       <c r="F204" s="4"/>
       <c r="G204" s="4"/>
+      <c r="H204" s="4"/>
     </row>
     <row r="205">
       <c r="C205" s="4"/>
@@ -2098,6 +2313,7 @@
       <c r="E205" s="4"/>
       <c r="F205" s="4"/>
       <c r="G205" s="4"/>
+      <c r="H205" s="4"/>
     </row>
     <row r="206">
       <c r="C206" s="4"/>
@@ -2105,6 +2321,7 @@
       <c r="E206" s="4"/>
       <c r="F206" s="4"/>
       <c r="G206" s="4"/>
+      <c r="H206" s="4"/>
     </row>
     <row r="207">
       <c r="C207" s="4"/>
@@ -2112,6 +2329,7 @@
       <c r="E207" s="4"/>
       <c r="F207" s="4"/>
       <c r="G207" s="4"/>
+      <c r="H207" s="4"/>
     </row>
     <row r="208">
       <c r="C208" s="4"/>
@@ -2119,6 +2337,7 @@
       <c r="E208" s="4"/>
       <c r="F208" s="4"/>
       <c r="G208" s="4"/>
+      <c r="H208" s="4"/>
     </row>
     <row r="209">
       <c r="C209" s="4"/>
@@ -2126,6 +2345,7 @@
       <c r="E209" s="4"/>
       <c r="F209" s="4"/>
       <c r="G209" s="4"/>
+      <c r="H209" s="4"/>
     </row>
     <row r="210">
       <c r="C210" s="4"/>
@@ -2133,6 +2353,7 @@
       <c r="E210" s="4"/>
       <c r="F210" s="4"/>
       <c r="G210" s="4"/>
+      <c r="H210" s="4"/>
     </row>
     <row r="211">
       <c r="C211" s="4"/>
@@ -2140,6 +2361,7 @@
       <c r="E211" s="4"/>
       <c r="F211" s="4"/>
       <c r="G211" s="4"/>
+      <c r="H211" s="4"/>
     </row>
     <row r="212">
       <c r="C212" s="4"/>
@@ -2147,6 +2369,7 @@
       <c r="E212" s="4"/>
       <c r="F212" s="4"/>
       <c r="G212" s="4"/>
+      <c r="H212" s="4"/>
     </row>
     <row r="213">
       <c r="C213" s="4"/>
@@ -2154,6 +2377,7 @@
       <c r="E213" s="4"/>
       <c r="F213" s="4"/>
       <c r="G213" s="4"/>
+      <c r="H213" s="4"/>
     </row>
     <row r="214">
       <c r="C214" s="4"/>
@@ -2161,6 +2385,7 @@
       <c r="E214" s="4"/>
       <c r="F214" s="4"/>
       <c r="G214" s="4"/>
+      <c r="H214" s="4"/>
     </row>
     <row r="215">
       <c r="C215" s="4"/>
@@ -2168,6 +2393,7 @@
       <c r="E215" s="4"/>
       <c r="F215" s="4"/>
       <c r="G215" s="4"/>
+      <c r="H215" s="4"/>
     </row>
     <row r="216">
       <c r="C216" s="4"/>
@@ -2175,6 +2401,7 @@
       <c r="E216" s="4"/>
       <c r="F216" s="4"/>
       <c r="G216" s="4"/>
+      <c r="H216" s="4"/>
     </row>
     <row r="217">
       <c r="C217" s="4"/>
@@ -2182,6 +2409,7 @@
       <c r="E217" s="4"/>
       <c r="F217" s="4"/>
       <c r="G217" s="4"/>
+      <c r="H217" s="4"/>
     </row>
     <row r="218">
       <c r="C218" s="4"/>
@@ -2189,6 +2417,7 @@
       <c r="E218" s="4"/>
       <c r="F218" s="4"/>
       <c r="G218" s="4"/>
+      <c r="H218" s="4"/>
     </row>
     <row r="219">
       <c r="C219" s="4"/>
@@ -2196,6 +2425,7 @@
       <c r="E219" s="4"/>
       <c r="F219" s="4"/>
       <c r="G219" s="4"/>
+      <c r="H219" s="4"/>
     </row>
     <row r="220">
       <c r="C220" s="4"/>
@@ -2203,6 +2433,7 @@
       <c r="E220" s="4"/>
       <c r="F220" s="4"/>
       <c r="G220" s="4"/>
+      <c r="H220" s="4"/>
     </row>
     <row r="221">
       <c r="C221" s="4"/>
@@ -2210,6 +2441,7 @@
       <c r="E221" s="4"/>
       <c r="F221" s="4"/>
       <c r="G221" s="4"/>
+      <c r="H221" s="4"/>
     </row>
     <row r="222">
       <c r="C222" s="4"/>
@@ -2217,6 +2449,7 @@
       <c r="E222" s="4"/>
       <c r="F222" s="4"/>
       <c r="G222" s="4"/>
+      <c r="H222" s="4"/>
     </row>
     <row r="223">
       <c r="C223" s="4"/>
@@ -2224,6 +2457,7 @@
       <c r="E223" s="4"/>
       <c r="F223" s="4"/>
       <c r="G223" s="4"/>
+      <c r="H223" s="4"/>
     </row>
     <row r="224">
       <c r="C224" s="4"/>
@@ -2231,6 +2465,7 @@
       <c r="E224" s="4"/>
       <c r="F224" s="4"/>
       <c r="G224" s="4"/>
+      <c r="H224" s="4"/>
     </row>
     <row r="225">
       <c r="C225" s="4"/>
@@ -2238,6 +2473,7 @@
       <c r="E225" s="4"/>
       <c r="F225" s="4"/>
       <c r="G225" s="4"/>
+      <c r="H225" s="4"/>
     </row>
     <row r="226">
       <c r="C226" s="4"/>
@@ -2245,6 +2481,7 @@
       <c r="E226" s="4"/>
       <c r="F226" s="4"/>
       <c r="G226" s="4"/>
+      <c r="H226" s="4"/>
     </row>
     <row r="227">
       <c r="C227" s="4"/>
@@ -2252,6 +2489,7 @@
       <c r="E227" s="4"/>
       <c r="F227" s="4"/>
       <c r="G227" s="4"/>
+      <c r="H227" s="4"/>
     </row>
     <row r="228">
       <c r="C228" s="4"/>
@@ -2259,6 +2497,7 @@
       <c r="E228" s="4"/>
       <c r="F228" s="4"/>
       <c r="G228" s="4"/>
+      <c r="H228" s="4"/>
     </row>
     <row r="229">
       <c r="C229" s="4"/>
@@ -2266,6 +2505,7 @@
       <c r="E229" s="4"/>
       <c r="F229" s="4"/>
       <c r="G229" s="4"/>
+      <c r="H229" s="4"/>
     </row>
     <row r="230">
       <c r="C230" s="4"/>
@@ -2273,6 +2513,7 @@
       <c r="E230" s="4"/>
       <c r="F230" s="4"/>
       <c r="G230" s="4"/>
+      <c r="H230" s="4"/>
     </row>
     <row r="231">
       <c r="C231" s="4"/>
@@ -2280,6 +2521,7 @@
       <c r="E231" s="4"/>
       <c r="F231" s="4"/>
       <c r="G231" s="4"/>
+      <c r="H231" s="4"/>
     </row>
     <row r="232">
       <c r="C232" s="4"/>
@@ -2287,6 +2529,7 @@
       <c r="E232" s="4"/>
       <c r="F232" s="4"/>
       <c r="G232" s="4"/>
+      <c r="H232" s="4"/>
     </row>
     <row r="233">
       <c r="C233" s="4"/>
@@ -2294,6 +2537,7 @@
       <c r="E233" s="4"/>
       <c r="F233" s="4"/>
       <c r="G233" s="4"/>
+      <c r="H233" s="4"/>
     </row>
     <row r="234">
       <c r="C234" s="4"/>
@@ -2301,6 +2545,7 @@
       <c r="E234" s="4"/>
       <c r="F234" s="4"/>
       <c r="G234" s="4"/>
+      <c r="H234" s="4"/>
     </row>
     <row r="235">
       <c r="C235" s="4"/>
@@ -2308,6 +2553,7 @@
       <c r="E235" s="4"/>
       <c r="F235" s="4"/>
       <c r="G235" s="4"/>
+      <c r="H235" s="4"/>
     </row>
     <row r="236">
       <c r="C236" s="4"/>
@@ -2315,6 +2561,7 @@
       <c r="E236" s="4"/>
       <c r="F236" s="4"/>
       <c r="G236" s="4"/>
+      <c r="H236" s="4"/>
     </row>
     <row r="237">
       <c r="C237" s="4"/>
@@ -2322,6 +2569,7 @@
       <c r="E237" s="4"/>
       <c r="F237" s="4"/>
       <c r="G237" s="4"/>
+      <c r="H237" s="4"/>
     </row>
     <row r="238">
       <c r="C238" s="4"/>
@@ -2329,6 +2577,7 @@
       <c r="E238" s="4"/>
       <c r="F238" s="4"/>
       <c r="G238" s="4"/>
+      <c r="H238" s="4"/>
     </row>
     <row r="239">
       <c r="C239" s="4"/>
@@ -2336,6 +2585,7 @@
       <c r="E239" s="4"/>
       <c r="F239" s="4"/>
       <c r="G239" s="4"/>
+      <c r="H239" s="4"/>
     </row>
     <row r="240">
       <c r="C240" s="4"/>
@@ -2343,6 +2593,7 @@
       <c r="E240" s="4"/>
       <c r="F240" s="4"/>
       <c r="G240" s="4"/>
+      <c r="H240" s="4"/>
     </row>
     <row r="241">
       <c r="C241" s="4"/>
@@ -2350,6 +2601,7 @@
       <c r="E241" s="4"/>
       <c r="F241" s="4"/>
       <c r="G241" s="4"/>
+      <c r="H241" s="4"/>
     </row>
     <row r="242">
       <c r="C242" s="4"/>
@@ -2357,6 +2609,7 @@
       <c r="E242" s="4"/>
       <c r="F242" s="4"/>
       <c r="G242" s="4"/>
+      <c r="H242" s="4"/>
     </row>
     <row r="243">
       <c r="C243" s="4"/>
@@ -2364,6 +2617,7 @@
       <c r="E243" s="4"/>
       <c r="F243" s="4"/>
       <c r="G243" s="4"/>
+      <c r="H243" s="4"/>
     </row>
     <row r="244">
       <c r="C244" s="4"/>
@@ -2371,6 +2625,7 @@
       <c r="E244" s="4"/>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
+      <c r="H244" s="4"/>
     </row>
     <row r="245">
       <c r="C245" s="4"/>
@@ -2378,6 +2633,7 @@
       <c r="E245" s="4"/>
       <c r="F245" s="4"/>
       <c r="G245" s="4"/>
+      <c r="H245" s="4"/>
     </row>
     <row r="246">
       <c r="C246" s="4"/>
@@ -2385,6 +2641,7 @@
       <c r="E246" s="4"/>
       <c r="F246" s="4"/>
       <c r="G246" s="4"/>
+      <c r="H246" s="4"/>
     </row>
     <row r="247">
       <c r="C247" s="4"/>
@@ -2392,6 +2649,7 @@
       <c r="E247" s="4"/>
       <c r="F247" s="4"/>
       <c r="G247" s="4"/>
+      <c r="H247" s="4"/>
     </row>
     <row r="248">
       <c r="C248" s="4"/>
@@ -2399,6 +2657,7 @@
       <c r="E248" s="4"/>
       <c r="F248" s="4"/>
       <c r="G248" s="4"/>
+      <c r="H248" s="4"/>
     </row>
     <row r="249">
       <c r="C249" s="4"/>
@@ -2406,6 +2665,7 @@
       <c r="E249" s="4"/>
       <c r="F249" s="4"/>
       <c r="G249" s="4"/>
+      <c r="H249" s="4"/>
     </row>
     <row r="250">
       <c r="C250" s="4"/>
@@ -2413,6 +2673,7 @@
       <c r="E250" s="4"/>
       <c r="F250" s="4"/>
       <c r="G250" s="4"/>
+      <c r="H250" s="4"/>
     </row>
     <row r="251">
       <c r="C251" s="4"/>
@@ -2420,6 +2681,7 @@
       <c r="E251" s="4"/>
       <c r="F251" s="4"/>
       <c r="G251" s="4"/>
+      <c r="H251" s="4"/>
     </row>
     <row r="252">
       <c r="C252" s="4"/>
@@ -2427,6 +2689,7 @@
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
       <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
     </row>
     <row r="253">
       <c r="C253" s="4"/>
@@ -2434,6 +2697,7 @@
       <c r="E253" s="4"/>
       <c r="F253" s="4"/>
       <c r="G253" s="4"/>
+      <c r="H253" s="4"/>
     </row>
     <row r="254">
       <c r="C254" s="4"/>
@@ -2441,6 +2705,7 @@
       <c r="E254" s="4"/>
       <c r="F254" s="4"/>
       <c r="G254" s="4"/>
+      <c r="H254" s="4"/>
     </row>
     <row r="255">
       <c r="C255" s="4"/>
@@ -2448,6 +2713,7 @@
       <c r="E255" s="4"/>
       <c r="F255" s="4"/>
       <c r="G255" s="4"/>
+      <c r="H255" s="4"/>
     </row>
     <row r="256">
       <c r="C256" s="4"/>
@@ -2455,6 +2721,7 @@
       <c r="E256" s="4"/>
       <c r="F256" s="4"/>
       <c r="G256" s="4"/>
+      <c r="H256" s="4"/>
     </row>
     <row r="257">
       <c r="C257" s="4"/>
@@ -2462,6 +2729,7 @@
       <c r="E257" s="4"/>
       <c r="F257" s="4"/>
       <c r="G257" s="4"/>
+      <c r="H257" s="4"/>
     </row>
     <row r="258">
       <c r="C258" s="4"/>
@@ -2469,6 +2737,7 @@
       <c r="E258" s="4"/>
       <c r="F258" s="4"/>
       <c r="G258" s="4"/>
+      <c r="H258" s="4"/>
     </row>
     <row r="259">
       <c r="C259" s="4"/>
@@ -2476,6 +2745,7 @@
       <c r="E259" s="4"/>
       <c r="F259" s="4"/>
       <c r="G259" s="4"/>
+      <c r="H259" s="4"/>
     </row>
     <row r="260">
       <c r="C260" s="4"/>
@@ -2483,6 +2753,7 @@
       <c r="E260" s="4"/>
       <c r="F260" s="4"/>
       <c r="G260" s="4"/>
+      <c r="H260" s="4"/>
     </row>
     <row r="261">
       <c r="C261" s="4"/>
@@ -2490,6 +2761,7 @@
       <c r="E261" s="4"/>
       <c r="F261" s="4"/>
       <c r="G261" s="4"/>
+      <c r="H261" s="4"/>
     </row>
     <row r="262">
       <c r="C262" s="4"/>
@@ -2497,6 +2769,7 @@
       <c r="E262" s="4"/>
       <c r="F262" s="4"/>
       <c r="G262" s="4"/>
+      <c r="H262" s="4"/>
     </row>
     <row r="263">
       <c r="C263" s="4"/>
@@ -2504,6 +2777,7 @@
       <c r="E263" s="4"/>
       <c r="F263" s="4"/>
       <c r="G263" s="4"/>
+      <c r="H263" s="4"/>
     </row>
     <row r="264">
       <c r="C264" s="4"/>
@@ -2511,6 +2785,7 @@
       <c r="E264" s="4"/>
       <c r="F264" s="4"/>
       <c r="G264" s="4"/>
+      <c r="H264" s="4"/>
     </row>
     <row r="265">
       <c r="C265" s="4"/>
@@ -2518,6 +2793,7 @@
       <c r="E265" s="4"/>
       <c r="F265" s="4"/>
       <c r="G265" s="4"/>
+      <c r="H265" s="4"/>
     </row>
     <row r="266">
       <c r="C266" s="4"/>
@@ -2525,6 +2801,7 @@
       <c r="E266" s="4"/>
       <c r="F266" s="4"/>
       <c r="G266" s="4"/>
+      <c r="H266" s="4"/>
     </row>
     <row r="267">
       <c r="C267" s="4"/>
@@ -2532,6 +2809,7 @@
       <c r="E267" s="4"/>
       <c r="F267" s="4"/>
       <c r="G267" s="4"/>
+      <c r="H267" s="4"/>
     </row>
     <row r="268">
       <c r="C268" s="4"/>
@@ -2539,6 +2817,7 @@
       <c r="E268" s="4"/>
       <c r="F268" s="4"/>
       <c r="G268" s="4"/>
+      <c r="H268" s="4"/>
     </row>
     <row r="269">
       <c r="C269" s="4"/>
@@ -2546,6 +2825,7 @@
       <c r="E269" s="4"/>
       <c r="F269" s="4"/>
       <c r="G269" s="4"/>
+      <c r="H269" s="4"/>
     </row>
     <row r="270">
       <c r="C270" s="4"/>
@@ -2553,6 +2833,7 @@
       <c r="E270" s="4"/>
       <c r="F270" s="4"/>
       <c r="G270" s="4"/>
+      <c r="H270" s="4"/>
     </row>
     <row r="271">
       <c r="C271" s="4"/>
@@ -2560,6 +2841,7 @@
       <c r="E271" s="4"/>
       <c r="F271" s="4"/>
       <c r="G271" s="4"/>
+      <c r="H271" s="4"/>
     </row>
     <row r="272">
       <c r="C272" s="4"/>
@@ -2567,6 +2849,7 @@
       <c r="E272" s="4"/>
       <c r="F272" s="4"/>
       <c r="G272" s="4"/>
+      <c r="H272" s="4"/>
     </row>
     <row r="273">
       <c r="C273" s="4"/>
@@ -2574,6 +2857,7 @@
       <c r="E273" s="4"/>
       <c r="F273" s="4"/>
       <c r="G273" s="4"/>
+      <c r="H273" s="4"/>
     </row>
     <row r="274">
       <c r="C274" s="4"/>
@@ -2581,6 +2865,7 @@
       <c r="E274" s="4"/>
       <c r="F274" s="4"/>
       <c r="G274" s="4"/>
+      <c r="H274" s="4"/>
     </row>
     <row r="275">
       <c r="C275" s="4"/>
@@ -2588,6 +2873,7 @@
       <c r="E275" s="4"/>
       <c r="F275" s="4"/>
       <c r="G275" s="4"/>
+      <c r="H275" s="4"/>
     </row>
     <row r="276">
       <c r="C276" s="4"/>
@@ -2595,6 +2881,7 @@
       <c r="E276" s="4"/>
       <c r="F276" s="4"/>
       <c r="G276" s="4"/>
+      <c r="H276" s="4"/>
     </row>
     <row r="277">
       <c r="C277" s="4"/>
@@ -2602,6 +2889,7 @@
       <c r="E277" s="4"/>
       <c r="F277" s="4"/>
       <c r="G277" s="4"/>
+      <c r="H277" s="4"/>
     </row>
     <row r="278">
       <c r="C278" s="4"/>
@@ -2609,6 +2897,7 @@
       <c r="E278" s="4"/>
       <c r="F278" s="4"/>
       <c r="G278" s="4"/>
+      <c r="H278" s="4"/>
     </row>
     <row r="279">
       <c r="C279" s="4"/>
@@ -2616,6 +2905,7 @@
       <c r="E279" s="4"/>
       <c r="F279" s="4"/>
       <c r="G279" s="4"/>
+      <c r="H279" s="4"/>
     </row>
     <row r="280">
       <c r="C280" s="4"/>
@@ -2623,6 +2913,7 @@
       <c r="E280" s="4"/>
       <c r="F280" s="4"/>
       <c r="G280" s="4"/>
+      <c r="H280" s="4"/>
     </row>
     <row r="281">
       <c r="C281" s="4"/>
@@ -2630,6 +2921,7 @@
       <c r="E281" s="4"/>
       <c r="F281" s="4"/>
       <c r="G281" s="4"/>
+      <c r="H281" s="4"/>
     </row>
     <row r="282">
       <c r="C282" s="4"/>
@@ -2637,6 +2929,7 @@
       <c r="E282" s="4"/>
       <c r="F282" s="4"/>
       <c r="G282" s="4"/>
+      <c r="H282" s="4"/>
     </row>
     <row r="283">
       <c r="C283" s="4"/>
@@ -2644,6 +2937,7 @@
       <c r="E283" s="4"/>
       <c r="F283" s="4"/>
       <c r="G283" s="4"/>
+      <c r="H283" s="4"/>
     </row>
     <row r="284">
       <c r="C284" s="4"/>
@@ -2651,6 +2945,7 @@
       <c r="E284" s="4"/>
       <c r="F284" s="4"/>
       <c r="G284" s="4"/>
+      <c r="H284" s="4"/>
     </row>
     <row r="285">
       <c r="C285" s="4"/>
@@ -2658,6 +2953,7 @@
       <c r="E285" s="4"/>
       <c r="F285" s="4"/>
       <c r="G285" s="4"/>
+      <c r="H285" s="4"/>
     </row>
     <row r="286">
       <c r="C286" s="4"/>
@@ -2665,6 +2961,7 @@
       <c r="E286" s="4"/>
       <c r="F286" s="4"/>
       <c r="G286" s="4"/>
+      <c r="H286" s="4"/>
     </row>
     <row r="287">
       <c r="C287" s="4"/>
@@ -2672,6 +2969,7 @@
       <c r="E287" s="4"/>
       <c r="F287" s="4"/>
       <c r="G287" s="4"/>
+      <c r="H287" s="4"/>
     </row>
     <row r="288">
       <c r="C288" s="4"/>
@@ -2679,6 +2977,7 @@
       <c r="E288" s="4"/>
       <c r="F288" s="4"/>
       <c r="G288" s="4"/>
+      <c r="H288" s="4"/>
     </row>
     <row r="289">
       <c r="C289" s="4"/>
@@ -2686,6 +2985,7 @@
       <c r="E289" s="4"/>
       <c r="F289" s="4"/>
       <c r="G289" s="4"/>
+      <c r="H289" s="4"/>
     </row>
     <row r="290">
       <c r="C290" s="4"/>
@@ -2693,6 +2993,7 @@
       <c r="E290" s="4"/>
       <c r="F290" s="4"/>
       <c r="G290" s="4"/>
+      <c r="H290" s="4"/>
     </row>
     <row r="291">
       <c r="C291" s="4"/>
@@ -2700,6 +3001,7 @@
       <c r="E291" s="4"/>
       <c r="F291" s="4"/>
       <c r="G291" s="4"/>
+      <c r="H291" s="4"/>
     </row>
     <row r="292">
       <c r="C292" s="4"/>
@@ -2707,6 +3009,7 @@
       <c r="E292" s="4"/>
       <c r="F292" s="4"/>
       <c r="G292" s="4"/>
+      <c r="H292" s="4"/>
     </row>
     <row r="293">
       <c r="C293" s="4"/>
@@ -2714,6 +3017,7 @@
       <c r="E293" s="4"/>
       <c r="F293" s="4"/>
       <c r="G293" s="4"/>
+      <c r="H293" s="4"/>
     </row>
     <row r="294">
       <c r="C294" s="4"/>
@@ -2721,6 +3025,7 @@
       <c r="E294" s="4"/>
       <c r="F294" s="4"/>
       <c r="G294" s="4"/>
+      <c r="H294" s="4"/>
     </row>
     <row r="295">
       <c r="C295" s="4"/>
@@ -2728,6 +3033,7 @@
       <c r="E295" s="4"/>
       <c r="F295" s="4"/>
       <c r="G295" s="4"/>
+      <c r="H295" s="4"/>
     </row>
     <row r="296">
       <c r="C296" s="4"/>
@@ -2735,6 +3041,7 @@
       <c r="E296" s="4"/>
       <c r="F296" s="4"/>
       <c r="G296" s="4"/>
+      <c r="H296" s="4"/>
     </row>
     <row r="297">
       <c r="C297" s="4"/>
@@ -2742,6 +3049,7 @@
       <c r="E297" s="4"/>
       <c r="F297" s="4"/>
       <c r="G297" s="4"/>
+      <c r="H297" s="4"/>
     </row>
     <row r="298">
       <c r="C298" s="4"/>
@@ -2749,6 +3057,7 @@
       <c r="E298" s="4"/>
       <c r="F298" s="4"/>
       <c r="G298" s="4"/>
+      <c r="H298" s="4"/>
     </row>
     <row r="299">
       <c r="C299" s="4"/>
@@ -2756,6 +3065,7 @@
       <c r="E299" s="4"/>
       <c r="F299" s="4"/>
       <c r="G299" s="4"/>
+      <c r="H299" s="4"/>
     </row>
     <row r="300">
       <c r="C300" s="4"/>
@@ -2763,6 +3073,7 @@
       <c r="E300" s="4"/>
       <c r="F300" s="4"/>
       <c r="G300" s="4"/>
+      <c r="H300" s="4"/>
     </row>
     <row r="301">
       <c r="C301" s="4"/>
@@ -2770,6 +3081,7 @@
       <c r="E301" s="4"/>
       <c r="F301" s="4"/>
       <c r="G301" s="4"/>
+      <c r="H301" s="4"/>
     </row>
     <row r="302">
       <c r="C302" s="4"/>
@@ -2777,6 +3089,7 @@
       <c r="E302" s="4"/>
       <c r="F302" s="4"/>
       <c r="G302" s="4"/>
+      <c r="H302" s="4"/>
     </row>
     <row r="303">
       <c r="C303" s="4"/>
@@ -2784,6 +3097,7 @@
       <c r="E303" s="4"/>
       <c r="F303" s="4"/>
       <c r="G303" s="4"/>
+      <c r="H303" s="4"/>
     </row>
     <row r="304">
       <c r="C304" s="4"/>
@@ -2791,6 +3105,7 @@
       <c r="E304" s="4"/>
       <c r="F304" s="4"/>
       <c r="G304" s="4"/>
+      <c r="H304" s="4"/>
     </row>
     <row r="305">
       <c r="C305" s="4"/>
@@ -2798,6 +3113,7 @@
       <c r="E305" s="4"/>
       <c r="F305" s="4"/>
       <c r="G305" s="4"/>
+      <c r="H305" s="4"/>
     </row>
     <row r="306">
       <c r="C306" s="4"/>
@@ -2805,6 +3121,7 @@
       <c r="E306" s="4"/>
       <c r="F306" s="4"/>
       <c r="G306" s="4"/>
+      <c r="H306" s="4"/>
     </row>
     <row r="307">
       <c r="C307" s="4"/>
@@ -2812,6 +3129,7 @@
       <c r="E307" s="4"/>
       <c r="F307" s="4"/>
       <c r="G307" s="4"/>
+      <c r="H307" s="4"/>
     </row>
     <row r="308">
       <c r="C308" s="4"/>
@@ -2819,6 +3137,7 @@
       <c r="E308" s="4"/>
       <c r="F308" s="4"/>
       <c r="G308" s="4"/>
+      <c r="H308" s="4"/>
     </row>
     <row r="309">
       <c r="C309" s="4"/>
@@ -2826,6 +3145,7 @@
       <c r="E309" s="4"/>
       <c r="F309" s="4"/>
       <c r="G309" s="4"/>
+      <c r="H309" s="4"/>
     </row>
     <row r="310">
       <c r="C310" s="4"/>
@@ -2833,6 +3153,7 @@
       <c r="E310" s="4"/>
       <c r="F310" s="4"/>
       <c r="G310" s="4"/>
+      <c r="H310" s="4"/>
     </row>
     <row r="311">
       <c r="C311" s="4"/>
@@ -2840,6 +3161,7 @@
       <c r="E311" s="4"/>
       <c r="F311" s="4"/>
       <c r="G311" s="4"/>
+      <c r="H311" s="4"/>
     </row>
     <row r="312">
       <c r="C312" s="4"/>
@@ -2847,6 +3169,7 @@
       <c r="E312" s="4"/>
       <c r="F312" s="4"/>
       <c r="G312" s="4"/>
+      <c r="H312" s="4"/>
     </row>
     <row r="313">
       <c r="C313" s="4"/>
@@ -2854,6 +3177,7 @@
       <c r="E313" s="4"/>
       <c r="F313" s="4"/>
       <c r="G313" s="4"/>
+      <c r="H313" s="4"/>
     </row>
     <row r="314">
       <c r="C314" s="4"/>
@@ -2861,6 +3185,7 @@
       <c r="E314" s="4"/>
       <c r="F314" s="4"/>
       <c r="G314" s="4"/>
+      <c r="H314" s="4"/>
     </row>
     <row r="315">
       <c r="C315" s="4"/>
@@ -2868,6 +3193,7 @@
       <c r="E315" s="4"/>
       <c r="F315" s="4"/>
       <c r="G315" s="4"/>
+      <c r="H315" s="4"/>
     </row>
     <row r="316">
       <c r="C316" s="4"/>
@@ -2875,6 +3201,7 @@
       <c r="E316" s="4"/>
       <c r="F316" s="4"/>
       <c r="G316" s="4"/>
+      <c r="H316" s="4"/>
     </row>
     <row r="317">
       <c r="C317" s="4"/>
@@ -2882,6 +3209,7 @@
       <c r="E317" s="4"/>
       <c r="F317" s="4"/>
       <c r="G317" s="4"/>
+      <c r="H317" s="4"/>
     </row>
     <row r="318">
       <c r="C318" s="4"/>
@@ -2889,6 +3217,7 @@
       <c r="E318" s="4"/>
       <c r="F318" s="4"/>
       <c r="G318" s="4"/>
+      <c r="H318" s="4"/>
     </row>
     <row r="319">
       <c r="C319" s="4"/>
@@ -2896,6 +3225,7 @@
       <c r="E319" s="4"/>
       <c r="F319" s="4"/>
       <c r="G319" s="4"/>
+      <c r="H319" s="4"/>
     </row>
     <row r="320">
       <c r="C320" s="4"/>
@@ -2903,6 +3233,7 @@
       <c r="E320" s="4"/>
       <c r="F320" s="4"/>
       <c r="G320" s="4"/>
+      <c r="H320" s="4"/>
     </row>
     <row r="321">
       <c r="C321" s="4"/>
@@ -2910,6 +3241,7 @@
       <c r="E321" s="4"/>
       <c r="F321" s="4"/>
       <c r="G321" s="4"/>
+      <c r="H321" s="4"/>
     </row>
     <row r="322">
       <c r="C322" s="4"/>
@@ -2917,6 +3249,7 @@
       <c r="E322" s="4"/>
       <c r="F322" s="4"/>
       <c r="G322" s="4"/>
+      <c r="H322" s="4"/>
     </row>
     <row r="323">
       <c r="C323" s="4"/>
@@ -2924,6 +3257,7 @@
       <c r="E323" s="4"/>
       <c r="F323" s="4"/>
       <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
     </row>
     <row r="324">
       <c r="C324" s="4"/>
@@ -2931,6 +3265,7 @@
       <c r="E324" s="4"/>
       <c r="F324" s="4"/>
       <c r="G324" s="4"/>
+      <c r="H324" s="4"/>
     </row>
     <row r="325">
       <c r="C325" s="4"/>
@@ -2938,6 +3273,7 @@
       <c r="E325" s="4"/>
       <c r="F325" s="4"/>
       <c r="G325" s="4"/>
+      <c r="H325" s="4"/>
     </row>
     <row r="326">
       <c r="C326" s="4"/>
@@ -2945,6 +3281,7 @@
       <c r="E326" s="4"/>
       <c r="F326" s="4"/>
       <c r="G326" s="4"/>
+      <c r="H326" s="4"/>
     </row>
     <row r="327">
       <c r="C327" s="4"/>
@@ -2952,6 +3289,7 @@
       <c r="E327" s="4"/>
       <c r="F327" s="4"/>
       <c r="G327" s="4"/>
+      <c r="H327" s="4"/>
     </row>
     <row r="328">
       <c r="C328" s="4"/>
@@ -2959,6 +3297,7 @@
       <c r="E328" s="4"/>
       <c r="F328" s="4"/>
       <c r="G328" s="4"/>
+      <c r="H328" s="4"/>
     </row>
     <row r="329">
       <c r="C329" s="4"/>
@@ -2966,6 +3305,7 @@
       <c r="E329" s="4"/>
       <c r="F329" s="4"/>
       <c r="G329" s="4"/>
+      <c r="H329" s="4"/>
     </row>
     <row r="330">
       <c r="C330" s="4"/>
@@ -2973,6 +3313,7 @@
       <c r="E330" s="4"/>
       <c r="F330" s="4"/>
       <c r="G330" s="4"/>
+      <c r="H330" s="4"/>
     </row>
     <row r="331">
       <c r="C331" s="4"/>
@@ -2980,6 +3321,7 @@
       <c r="E331" s="4"/>
       <c r="F331" s="4"/>
       <c r="G331" s="4"/>
+      <c r="H331" s="4"/>
     </row>
     <row r="332">
       <c r="C332" s="4"/>
@@ -2987,6 +3329,7 @@
       <c r="E332" s="4"/>
       <c r="F332" s="4"/>
       <c r="G332" s="4"/>
+      <c r="H332" s="4"/>
     </row>
     <row r="333">
       <c r="C333" s="4"/>
@@ -2994,6 +3337,7 @@
       <c r="E333" s="4"/>
       <c r="F333" s="4"/>
       <c r="G333" s="4"/>
+      <c r="H333" s="4"/>
     </row>
     <row r="334">
       <c r="C334" s="4"/>
@@ -3001,6 +3345,7 @@
       <c r="E334" s="4"/>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
+      <c r="H334" s="4"/>
     </row>
     <row r="335">
       <c r="C335" s="4"/>
@@ -3008,6 +3353,7 @@
       <c r="E335" s="4"/>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
+      <c r="H335" s="4"/>
     </row>
     <row r="336">
       <c r="C336" s="4"/>
@@ -3015,6 +3361,7 @@
       <c r="E336" s="4"/>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
+      <c r="H336" s="4"/>
     </row>
     <row r="337">
       <c r="C337" s="4"/>
@@ -3022,6 +3369,7 @@
       <c r="E337" s="4"/>
       <c r="F337" s="4"/>
       <c r="G337" s="4"/>
+      <c r="H337" s="4"/>
     </row>
     <row r="338">
       <c r="C338" s="4"/>
@@ -3029,6 +3377,7 @@
       <c r="E338" s="4"/>
       <c r="F338" s="4"/>
       <c r="G338" s="4"/>
+      <c r="H338" s="4"/>
     </row>
     <row r="339">
       <c r="C339" s="4"/>
@@ -3036,6 +3385,7 @@
       <c r="E339" s="4"/>
       <c r="F339" s="4"/>
       <c r="G339" s="4"/>
+      <c r="H339" s="4"/>
     </row>
     <row r="340">
       <c r="C340" s="4"/>
@@ -3043,6 +3393,7 @@
       <c r="E340" s="4"/>
       <c r="F340" s="4"/>
       <c r="G340" s="4"/>
+      <c r="H340" s="4"/>
     </row>
     <row r="341">
       <c r="C341" s="4"/>
@@ -3050,6 +3401,7 @@
       <c r="E341" s="4"/>
       <c r="F341" s="4"/>
       <c r="G341" s="4"/>
+      <c r="H341" s="4"/>
     </row>
     <row r="342">
       <c r="C342" s="4"/>
@@ -3057,6 +3409,7 @@
       <c r="E342" s="4"/>
       <c r="F342" s="4"/>
       <c r="G342" s="4"/>
+      <c r="H342" s="4"/>
     </row>
     <row r="343">
       <c r="C343" s="4"/>
@@ -3064,6 +3417,7 @@
       <c r="E343" s="4"/>
       <c r="F343" s="4"/>
       <c r="G343" s="4"/>
+      <c r="H343" s="4"/>
     </row>
     <row r="344">
       <c r="C344" s="4"/>
@@ -3071,6 +3425,7 @@
       <c r="E344" s="4"/>
       <c r="F344" s="4"/>
       <c r="G344" s="4"/>
+      <c r="H344" s="4"/>
     </row>
     <row r="345">
       <c r="C345" s="4"/>
@@ -3078,6 +3433,7 @@
       <c r="E345" s="4"/>
       <c r="F345" s="4"/>
       <c r="G345" s="4"/>
+      <c r="H345" s="4"/>
     </row>
     <row r="346">
       <c r="C346" s="4"/>
@@ -3085,6 +3441,7 @@
       <c r="E346" s="4"/>
       <c r="F346" s="4"/>
       <c r="G346" s="4"/>
+      <c r="H346" s="4"/>
     </row>
     <row r="347">
       <c r="C347" s="4"/>
@@ -3092,6 +3449,7 @@
       <c r="E347" s="4"/>
       <c r="F347" s="4"/>
       <c r="G347" s="4"/>
+      <c r="H347" s="4"/>
     </row>
     <row r="348">
       <c r="C348" s="4"/>
@@ -3099,6 +3457,7 @@
       <c r="E348" s="4"/>
       <c r="F348" s="4"/>
       <c r="G348" s="4"/>
+      <c r="H348" s="4"/>
     </row>
     <row r="349">
       <c r="C349" s="4"/>
@@ -3106,6 +3465,7 @@
       <c r="E349" s="4"/>
       <c r="F349" s="4"/>
       <c r="G349" s="4"/>
+      <c r="H349" s="4"/>
     </row>
     <row r="350">
       <c r="C350" s="4"/>
@@ -3113,6 +3473,7 @@
       <c r="E350" s="4"/>
       <c r="F350" s="4"/>
       <c r="G350" s="4"/>
+      <c r="H350" s="4"/>
     </row>
     <row r="351">
       <c r="C351" s="4"/>
@@ -3120,6 +3481,7 @@
       <c r="E351" s="4"/>
       <c r="F351" s="4"/>
       <c r="G351" s="4"/>
+      <c r="H351" s="4"/>
     </row>
     <row r="352">
       <c r="C352" s="4"/>
@@ -3127,6 +3489,7 @@
       <c r="E352" s="4"/>
       <c r="F352" s="4"/>
       <c r="G352" s="4"/>
+      <c r="H352" s="4"/>
     </row>
     <row r="353">
       <c r="C353" s="4"/>
@@ -3134,6 +3497,7 @@
       <c r="E353" s="4"/>
       <c r="F353" s="4"/>
       <c r="G353" s="4"/>
+      <c r="H353" s="4"/>
     </row>
     <row r="354">
       <c r="C354" s="4"/>
@@ -3141,6 +3505,7 @@
       <c r="E354" s="4"/>
       <c r="F354" s="4"/>
       <c r="G354" s="4"/>
+      <c r="H354" s="4"/>
     </row>
     <row r="355">
       <c r="C355" s="4"/>
@@ -3148,6 +3513,7 @@
       <c r="E355" s="4"/>
       <c r="F355" s="4"/>
       <c r="G355" s="4"/>
+      <c r="H355" s="4"/>
     </row>
     <row r="356">
       <c r="C356" s="4"/>
@@ -3155,6 +3521,7 @@
       <c r="E356" s="4"/>
       <c r="F356" s="4"/>
       <c r="G356" s="4"/>
+      <c r="H356" s="4"/>
     </row>
     <row r="357">
       <c r="C357" s="4"/>
@@ -3162,6 +3529,7 @@
       <c r="E357" s="4"/>
       <c r="F357" s="4"/>
       <c r="G357" s="4"/>
+      <c r="H357" s="4"/>
     </row>
     <row r="358">
       <c r="C358" s="4"/>
@@ -3169,6 +3537,7 @@
       <c r="E358" s="4"/>
       <c r="F358" s="4"/>
       <c r="G358" s="4"/>
+      <c r="H358" s="4"/>
     </row>
     <row r="359">
       <c r="C359" s="4"/>
@@ -3176,6 +3545,7 @@
       <c r="E359" s="4"/>
       <c r="F359" s="4"/>
       <c r="G359" s="4"/>
+      <c r="H359" s="4"/>
     </row>
     <row r="360">
       <c r="C360" s="4"/>
@@ -3183,6 +3553,7 @@
       <c r="E360" s="4"/>
       <c r="F360" s="4"/>
       <c r="G360" s="4"/>
+      <c r="H360" s="4"/>
     </row>
     <row r="361">
       <c r="C361" s="4"/>
@@ -3190,6 +3561,7 @@
       <c r="E361" s="4"/>
       <c r="F361" s="4"/>
       <c r="G361" s="4"/>
+      <c r="H361" s="4"/>
     </row>
     <row r="362">
       <c r="C362" s="4"/>
@@ -3197,6 +3569,7 @@
       <c r="E362" s="4"/>
       <c r="F362" s="4"/>
       <c r="G362" s="4"/>
+      <c r="H362" s="4"/>
     </row>
     <row r="363">
       <c r="C363" s="4"/>
@@ -3204,6 +3577,7 @@
       <c r="E363" s="4"/>
       <c r="F363" s="4"/>
       <c r="G363" s="4"/>
+      <c r="H363" s="4"/>
     </row>
     <row r="364">
       <c r="C364" s="4"/>
@@ -3211,6 +3585,7 @@
       <c r="E364" s="4"/>
       <c r="F364" s="4"/>
       <c r="G364" s="4"/>
+      <c r="H364" s="4"/>
     </row>
     <row r="365">
       <c r="C365" s="4"/>
@@ -3218,6 +3593,7 @@
       <c r="E365" s="4"/>
       <c r="F365" s="4"/>
       <c r="G365" s="4"/>
+      <c r="H365" s="4"/>
     </row>
     <row r="366">
       <c r="C366" s="4"/>
@@ -3225,6 +3601,7 @@
       <c r="E366" s="4"/>
       <c r="F366" s="4"/>
       <c r="G366" s="4"/>
+      <c r="H366" s="4"/>
     </row>
     <row r="367">
       <c r="C367" s="4"/>
@@ -3232,6 +3609,7 @@
       <c r="E367" s="4"/>
       <c r="F367" s="4"/>
       <c r="G367" s="4"/>
+      <c r="H367" s="4"/>
     </row>
     <row r="368">
       <c r="C368" s="4"/>
@@ -3239,6 +3617,7 @@
       <c r="E368" s="4"/>
       <c r="F368" s="4"/>
       <c r="G368" s="4"/>
+      <c r="H368" s="4"/>
     </row>
     <row r="369">
       <c r="C369" s="4"/>
@@ -3246,6 +3625,7 @@
       <c r="E369" s="4"/>
       <c r="F369" s="4"/>
       <c r="G369" s="4"/>
+      <c r="H369" s="4"/>
     </row>
     <row r="370">
       <c r="C370" s="4"/>
@@ -3253,6 +3633,7 @@
       <c r="E370" s="4"/>
       <c r="F370" s="4"/>
       <c r="G370" s="4"/>
+      <c r="H370" s="4"/>
     </row>
     <row r="371">
       <c r="C371" s="4"/>
@@ -3260,6 +3641,7 @@
       <c r="E371" s="4"/>
       <c r="F371" s="4"/>
       <c r="G371" s="4"/>
+      <c r="H371" s="4"/>
     </row>
     <row r="372">
       <c r="C372" s="4"/>
@@ -3267,6 +3649,7 @@
       <c r="E372" s="4"/>
       <c r="F372" s="4"/>
       <c r="G372" s="4"/>
+      <c r="H372" s="4"/>
     </row>
     <row r="373">
       <c r="C373" s="4"/>
@@ -3274,6 +3657,7 @@
       <c r="E373" s="4"/>
       <c r="F373" s="4"/>
       <c r="G373" s="4"/>
+      <c r="H373" s="4"/>
     </row>
     <row r="374">
       <c r="C374" s="4"/>
@@ -3281,6 +3665,7 @@
       <c r="E374" s="4"/>
       <c r="F374" s="4"/>
       <c r="G374" s="4"/>
+      <c r="H374" s="4"/>
     </row>
     <row r="375">
       <c r="C375" s="4"/>
@@ -3288,6 +3673,7 @@
       <c r="E375" s="4"/>
       <c r="F375" s="4"/>
       <c r="G375" s="4"/>
+      <c r="H375" s="4"/>
     </row>
     <row r="376">
       <c r="C376" s="4"/>
@@ -3295,6 +3681,7 @@
       <c r="E376" s="4"/>
       <c r="F376" s="4"/>
       <c r="G376" s="4"/>
+      <c r="H376" s="4"/>
     </row>
     <row r="377">
       <c r="C377" s="4"/>
@@ -3302,6 +3689,7 @@
       <c r="E377" s="4"/>
       <c r="F377" s="4"/>
       <c r="G377" s="4"/>
+      <c r="H377" s="4"/>
     </row>
     <row r="378">
       <c r="C378" s="4"/>
@@ -3309,6 +3697,7 @@
       <c r="E378" s="4"/>
       <c r="F378" s="4"/>
       <c r="G378" s="4"/>
+      <c r="H378" s="4"/>
     </row>
     <row r="379">
       <c r="C379" s="4"/>
@@ -3316,6 +3705,7 @@
       <c r="E379" s="4"/>
       <c r="F379" s="4"/>
       <c r="G379" s="4"/>
+      <c r="H379" s="4"/>
     </row>
     <row r="380">
       <c r="C380" s="4"/>
@@ -3323,6 +3713,7 @@
       <c r="E380" s="4"/>
       <c r="F380" s="4"/>
       <c r="G380" s="4"/>
+      <c r="H380" s="4"/>
     </row>
     <row r="381">
       <c r="C381" s="4"/>
@@ -3330,6 +3721,7 @@
       <c r="E381" s="4"/>
       <c r="F381" s="4"/>
       <c r="G381" s="4"/>
+      <c r="H381" s="4"/>
     </row>
     <row r="382">
       <c r="C382" s="4"/>
@@ -3337,6 +3729,7 @@
       <c r="E382" s="4"/>
       <c r="F382" s="4"/>
       <c r="G382" s="4"/>
+      <c r="H382" s="4"/>
     </row>
     <row r="383">
       <c r="C383" s="4"/>
@@ -3344,6 +3737,7 @@
       <c r="E383" s="4"/>
       <c r="F383" s="4"/>
       <c r="G383" s="4"/>
+      <c r="H383" s="4"/>
     </row>
     <row r="384">
       <c r="C384" s="4"/>
@@ -3351,6 +3745,7 @@
       <c r="E384" s="4"/>
       <c r="F384" s="4"/>
       <c r="G384" s="4"/>
+      <c r="H384" s="4"/>
     </row>
     <row r="385">
       <c r="C385" s="4"/>
@@ -3358,6 +3753,7 @@
       <c r="E385" s="4"/>
       <c r="F385" s="4"/>
       <c r="G385" s="4"/>
+      <c r="H385" s="4"/>
     </row>
     <row r="386">
       <c r="C386" s="4"/>
@@ -3365,6 +3761,7 @@
       <c r="E386" s="4"/>
       <c r="F386" s="4"/>
       <c r="G386" s="4"/>
+      <c r="H386" s="4"/>
     </row>
     <row r="387">
       <c r="C387" s="4"/>
@@ -3372,6 +3769,7 @@
       <c r="E387" s="4"/>
       <c r="F387" s="4"/>
       <c r="G387" s="4"/>
+      <c r="H387" s="4"/>
     </row>
     <row r="388">
       <c r="C388" s="4"/>
@@ -3379,6 +3777,7 @@
       <c r="E388" s="4"/>
       <c r="F388" s="4"/>
       <c r="G388" s="4"/>
+      <c r="H388" s="4"/>
     </row>
     <row r="389">
       <c r="C389" s="4"/>
@@ -3386,6 +3785,7 @@
       <c r="E389" s="4"/>
       <c r="F389" s="4"/>
       <c r="G389" s="4"/>
+      <c r="H389" s="4"/>
     </row>
     <row r="390">
       <c r="C390" s="4"/>
@@ -3393,6 +3793,7 @@
       <c r="E390" s="4"/>
       <c r="F390" s="4"/>
       <c r="G390" s="4"/>
+      <c r="H390" s="4"/>
     </row>
     <row r="391">
       <c r="C391" s="4"/>
@@ -3400,6 +3801,7 @@
       <c r="E391" s="4"/>
       <c r="F391" s="4"/>
       <c r="G391" s="4"/>
+      <c r="H391" s="4"/>
     </row>
     <row r="392">
       <c r="C392" s="4"/>
@@ -3407,6 +3809,7 @@
       <c r="E392" s="4"/>
       <c r="F392" s="4"/>
       <c r="G392" s="4"/>
+      <c r="H392" s="4"/>
     </row>
     <row r="393">
       <c r="C393" s="4"/>
@@ -3414,6 +3817,7 @@
       <c r="E393" s="4"/>
       <c r="F393" s="4"/>
       <c r="G393" s="4"/>
+      <c r="H393" s="4"/>
     </row>
     <row r="394">
       <c r="C394" s="4"/>
@@ -3421,6 +3825,7 @@
       <c r="E394" s="4"/>
       <c r="F394" s="4"/>
       <c r="G394" s="4"/>
+      <c r="H394" s="4"/>
     </row>
     <row r="395">
       <c r="C395" s="4"/>
@@ -3428,6 +3833,7 @@
       <c r="E395" s="4"/>
       <c r="F395" s="4"/>
       <c r="G395" s="4"/>
+      <c r="H395" s="4"/>
     </row>
     <row r="396">
       <c r="C396" s="4"/>
@@ -3435,6 +3841,7 @@
       <c r="E396" s="4"/>
       <c r="F396" s="4"/>
       <c r="G396" s="4"/>
+      <c r="H396" s="4"/>
     </row>
     <row r="397">
       <c r="C397" s="4"/>
@@ -3442,6 +3849,7 @@
       <c r="E397" s="4"/>
       <c r="F397" s="4"/>
       <c r="G397" s="4"/>
+      <c r="H397" s="4"/>
     </row>
     <row r="398">
       <c r="C398" s="4"/>
@@ -3449,6 +3857,7 @@
       <c r="E398" s="4"/>
       <c r="F398" s="4"/>
       <c r="G398" s="4"/>
+      <c r="H398" s="4"/>
     </row>
     <row r="399">
       <c r="C399" s="4"/>
@@ -3456,6 +3865,7 @@
       <c r="E399" s="4"/>
       <c r="F399" s="4"/>
       <c r="G399" s="4"/>
+      <c r="H399" s="4"/>
     </row>
     <row r="400">
       <c r="C400" s="4"/>
@@ -3463,6 +3873,7 @@
       <c r="E400" s="4"/>
       <c r="F400" s="4"/>
       <c r="G400" s="4"/>
+      <c r="H400" s="4"/>
     </row>
     <row r="401">
       <c r="C401" s="4"/>
@@ -3470,6 +3881,7 @@
       <c r="E401" s="4"/>
       <c r="F401" s="4"/>
       <c r="G401" s="4"/>
+      <c r="H401" s="4"/>
     </row>
     <row r="402">
       <c r="C402" s="4"/>
@@ -3477,6 +3889,7 @@
       <c r="E402" s="4"/>
       <c r="F402" s="4"/>
       <c r="G402" s="4"/>
+      <c r="H402" s="4"/>
     </row>
     <row r="403">
       <c r="C403" s="4"/>
@@ -3484,6 +3897,7 @@
       <c r="E403" s="4"/>
       <c r="F403" s="4"/>
       <c r="G403" s="4"/>
+      <c r="H403" s="4"/>
     </row>
     <row r="404">
       <c r="C404" s="4"/>
@@ -3491,6 +3905,7 @@
       <c r="E404" s="4"/>
       <c r="F404" s="4"/>
       <c r="G404" s="4"/>
+      <c r="H404" s="4"/>
     </row>
     <row r="405">
       <c r="C405" s="4"/>
@@ -3498,6 +3913,7 @@
       <c r="E405" s="4"/>
       <c r="F405" s="4"/>
       <c r="G405" s="4"/>
+      <c r="H405" s="4"/>
     </row>
     <row r="406">
       <c r="C406" s="4"/>
@@ -3505,6 +3921,7 @@
       <c r="E406" s="4"/>
       <c r="F406" s="4"/>
       <c r="G406" s="4"/>
+      <c r="H406" s="4"/>
     </row>
     <row r="407">
       <c r="C407" s="4"/>
@@ -3512,6 +3929,7 @@
       <c r="E407" s="4"/>
       <c r="F407" s="4"/>
       <c r="G407" s="4"/>
+      <c r="H407" s="4"/>
     </row>
     <row r="408">
       <c r="C408" s="4"/>
@@ -3519,6 +3937,7 @@
       <c r="E408" s="4"/>
       <c r="F408" s="4"/>
       <c r="G408" s="4"/>
+      <c r="H408" s="4"/>
     </row>
     <row r="409">
       <c r="C409" s="4"/>
@@ -3526,6 +3945,7 @@
       <c r="E409" s="4"/>
       <c r="F409" s="4"/>
       <c r="G409" s="4"/>
+      <c r="H409" s="4"/>
     </row>
     <row r="410">
       <c r="C410" s="4"/>
@@ -3533,6 +3953,7 @@
       <c r="E410" s="4"/>
       <c r="F410" s="4"/>
       <c r="G410" s="4"/>
+      <c r="H410" s="4"/>
     </row>
     <row r="411">
       <c r="C411" s="4"/>
@@ -3540,6 +3961,7 @@
       <c r="E411" s="4"/>
       <c r="F411" s="4"/>
       <c r="G411" s="4"/>
+      <c r="H411" s="4"/>
     </row>
     <row r="412">
       <c r="C412" s="4"/>
@@ -3547,6 +3969,7 @@
       <c r="E412" s="4"/>
       <c r="F412" s="4"/>
       <c r="G412" s="4"/>
+      <c r="H412" s="4"/>
     </row>
     <row r="413">
       <c r="C413" s="4"/>
@@ -3554,6 +3977,7 @@
       <c r="E413" s="4"/>
       <c r="F413" s="4"/>
       <c r="G413" s="4"/>
+      <c r="H413" s="4"/>
     </row>
     <row r="414">
       <c r="C414" s="4"/>
@@ -3561,6 +3985,7 @@
       <c r="E414" s="4"/>
       <c r="F414" s="4"/>
       <c r="G414" s="4"/>
+      <c r="H414" s="4"/>
     </row>
     <row r="415">
       <c r="C415" s="4"/>
@@ -3568,6 +3993,7 @@
       <c r="E415" s="4"/>
       <c r="F415" s="4"/>
       <c r="G415" s="4"/>
+      <c r="H415" s="4"/>
     </row>
     <row r="416">
       <c r="C416" s="4"/>
@@ -3575,6 +4001,7 @@
       <c r="E416" s="4"/>
       <c r="F416" s="4"/>
       <c r="G416" s="4"/>
+      <c r="H416" s="4"/>
     </row>
     <row r="417">
       <c r="C417" s="4"/>
@@ -3582,6 +4009,7 @@
       <c r="E417" s="4"/>
       <c r="F417" s="4"/>
       <c r="G417" s="4"/>
+      <c r="H417" s="4"/>
     </row>
     <row r="418">
       <c r="C418" s="4"/>
@@ -3589,6 +4017,7 @@
       <c r="E418" s="4"/>
       <c r="F418" s="4"/>
       <c r="G418" s="4"/>
+      <c r="H418" s="4"/>
     </row>
     <row r="419">
       <c r="C419" s="4"/>
@@ -3596,6 +4025,7 @@
       <c r="E419" s="4"/>
       <c r="F419" s="4"/>
       <c r="G419" s="4"/>
+      <c r="H419" s="4"/>
     </row>
     <row r="420">
       <c r="C420" s="4"/>
@@ -3603,6 +4033,7 @@
       <c r="E420" s="4"/>
       <c r="F420" s="4"/>
       <c r="G420" s="4"/>
+      <c r="H420" s="4"/>
     </row>
     <row r="421">
       <c r="C421" s="4"/>
@@ -3610,6 +4041,7 @@
       <c r="E421" s="4"/>
       <c r="F421" s="4"/>
       <c r="G421" s="4"/>
+      <c r="H421" s="4"/>
     </row>
     <row r="422">
       <c r="C422" s="4"/>
@@ -3617,6 +4049,7 @@
       <c r="E422" s="4"/>
       <c r="F422" s="4"/>
       <c r="G422" s="4"/>
+      <c r="H422" s="4"/>
     </row>
     <row r="423">
       <c r="C423" s="4"/>
@@ -3624,6 +4057,7 @@
       <c r="E423" s="4"/>
       <c r="F423" s="4"/>
       <c r="G423" s="4"/>
+      <c r="H423" s="4"/>
     </row>
     <row r="424">
       <c r="C424" s="4"/>
@@ -3631,6 +4065,7 @@
       <c r="E424" s="4"/>
       <c r="F424" s="4"/>
       <c r="G424" s="4"/>
+      <c r="H424" s="4"/>
     </row>
     <row r="425">
       <c r="C425" s="4"/>
@@ -3638,6 +4073,7 @@
       <c r="E425" s="4"/>
       <c r="F425" s="4"/>
       <c r="G425" s="4"/>
+      <c r="H425" s="4"/>
     </row>
     <row r="426">
       <c r="C426" s="4"/>
@@ -3645,6 +4081,7 @@
       <c r="E426" s="4"/>
       <c r="F426" s="4"/>
       <c r="G426" s="4"/>
+      <c r="H426" s="4"/>
     </row>
     <row r="427">
       <c r="C427" s="4"/>
@@ -3652,6 +4089,7 @@
       <c r="E427" s="4"/>
       <c r="F427" s="4"/>
       <c r="G427" s="4"/>
+      <c r="H427" s="4"/>
     </row>
     <row r="428">
       <c r="C428" s="4"/>
@@ -3659,6 +4097,7 @@
       <c r="E428" s="4"/>
       <c r="F428" s="4"/>
       <c r="G428" s="4"/>
+      <c r="H428" s="4"/>
     </row>
     <row r="429">
       <c r="C429" s="4"/>
@@ -3666,6 +4105,7 @@
       <c r="E429" s="4"/>
       <c r="F429" s="4"/>
       <c r="G429" s="4"/>
+      <c r="H429" s="4"/>
     </row>
     <row r="430">
       <c r="C430" s="4"/>
@@ -3673,6 +4113,7 @@
       <c r="E430" s="4"/>
       <c r="F430" s="4"/>
       <c r="G430" s="4"/>
+      <c r="H430" s="4"/>
     </row>
     <row r="431">
       <c r="C431" s="4"/>
@@ -3680,6 +4121,7 @@
       <c r="E431" s="4"/>
       <c r="F431" s="4"/>
       <c r="G431" s="4"/>
+      <c r="H431" s="4"/>
     </row>
     <row r="432">
       <c r="C432" s="4"/>
@@ -3687,6 +4129,7 @@
       <c r="E432" s="4"/>
       <c r="F432" s="4"/>
       <c r="G432" s="4"/>
+      <c r="H432" s="4"/>
     </row>
     <row r="433">
       <c r="C433" s="4"/>
@@ -3694,6 +4137,7 @@
       <c r="E433" s="4"/>
       <c r="F433" s="4"/>
       <c r="G433" s="4"/>
+      <c r="H433" s="4"/>
     </row>
     <row r="434">
       <c r="C434" s="4"/>
@@ -3701,6 +4145,7 @@
       <c r="E434" s="4"/>
       <c r="F434" s="4"/>
       <c r="G434" s="4"/>
+      <c r="H434" s="4"/>
     </row>
     <row r="435">
       <c r="C435" s="4"/>
@@ -3708,6 +4153,7 @@
       <c r="E435" s="4"/>
       <c r="F435" s="4"/>
       <c r="G435" s="4"/>
+      <c r="H435" s="4"/>
     </row>
     <row r="436">
       <c r="C436" s="4"/>
@@ -3715,6 +4161,7 @@
       <c r="E436" s="4"/>
       <c r="F436" s="4"/>
       <c r="G436" s="4"/>
+      <c r="H436" s="4"/>
     </row>
     <row r="437">
       <c r="C437" s="4"/>
@@ -3722,6 +4169,7 @@
       <c r="E437" s="4"/>
       <c r="F437" s="4"/>
       <c r="G437" s="4"/>
+      <c r="H437" s="4"/>
     </row>
     <row r="438">
       <c r="C438" s="4"/>
@@ -3729,6 +4177,7 @@
       <c r="E438" s="4"/>
       <c r="F438" s="4"/>
       <c r="G438" s="4"/>
+      <c r="H438" s="4"/>
     </row>
     <row r="439">
       <c r="C439" s="4"/>
@@ -3736,6 +4185,7 @@
       <c r="E439" s="4"/>
       <c r="F439" s="4"/>
       <c r="G439" s="4"/>
+      <c r="H439" s="4"/>
     </row>
     <row r="440">
       <c r="C440" s="4"/>
@@ -3743,6 +4193,7 @@
       <c r="E440" s="4"/>
       <c r="F440" s="4"/>
       <c r="G440" s="4"/>
+      <c r="H440" s="4"/>
     </row>
     <row r="441">
       <c r="C441" s="4"/>
@@ -3750,6 +4201,7 @@
       <c r="E441" s="4"/>
       <c r="F441" s="4"/>
       <c r="G441" s="4"/>
+      <c r="H441" s="4"/>
     </row>
     <row r="442">
       <c r="C442" s="4"/>
@@ -3757,6 +4209,7 @@
       <c r="E442" s="4"/>
       <c r="F442" s="4"/>
       <c r="G442" s="4"/>
+      <c r="H442" s="4"/>
     </row>
     <row r="443">
       <c r="C443" s="4"/>
@@ -3764,6 +4217,7 @@
       <c r="E443" s="4"/>
       <c r="F443" s="4"/>
       <c r="G443" s="4"/>
+      <c r="H443" s="4"/>
     </row>
     <row r="444">
       <c r="C444" s="4"/>
@@ -3771,6 +4225,7 @@
       <c r="E444" s="4"/>
       <c r="F444" s="4"/>
       <c r="G444" s="4"/>
+      <c r="H444" s="4"/>
     </row>
     <row r="445">
       <c r="C445" s="4"/>
@@ -3778,6 +4233,7 @@
       <c r="E445" s="4"/>
       <c r="F445" s="4"/>
       <c r="G445" s="4"/>
+      <c r="H445" s="4"/>
     </row>
     <row r="446">
       <c r="C446" s="4"/>
@@ -3785,6 +4241,7 @@
       <c r="E446" s="4"/>
       <c r="F446" s="4"/>
       <c r="G446" s="4"/>
+      <c r="H446" s="4"/>
     </row>
     <row r="447">
       <c r="C447" s="4"/>
@@ -3792,6 +4249,7 @@
       <c r="E447" s="4"/>
       <c r="F447" s="4"/>
       <c r="G447" s="4"/>
+      <c r="H447" s="4"/>
     </row>
     <row r="448">
       <c r="C448" s="4"/>
@@ -3799,6 +4257,7 @@
       <c r="E448" s="4"/>
       <c r="F448" s="4"/>
       <c r="G448" s="4"/>
+      <c r="H448" s="4"/>
     </row>
     <row r="449">
       <c r="C449" s="4"/>
@@ -3806,6 +4265,7 @@
       <c r="E449" s="4"/>
       <c r="F449" s="4"/>
       <c r="G449" s="4"/>
+      <c r="H449" s="4"/>
     </row>
     <row r="450">
       <c r="C450" s="4"/>
@@ -3813,6 +4273,7 @@
       <c r="E450" s="4"/>
       <c r="F450" s="4"/>
       <c r="G450" s="4"/>
+      <c r="H450" s="4"/>
     </row>
     <row r="451">
       <c r="C451" s="4"/>
@@ -3820,6 +4281,7 @@
       <c r="E451" s="4"/>
       <c r="F451" s="4"/>
       <c r="G451" s="4"/>
+      <c r="H451" s="4"/>
     </row>
     <row r="452">
       <c r="C452" s="4"/>
@@ -3827,6 +4289,7 @@
       <c r="E452" s="4"/>
       <c r="F452" s="4"/>
       <c r="G452" s="4"/>
+      <c r="H452" s="4"/>
     </row>
     <row r="453">
       <c r="C453" s="4"/>
@@ -3834,6 +4297,7 @@
       <c r="E453" s="4"/>
       <c r="F453" s="4"/>
       <c r="G453" s="4"/>
+      <c r="H453" s="4"/>
     </row>
     <row r="454">
       <c r="C454" s="4"/>
@@ -3841,6 +4305,7 @@
       <c r="E454" s="4"/>
       <c r="F454" s="4"/>
       <c r="G454" s="4"/>
+      <c r="H454" s="4"/>
     </row>
     <row r="455">
       <c r="C455" s="4"/>
@@ -3848,6 +4313,7 @@
       <c r="E455" s="4"/>
       <c r="F455" s="4"/>
       <c r="G455" s="4"/>
+      <c r="H455" s="4"/>
     </row>
     <row r="456">
       <c r="C456" s="4"/>
@@ -3855,6 +4321,7 @@
       <c r="E456" s="4"/>
       <c r="F456" s="4"/>
       <c r="G456" s="4"/>
+      <c r="H456" s="4"/>
     </row>
     <row r="457">
       <c r="C457" s="4"/>
@@ -3862,6 +4329,7 @@
       <c r="E457" s="4"/>
       <c r="F457" s="4"/>
       <c r="G457" s="4"/>
+      <c r="H457" s="4"/>
     </row>
     <row r="458">
       <c r="C458" s="4"/>
@@ -3869,6 +4337,7 @@
       <c r="E458" s="4"/>
       <c r="F458" s="4"/>
       <c r="G458" s="4"/>
+      <c r="H458" s="4"/>
     </row>
     <row r="459">
       <c r="C459" s="4"/>
@@ -3876,6 +4345,7 @@
       <c r="E459" s="4"/>
       <c r="F459" s="4"/>
       <c r="G459" s="4"/>
+      <c r="H459" s="4"/>
     </row>
     <row r="460">
       <c r="C460" s="4"/>
@@ -3883,6 +4353,7 @@
       <c r="E460" s="4"/>
       <c r="F460" s="4"/>
       <c r="G460" s="4"/>
+      <c r="H460" s="4"/>
     </row>
     <row r="461">
       <c r="C461" s="4"/>
@@ -3890,6 +4361,7 @@
       <c r="E461" s="4"/>
       <c r="F461" s="4"/>
       <c r="G461" s="4"/>
+      <c r="H461" s="4"/>
     </row>
     <row r="462">
       <c r="C462" s="4"/>
@@ -3897,6 +4369,7 @@
       <c r="E462" s="4"/>
       <c r="F462" s="4"/>
       <c r="G462" s="4"/>
+      <c r="H462" s="4"/>
     </row>
     <row r="463">
       <c r="C463" s="4"/>
@@ -3904,6 +4377,7 @@
       <c r="E463" s="4"/>
       <c r="F463" s="4"/>
       <c r="G463" s="4"/>
+      <c r="H463" s="4"/>
     </row>
     <row r="464">
       <c r="C464" s="4"/>
@@ -3911,6 +4385,7 @@
       <c r="E464" s="4"/>
       <c r="F464" s="4"/>
       <c r="G464" s="4"/>
+      <c r="H464" s="4"/>
     </row>
     <row r="465">
       <c r="C465" s="4"/>
@@ -3918,6 +4393,7 @@
       <c r="E465" s="4"/>
       <c r="F465" s="4"/>
       <c r="G465" s="4"/>
+      <c r="H465" s="4"/>
     </row>
     <row r="466">
       <c r="C466" s="4"/>
@@ -3925,6 +4401,7 @@
       <c r="E466" s="4"/>
       <c r="F466" s="4"/>
       <c r="G466" s="4"/>
+      <c r="H466" s="4"/>
     </row>
     <row r="467">
       <c r="C467" s="4"/>
@@ -3932,6 +4409,7 @@
       <c r="E467" s="4"/>
       <c r="F467" s="4"/>
       <c r="G467" s="4"/>
+      <c r="H467" s="4"/>
     </row>
     <row r="468">
       <c r="C468" s="4"/>
@@ -3939,6 +4417,7 @@
       <c r="E468" s="4"/>
       <c r="F468" s="4"/>
       <c r="G468" s="4"/>
+      <c r="H468" s="4"/>
     </row>
     <row r="469">
       <c r="C469" s="4"/>
@@ -3946,6 +4425,7 @@
       <c r="E469" s="4"/>
       <c r="F469" s="4"/>
       <c r="G469" s="4"/>
+      <c r="H469" s="4"/>
     </row>
     <row r="470">
       <c r="C470" s="4"/>
@@ -3953,6 +4433,7 @@
       <c r="E470" s="4"/>
       <c r="F470" s="4"/>
       <c r="G470" s="4"/>
+      <c r="H470" s="4"/>
     </row>
     <row r="471">
       <c r="C471" s="4"/>
@@ -3960,6 +4441,7 @@
       <c r="E471" s="4"/>
       <c r="F471" s="4"/>
       <c r="G471" s="4"/>
+      <c r="H471" s="4"/>
     </row>
     <row r="472">
       <c r="C472" s="4"/>
@@ -3967,6 +4449,7 @@
       <c r="E472" s="4"/>
       <c r="F472" s="4"/>
       <c r="G472" s="4"/>
+      <c r="H472" s="4"/>
     </row>
     <row r="473">
       <c r="C473" s="4"/>
@@ -3974,6 +4457,7 @@
       <c r="E473" s="4"/>
       <c r="F473" s="4"/>
       <c r="G473" s="4"/>
+      <c r="H473" s="4"/>
     </row>
     <row r="474">
       <c r="C474" s="4"/>
@@ -3981,6 +4465,7 @@
       <c r="E474" s="4"/>
       <c r="F474" s="4"/>
       <c r="G474" s="4"/>
+      <c r="H474" s="4"/>
     </row>
     <row r="475">
       <c r="C475" s="4"/>
@@ -3988,6 +4473,7 @@
       <c r="E475" s="4"/>
       <c r="F475" s="4"/>
       <c r="G475" s="4"/>
+      <c r="H475" s="4"/>
     </row>
     <row r="476">
       <c r="C476" s="4"/>
@@ -3995,6 +4481,7 @@
       <c r="E476" s="4"/>
       <c r="F476" s="4"/>
       <c r="G476" s="4"/>
+      <c r="H476" s="4"/>
     </row>
     <row r="477">
       <c r="C477" s="4"/>
@@ -4002,6 +4489,7 @@
       <c r="E477" s="4"/>
       <c r="F477" s="4"/>
       <c r="G477" s="4"/>
+      <c r="H477" s="4"/>
     </row>
     <row r="478">
       <c r="C478" s="4"/>
@@ -4009,6 +4497,7 @@
       <c r="E478" s="4"/>
       <c r="F478" s="4"/>
       <c r="G478" s="4"/>
+      <c r="H478" s="4"/>
     </row>
     <row r="479">
       <c r="C479" s="4"/>
@@ -4016,6 +4505,7 @@
       <c r="E479" s="4"/>
       <c r="F479" s="4"/>
       <c r="G479" s="4"/>
+      <c r="H479" s="4"/>
     </row>
     <row r="480">
       <c r="C480" s="4"/>
@@ -4023,6 +4513,7 @@
       <c r="E480" s="4"/>
       <c r="F480" s="4"/>
       <c r="G480" s="4"/>
+      <c r="H480" s="4"/>
     </row>
     <row r="481">
       <c r="C481" s="4"/>
@@ -4030,6 +4521,7 @@
       <c r="E481" s="4"/>
       <c r="F481" s="4"/>
       <c r="G481" s="4"/>
+      <c r="H481" s="4"/>
     </row>
     <row r="482">
       <c r="C482" s="4"/>
@@ -4037,6 +4529,7 @@
       <c r="E482" s="4"/>
       <c r="F482" s="4"/>
       <c r="G482" s="4"/>
+      <c r="H482" s="4"/>
     </row>
     <row r="483">
       <c r="C483" s="4"/>
@@ -4044,6 +4537,7 @@
       <c r="E483" s="4"/>
       <c r="F483" s="4"/>
       <c r="G483" s="4"/>
+      <c r="H483" s="4"/>
     </row>
     <row r="484">
       <c r="C484" s="4"/>
@@ -4051,6 +4545,7 @@
       <c r="E484" s="4"/>
       <c r="F484" s="4"/>
       <c r="G484" s="4"/>
+      <c r="H484" s="4"/>
     </row>
     <row r="485">
       <c r="C485" s="4"/>
@@ -4058,6 +4553,7 @@
       <c r="E485" s="4"/>
       <c r="F485" s="4"/>
       <c r="G485" s="4"/>
+      <c r="H485" s="4"/>
     </row>
     <row r="486">
       <c r="C486" s="4"/>
@@ -4065,6 +4561,7 @@
       <c r="E486" s="4"/>
       <c r="F486" s="4"/>
       <c r="G486" s="4"/>
+      <c r="H486" s="4"/>
     </row>
     <row r="487">
       <c r="C487" s="4"/>
@@ -4072,6 +4569,7 @@
       <c r="E487" s="4"/>
       <c r="F487" s="4"/>
       <c r="G487" s="4"/>
+      <c r="H487" s="4"/>
     </row>
     <row r="488">
       <c r="C488" s="4"/>
@@ -4079,6 +4577,7 @@
       <c r="E488" s="4"/>
       <c r="F488" s="4"/>
       <c r="G488" s="4"/>
+      <c r="H488" s="4"/>
     </row>
     <row r="489">
       <c r="C489" s="4"/>
@@ -4086,6 +4585,7 @@
       <c r="E489" s="4"/>
       <c r="F489" s="4"/>
       <c r="G489" s="4"/>
+      <c r="H489" s="4"/>
     </row>
     <row r="490">
       <c r="C490" s="4"/>
@@ -4093,6 +4593,7 @@
       <c r="E490" s="4"/>
       <c r="F490" s="4"/>
       <c r="G490" s="4"/>
+      <c r="H490" s="4"/>
     </row>
     <row r="491">
       <c r="C491" s="4"/>
@@ -4100,6 +4601,7 @@
       <c r="E491" s="4"/>
       <c r="F491" s="4"/>
       <c r="G491" s="4"/>
+      <c r="H491" s="4"/>
     </row>
     <row r="492">
       <c r="C492" s="4"/>
@@ -4107,6 +4609,7 @@
       <c r="E492" s="4"/>
       <c r="F492" s="4"/>
       <c r="G492" s="4"/>
+      <c r="H492" s="4"/>
     </row>
     <row r="493">
       <c r="C493" s="4"/>
@@ -4114,6 +4617,7 @@
       <c r="E493" s="4"/>
       <c r="F493" s="4"/>
       <c r="G493" s="4"/>
+      <c r="H493" s="4"/>
     </row>
     <row r="494">
       <c r="C494" s="4"/>
@@ -4121,6 +4625,7 @@
       <c r="E494" s="4"/>
       <c r="F494" s="4"/>
       <c r="G494" s="4"/>
+      <c r="H494" s="4"/>
     </row>
     <row r="495">
       <c r="C495" s="4"/>
@@ -4128,6 +4633,7 @@
       <c r="E495" s="4"/>
       <c r="F495" s="4"/>
       <c r="G495" s="4"/>
+      <c r="H495" s="4"/>
     </row>
     <row r="496">
       <c r="C496" s="4"/>
@@ -4135,6 +4641,7 @@
       <c r="E496" s="4"/>
       <c r="F496" s="4"/>
       <c r="G496" s="4"/>
+      <c r="H496" s="4"/>
     </row>
     <row r="497">
       <c r="C497" s="4"/>
@@ -4142,6 +4649,7 @@
       <c r="E497" s="4"/>
       <c r="F497" s="4"/>
       <c r="G497" s="4"/>
+      <c r="H497" s="4"/>
     </row>
     <row r="498">
       <c r="C498" s="4"/>
@@ -4149,6 +4657,7 @@
       <c r="E498" s="4"/>
       <c r="F498" s="4"/>
       <c r="G498" s="4"/>
+      <c r="H498" s="4"/>
     </row>
     <row r="499">
       <c r="C499" s="4"/>
@@ -4156,6 +4665,7 @@
       <c r="E499" s="4"/>
       <c r="F499" s="4"/>
       <c r="G499" s="4"/>
+      <c r="H499" s="4"/>
     </row>
     <row r="500">
       <c r="C500" s="4"/>
@@ -4163,6 +4673,7 @@
       <c r="E500" s="4"/>
       <c r="F500" s="4"/>
       <c r="G500" s="4"/>
+      <c r="H500" s="4"/>
     </row>
     <row r="501">
       <c r="C501" s="4"/>
@@ -4170,6 +4681,7 @@
       <c r="E501" s="4"/>
       <c r="F501" s="4"/>
       <c r="G501" s="4"/>
+      <c r="H501" s="4"/>
     </row>
     <row r="502">
       <c r="C502" s="4"/>
@@ -4177,6 +4689,7 @@
       <c r="E502" s="4"/>
       <c r="F502" s="4"/>
       <c r="G502" s="4"/>
+      <c r="H502" s="4"/>
     </row>
     <row r="503">
       <c r="C503" s="4"/>
@@ -4184,6 +4697,7 @@
       <c r="E503" s="4"/>
       <c r="F503" s="4"/>
       <c r="G503" s="4"/>
+      <c r="H503" s="4"/>
     </row>
     <row r="504">
       <c r="C504" s="4"/>
@@ -4191,6 +4705,7 @@
       <c r="E504" s="4"/>
       <c r="F504" s="4"/>
       <c r="G504" s="4"/>
+      <c r="H504" s="4"/>
     </row>
     <row r="505">
       <c r="C505" s="4"/>
@@ -4198,6 +4713,7 @@
       <c r="E505" s="4"/>
       <c r="F505" s="4"/>
       <c r="G505" s="4"/>
+      <c r="H505" s="4"/>
     </row>
     <row r="506">
       <c r="C506" s="4"/>
@@ -4205,6 +4721,7 @@
       <c r="E506" s="4"/>
       <c r="F506" s="4"/>
       <c r="G506" s="4"/>
+      <c r="H506" s="4"/>
     </row>
     <row r="507">
       <c r="C507" s="4"/>
@@ -4212,6 +4729,7 @@
       <c r="E507" s="4"/>
       <c r="F507" s="4"/>
       <c r="G507" s="4"/>
+      <c r="H507" s="4"/>
     </row>
     <row r="508">
       <c r="C508" s="4"/>
@@ -4219,6 +4737,7 @@
       <c r="E508" s="4"/>
       <c r="F508" s="4"/>
       <c r="G508" s="4"/>
+      <c r="H508" s="4"/>
     </row>
     <row r="509">
       <c r="C509" s="4"/>
@@ -4226,6 +4745,7 @@
       <c r="E509" s="4"/>
       <c r="F509" s="4"/>
       <c r="G509" s="4"/>
+      <c r="H509" s="4"/>
     </row>
     <row r="510">
       <c r="C510" s="4"/>
@@ -4233,6 +4753,7 @@
       <c r="E510" s="4"/>
       <c r="F510" s="4"/>
       <c r="G510" s="4"/>
+      <c r="H510" s="4"/>
     </row>
     <row r="511">
       <c r="C511" s="4"/>
@@ -4240,6 +4761,7 @@
       <c r="E511" s="4"/>
       <c r="F511" s="4"/>
       <c r="G511" s="4"/>
+      <c r="H511" s="4"/>
     </row>
     <row r="512">
       <c r="C512" s="4"/>
@@ -4247,6 +4769,7 @@
       <c r="E512" s="4"/>
       <c r="F512" s="4"/>
       <c r="G512" s="4"/>
+      <c r="H512" s="4"/>
     </row>
     <row r="513">
       <c r="C513" s="4"/>
@@ -4254,6 +4777,7 @@
       <c r="E513" s="4"/>
       <c r="F513" s="4"/>
       <c r="G513" s="4"/>
+      <c r="H513" s="4"/>
     </row>
     <row r="514">
       <c r="C514" s="4"/>
@@ -4261,6 +4785,7 @@
       <c r="E514" s="4"/>
       <c r="F514" s="4"/>
       <c r="G514" s="4"/>
+      <c r="H514" s="4"/>
     </row>
     <row r="515">
       <c r="C515" s="4"/>
@@ -4268,6 +4793,7 @@
       <c r="E515" s="4"/>
       <c r="F515" s="4"/>
       <c r="G515" s="4"/>
+      <c r="H515" s="4"/>
     </row>
     <row r="516">
       <c r="C516" s="4"/>
@@ -4275,6 +4801,7 @@
       <c r="E516" s="4"/>
       <c r="F516" s="4"/>
       <c r="G516" s="4"/>
+      <c r="H516" s="4"/>
     </row>
     <row r="517">
       <c r="C517" s="4"/>
@@ -4282,6 +4809,7 @@
       <c r="E517" s="4"/>
       <c r="F517" s="4"/>
       <c r="G517" s="4"/>
+      <c r="H517" s="4"/>
     </row>
     <row r="518">
       <c r="C518" s="4"/>
@@ -4289,6 +4817,7 @@
       <c r="E518" s="4"/>
       <c r="F518" s="4"/>
       <c r="G518" s="4"/>
+      <c r="H518" s="4"/>
     </row>
     <row r="519">
       <c r="C519" s="4"/>
@@ -4296,6 +4825,7 @@
       <c r="E519" s="4"/>
       <c r="F519" s="4"/>
       <c r="G519" s="4"/>
+      <c r="H519" s="4"/>
     </row>
     <row r="520">
       <c r="C520" s="4"/>
@@ -4303,6 +4833,7 @@
       <c r="E520" s="4"/>
       <c r="F520" s="4"/>
       <c r="G520" s="4"/>
+      <c r="H520" s="4"/>
     </row>
     <row r="521">
       <c r="C521" s="4"/>
@@ -4310,6 +4841,7 @@
       <c r="E521" s="4"/>
       <c r="F521" s="4"/>
       <c r="G521" s="4"/>
+      <c r="H521" s="4"/>
     </row>
     <row r="522">
       <c r="C522" s="4"/>
@@ -4317,6 +4849,7 @@
       <c r="E522" s="4"/>
       <c r="F522" s="4"/>
       <c r="G522" s="4"/>
+      <c r="H522" s="4"/>
     </row>
     <row r="523">
       <c r="C523" s="4"/>
@@ -4324,6 +4857,7 @@
       <c r="E523" s="4"/>
       <c r="F523" s="4"/>
       <c r="G523" s="4"/>
+      <c r="H523" s="4"/>
     </row>
     <row r="524">
       <c r="C524" s="4"/>
@@ -4331,6 +4865,7 @@
       <c r="E524" s="4"/>
       <c r="F524" s="4"/>
       <c r="G524" s="4"/>
+      <c r="H524" s="4"/>
     </row>
     <row r="525">
       <c r="C525" s="4"/>
@@ -4338,6 +4873,7 @@
       <c r="E525" s="4"/>
       <c r="F525" s="4"/>
       <c r="G525" s="4"/>
+      <c r="H525" s="4"/>
     </row>
     <row r="526">
       <c r="C526" s="4"/>
@@ -4345,6 +4881,7 @@
       <c r="E526" s="4"/>
       <c r="F526" s="4"/>
       <c r="G526" s="4"/>
+      <c r="H526" s="4"/>
     </row>
     <row r="527">
       <c r="C527" s="4"/>
@@ -4352,6 +4889,7 @@
       <c r="E527" s="4"/>
       <c r="F527" s="4"/>
       <c r="G527" s="4"/>
+      <c r="H527" s="4"/>
     </row>
     <row r="528">
       <c r="C528" s="4"/>
@@ -4359,6 +4897,7 @@
       <c r="E528" s="4"/>
       <c r="F528" s="4"/>
       <c r="G528" s="4"/>
+      <c r="H528" s="4"/>
     </row>
     <row r="529">
       <c r="C529" s="4"/>
@@ -4366,6 +4905,7 @@
       <c r="E529" s="4"/>
       <c r="F529" s="4"/>
       <c r="G529" s="4"/>
+      <c r="H529" s="4"/>
     </row>
     <row r="530">
       <c r="C530" s="4"/>
@@ -4373,6 +4913,7 @@
       <c r="E530" s="4"/>
       <c r="F530" s="4"/>
       <c r="G530" s="4"/>
+      <c r="H530" s="4"/>
     </row>
     <row r="531">
       <c r="C531" s="4"/>
@@ -4380,6 +4921,7 @@
       <c r="E531" s="4"/>
       <c r="F531" s="4"/>
       <c r="G531" s="4"/>
+      <c r="H531" s="4"/>
     </row>
     <row r="532">
       <c r="C532" s="4"/>
@@ -4387,6 +4929,7 @@
       <c r="E532" s="4"/>
       <c r="F532" s="4"/>
       <c r="G532" s="4"/>
+      <c r="H532" s="4"/>
     </row>
     <row r="533">
       <c r="C533" s="4"/>
@@ -4394,6 +4937,7 @@
       <c r="E533" s="4"/>
       <c r="F533" s="4"/>
       <c r="G533" s="4"/>
+      <c r="H533" s="4"/>
     </row>
     <row r="534">
       <c r="C534" s="4"/>
@@ -4401,6 +4945,7 @@
       <c r="E534" s="4"/>
       <c r="F534" s="4"/>
       <c r="G534" s="4"/>
+      <c r="H534" s="4"/>
     </row>
     <row r="535">
       <c r="C535" s="4"/>
@@ -4408,6 +4953,7 @@
       <c r="E535" s="4"/>
       <c r="F535" s="4"/>
       <c r="G535" s="4"/>
+      <c r="H535" s="4"/>
     </row>
     <row r="536">
       <c r="C536" s="4"/>
@@ -4415,6 +4961,7 @@
       <c r="E536" s="4"/>
       <c r="F536" s="4"/>
       <c r="G536" s="4"/>
+      <c r="H536" s="4"/>
     </row>
     <row r="537">
       <c r="C537" s="4"/>
@@ -4422,6 +4969,7 @@
       <c r="E537" s="4"/>
       <c r="F537" s="4"/>
       <c r="G537" s="4"/>
+      <c r="H537" s="4"/>
     </row>
     <row r="538">
       <c r="C538" s="4"/>
@@ -4429,6 +4977,7 @@
       <c r="E538" s="4"/>
       <c r="F538" s="4"/>
       <c r="G538" s="4"/>
+      <c r="H538" s="4"/>
     </row>
     <row r="539">
       <c r="C539" s="4"/>
@@ -4436,6 +4985,7 @@
       <c r="E539" s="4"/>
       <c r="F539" s="4"/>
       <c r="G539" s="4"/>
+      <c r="H539" s="4"/>
     </row>
     <row r="540">
       <c r="C540" s="4"/>
@@ -4443,6 +4993,7 @@
       <c r="E540" s="4"/>
       <c r="F540" s="4"/>
       <c r="G540" s="4"/>
+      <c r="H540" s="4"/>
     </row>
     <row r="541">
       <c r="C541" s="4"/>
@@ -4450,6 +5001,7 @@
       <c r="E541" s="4"/>
       <c r="F541" s="4"/>
       <c r="G541" s="4"/>
+      <c r="H541" s="4"/>
     </row>
     <row r="542">
       <c r="C542" s="4"/>
@@ -4457,6 +5009,7 @@
       <c r="E542" s="4"/>
       <c r="F542" s="4"/>
       <c r="G542" s="4"/>
+      <c r="H542" s="4"/>
     </row>
     <row r="543">
       <c r="C543" s="4"/>
@@ -4464,6 +5017,7 @@
       <c r="E543" s="4"/>
       <c r="F543" s="4"/>
       <c r="G543" s="4"/>
+      <c r="H543" s="4"/>
     </row>
     <row r="544">
       <c r="C544" s="4"/>
@@ -4471,6 +5025,7 @@
       <c r="E544" s="4"/>
       <c r="F544" s="4"/>
       <c r="G544" s="4"/>
+      <c r="H544" s="4"/>
     </row>
     <row r="545">
       <c r="C545" s="4"/>
@@ -4478,6 +5033,7 @@
       <c r="E545" s="4"/>
       <c r="F545" s="4"/>
       <c r="G545" s="4"/>
+      <c r="H545" s="4"/>
     </row>
     <row r="546">
       <c r="C546" s="4"/>
@@ -4485,6 +5041,7 @@
       <c r="E546" s="4"/>
       <c r="F546" s="4"/>
       <c r="G546" s="4"/>
+      <c r="H546" s="4"/>
     </row>
     <row r="547">
       <c r="C547" s="4"/>
@@ -4492,6 +5049,7 @@
       <c r="E547" s="4"/>
       <c r="F547" s="4"/>
       <c r="G547" s="4"/>
+      <c r="H547" s="4"/>
     </row>
     <row r="548">
       <c r="C548" s="4"/>
@@ -4499,6 +5057,7 @@
       <c r="E548" s="4"/>
       <c r="F548" s="4"/>
       <c r="G548" s="4"/>
+      <c r="H548" s="4"/>
     </row>
     <row r="549">
       <c r="C549" s="4"/>
@@ -4506,6 +5065,7 @@
       <c r="E549" s="4"/>
       <c r="F549" s="4"/>
       <c r="G549" s="4"/>
+      <c r="H549" s="4"/>
     </row>
     <row r="550">
       <c r="C550" s="4"/>
@@ -4513,6 +5073,7 @@
       <c r="E550" s="4"/>
       <c r="F550" s="4"/>
       <c r="G550" s="4"/>
+      <c r="H550" s="4"/>
     </row>
     <row r="551">
       <c r="C551" s="4"/>
@@ -4520,6 +5081,7 @@
       <c r="E551" s="4"/>
       <c r="F551" s="4"/>
       <c r="G551" s="4"/>
+      <c r="H551" s="4"/>
     </row>
     <row r="552">
       <c r="C552" s="4"/>
@@ -4527,6 +5089,7 @@
       <c r="E552" s="4"/>
       <c r="F552" s="4"/>
       <c r="G552" s="4"/>
+      <c r="H552" s="4"/>
     </row>
     <row r="553">
       <c r="C553" s="4"/>
@@ -4534,6 +5097,7 @@
       <c r="E553" s="4"/>
       <c r="F553" s="4"/>
       <c r="G553" s="4"/>
+      <c r="H553" s="4"/>
     </row>
     <row r="554">
       <c r="C554" s="4"/>
@@ -4541,6 +5105,7 @@
       <c r="E554" s="4"/>
       <c r="F554" s="4"/>
       <c r="G554" s="4"/>
+      <c r="H554" s="4"/>
     </row>
     <row r="555">
       <c r="C555" s="4"/>
@@ -4548,6 +5113,7 @@
       <c r="E555" s="4"/>
       <c r="F555" s="4"/>
       <c r="G555" s="4"/>
+      <c r="H555" s="4"/>
     </row>
     <row r="556">
       <c r="C556" s="4"/>
@@ -4555,6 +5121,7 @@
       <c r="E556" s="4"/>
       <c r="F556" s="4"/>
       <c r="G556" s="4"/>
+      <c r="H556" s="4"/>
     </row>
     <row r="557">
       <c r="C557" s="4"/>
@@ -4562,6 +5129,7 @@
       <c r="E557" s="4"/>
       <c r="F557" s="4"/>
       <c r="G557" s="4"/>
+      <c r="H557" s="4"/>
     </row>
     <row r="558">
       <c r="C558" s="4"/>
@@ -4569,6 +5137,7 @@
       <c r="E558" s="4"/>
       <c r="F558" s="4"/>
       <c r="G558" s="4"/>
+      <c r="H558" s="4"/>
     </row>
     <row r="559">
       <c r="C559" s="4"/>
@@ -4576,6 +5145,7 @@
       <c r="E559" s="4"/>
       <c r="F559" s="4"/>
       <c r="G559" s="4"/>
+      <c r="H559" s="4"/>
     </row>
     <row r="560">
       <c r="C560" s="4"/>
@@ -4583,6 +5153,7 @@
       <c r="E560" s="4"/>
       <c r="F560" s="4"/>
       <c r="G560" s="4"/>
+      <c r="H560" s="4"/>
     </row>
     <row r="561">
       <c r="C561" s="4"/>
@@ -4590,6 +5161,7 @@
       <c r="E561" s="4"/>
       <c r="F561" s="4"/>
       <c r="G561" s="4"/>
+      <c r="H561" s="4"/>
     </row>
     <row r="562">
       <c r="C562" s="4"/>
@@ -4597,6 +5169,7 @@
       <c r="E562" s="4"/>
       <c r="F562" s="4"/>
       <c r="G562" s="4"/>
+      <c r="H562" s="4"/>
     </row>
     <row r="563">
       <c r="C563" s="4"/>
@@ -4604,6 +5177,7 @@
       <c r="E563" s="4"/>
       <c r="F563" s="4"/>
       <c r="G563" s="4"/>
+      <c r="H563" s="4"/>
     </row>
     <row r="564">
       <c r="C564" s="4"/>
@@ -4611,6 +5185,7 @@
       <c r="E564" s="4"/>
       <c r="F564" s="4"/>
       <c r="G564" s="4"/>
+      <c r="H564" s="4"/>
     </row>
     <row r="565">
       <c r="C565" s="4"/>
@@ -4618,6 +5193,7 @@
       <c r="E565" s="4"/>
       <c r="F565" s="4"/>
       <c r="G565" s="4"/>
+      <c r="H565" s="4"/>
     </row>
     <row r="566">
       <c r="C566" s="4"/>
@@ -4625,6 +5201,7 @@
       <c r="E566" s="4"/>
       <c r="F566" s="4"/>
       <c r="G566" s="4"/>
+      <c r="H566" s="4"/>
     </row>
     <row r="567">
       <c r="C567" s="4"/>
@@ -4632,6 +5209,7 @@
       <c r="E567" s="4"/>
       <c r="F567" s="4"/>
       <c r="G567" s="4"/>
+      <c r="H567" s="4"/>
     </row>
     <row r="568">
       <c r="C568" s="4"/>
@@ -4639,6 +5217,7 @@
       <c r="E568" s="4"/>
       <c r="F568" s="4"/>
       <c r="G568" s="4"/>
+      <c r="H568" s="4"/>
     </row>
     <row r="569">
       <c r="C569" s="4"/>
@@ -4646,6 +5225,7 @@
       <c r="E569" s="4"/>
       <c r="F569" s="4"/>
       <c r="G569" s="4"/>
+      <c r="H569" s="4"/>
     </row>
     <row r="570">
       <c r="C570" s="4"/>
@@ -4653,6 +5233,7 @@
       <c r="E570" s="4"/>
       <c r="F570" s="4"/>
       <c r="G570" s="4"/>
+      <c r="H570" s="4"/>
     </row>
     <row r="571">
       <c r="C571" s="4"/>
@@ -4660,6 +5241,7 @@
       <c r="E571" s="4"/>
       <c r="F571" s="4"/>
       <c r="G571" s="4"/>
+      <c r="H571" s="4"/>
     </row>
     <row r="572">
       <c r="C572" s="4"/>
@@ -4667,6 +5249,7 @@
       <c r="E572" s="4"/>
       <c r="F572" s="4"/>
       <c r="G572" s="4"/>
+      <c r="H572" s="4"/>
     </row>
     <row r="573">
       <c r="C573" s="4"/>
@@ -4674,6 +5257,7 @@
       <c r="E573" s="4"/>
       <c r="F573" s="4"/>
       <c r="G573" s="4"/>
+      <c r="H573" s="4"/>
     </row>
     <row r="574">
       <c r="C574" s="4"/>
@@ -4681,6 +5265,7 @@
       <c r="E574" s="4"/>
       <c r="F574" s="4"/>
       <c r="G574" s="4"/>
+      <c r="H574" s="4"/>
     </row>
     <row r="575">
       <c r="C575" s="4"/>
@@ -4688,6 +5273,7 @@
       <c r="E575" s="4"/>
       <c r="F575" s="4"/>
       <c r="G575" s="4"/>
+      <c r="H575" s="4"/>
     </row>
     <row r="576">
       <c r="C576" s="4"/>
@@ -4695,6 +5281,7 @@
       <c r="E576" s="4"/>
       <c r="F576" s="4"/>
       <c r="G576" s="4"/>
+      <c r="H576" s="4"/>
     </row>
     <row r="577">
       <c r="C577" s="4"/>
@@ -4702,6 +5289,7 @@
       <c r="E577" s="4"/>
       <c r="F577" s="4"/>
       <c r="G577" s="4"/>
+      <c r="H577" s="4"/>
     </row>
     <row r="578">
       <c r="C578" s="4"/>
@@ -4709,6 +5297,7 @@
       <c r="E578" s="4"/>
       <c r="F578" s="4"/>
       <c r="G578" s="4"/>
+      <c r="H578" s="4"/>
     </row>
     <row r="579">
       <c r="C579" s="4"/>
@@ -4716,6 +5305,7 @@
       <c r="E579" s="4"/>
       <c r="F579" s="4"/>
       <c r="G579" s="4"/>
+      <c r="H579" s="4"/>
     </row>
     <row r="580">
       <c r="C580" s="4"/>
@@ -4723,6 +5313,7 @@
       <c r="E580" s="4"/>
       <c r="F580" s="4"/>
       <c r="G580" s="4"/>
+      <c r="H580" s="4"/>
     </row>
     <row r="581">
       <c r="C581" s="4"/>
@@ -4730,6 +5321,7 @@
       <c r="E581" s="4"/>
       <c r="F581" s="4"/>
       <c r="G581" s="4"/>
+      <c r="H581" s="4"/>
     </row>
     <row r="582">
       <c r="C582" s="4"/>
@@ -4737,6 +5329,7 @@
       <c r="E582" s="4"/>
       <c r="F582" s="4"/>
       <c r="G582" s="4"/>
+      <c r="H582" s="4"/>
     </row>
     <row r="583">
       <c r="C583" s="4"/>
@@ -4744,6 +5337,7 @@
       <c r="E583" s="4"/>
       <c r="F583" s="4"/>
       <c r="G583" s="4"/>
+      <c r="H583" s="4"/>
     </row>
     <row r="584">
       <c r="C584" s="4"/>
@@ -4751,6 +5345,7 @@
       <c r="E584" s="4"/>
       <c r="F584" s="4"/>
       <c r="G584" s="4"/>
+      <c r="H584" s="4"/>
     </row>
     <row r="585">
       <c r="C585" s="4"/>
@@ -4758,6 +5353,7 @@
       <c r="E585" s="4"/>
       <c r="F585" s="4"/>
       <c r="G585" s="4"/>
+      <c r="H585" s="4"/>
     </row>
     <row r="586">
       <c r="C586" s="4"/>
@@ -4765,6 +5361,7 @@
       <c r="E586" s="4"/>
       <c r="F586" s="4"/>
       <c r="G586" s="4"/>
+      <c r="H586" s="4"/>
     </row>
     <row r="587">
       <c r="C587" s="4"/>
@@ -4772,6 +5369,7 @@
       <c r="E587" s="4"/>
       <c r="F587" s="4"/>
       <c r="G587" s="4"/>
+      <c r="H587" s="4"/>
     </row>
     <row r="588">
       <c r="C588" s="4"/>
@@ -4779,6 +5377,7 @@
       <c r="E588" s="4"/>
       <c r="F588" s="4"/>
       <c r="G588" s="4"/>
+      <c r="H588" s="4"/>
     </row>
     <row r="589">
       <c r="C589" s="4"/>
@@ -4786,6 +5385,7 @@
       <c r="E589" s="4"/>
       <c r="F589" s="4"/>
       <c r="G589" s="4"/>
+      <c r="H589" s="4"/>
     </row>
     <row r="590">
       <c r="C590" s="4"/>
@@ -4793,6 +5393,7 @@
       <c r="E590" s="4"/>
       <c r="F590" s="4"/>
       <c r="G590" s="4"/>
+      <c r="H590" s="4"/>
     </row>
     <row r="591">
       <c r="C591" s="4"/>
@@ -4800,6 +5401,7 @@
       <c r="E591" s="4"/>
       <c r="F591" s="4"/>
       <c r="G591" s="4"/>
+      <c r="H591" s="4"/>
     </row>
     <row r="592">
       <c r="C592" s="4"/>
@@ -4807,6 +5409,7 @@
       <c r="E592" s="4"/>
       <c r="F592" s="4"/>
       <c r="G592" s="4"/>
+      <c r="H592" s="4"/>
     </row>
     <row r="593">
       <c r="C593" s="4"/>
@@ -4814,6 +5417,7 @@
       <c r="E593" s="4"/>
       <c r="F593" s="4"/>
       <c r="G593" s="4"/>
+      <c r="H593" s="4"/>
     </row>
     <row r="594">
       <c r="C594" s="4"/>
@@ -4821,6 +5425,7 @@
       <c r="E594" s="4"/>
       <c r="F594" s="4"/>
       <c r="G594" s="4"/>
+      <c r="H594" s="4"/>
     </row>
     <row r="595">
       <c r="C595" s="4"/>
@@ -4828,6 +5433,7 @@
       <c r="E595" s="4"/>
       <c r="F595" s="4"/>
       <c r="G595" s="4"/>
+      <c r="H595" s="4"/>
     </row>
     <row r="596">
       <c r="C596" s="4"/>
@@ -4835,6 +5441,7 @@
       <c r="E596" s="4"/>
       <c r="F596" s="4"/>
       <c r="G596" s="4"/>
+      <c r="H596" s="4"/>
     </row>
     <row r="597">
       <c r="C597" s="4"/>
@@ -4842,6 +5449,7 @@
       <c r="E597" s="4"/>
       <c r="F597" s="4"/>
       <c r="G597" s="4"/>
+      <c r="H597" s="4"/>
     </row>
     <row r="598">
       <c r="C598" s="4"/>
@@ -4849,6 +5457,7 @@
       <c r="E598" s="4"/>
       <c r="F598" s="4"/>
       <c r="G598" s="4"/>
+      <c r="H598" s="4"/>
     </row>
     <row r="599">
       <c r="C599" s="4"/>
@@ -4856,6 +5465,7 @@
       <c r="E599" s="4"/>
       <c r="F599" s="4"/>
       <c r="G599" s="4"/>
+      <c r="H599" s="4"/>
     </row>
     <row r="600">
       <c r="C600" s="4"/>
@@ -4863,6 +5473,7 @@
       <c r="E600" s="4"/>
       <c r="F600" s="4"/>
       <c r="G600" s="4"/>
+      <c r="H600" s="4"/>
     </row>
     <row r="601">
       <c r="C601" s="4"/>
@@ -4870,6 +5481,7 @@
       <c r="E601" s="4"/>
       <c r="F601" s="4"/>
       <c r="G601" s="4"/>
+      <c r="H601" s="4"/>
     </row>
     <row r="602">
       <c r="C602" s="4"/>
@@ -4877,6 +5489,7 @@
       <c r="E602" s="4"/>
       <c r="F602" s="4"/>
       <c r="G602" s="4"/>
+      <c r="H602" s="4"/>
     </row>
     <row r="603">
       <c r="C603" s="4"/>
@@ -4884,6 +5497,7 @@
       <c r="E603" s="4"/>
       <c r="F603" s="4"/>
       <c r="G603" s="4"/>
+      <c r="H603" s="4"/>
     </row>
     <row r="604">
       <c r="C604" s="4"/>
@@ -4891,6 +5505,7 @@
       <c r="E604" s="4"/>
       <c r="F604" s="4"/>
       <c r="G604" s="4"/>
+      <c r="H604" s="4"/>
     </row>
     <row r="605">
       <c r="C605" s="4"/>
@@ -4898,6 +5513,7 @@
       <c r="E605" s="4"/>
       <c r="F605" s="4"/>
       <c r="G605" s="4"/>
+      <c r="H605" s="4"/>
     </row>
     <row r="606">
       <c r="C606" s="4"/>
@@ -4905,6 +5521,7 @@
       <c r="E606" s="4"/>
       <c r="F606" s="4"/>
       <c r="G606" s="4"/>
+      <c r="H606" s="4"/>
     </row>
     <row r="607">
       <c r="C607" s="4"/>
@@ -4912,6 +5529,7 @@
       <c r="E607" s="4"/>
       <c r="F607" s="4"/>
       <c r="G607" s="4"/>
+      <c r="H607" s="4"/>
     </row>
     <row r="608">
       <c r="C608" s="4"/>
@@ -4919,6 +5537,7 @@
       <c r="E608" s="4"/>
       <c r="F608" s="4"/>
       <c r="G608" s="4"/>
+      <c r="H608" s="4"/>
     </row>
     <row r="609">
       <c r="C609" s="4"/>
@@ -4926,6 +5545,7 @@
       <c r="E609" s="4"/>
       <c r="F609" s="4"/>
       <c r="G609" s="4"/>
+      <c r="H609" s="4"/>
     </row>
     <row r="610">
       <c r="C610" s="4"/>
@@ -4933,6 +5553,7 @@
       <c r="E610" s="4"/>
       <c r="F610" s="4"/>
       <c r="G610" s="4"/>
+      <c r="H610" s="4"/>
     </row>
     <row r="611">
       <c r="C611" s="4"/>
@@ -4940,6 +5561,7 @@
       <c r="E611" s="4"/>
       <c r="F611" s="4"/>
       <c r="G611" s="4"/>
+      <c r="H611" s="4"/>
     </row>
     <row r="612">
       <c r="C612" s="4"/>
@@ -4947,6 +5569,7 @@
       <c r="E612" s="4"/>
       <c r="F612" s="4"/>
       <c r="G612" s="4"/>
+      <c r="H612" s="4"/>
     </row>
     <row r="613">
       <c r="C613" s="4"/>
@@ -4954,6 +5577,7 @@
       <c r="E613" s="4"/>
       <c r="F613" s="4"/>
       <c r="G613" s="4"/>
+      <c r="H613" s="4"/>
     </row>
     <row r="614">
       <c r="C614" s="4"/>
@@ -4961,6 +5585,7 @@
       <c r="E614" s="4"/>
       <c r="F614" s="4"/>
       <c r="G614" s="4"/>
+      <c r="H614" s="4"/>
     </row>
     <row r="615">
       <c r="C615" s="4"/>
@@ -4968,6 +5593,7 @@
       <c r="E615" s="4"/>
       <c r="F615" s="4"/>
       <c r="G615" s="4"/>
+      <c r="H615" s="4"/>
     </row>
     <row r="616">
       <c r="C616" s="4"/>
@@ -4975,6 +5601,7 @@
       <c r="E616" s="4"/>
       <c r="F616" s="4"/>
       <c r="G616" s="4"/>
+      <c r="H616" s="4"/>
     </row>
     <row r="617">
       <c r="C617" s="4"/>
@@ -4982,6 +5609,7 @@
       <c r="E617" s="4"/>
       <c r="F617" s="4"/>
       <c r="G617" s="4"/>
+      <c r="H617" s="4"/>
     </row>
     <row r="618">
       <c r="C618" s="4"/>
@@ -4989,6 +5617,7 @@
       <c r="E618" s="4"/>
       <c r="F618" s="4"/>
       <c r="G618" s="4"/>
+      <c r="H618" s="4"/>
     </row>
     <row r="619">
       <c r="C619" s="4"/>
@@ -4996,6 +5625,7 @@
       <c r="E619" s="4"/>
       <c r="F619" s="4"/>
       <c r="G619" s="4"/>
+      <c r="H619" s="4"/>
     </row>
     <row r="620">
       <c r="C620" s="4"/>
@@ -5003,6 +5633,7 @@
       <c r="E620" s="4"/>
       <c r="F620" s="4"/>
       <c r="G620" s="4"/>
+      <c r="H620" s="4"/>
     </row>
     <row r="621">
       <c r="C621" s="4"/>
@@ -5010,6 +5641,7 @@
       <c r="E621" s="4"/>
       <c r="F621" s="4"/>
       <c r="G621" s="4"/>
+      <c r="H621" s="4"/>
     </row>
     <row r="622">
       <c r="C622" s="4"/>
@@ -5017,6 +5649,7 @@
       <c r="E622" s="4"/>
       <c r="F622" s="4"/>
       <c r="G622" s="4"/>
+      <c r="H622" s="4"/>
     </row>
     <row r="623">
       <c r="C623" s="4"/>
@@ -5024,6 +5657,7 @@
       <c r="E623" s="4"/>
       <c r="F623" s="4"/>
       <c r="G623" s="4"/>
+      <c r="H623" s="4"/>
     </row>
     <row r="624">
       <c r="C624" s="4"/>
@@ -5031,6 +5665,7 @@
       <c r="E624" s="4"/>
       <c r="F624" s="4"/>
       <c r="G624" s="4"/>
+      <c r="H624" s="4"/>
     </row>
     <row r="625">
       <c r="C625" s="4"/>
@@ -5038,6 +5673,7 @@
       <c r="E625" s="4"/>
       <c r="F625" s="4"/>
       <c r="G625" s="4"/>
+      <c r="H625" s="4"/>
     </row>
     <row r="626">
       <c r="C626" s="4"/>
@@ -5045,6 +5681,7 @@
       <c r="E626" s="4"/>
       <c r="F626" s="4"/>
       <c r="G626" s="4"/>
+      <c r="H626" s="4"/>
     </row>
     <row r="627">
       <c r="C627" s="4"/>
@@ -5052,6 +5689,7 @@
       <c r="E627" s="4"/>
       <c r="F627" s="4"/>
       <c r="G627" s="4"/>
+      <c r="H627" s="4"/>
     </row>
     <row r="628">
       <c r="C628" s="4"/>
@@ -5059,6 +5697,7 @@
       <c r="E628" s="4"/>
       <c r="F628" s="4"/>
       <c r="G628" s="4"/>
+      <c r="H628" s="4"/>
     </row>
     <row r="629">
       <c r="C629" s="4"/>
@@ -5066,6 +5705,7 @@
       <c r="E629" s="4"/>
       <c r="F629" s="4"/>
       <c r="G629" s="4"/>
+      <c r="H629" s="4"/>
     </row>
     <row r="630">
       <c r="C630" s="4"/>
@@ -5073,6 +5713,7 @@
       <c r="E630" s="4"/>
       <c r="F630" s="4"/>
       <c r="G630" s="4"/>
+      <c r="H630" s="4"/>
     </row>
     <row r="631">
       <c r="C631" s="4"/>
@@ -5080,6 +5721,7 @@
       <c r="E631" s="4"/>
       <c r="F631" s="4"/>
       <c r="G631" s="4"/>
+      <c r="H631" s="4"/>
     </row>
     <row r="632">
       <c r="C632" s="4"/>
@@ -5087,6 +5729,7 @@
       <c r="E632" s="4"/>
       <c r="F632" s="4"/>
       <c r="G632" s="4"/>
+      <c r="H632" s="4"/>
     </row>
     <row r="633">
       <c r="C633" s="4"/>
@@ -5094,6 +5737,7 @@
       <c r="E633" s="4"/>
       <c r="F633" s="4"/>
       <c r="G633" s="4"/>
+      <c r="H633" s="4"/>
     </row>
     <row r="634">
       <c r="C634" s="4"/>
@@ -5101,6 +5745,7 @@
       <c r="E634" s="4"/>
       <c r="F634" s="4"/>
       <c r="G634" s="4"/>
+      <c r="H634" s="4"/>
     </row>
     <row r="635">
       <c r="C635" s="4"/>
@@ -5108,6 +5753,7 @@
       <c r="E635" s="4"/>
       <c r="F635" s="4"/>
       <c r="G635" s="4"/>
+      <c r="H635" s="4"/>
     </row>
     <row r="636">
       <c r="C636" s="4"/>
@@ -5115,6 +5761,7 @@
       <c r="E636" s="4"/>
       <c r="F636" s="4"/>
       <c r="G636" s="4"/>
+      <c r="H636" s="4"/>
     </row>
     <row r="637">
       <c r="C637" s="4"/>
@@ -5122,6 +5769,7 @@
       <c r="E637" s="4"/>
       <c r="F637" s="4"/>
       <c r="G637" s="4"/>
+      <c r="H637" s="4"/>
     </row>
     <row r="638">
       <c r="C638" s="4"/>
@@ -5129,6 +5777,7 @@
       <c r="E638" s="4"/>
       <c r="F638" s="4"/>
       <c r="G638" s="4"/>
+      <c r="H638" s="4"/>
     </row>
     <row r="639">
       <c r="C639" s="4"/>
@@ -5136,6 +5785,7 @@
       <c r="E639" s="4"/>
       <c r="F639" s="4"/>
       <c r="G639" s="4"/>
+      <c r="H639" s="4"/>
     </row>
     <row r="640">
       <c r="C640" s="4"/>
@@ -5143,6 +5793,7 @@
       <c r="E640" s="4"/>
       <c r="F640" s="4"/>
       <c r="G640" s="4"/>
+      <c r="H640" s="4"/>
     </row>
     <row r="641">
       <c r="C641" s="4"/>
@@ -5150,6 +5801,7 @@
       <c r="E641" s="4"/>
       <c r="F641" s="4"/>
       <c r="G641" s="4"/>
+      <c r="H641" s="4"/>
     </row>
     <row r="642">
       <c r="C642" s="4"/>
@@ -5157,6 +5809,7 @@
       <c r="E642" s="4"/>
       <c r="F642" s="4"/>
       <c r="G642" s="4"/>
+      <c r="H642" s="4"/>
     </row>
     <row r="643">
       <c r="C643" s="4"/>
@@ -5164,6 +5817,7 @@
       <c r="E643" s="4"/>
       <c r="F643" s="4"/>
       <c r="G643" s="4"/>
+      <c r="H643" s="4"/>
     </row>
     <row r="644">
       <c r="C644" s="4"/>
@@ -5171,6 +5825,7 @@
       <c r="E644" s="4"/>
       <c r="F644" s="4"/>
       <c r="G644" s="4"/>
+      <c r="H644" s="4"/>
     </row>
     <row r="645">
       <c r="C645" s="4"/>
@@ -5178,6 +5833,7 @@
       <c r="E645" s="4"/>
       <c r="F645" s="4"/>
       <c r="G645" s="4"/>
+      <c r="H645" s="4"/>
     </row>
     <row r="646">
       <c r="C646" s="4"/>
@@ -5185,6 +5841,7 @@
       <c r="E646" s="4"/>
       <c r="F646" s="4"/>
       <c r="G646" s="4"/>
+      <c r="H646" s="4"/>
     </row>
     <row r="647">
       <c r="C647" s="4"/>
@@ -5192,6 +5849,7 @@
       <c r="E647" s="4"/>
       <c r="F647" s="4"/>
       <c r="G647" s="4"/>
+      <c r="H647" s="4"/>
     </row>
     <row r="648">
       <c r="C648" s="4"/>
@@ -5199,6 +5857,7 @@
       <c r="E648" s="4"/>
       <c r="F648" s="4"/>
       <c r="G648" s="4"/>
+      <c r="H648" s="4"/>
     </row>
     <row r="649">
       <c r="C649" s="4"/>
@@ -5206,6 +5865,7 @@
       <c r="E649" s="4"/>
       <c r="F649" s="4"/>
       <c r="G649" s="4"/>
+      <c r="H649" s="4"/>
     </row>
     <row r="650">
       <c r="C650" s="4"/>
@@ -5213,6 +5873,7 @@
       <c r="E650" s="4"/>
       <c r="F650" s="4"/>
       <c r="G650" s="4"/>
+      <c r="H650" s="4"/>
     </row>
     <row r="651">
       <c r="C651" s="4"/>
@@ -5220,6 +5881,7 @@
       <c r="E651" s="4"/>
       <c r="F651" s="4"/>
       <c r="G651" s="4"/>
+      <c r="H651" s="4"/>
     </row>
     <row r="652">
       <c r="C652" s="4"/>
@@ -5227,6 +5889,7 @@
       <c r="E652" s="4"/>
       <c r="F652" s="4"/>
       <c r="G652" s="4"/>
+      <c r="H652" s="4"/>
     </row>
     <row r="653">
       <c r="C653" s="4"/>
@@ -5234,6 +5897,7 @@
       <c r="E653" s="4"/>
       <c r="F653" s="4"/>
       <c r="G653" s="4"/>
+      <c r="H653" s="4"/>
     </row>
     <row r="654">
       <c r="C654" s="4"/>
@@ -5241,6 +5905,7 @@
       <c r="E654" s="4"/>
       <c r="F654" s="4"/>
       <c r="G654" s="4"/>
+      <c r="H654" s="4"/>
     </row>
     <row r="655">
       <c r="C655" s="4"/>
@@ -5248,6 +5913,7 @@
       <c r="E655" s="4"/>
       <c r="F655" s="4"/>
       <c r="G655" s="4"/>
+      <c r="H655" s="4"/>
     </row>
     <row r="656">
       <c r="C656" s="4"/>
@@ -5255,6 +5921,7 @@
       <c r="E656" s="4"/>
       <c r="F656" s="4"/>
       <c r="G656" s="4"/>
+      <c r="H656" s="4"/>
     </row>
     <row r="657">
       <c r="C657" s="4"/>
@@ -5262,6 +5929,7 @@
       <c r="E657" s="4"/>
       <c r="F657" s="4"/>
       <c r="G657" s="4"/>
+      <c r="H657" s="4"/>
     </row>
     <row r="658">
       <c r="C658" s="4"/>
@@ -5269,6 +5937,7 @@
       <c r="E658" s="4"/>
       <c r="F658" s="4"/>
       <c r="G658" s="4"/>
+      <c r="H658" s="4"/>
     </row>
     <row r="659">
       <c r="C659" s="4"/>
@@ -5276,6 +5945,7 @@
       <c r="E659" s="4"/>
       <c r="F659" s="4"/>
       <c r="G659" s="4"/>
+      <c r="H659" s="4"/>
     </row>
     <row r="660">
       <c r="C660" s="4"/>
@@ -5283,6 +5953,7 @@
       <c r="E660" s="4"/>
       <c r="F660" s="4"/>
       <c r="G660" s="4"/>
+      <c r="H660" s="4"/>
     </row>
     <row r="661">
       <c r="C661" s="4"/>
@@ -5290,6 +5961,7 @@
       <c r="E661" s="4"/>
       <c r="F661" s="4"/>
       <c r="G661" s="4"/>
+      <c r="H661" s="4"/>
     </row>
     <row r="662">
       <c r="C662" s="4"/>
@@ -5297,6 +5969,7 @@
       <c r="E662" s="4"/>
       <c r="F662" s="4"/>
       <c r="G662" s="4"/>
+      <c r="H662" s="4"/>
     </row>
     <row r="663">
       <c r="C663" s="4"/>
@@ -5304,6 +5977,7 @@
       <c r="E663" s="4"/>
       <c r="F663" s="4"/>
       <c r="G663" s="4"/>
+      <c r="H663" s="4"/>
     </row>
     <row r="664">
       <c r="C664" s="4"/>
@@ -5311,6 +5985,7 @@
       <c r="E664" s="4"/>
       <c r="F664" s="4"/>
       <c r="G664" s="4"/>
+      <c r="H664" s="4"/>
     </row>
     <row r="665">
       <c r="C665" s="4"/>
@@ -5318,6 +5993,7 @@
       <c r="E665" s="4"/>
       <c r="F665" s="4"/>
       <c r="G665" s="4"/>
+      <c r="H665" s="4"/>
     </row>
     <row r="666">
       <c r="C666" s="4"/>
@@ -5325,6 +6001,7 @@
       <c r="E666" s="4"/>
       <c r="F666" s="4"/>
       <c r="G666" s="4"/>
+      <c r="H666" s="4"/>
     </row>
     <row r="667">
       <c r="C667" s="4"/>
@@ -5332,6 +6009,7 @@
       <c r="E667" s="4"/>
       <c r="F667" s="4"/>
       <c r="G667" s="4"/>
+      <c r="H667" s="4"/>
     </row>
     <row r="668">
       <c r="C668" s="4"/>
@@ -5339,6 +6017,7 @@
       <c r="E668" s="4"/>
       <c r="F668" s="4"/>
       <c r="G668" s="4"/>
+      <c r="H668" s="4"/>
     </row>
     <row r="669">
       <c r="C669" s="4"/>
@@ -5346,6 +6025,7 @@
       <c r="E669" s="4"/>
       <c r="F669" s="4"/>
       <c r="G669" s="4"/>
+      <c r="H669" s="4"/>
     </row>
     <row r="670">
       <c r="C670" s="4"/>
@@ -5353,6 +6033,7 @@
       <c r="E670" s="4"/>
       <c r="F670" s="4"/>
       <c r="G670" s="4"/>
+      <c r="H670" s="4"/>
     </row>
     <row r="671">
       <c r="C671" s="4"/>
@@ -5360,6 +6041,7 @@
       <c r="E671" s="4"/>
       <c r="F671" s="4"/>
       <c r="G671" s="4"/>
+      <c r="H671" s="4"/>
     </row>
     <row r="672">
       <c r="C672" s="4"/>
@@ -5367,6 +6049,7 @@
       <c r="E672" s="4"/>
       <c r="F672" s="4"/>
       <c r="G672" s="4"/>
+      <c r="H672" s="4"/>
     </row>
     <row r="673">
       <c r="C673" s="4"/>
@@ -5374,6 +6057,7 @@
       <c r="E673" s="4"/>
       <c r="F673" s="4"/>
       <c r="G673" s="4"/>
+      <c r="H673" s="4"/>
     </row>
     <row r="674">
       <c r="C674" s="4"/>
@@ -5381,6 +6065,7 @@
       <c r="E674" s="4"/>
       <c r="F674" s="4"/>
       <c r="G674" s="4"/>
+      <c r="H674" s="4"/>
     </row>
     <row r="675">
       <c r="C675" s="4"/>
@@ -5388,6 +6073,7 @@
       <c r="E675" s="4"/>
       <c r="F675" s="4"/>
       <c r="G675" s="4"/>
+      <c r="H675" s="4"/>
     </row>
     <row r="676">
       <c r="C676" s="4"/>
@@ -5395,6 +6081,7 @@
       <c r="E676" s="4"/>
       <c r="F676" s="4"/>
       <c r="G676" s="4"/>
+      <c r="H676" s="4"/>
     </row>
     <row r="677">
       <c r="C677" s="4"/>
@@ -5402,6 +6089,7 @@
       <c r="E677" s="4"/>
       <c r="F677" s="4"/>
       <c r="G677" s="4"/>
+      <c r="H677" s="4"/>
     </row>
     <row r="678">
       <c r="C678" s="4"/>
@@ -5409,6 +6097,7 @@
       <c r="E678" s="4"/>
       <c r="F678" s="4"/>
       <c r="G678" s="4"/>
+      <c r="H678" s="4"/>
     </row>
     <row r="679">
       <c r="C679" s="4"/>
@@ -5416,6 +6105,7 @@
       <c r="E679" s="4"/>
       <c r="F679" s="4"/>
       <c r="G679" s="4"/>
+      <c r="H679" s="4"/>
     </row>
     <row r="680">
       <c r="C680" s="4"/>
@@ -5423,6 +6113,7 @@
       <c r="E680" s="4"/>
       <c r="F680" s="4"/>
       <c r="G680" s="4"/>
+      <c r="H680" s="4"/>
     </row>
     <row r="681">
       <c r="C681" s="4"/>
@@ -5430,6 +6121,7 @@
       <c r="E681" s="4"/>
       <c r="F681" s="4"/>
       <c r="G681" s="4"/>
+      <c r="H681" s="4"/>
     </row>
     <row r="682">
       <c r="C682" s="4"/>
@@ -5437,6 +6129,7 @@
       <c r="E682" s="4"/>
       <c r="F682" s="4"/>
       <c r="G682" s="4"/>
+      <c r="H682" s="4"/>
     </row>
     <row r="683">
       <c r="C683" s="4"/>
@@ -5444,6 +6137,7 @@
       <c r="E683" s="4"/>
       <c r="F683" s="4"/>
       <c r="G683" s="4"/>
+      <c r="H683" s="4"/>
     </row>
     <row r="684">
       <c r="C684" s="4"/>
@@ -5451,6 +6145,7 @@
       <c r="E684" s="4"/>
       <c r="F684" s="4"/>
       <c r="G684" s="4"/>
+      <c r="H684" s="4"/>
     </row>
     <row r="685">
       <c r="C685" s="4"/>
@@ -5458,6 +6153,7 @@
       <c r="E685" s="4"/>
       <c r="F685" s="4"/>
       <c r="G685" s="4"/>
+      <c r="H685" s="4"/>
     </row>
     <row r="686">
       <c r="C686" s="4"/>
@@ -5465,6 +6161,7 @@
       <c r="E686" s="4"/>
       <c r="F686" s="4"/>
       <c r="G686" s="4"/>
+      <c r="H686" s="4"/>
     </row>
     <row r="687">
       <c r="C687" s="4"/>
@@ -5472,6 +6169,7 @@
       <c r="E687" s="4"/>
       <c r="F687" s="4"/>
       <c r="G687" s="4"/>
+      <c r="H687" s="4"/>
     </row>
     <row r="688">
       <c r="C688" s="4"/>
@@ -5479,6 +6177,7 @@
       <c r="E688" s="4"/>
       <c r="F688" s="4"/>
       <c r="G688" s="4"/>
+      <c r="H688" s="4"/>
     </row>
     <row r="689">
       <c r="C689" s="4"/>
@@ -5486,6 +6185,7 @@
       <c r="E689" s="4"/>
       <c r="F689" s="4"/>
       <c r="G689" s="4"/>
+      <c r="H689" s="4"/>
     </row>
     <row r="690">
       <c r="C690" s="4"/>
@@ -5493,6 +6193,7 @@
       <c r="E690" s="4"/>
       <c r="F690" s="4"/>
       <c r="G690" s="4"/>
+      <c r="H690" s="4"/>
     </row>
     <row r="691">
       <c r="C691" s="4"/>
@@ -5500,6 +6201,7 @@
       <c r="E691" s="4"/>
       <c r="F691" s="4"/>
       <c r="G691" s="4"/>
+      <c r="H691" s="4"/>
     </row>
     <row r="692">
       <c r="C692" s="4"/>
@@ -5507,6 +6209,7 @@
       <c r="E692" s="4"/>
       <c r="F692" s="4"/>
       <c r="G692" s="4"/>
+      <c r="H692" s="4"/>
     </row>
     <row r="693">
       <c r="C693" s="4"/>
@@ -5514,6 +6217,7 @@
       <c r="E693" s="4"/>
       <c r="F693" s="4"/>
       <c r="G693" s="4"/>
+      <c r="H693" s="4"/>
     </row>
     <row r="694">
       <c r="C694" s="4"/>
@@ -5521,6 +6225,7 @@
       <c r="E694" s="4"/>
       <c r="F694" s="4"/>
       <c r="G694" s="4"/>
+      <c r="H694" s="4"/>
     </row>
     <row r="695">
       <c r="C695" s="4"/>
@@ -5528,6 +6233,7 @@
       <c r="E695" s="4"/>
       <c r="F695" s="4"/>
       <c r="G695" s="4"/>
+      <c r="H695" s="4"/>
     </row>
     <row r="696">
       <c r="C696" s="4"/>
@@ -5535,6 +6241,7 @@
       <c r="E696" s="4"/>
       <c r="F696" s="4"/>
       <c r="G696" s="4"/>
+      <c r="H696" s="4"/>
     </row>
     <row r="697">
       <c r="C697" s="4"/>
@@ -5542,6 +6249,7 @@
       <c r="E697" s="4"/>
       <c r="F697" s="4"/>
       <c r="G697" s="4"/>
+      <c r="H697" s="4"/>
     </row>
     <row r="698">
       <c r="C698" s="4"/>
@@ -5549,6 +6257,7 @@
       <c r="E698" s="4"/>
       <c r="F698" s="4"/>
       <c r="G698" s="4"/>
+      <c r="H698" s="4"/>
     </row>
     <row r="699">
       <c r="C699" s="4"/>
@@ -5556,6 +6265,7 @@
       <c r="E699" s="4"/>
       <c r="F699" s="4"/>
       <c r="G699" s="4"/>
+      <c r="H699" s="4"/>
     </row>
     <row r="700">
       <c r="C700" s="4"/>
@@ -5563,6 +6273,7 @@
       <c r="E700" s="4"/>
       <c r="F700" s="4"/>
       <c r="G700" s="4"/>
+      <c r="H700" s="4"/>
     </row>
     <row r="701">
       <c r="C701" s="4"/>
@@ -5570,6 +6281,7 @@
       <c r="E701" s="4"/>
       <c r="F701" s="4"/>
       <c r="G701" s="4"/>
+      <c r="H701" s="4"/>
     </row>
     <row r="702">
       <c r="C702" s="4"/>
@@ -5577,6 +6289,7 @@
       <c r="E702" s="4"/>
       <c r="F702" s="4"/>
       <c r="G702" s="4"/>
+      <c r="H702" s="4"/>
     </row>
     <row r="703">
       <c r="C703" s="4"/>
@@ -5584,6 +6297,7 @@
       <c r="E703" s="4"/>
       <c r="F703" s="4"/>
       <c r="G703" s="4"/>
+      <c r="H703" s="4"/>
     </row>
     <row r="704">
       <c r="C704" s="4"/>
@@ -5591,6 +6305,7 @@
       <c r="E704" s="4"/>
       <c r="F704" s="4"/>
       <c r="G704" s="4"/>
+      <c r="H704" s="4"/>
     </row>
     <row r="705">
       <c r="C705" s="4"/>
@@ -5598,6 +6313,7 @@
       <c r="E705" s="4"/>
       <c r="F705" s="4"/>
       <c r="G705" s="4"/>
+      <c r="H705" s="4"/>
     </row>
     <row r="706">
       <c r="C706" s="4"/>
@@ -5605,6 +6321,7 @@
       <c r="E706" s="4"/>
       <c r="F706" s="4"/>
       <c r="G706" s="4"/>
+      <c r="H706" s="4"/>
     </row>
     <row r="707">
       <c r="C707" s="4"/>
@@ -5612,6 +6329,7 @@
       <c r="E707" s="4"/>
       <c r="F707" s="4"/>
       <c r="G707" s="4"/>
+      <c r="H707" s="4"/>
     </row>
     <row r="708">
       <c r="C708" s="4"/>
@@ -5619,6 +6337,7 @@
       <c r="E708" s="4"/>
       <c r="F708" s="4"/>
       <c r="G708" s="4"/>
+      <c r="H708" s="4"/>
     </row>
     <row r="709">
       <c r="C709" s="4"/>
@@ -5626,6 +6345,7 @@
       <c r="E709" s="4"/>
       <c r="F709" s="4"/>
       <c r="G709" s="4"/>
+      <c r="H709" s="4"/>
     </row>
     <row r="710">
       <c r="C710" s="4"/>
@@ -5633,6 +6353,7 @@
       <c r="E710" s="4"/>
       <c r="F710" s="4"/>
       <c r="G710" s="4"/>
+      <c r="H710" s="4"/>
     </row>
     <row r="711">
       <c r="C711" s="4"/>
@@ -5640,6 +6361,7 @@
       <c r="E711" s="4"/>
       <c r="F711" s="4"/>
       <c r="G711" s="4"/>
+      <c r="H711" s="4"/>
     </row>
     <row r="712">
       <c r="C712" s="4"/>
@@ -5647,6 +6369,7 @@
       <c r="E712" s="4"/>
       <c r="F712" s="4"/>
       <c r="G712" s="4"/>
+      <c r="H712" s="4"/>
     </row>
     <row r="713">
       <c r="C713" s="4"/>
@@ -5654,6 +6377,7 @@
       <c r="E713" s="4"/>
       <c r="F713" s="4"/>
       <c r="G713" s="4"/>
+      <c r="H713" s="4"/>
     </row>
     <row r="714">
       <c r="C714" s="4"/>
@@ -5661,6 +6385,7 @@
       <c r="E714" s="4"/>
       <c r="F714" s="4"/>
       <c r="G714" s="4"/>
+      <c r="H714" s="4"/>
     </row>
     <row r="715">
       <c r="C715" s="4"/>
@@ -5668,6 +6393,7 @@
       <c r="E715" s="4"/>
       <c r="F715" s="4"/>
       <c r="G715" s="4"/>
+      <c r="H715" s="4"/>
     </row>
     <row r="716">
       <c r="C716" s="4"/>
@@ -5675,6 +6401,7 @@
       <c r="E716" s="4"/>
       <c r="F716" s="4"/>
       <c r="G716" s="4"/>
+      <c r="H716" s="4"/>
     </row>
     <row r="717">
       <c r="C717" s="4"/>
@@ -5682,6 +6409,7 @@
       <c r="E717" s="4"/>
       <c r="F717" s="4"/>
       <c r="G717" s="4"/>
+      <c r="H717" s="4"/>
     </row>
     <row r="718">
       <c r="C718" s="4"/>
@@ -5689,6 +6417,7 @@
       <c r="E718" s="4"/>
       <c r="F718" s="4"/>
       <c r="G718" s="4"/>
+      <c r="H718" s="4"/>
     </row>
     <row r="719">
       <c r="C719" s="4"/>
@@ -5696,6 +6425,7 @@
       <c r="E719" s="4"/>
       <c r="F719" s="4"/>
       <c r="G719" s="4"/>
+      <c r="H719" s="4"/>
     </row>
     <row r="720">
       <c r="C720" s="4"/>
@@ -5703,6 +6433,7 @@
       <c r="E720" s="4"/>
       <c r="F720" s="4"/>
       <c r="G720" s="4"/>
+      <c r="H720" s="4"/>
     </row>
     <row r="721">
       <c r="C721" s="4"/>
@@ -5710,6 +6441,7 @@
       <c r="E721" s="4"/>
       <c r="F721" s="4"/>
       <c r="G721" s="4"/>
+      <c r="H721" s="4"/>
     </row>
     <row r="722">
       <c r="C722" s="4"/>
@@ -5717,6 +6449,7 @@
       <c r="E722" s="4"/>
       <c r="F722" s="4"/>
       <c r="G722" s="4"/>
+      <c r="H722" s="4"/>
     </row>
     <row r="723">
       <c r="C723" s="4"/>
@@ -5724,6 +6457,7 @@
       <c r="E723" s="4"/>
       <c r="F723" s="4"/>
       <c r="G723" s="4"/>
+      <c r="H723" s="4"/>
     </row>
     <row r="724">
       <c r="C724" s="4"/>
@@ -5731,6 +6465,7 @@
       <c r="E724" s="4"/>
       <c r="F724" s="4"/>
       <c r="G724" s="4"/>
+      <c r="H724" s="4"/>
     </row>
     <row r="725">
       <c r="C725" s="4"/>
@@ -5738,6 +6473,7 @@
       <c r="E725" s="4"/>
       <c r="F725" s="4"/>
       <c r="G725" s="4"/>
+      <c r="H725" s="4"/>
     </row>
     <row r="726">
       <c r="C726" s="4"/>
@@ -5745,6 +6481,7 @@
       <c r="E726" s="4"/>
       <c r="F726" s="4"/>
       <c r="G726" s="4"/>
+      <c r="H726" s="4"/>
     </row>
     <row r="727">
       <c r="C727" s="4"/>
@@ -5752,6 +6489,7 @@
       <c r="E727" s="4"/>
       <c r="F727" s="4"/>
       <c r="G727" s="4"/>
+      <c r="H727" s="4"/>
     </row>
     <row r="728">
       <c r="C728" s="4"/>
@@ -5759,6 +6497,7 @@
       <c r="E728" s="4"/>
       <c r="F728" s="4"/>
       <c r="G728" s="4"/>
+      <c r="H728" s="4"/>
     </row>
     <row r="729">
       <c r="C729" s="4"/>
@@ -5766,6 +6505,7 @@
       <c r="E729" s="4"/>
       <c r="F729" s="4"/>
       <c r="G729" s="4"/>
+      <c r="H729" s="4"/>
     </row>
     <row r="730">
       <c r="C730" s="4"/>
@@ -5773,6 +6513,7 @@
       <c r="E730" s="4"/>
       <c r="F730" s="4"/>
       <c r="G730" s="4"/>
+      <c r="H730" s="4"/>
     </row>
     <row r="731">
       <c r="C731" s="4"/>
@@ -5780,6 +6521,7 @@
       <c r="E731" s="4"/>
       <c r="F731" s="4"/>
       <c r="G731" s="4"/>
+      <c r="H731" s="4"/>
     </row>
     <row r="732">
       <c r="C732" s="4"/>
@@ -5787,6 +6529,7 @@
       <c r="E732" s="4"/>
       <c r="F732" s="4"/>
       <c r="G732" s="4"/>
+      <c r="H732" s="4"/>
     </row>
     <row r="733">
       <c r="C733" s="4"/>
@@ -5794,6 +6537,7 @@
       <c r="E733" s="4"/>
       <c r="F733" s="4"/>
       <c r="G733" s="4"/>
+      <c r="H733" s="4"/>
     </row>
     <row r="734">
       <c r="C734" s="4"/>
@@ -5801,6 +6545,7 @@
       <c r="E734" s="4"/>
       <c r="F734" s="4"/>
       <c r="G734" s="4"/>
+      <c r="H734" s="4"/>
     </row>
     <row r="735">
       <c r="C735" s="4"/>
@@ -5808,6 +6553,7 @@
       <c r="E735" s="4"/>
       <c r="F735" s="4"/>
       <c r="G735" s="4"/>
+      <c r="H735" s="4"/>
     </row>
     <row r="736">
       <c r="C736" s="4"/>
@@ -5815,6 +6561,7 @@
       <c r="E736" s="4"/>
       <c r="F736" s="4"/>
       <c r="G736" s="4"/>
+      <c r="H736" s="4"/>
     </row>
     <row r="737">
       <c r="C737" s="4"/>
@@ -5822,6 +6569,7 @@
       <c r="E737" s="4"/>
       <c r="F737" s="4"/>
       <c r="G737" s="4"/>
+      <c r="H737" s="4"/>
     </row>
     <row r="738">
       <c r="C738" s="4"/>
@@ -5829,6 +6577,7 @@
       <c r="E738" s="4"/>
       <c r="F738" s="4"/>
       <c r="G738" s="4"/>
+      <c r="H738" s="4"/>
     </row>
     <row r="739">
       <c r="C739" s="4"/>
@@ -5836,6 +6585,7 @@
       <c r="E739" s="4"/>
       <c r="F739" s="4"/>
       <c r="G739" s="4"/>
+      <c r="H739" s="4"/>
     </row>
     <row r="740">
       <c r="C740" s="4"/>
@@ -5843,6 +6593,7 @@
       <c r="E740" s="4"/>
       <c r="F740" s="4"/>
       <c r="G740" s="4"/>
+      <c r="H740" s="4"/>
     </row>
     <row r="741">
       <c r="C741" s="4"/>
@@ -5850,6 +6601,7 @@
       <c r="E741" s="4"/>
       <c r="F741" s="4"/>
       <c r="G741" s="4"/>
+      <c r="H741" s="4"/>
     </row>
     <row r="742">
       <c r="C742" s="4"/>
@@ -5857,6 +6609,7 @@
       <c r="E742" s="4"/>
       <c r="F742" s="4"/>
       <c r="G742" s="4"/>
+      <c r="H742" s="4"/>
     </row>
     <row r="743">
       <c r="C743" s="4"/>
@@ -5864,6 +6617,7 @@
       <c r="E743" s="4"/>
       <c r="F743" s="4"/>
       <c r="G743" s="4"/>
+      <c r="H743" s="4"/>
     </row>
     <row r="744">
       <c r="C744" s="4"/>
@@ -5871,6 +6625,7 @@
       <c r="E744" s="4"/>
       <c r="F744" s="4"/>
       <c r="G744" s="4"/>
+      <c r="H744" s="4"/>
     </row>
     <row r="745">
       <c r="C745" s="4"/>
@@ -5878,6 +6633,7 @@
       <c r="E745" s="4"/>
       <c r="F745" s="4"/>
       <c r="G745" s="4"/>
+      <c r="H745" s="4"/>
     </row>
     <row r="746">
       <c r="C746" s="4"/>
@@ -5885,6 +6641,7 @@
       <c r="E746" s="4"/>
       <c r="F746" s="4"/>
       <c r="G746" s="4"/>
+      <c r="H746" s="4"/>
     </row>
     <row r="747">
       <c r="C747" s="4"/>
@@ -5892,6 +6649,7 @@
       <c r="E747" s="4"/>
       <c r="F747" s="4"/>
       <c r="G747" s="4"/>
+      <c r="H747" s="4"/>
     </row>
     <row r="748">
       <c r="C748" s="4"/>
@@ -5899,6 +6657,7 @@
       <c r="E748" s="4"/>
       <c r="F748" s="4"/>
       <c r="G748" s="4"/>
+      <c r="H748" s="4"/>
     </row>
     <row r="749">
       <c r="C749" s="4"/>
@@ -5906,6 +6665,7 @@
       <c r="E749" s="4"/>
       <c r="F749" s="4"/>
       <c r="G749" s="4"/>
+      <c r="H749" s="4"/>
     </row>
     <row r="750">
       <c r="C750" s="4"/>
@@ -5913,6 +6673,7 @@
       <c r="E750" s="4"/>
       <c r="F750" s="4"/>
       <c r="G750" s="4"/>
+      <c r="H750" s="4"/>
     </row>
     <row r="751">
       <c r="C751" s="4"/>
@@ -5920,6 +6681,7 @@
       <c r="E751" s="4"/>
       <c r="F751" s="4"/>
       <c r="G751" s="4"/>
+      <c r="H751" s="4"/>
     </row>
     <row r="752">
       <c r="C752" s="4"/>
@@ -5927,6 +6689,7 @@
       <c r="E752" s="4"/>
       <c r="F752" s="4"/>
       <c r="G752" s="4"/>
+      <c r="H752" s="4"/>
     </row>
     <row r="753">
       <c r="C753" s="4"/>
@@ -5934,6 +6697,7 @@
       <c r="E753" s="4"/>
       <c r="F753" s="4"/>
       <c r="G753" s="4"/>
+      <c r="H753" s="4"/>
     </row>
     <row r="754">
       <c r="C754" s="4"/>
@@ -5941,6 +6705,7 @@
       <c r="E754" s="4"/>
       <c r="F754" s="4"/>
       <c r="G754" s="4"/>
+      <c r="H754" s="4"/>
     </row>
     <row r="755">
       <c r="C755" s="4"/>
@@ -5948,6 +6713,7 @@
       <c r="E755" s="4"/>
       <c r="F755" s="4"/>
       <c r="G755" s="4"/>
+      <c r="H755" s="4"/>
     </row>
     <row r="756">
       <c r="C756" s="4"/>
@@ -5955,6 +6721,7 @@
       <c r="E756" s="4"/>
       <c r="F756" s="4"/>
       <c r="G756" s="4"/>
+      <c r="H756" s="4"/>
     </row>
     <row r="757">
       <c r="C757" s="4"/>
@@ -5962,6 +6729,7 @@
       <c r="E757" s="4"/>
       <c r="F757" s="4"/>
       <c r="G757" s="4"/>
+      <c r="H757" s="4"/>
     </row>
     <row r="758">
       <c r="C758" s="4"/>
@@ -5969,6 +6737,7 @@
       <c r="E758" s="4"/>
       <c r="F758" s="4"/>
       <c r="G758" s="4"/>
+      <c r="H758" s="4"/>
     </row>
     <row r="759">
       <c r="C759" s="4"/>
@@ -5976,6 +6745,7 @@
       <c r="E759" s="4"/>
       <c r="F759" s="4"/>
       <c r="G759" s="4"/>
+      <c r="H759" s="4"/>
     </row>
     <row r="760">
       <c r="C760" s="4"/>
@@ -5983,6 +6753,7 @@
       <c r="E760" s="4"/>
       <c r="F760" s="4"/>
       <c r="G760" s="4"/>
+      <c r="H760" s="4"/>
     </row>
     <row r="761">
       <c r="C761" s="4"/>
@@ -5990,6 +6761,7 @@
       <c r="E761" s="4"/>
       <c r="F761" s="4"/>
       <c r="G761" s="4"/>
+      <c r="H761" s="4"/>
     </row>
     <row r="762">
       <c r="C762" s="4"/>
@@ -5997,6 +6769,7 @@
       <c r="E762" s="4"/>
       <c r="F762" s="4"/>
       <c r="G762" s="4"/>
+      <c r="H762" s="4"/>
     </row>
     <row r="763">
       <c r="C763" s="4"/>
@@ -6004,6 +6777,7 @@
       <c r="E763" s="4"/>
       <c r="F763" s="4"/>
       <c r="G763" s="4"/>
+      <c r="H763" s="4"/>
     </row>
     <row r="764">
       <c r="C764" s="4"/>
@@ -6011,6 +6785,7 @@
       <c r="E764" s="4"/>
       <c r="F764" s="4"/>
       <c r="G764" s="4"/>
+      <c r="H764" s="4"/>
     </row>
     <row r="765">
       <c r="C765" s="4"/>
@@ -6018,6 +6793,7 @@
       <c r="E765" s="4"/>
       <c r="F765" s="4"/>
       <c r="G765" s="4"/>
+      <c r="H765" s="4"/>
     </row>
     <row r="766">
       <c r="C766" s="4"/>
@@ -6025,6 +6801,7 @@
       <c r="E766" s="4"/>
       <c r="F766" s="4"/>
       <c r="G766" s="4"/>
+      <c r="H766" s="4"/>
     </row>
     <row r="767">
       <c r="C767" s="4"/>
@@ -6032,6 +6809,7 @@
       <c r="E767" s="4"/>
       <c r="F767" s="4"/>
       <c r="G767" s="4"/>
+      <c r="H767" s="4"/>
     </row>
     <row r="768">
       <c r="C768" s="4"/>
@@ -6039,6 +6817,7 @@
       <c r="E768" s="4"/>
       <c r="F768" s="4"/>
       <c r="G768" s="4"/>
+      <c r="H768" s="4"/>
     </row>
     <row r="769">
       <c r="C769" s="4"/>
@@ -6046,6 +6825,7 @@
       <c r="E769" s="4"/>
       <c r="F769" s="4"/>
       <c r="G769" s="4"/>
+      <c r="H769" s="4"/>
     </row>
     <row r="770">
       <c r="C770" s="4"/>
@@ -6053,6 +6833,7 @@
       <c r="E770" s="4"/>
       <c r="F770" s="4"/>
       <c r="G770" s="4"/>
+      <c r="H770" s="4"/>
     </row>
     <row r="771">
       <c r="C771" s="4"/>
@@ -6060,6 +6841,7 @@
       <c r="E771" s="4"/>
       <c r="F771" s="4"/>
       <c r="G771" s="4"/>
+      <c r="H771" s="4"/>
     </row>
     <row r="772">
       <c r="C772" s="4"/>
@@ -6067,6 +6849,7 @@
       <c r="E772" s="4"/>
       <c r="F772" s="4"/>
       <c r="G772" s="4"/>
+      <c r="H772" s="4"/>
     </row>
     <row r="773">
       <c r="C773" s="4"/>
@@ -6074,6 +6857,7 @@
       <c r="E773" s="4"/>
       <c r="F773" s="4"/>
       <c r="G773" s="4"/>
+      <c r="H773" s="4"/>
     </row>
     <row r="774">
       <c r="C774" s="4"/>
@@ -6081,6 +6865,7 @@
       <c r="E774" s="4"/>
       <c r="F774" s="4"/>
       <c r="G774" s="4"/>
+      <c r="H774" s="4"/>
     </row>
     <row r="775">
       <c r="C775" s="4"/>
@@ -6088,6 +6873,7 @@
       <c r="E775" s="4"/>
       <c r="F775" s="4"/>
       <c r="G775" s="4"/>
+      <c r="H775" s="4"/>
     </row>
     <row r="776">
       <c r="C776" s="4"/>
@@ -6095,6 +6881,7 @@
       <c r="E776" s="4"/>
       <c r="F776" s="4"/>
       <c r="G776" s="4"/>
+      <c r="H776" s="4"/>
     </row>
     <row r="777">
       <c r="C777" s="4"/>
@@ -6102,6 +6889,7 @@
       <c r="E777" s="4"/>
       <c r="F777" s="4"/>
       <c r="G777" s="4"/>
+      <c r="H777" s="4"/>
     </row>
     <row r="778">
       <c r="C778" s="4"/>
@@ -6109,6 +6897,7 @@
       <c r="E778" s="4"/>
       <c r="F778" s="4"/>
       <c r="G778" s="4"/>
+      <c r="H778" s="4"/>
     </row>
     <row r="779">
       <c r="C779" s="4"/>
@@ -6116,6 +6905,7 @@
       <c r="E779" s="4"/>
       <c r="F779" s="4"/>
       <c r="G779" s="4"/>
+      <c r="H779" s="4"/>
     </row>
     <row r="780">
       <c r="C780" s="4"/>
@@ -6123,6 +6913,7 @@
       <c r="E780" s="4"/>
       <c r="F780" s="4"/>
       <c r="G780" s="4"/>
+      <c r="H780" s="4"/>
     </row>
     <row r="781">
       <c r="C781" s="4"/>
@@ -6130,6 +6921,7 @@
       <c r="E781" s="4"/>
       <c r="F781" s="4"/>
       <c r="G781" s="4"/>
+      <c r="H781" s="4"/>
     </row>
     <row r="782">
       <c r="C782" s="4"/>
@@ -6137,6 +6929,7 @@
       <c r="E782" s="4"/>
       <c r="F782" s="4"/>
       <c r="G782" s="4"/>
+      <c r="H782" s="4"/>
     </row>
     <row r="783">
       <c r="C783" s="4"/>
@@ -6144,6 +6937,7 @@
       <c r="E783" s="4"/>
       <c r="F783" s="4"/>
       <c r="G783" s="4"/>
+      <c r="H783" s="4"/>
     </row>
     <row r="784">
       <c r="C784" s="4"/>
@@ -6151,6 +6945,7 @@
       <c r="E784" s="4"/>
       <c r="F784" s="4"/>
       <c r="G784" s="4"/>
+      <c r="H784" s="4"/>
     </row>
     <row r="785">
       <c r="C785" s="4"/>
@@ -6158,6 +6953,7 @@
       <c r="E785" s="4"/>
       <c r="F785" s="4"/>
       <c r="G785" s="4"/>
+      <c r="H785" s="4"/>
     </row>
     <row r="786">
       <c r="C786" s="4"/>
@@ -6165,6 +6961,7 @@
       <c r="E786" s="4"/>
       <c r="F786" s="4"/>
       <c r="G786" s="4"/>
+      <c r="H786" s="4"/>
     </row>
     <row r="787">
       <c r="C787" s="4"/>
@@ -6172,6 +6969,7 @@
       <c r="E787" s="4"/>
       <c r="F787" s="4"/>
       <c r="G787" s="4"/>
+      <c r="H787" s="4"/>
     </row>
     <row r="788">
       <c r="C788" s="4"/>
@@ -6179,6 +6977,7 @@
       <c r="E788" s="4"/>
       <c r="F788" s="4"/>
       <c r="G788" s="4"/>
+      <c r="H788" s="4"/>
     </row>
     <row r="789">
       <c r="C789" s="4"/>
@@ -6186,6 +6985,7 @@
       <c r="E789" s="4"/>
       <c r="F789" s="4"/>
       <c r="G789" s="4"/>
+      <c r="H789" s="4"/>
     </row>
     <row r="790">
       <c r="C790" s="4"/>
@@ -6193,6 +6993,7 @@
       <c r="E790" s="4"/>
       <c r="F790" s="4"/>
       <c r="G790" s="4"/>
+      <c r="H790" s="4"/>
     </row>
     <row r="791">
       <c r="C791" s="4"/>
@@ -6200,6 +7001,7 @@
       <c r="E791" s="4"/>
       <c r="F791" s="4"/>
       <c r="G791" s="4"/>
+      <c r="H791" s="4"/>
     </row>
     <row r="792">
       <c r="C792" s="4"/>
@@ -6207,6 +7009,7 @@
       <c r="E792" s="4"/>
       <c r="F792" s="4"/>
       <c r="G792" s="4"/>
+      <c r="H792" s="4"/>
     </row>
     <row r="793">
       <c r="C793" s="4"/>
@@ -6214,6 +7017,7 @@
       <c r="E793" s="4"/>
       <c r="F793" s="4"/>
       <c r="G793" s="4"/>
+      <c r="H793" s="4"/>
     </row>
     <row r="794">
       <c r="C794" s="4"/>
@@ -6221,6 +7025,7 @@
       <c r="E794" s="4"/>
       <c r="F794" s="4"/>
       <c r="G794" s="4"/>
+      <c r="H794" s="4"/>
     </row>
     <row r="795">
       <c r="C795" s="4"/>
@@ -6228,6 +7033,7 @@
       <c r="E795" s="4"/>
       <c r="F795" s="4"/>
       <c r="G795" s="4"/>
+      <c r="H795" s="4"/>
     </row>
     <row r="796">
       <c r="C796" s="4"/>
@@ -6235,6 +7041,7 @@
       <c r="E796" s="4"/>
       <c r="F796" s="4"/>
       <c r="G796" s="4"/>
+      <c r="H796" s="4"/>
     </row>
     <row r="797">
       <c r="C797" s="4"/>
@@ -6242,6 +7049,7 @@
       <c r="E797" s="4"/>
       <c r="F797" s="4"/>
       <c r="G797" s="4"/>
+      <c r="H797" s="4"/>
     </row>
     <row r="798">
       <c r="C798" s="4"/>
@@ -6249,6 +7057,7 @@
       <c r="E798" s="4"/>
       <c r="F798" s="4"/>
       <c r="G798" s="4"/>
+      <c r="H798" s="4"/>
     </row>
     <row r="799">
       <c r="C799" s="4"/>
@@ -6256,6 +7065,7 @@
       <c r="E799" s="4"/>
       <c r="F799" s="4"/>
       <c r="G799" s="4"/>
+      <c r="H799" s="4"/>
     </row>
     <row r="800">
       <c r="C800" s="4"/>
@@ -6263,6 +7073,7 @@
       <c r="E800" s="4"/>
       <c r="F800" s="4"/>
       <c r="G800" s="4"/>
+      <c r="H800" s="4"/>
     </row>
     <row r="801">
       <c r="C801" s="4"/>
@@ -6270,6 +7081,7 @@
       <c r="E801" s="4"/>
       <c r="F801" s="4"/>
       <c r="G801" s="4"/>
+      <c r="H801" s="4"/>
     </row>
     <row r="802">
       <c r="C802" s="4"/>
@@ -6277,6 +7089,7 @@
       <c r="E802" s="4"/>
       <c r="F802" s="4"/>
       <c r="G802" s="4"/>
+      <c r="H802" s="4"/>
     </row>
     <row r="803">
       <c r="C803" s="4"/>
@@ -6284,6 +7097,7 @@
       <c r="E803" s="4"/>
       <c r="F803" s="4"/>
       <c r="G803" s="4"/>
+      <c r="H803" s="4"/>
     </row>
     <row r="804">
       <c r="C804" s="4"/>
@@ -6291,6 +7105,7 @@
       <c r="E804" s="4"/>
       <c r="F804" s="4"/>
       <c r="G804" s="4"/>
+      <c r="H804" s="4"/>
     </row>
     <row r="805">
       <c r="C805" s="4"/>
@@ -6298,6 +7113,7 @@
       <c r="E805" s="4"/>
       <c r="F805" s="4"/>
       <c r="G805" s="4"/>
+      <c r="H805" s="4"/>
     </row>
     <row r="806">
       <c r="C806" s="4"/>
@@ -6305,6 +7121,7 @@
       <c r="E806" s="4"/>
       <c r="F806" s="4"/>
       <c r="G806" s="4"/>
+      <c r="H806" s="4"/>
     </row>
     <row r="807">
       <c r="C807" s="4"/>
@@ -6312,6 +7129,7 @@
       <c r="E807" s="4"/>
       <c r="F807" s="4"/>
       <c r="G807" s="4"/>
+      <c r="H807" s="4"/>
     </row>
     <row r="808">
       <c r="C808" s="4"/>
@@ -6319,6 +7137,7 @@
       <c r="E808" s="4"/>
       <c r="F808" s="4"/>
       <c r="G808" s="4"/>
+      <c r="H808" s="4"/>
     </row>
     <row r="809">
       <c r="C809" s="4"/>
@@ -6326,6 +7145,7 @@
       <c r="E809" s="4"/>
       <c r="F809" s="4"/>
       <c r="G809" s="4"/>
+      <c r="H809" s="4"/>
     </row>
     <row r="810">
       <c r="C810" s="4"/>
@@ -6333,6 +7153,7 @@
       <c r="E810" s="4"/>
       <c r="F810" s="4"/>
       <c r="G810" s="4"/>
+      <c r="H810" s="4"/>
     </row>
     <row r="811">
       <c r="C811" s="4"/>
@@ -6340,6 +7161,7 @@
       <c r="E811" s="4"/>
       <c r="F811" s="4"/>
       <c r="G811" s="4"/>
+      <c r="H811" s="4"/>
     </row>
     <row r="812">
       <c r="C812" s="4"/>
@@ -6347,6 +7169,7 @@
       <c r="E812" s="4"/>
       <c r="F812" s="4"/>
       <c r="G812" s="4"/>
+      <c r="H812" s="4"/>
     </row>
     <row r="813">
       <c r="C813" s="4"/>
@@ -6354,6 +7177,7 @@
       <c r="E813" s="4"/>
       <c r="F813" s="4"/>
       <c r="G813" s="4"/>
+      <c r="H813" s="4"/>
     </row>
     <row r="814">
       <c r="C814" s="4"/>
@@ -6361,6 +7185,7 @@
       <c r="E814" s="4"/>
       <c r="F814" s="4"/>
       <c r="G814" s="4"/>
+      <c r="H814" s="4"/>
     </row>
     <row r="815">
       <c r="C815" s="4"/>
@@ -6368,6 +7193,7 @@
       <c r="E815" s="4"/>
       <c r="F815" s="4"/>
       <c r="G815" s="4"/>
+      <c r="H815" s="4"/>
     </row>
     <row r="816">
       <c r="C816" s="4"/>
@@ -6375,6 +7201,7 @@
       <c r="E816" s="4"/>
       <c r="F816" s="4"/>
       <c r="G816" s="4"/>
+      <c r="H816" s="4"/>
     </row>
     <row r="817">
       <c r="C817" s="4"/>
@@ -6382,6 +7209,7 @@
       <c r="E817" s="4"/>
       <c r="F817" s="4"/>
       <c r="G817" s="4"/>
+      <c r="H817" s="4"/>
     </row>
     <row r="818">
       <c r="C818" s="4"/>
@@ -6389,6 +7217,7 @@
       <c r="E818" s="4"/>
       <c r="F818" s="4"/>
       <c r="G818" s="4"/>
+      <c r="H818" s="4"/>
     </row>
     <row r="819">
       <c r="C819" s="4"/>
@@ -6396,6 +7225,7 @@
       <c r="E819" s="4"/>
       <c r="F819" s="4"/>
       <c r="G819" s="4"/>
+      <c r="H819" s="4"/>
     </row>
     <row r="820">
       <c r="C820" s="4"/>
@@ -6403,6 +7233,7 @@
       <c r="E820" s="4"/>
       <c r="F820" s="4"/>
       <c r="G820" s="4"/>
+      <c r="H820" s="4"/>
     </row>
     <row r="821">
       <c r="C821" s="4"/>
@@ -6410,6 +7241,7 @@
       <c r="E821" s="4"/>
       <c r="F821" s="4"/>
       <c r="G821" s="4"/>
+      <c r="H821" s="4"/>
     </row>
     <row r="822">
       <c r="C822" s="4"/>
@@ -6417,6 +7249,7 @@
       <c r="E822" s="4"/>
       <c r="F822" s="4"/>
       <c r="G822" s="4"/>
+      <c r="H822" s="4"/>
     </row>
     <row r="823">
       <c r="C823" s="4"/>
@@ -6424,6 +7257,7 @@
       <c r="E823" s="4"/>
       <c r="F823" s="4"/>
       <c r="G823" s="4"/>
+      <c r="H823" s="4"/>
     </row>
     <row r="824">
       <c r="C824" s="4"/>
@@ -6431,6 +7265,7 @@
       <c r="E824" s="4"/>
       <c r="F824" s="4"/>
       <c r="G824" s="4"/>
+      <c r="H824" s="4"/>
     </row>
     <row r="825">
       <c r="C825" s="4"/>
@@ -6438,6 +7273,7 @@
       <c r="E825" s="4"/>
       <c r="F825" s="4"/>
       <c r="G825" s="4"/>
+      <c r="H825" s="4"/>
     </row>
     <row r="826">
       <c r="C826" s="4"/>
@@ -6445,6 +7281,7 @@
       <c r="E826" s="4"/>
       <c r="F826" s="4"/>
       <c r="G826" s="4"/>
+      <c r="H826" s="4"/>
     </row>
     <row r="827">
       <c r="C827" s="4"/>
@@ -6452,6 +7289,7 @@
       <c r="E827" s="4"/>
       <c r="F827" s="4"/>
       <c r="G827" s="4"/>
+      <c r="H827" s="4"/>
     </row>
     <row r="828">
       <c r="C828" s="4"/>
@@ -6459,6 +7297,7 @@
       <c r="E828" s="4"/>
       <c r="F828" s="4"/>
       <c r="G828" s="4"/>
+      <c r="H828" s="4"/>
     </row>
     <row r="829">
       <c r="C829" s="4"/>
@@ -6466,6 +7305,7 @@
       <c r="E829" s="4"/>
       <c r="F829" s="4"/>
       <c r="G829" s="4"/>
+      <c r="H829" s="4"/>
     </row>
     <row r="830">
       <c r="C830" s="4"/>
@@ -6473,6 +7313,7 @@
       <c r="E830" s="4"/>
       <c r="F830" s="4"/>
       <c r="G830" s="4"/>
+      <c r="H830" s="4"/>
     </row>
     <row r="831">
       <c r="C831" s="4"/>
@@ -6480,6 +7321,7 @@
       <c r="E831" s="4"/>
       <c r="F831" s="4"/>
       <c r="G831" s="4"/>
+      <c r="H831" s="4"/>
     </row>
     <row r="832">
       <c r="C832" s="4"/>
@@ -6487,6 +7329,7 @@
       <c r="E832" s="4"/>
       <c r="F832" s="4"/>
       <c r="G832" s="4"/>
+      <c r="H832" s="4"/>
     </row>
     <row r="833">
       <c r="C833" s="4"/>
@@ -6494,6 +7337,7 @@
       <c r="E833" s="4"/>
       <c r="F833" s="4"/>
       <c r="G833" s="4"/>
+      <c r="H833" s="4"/>
     </row>
     <row r="834">
       <c r="C834" s="4"/>
@@ -6501,6 +7345,7 @@
       <c r="E834" s="4"/>
       <c r="F834" s="4"/>
       <c r="G834" s="4"/>
+      <c r="H834" s="4"/>
     </row>
     <row r="835">
       <c r="C835" s="4"/>
@@ -6508,6 +7353,7 @@
       <c r="E835" s="4"/>
       <c r="F835" s="4"/>
       <c r="G835" s="4"/>
+      <c r="H835" s="4"/>
     </row>
     <row r="836">
       <c r="C836" s="4"/>
@@ -6515,6 +7361,7 @@
       <c r="E836" s="4"/>
       <c r="F836" s="4"/>
       <c r="G836" s="4"/>
+      <c r="H836" s="4"/>
     </row>
     <row r="837">
       <c r="C837" s="4"/>
@@ -6522,6 +7369,7 @@
       <c r="E837" s="4"/>
       <c r="F837" s="4"/>
       <c r="G837" s="4"/>
+      <c r="H837" s="4"/>
     </row>
     <row r="838">
       <c r="C838" s="4"/>
@@ -6529,6 +7377,7 @@
       <c r="E838" s="4"/>
       <c r="F838" s="4"/>
       <c r="G838" s="4"/>
+      <c r="H838" s="4"/>
     </row>
     <row r="839">
       <c r="C839" s="4"/>
@@ -6536,6 +7385,7 @@
       <c r="E839" s="4"/>
       <c r="F839" s="4"/>
       <c r="G839" s="4"/>
+      <c r="H839" s="4"/>
     </row>
     <row r="840">
       <c r="C840" s="4"/>
@@ -6543,6 +7393,7 @@
       <c r="E840" s="4"/>
       <c r="F840" s="4"/>
       <c r="G840" s="4"/>
+      <c r="H840" s="4"/>
     </row>
     <row r="841">
       <c r="C841" s="4"/>
@@ -6550,6 +7401,7 @@
       <c r="E841" s="4"/>
       <c r="F841" s="4"/>
       <c r="G841" s="4"/>
+      <c r="H841" s="4"/>
     </row>
     <row r="842">
       <c r="C842" s="4"/>
@@ -6557,6 +7409,7 @@
       <c r="E842" s="4"/>
       <c r="F842" s="4"/>
       <c r="G842" s="4"/>
+      <c r="H842" s="4"/>
     </row>
     <row r="843">
       <c r="C843" s="4"/>
@@ -6564,6 +7417,7 @@
       <c r="E843" s="4"/>
       <c r="F843" s="4"/>
       <c r="G843" s="4"/>
+      <c r="H843" s="4"/>
     </row>
     <row r="844">
       <c r="C844" s="4"/>
@@ -6571,6 +7425,7 @@
       <c r="E844" s="4"/>
       <c r="F844" s="4"/>
       <c r="G844" s="4"/>
+      <c r="H844" s="4"/>
     </row>
     <row r="845">
       <c r="C845" s="4"/>
@@ -6578,6 +7433,7 @@
       <c r="E845" s="4"/>
       <c r="F845" s="4"/>
       <c r="G845" s="4"/>
+      <c r="H845" s="4"/>
     </row>
     <row r="846">
       <c r="C846" s="4"/>
@@ -6585,6 +7441,7 @@
       <c r="E846" s="4"/>
       <c r="F846" s="4"/>
       <c r="G846" s="4"/>
+      <c r="H846" s="4"/>
     </row>
     <row r="847">
       <c r="C847" s="4"/>
@@ -6592,6 +7449,7 @@
       <c r="E847" s="4"/>
       <c r="F847" s="4"/>
       <c r="G847" s="4"/>
+      <c r="H847" s="4"/>
     </row>
     <row r="848">
       <c r="C848" s="4"/>
@@ -6599,6 +7457,7 @@
       <c r="E848" s="4"/>
       <c r="F848" s="4"/>
       <c r="G848" s="4"/>
+      <c r="H848" s="4"/>
     </row>
     <row r="849">
       <c r="C849" s="4"/>
@@ -6606,6 +7465,7 @@
       <c r="E849" s="4"/>
       <c r="F849" s="4"/>
       <c r="G849" s="4"/>
+      <c r="H849" s="4"/>
     </row>
     <row r="850">
       <c r="C850" s="4"/>
@@ -6613,6 +7473,7 @@
       <c r="E850" s="4"/>
       <c r="F850" s="4"/>
       <c r="G850" s="4"/>
+      <c r="H850" s="4"/>
     </row>
     <row r="851">
       <c r="C851" s="4"/>
@@ -6620,6 +7481,7 @@
       <c r="E851" s="4"/>
       <c r="F851" s="4"/>
       <c r="G851" s="4"/>
+      <c r="H851" s="4"/>
     </row>
     <row r="852">
       <c r="C852" s="4"/>
@@ -6627,6 +7489,7 @@
       <c r="E852" s="4"/>
       <c r="F852" s="4"/>
       <c r="G852" s="4"/>
+      <c r="H852" s="4"/>
     </row>
     <row r="853">
       <c r="C853" s="4"/>
@@ -6634,6 +7497,7 @@
       <c r="E853" s="4"/>
       <c r="F853" s="4"/>
       <c r="G853" s="4"/>
+      <c r="H853" s="4"/>
     </row>
     <row r="854">
       <c r="C854" s="4"/>
@@ -6641,6 +7505,7 @@
       <c r="E854" s="4"/>
       <c r="F854" s="4"/>
       <c r="G854" s="4"/>
+      <c r="H854" s="4"/>
     </row>
     <row r="855">
       <c r="C855" s="4"/>
@@ -6648,6 +7513,7 @@
       <c r="E855" s="4"/>
       <c r="F855" s="4"/>
       <c r="G855" s="4"/>
+      <c r="H855" s="4"/>
     </row>
     <row r="856">
       <c r="C856" s="4"/>
@@ -6655,6 +7521,7 @@
       <c r="E856" s="4"/>
       <c r="F856" s="4"/>
       <c r="G856" s="4"/>
+      <c r="H856" s="4"/>
     </row>
     <row r="857">
       <c r="C857" s="4"/>
@@ -6662,6 +7529,7 @@
       <c r="E857" s="4"/>
       <c r="F857" s="4"/>
       <c r="G857" s="4"/>
+      <c r="H857" s="4"/>
     </row>
     <row r="858">
       <c r="C858" s="4"/>
@@ -6669,6 +7537,7 @@
       <c r="E858" s="4"/>
       <c r="F858" s="4"/>
       <c r="G858" s="4"/>
+      <c r="H858" s="4"/>
     </row>
     <row r="859">
       <c r="C859" s="4"/>
@@ -6676,6 +7545,7 @@
       <c r="E859" s="4"/>
       <c r="F859" s="4"/>
       <c r="G859" s="4"/>
+      <c r="H859" s="4"/>
     </row>
     <row r="860">
       <c r="C860" s="4"/>
@@ -6683,6 +7553,7 @@
       <c r="E860" s="4"/>
       <c r="F860" s="4"/>
       <c r="G860" s="4"/>
+      <c r="H860" s="4"/>
     </row>
     <row r="861">
       <c r="C861" s="4"/>
@@ -6690,6 +7561,7 @@
       <c r="E861" s="4"/>
       <c r="F861" s="4"/>
       <c r="G861" s="4"/>
+      <c r="H861" s="4"/>
     </row>
     <row r="862">
       <c r="C862" s="4"/>
@@ -6697,6 +7569,7 @@
       <c r="E862" s="4"/>
       <c r="F862" s="4"/>
       <c r="G862" s="4"/>
+      <c r="H862" s="4"/>
     </row>
     <row r="863">
       <c r="C863" s="4"/>
@@ -6704,6 +7577,7 @@
       <c r="E863" s="4"/>
       <c r="F863" s="4"/>
       <c r="G863" s="4"/>
+      <c r="H863" s="4"/>
     </row>
     <row r="864">
       <c r="C864" s="4"/>
@@ -6711,6 +7585,7 @@
       <c r="E864" s="4"/>
       <c r="F864" s="4"/>
       <c r="G864" s="4"/>
+      <c r="H864" s="4"/>
     </row>
     <row r="865">
       <c r="C865" s="4"/>
@@ -6718,6 +7593,7 @@
       <c r="E865" s="4"/>
       <c r="F865" s="4"/>
       <c r="G865" s="4"/>
+      <c r="H865" s="4"/>
     </row>
     <row r="866">
       <c r="C866" s="4"/>
@@ -6725,6 +7601,7 @@
       <c r="E866" s="4"/>
       <c r="F866" s="4"/>
       <c r="G866" s="4"/>
+      <c r="H866" s="4"/>
     </row>
     <row r="867">
       <c r="C867" s="4"/>
@@ -6732,6 +7609,7 @@
       <c r="E867" s="4"/>
       <c r="F867" s="4"/>
       <c r="G867" s="4"/>
+      <c r="H867" s="4"/>
     </row>
     <row r="868">
       <c r="C868" s="4"/>
@@ -6739,6 +7617,7 @@
       <c r="E868" s="4"/>
       <c r="F868" s="4"/>
       <c r="G868" s="4"/>
+      <c r="H868" s="4"/>
     </row>
     <row r="869">
       <c r="C869" s="4"/>
@@ -6746,6 +7625,7 @@
       <c r="E869" s="4"/>
       <c r="F869" s="4"/>
       <c r="G869" s="4"/>
+      <c r="H869" s="4"/>
     </row>
     <row r="870">
       <c r="C870" s="4"/>
@@ -6753,6 +7633,7 @@
       <c r="E870" s="4"/>
       <c r="F870" s="4"/>
       <c r="G870" s="4"/>
+      <c r="H870" s="4"/>
     </row>
     <row r="871">
       <c r="C871" s="4"/>
@@ -6760,6 +7641,7 @@
       <c r="E871" s="4"/>
       <c r="F871" s="4"/>
       <c r="G871" s="4"/>
+      <c r="H871" s="4"/>
     </row>
     <row r="872">
       <c r="C872" s="4"/>
@@ -6767,6 +7649,7 @@
       <c r="E872" s="4"/>
       <c r="F872" s="4"/>
       <c r="G872" s="4"/>
+      <c r="H872" s="4"/>
     </row>
     <row r="873">
       <c r="C873" s="4"/>
@@ -6774,6 +7657,7 @@
       <c r="E873" s="4"/>
       <c r="F873" s="4"/>
       <c r="G873" s="4"/>
+      <c r="H873" s="4"/>
     </row>
     <row r="874">
       <c r="C874" s="4"/>
@@ -6781,6 +7665,7 @@
       <c r="E874" s="4"/>
       <c r="F874" s="4"/>
       <c r="G874" s="4"/>
+      <c r="H874" s="4"/>
     </row>
     <row r="875">
       <c r="C875" s="4"/>
@@ -6788,6 +7673,7 @@
       <c r="E875" s="4"/>
       <c r="F875" s="4"/>
       <c r="G875" s="4"/>
+      <c r="H875" s="4"/>
     </row>
     <row r="876">
       <c r="C876" s="4"/>
@@ -6795,6 +7681,7 @@
       <c r="E876" s="4"/>
       <c r="F876" s="4"/>
       <c r="G876" s="4"/>
+      <c r="H876" s="4"/>
     </row>
     <row r="877">
       <c r="C877" s="4"/>
@@ -6802,6 +7689,7 @@
       <c r="E877" s="4"/>
       <c r="F877" s="4"/>
       <c r="G877" s="4"/>
+      <c r="H877" s="4"/>
     </row>
     <row r="878">
       <c r="C878" s="4"/>
@@ -6809,6 +7697,7 @@
       <c r="E878" s="4"/>
       <c r="F878" s="4"/>
       <c r="G878" s="4"/>
+      <c r="H878" s="4"/>
     </row>
     <row r="879">
       <c r="C879" s="4"/>
@@ -6816,6 +7705,7 @@
       <c r="E879" s="4"/>
       <c r="F879" s="4"/>
       <c r="G879" s="4"/>
+      <c r="H879" s="4"/>
     </row>
     <row r="880">
       <c r="C880" s="4"/>
@@ -6823,6 +7713,7 @@
       <c r="E880" s="4"/>
       <c r="F880" s="4"/>
       <c r="G880" s="4"/>
+      <c r="H880" s="4"/>
     </row>
     <row r="881">
       <c r="C881" s="4"/>
@@ -6830,6 +7721,7 @@
       <c r="E881" s="4"/>
       <c r="F881" s="4"/>
       <c r="G881" s="4"/>
+      <c r="H881" s="4"/>
     </row>
     <row r="882">
       <c r="C882" s="4"/>
@@ -6837,6 +7729,7 @@
       <c r="E882" s="4"/>
       <c r="F882" s="4"/>
       <c r="G882" s="4"/>
+      <c r="H882" s="4"/>
     </row>
     <row r="883">
       <c r="C883" s="4"/>
@@ -6844,6 +7737,7 @@
       <c r="E883" s="4"/>
       <c r="F883" s="4"/>
       <c r="G883" s="4"/>
+      <c r="H883" s="4"/>
     </row>
     <row r="884">
       <c r="C884" s="4"/>
@@ -6851,6 +7745,7 @@
       <c r="E884" s="4"/>
       <c r="F884" s="4"/>
       <c r="G884" s="4"/>
+      <c r="H884" s="4"/>
     </row>
     <row r="885">
       <c r="C885" s="4"/>
@@ -6858,6 +7753,7 @@
       <c r="E885" s="4"/>
       <c r="F885" s="4"/>
       <c r="G885" s="4"/>
+      <c r="H885" s="4"/>
     </row>
     <row r="886">
       <c r="C886" s="4"/>
@@ -6865,6 +7761,7 @@
       <c r="E886" s="4"/>
       <c r="F886" s="4"/>
       <c r="G886" s="4"/>
+      <c r="H886" s="4"/>
     </row>
     <row r="887">
       <c r="C887" s="4"/>
@@ -6872,6 +7769,7 @@
       <c r="E887" s="4"/>
       <c r="F887" s="4"/>
       <c r="G887" s="4"/>
+      <c r="H887" s="4"/>
     </row>
     <row r="888">
       <c r="C888" s="4"/>
@@ -6879,6 +7777,7 @@
       <c r="E888" s="4"/>
       <c r="F888" s="4"/>
       <c r="G888" s="4"/>
+      <c r="H888" s="4"/>
     </row>
     <row r="889">
       <c r="C889" s="4"/>
@@ -6886,6 +7785,7 @@
       <c r="E889" s="4"/>
       <c r="F889" s="4"/>
       <c r="G889" s="4"/>
+      <c r="H889" s="4"/>
     </row>
     <row r="890">
       <c r="C890" s="4"/>
@@ -6893,6 +7793,7 @@
       <c r="E890" s="4"/>
       <c r="F890" s="4"/>
       <c r="G890" s="4"/>
+      <c r="H890" s="4"/>
     </row>
     <row r="891">
       <c r="C891" s="4"/>
@@ -6900,6 +7801,7 @@
       <c r="E891" s="4"/>
       <c r="F891" s="4"/>
       <c r="G891" s="4"/>
+      <c r="H891" s="4"/>
     </row>
     <row r="892">
       <c r="C892" s="4"/>
@@ -6907,6 +7809,7 @@
       <c r="E892" s="4"/>
       <c r="F892" s="4"/>
       <c r="G892" s="4"/>
+      <c r="H892" s="4"/>
     </row>
     <row r="893">
       <c r="C893" s="4"/>
@@ -6914,6 +7817,7 @@
       <c r="E893" s="4"/>
       <c r="F893" s="4"/>
       <c r="G893" s="4"/>
+      <c r="H893" s="4"/>
     </row>
     <row r="894">
       <c r="C894" s="4"/>
@@ -6921,6 +7825,7 @@
       <c r="E894" s="4"/>
       <c r="F894" s="4"/>
       <c r="G894" s="4"/>
+      <c r="H894" s="4"/>
     </row>
     <row r="895">
       <c r="C895" s="4"/>
@@ -6928,6 +7833,7 @@
       <c r="E895" s="4"/>
       <c r="F895" s="4"/>
       <c r="G895" s="4"/>
+      <c r="H895" s="4"/>
     </row>
     <row r="896">
       <c r="C896" s="4"/>
@@ -6935,6 +7841,7 @@
       <c r="E896" s="4"/>
       <c r="F896" s="4"/>
       <c r="G896" s="4"/>
+      <c r="H896" s="4"/>
     </row>
     <row r="897">
       <c r="C897" s="4"/>
@@ -6942,6 +7849,7 @@
       <c r="E897" s="4"/>
       <c r="F897" s="4"/>
       <c r="G897" s="4"/>
+      <c r="H897" s="4"/>
     </row>
     <row r="898">
       <c r="C898" s="4"/>
@@ -6949,6 +7857,7 @@
       <c r="E898" s="4"/>
       <c r="F898" s="4"/>
       <c r="G898" s="4"/>
+      <c r="H898" s="4"/>
     </row>
     <row r="899">
       <c r="C899" s="4"/>
@@ -6956,6 +7865,7 @@
       <c r="E899" s="4"/>
       <c r="F899" s="4"/>
       <c r="G899" s="4"/>
+      <c r="H899" s="4"/>
     </row>
     <row r="900">
       <c r="C900" s="4"/>
@@ -6963,6 +7873,7 @@
       <c r="E900" s="4"/>
       <c r="F900" s="4"/>
       <c r="G900" s="4"/>
+      <c r="H900" s="4"/>
     </row>
     <row r="901">
       <c r="C901" s="4"/>
@@ -6970,6 +7881,7 @@
       <c r="E901" s="4"/>
       <c r="F901" s="4"/>
       <c r="G901" s="4"/>
+      <c r="H901" s="4"/>
     </row>
     <row r="902">
       <c r="C902" s="4"/>
@@ -6977,6 +7889,7 @@
       <c r="E902" s="4"/>
       <c r="F902" s="4"/>
       <c r="G902" s="4"/>
+      <c r="H902" s="4"/>
     </row>
     <row r="903">
       <c r="C903" s="4"/>
@@ -6984,6 +7897,7 @@
       <c r="E903" s="4"/>
       <c r="F903" s="4"/>
       <c r="G903" s="4"/>
+      <c r="H903" s="4"/>
     </row>
     <row r="904">
       <c r="C904" s="4"/>
@@ -6991,6 +7905,7 @@
       <c r="E904" s="4"/>
       <c r="F904" s="4"/>
       <c r="G904" s="4"/>
+      <c r="H904" s="4"/>
     </row>
     <row r="905">
       <c r="C905" s="4"/>
@@ -6998,6 +7913,7 @@
       <c r="E905" s="4"/>
       <c r="F905" s="4"/>
       <c r="G905" s="4"/>
+      <c r="H905" s="4"/>
     </row>
     <row r="906">
       <c r="C906" s="4"/>
@@ -7005,6 +7921,7 @@
       <c r="E906" s="4"/>
       <c r="F906" s="4"/>
       <c r="G906" s="4"/>
+      <c r="H906" s="4"/>
     </row>
     <row r="907">
       <c r="C907" s="4"/>
@@ -7012,6 +7929,7 @@
       <c r="E907" s="4"/>
       <c r="F907" s="4"/>
       <c r="G907" s="4"/>
+      <c r="H907" s="4"/>
     </row>
     <row r="908">
       <c r="C908" s="4"/>
@@ -7019,6 +7937,7 @@
       <c r="E908" s="4"/>
       <c r="F908" s="4"/>
       <c r="G908" s="4"/>
+      <c r="H908" s="4"/>
     </row>
     <row r="909">
       <c r="C909" s="4"/>
@@ -7026,6 +7945,7 @@
       <c r="E909" s="4"/>
       <c r="F909" s="4"/>
       <c r="G909" s="4"/>
+      <c r="H909" s="4"/>
     </row>
     <row r="910">
       <c r="C910" s="4"/>
@@ -7033,6 +7953,7 @@
       <c r="E910" s="4"/>
       <c r="F910" s="4"/>
       <c r="G910" s="4"/>
+      <c r="H910" s="4"/>
     </row>
     <row r="911">
       <c r="C911" s="4"/>
@@ -7040,6 +7961,7 @@
       <c r="E911" s="4"/>
       <c r="F911" s="4"/>
       <c r="G911" s="4"/>
+      <c r="H911" s="4"/>
     </row>
     <row r="912">
       <c r="C912" s="4"/>
@@ -7047,6 +7969,7 @@
       <c r="E912" s="4"/>
       <c r="F912" s="4"/>
       <c r="G912" s="4"/>
+      <c r="H912" s="4"/>
     </row>
     <row r="913">
       <c r="C913" s="4"/>
@@ -7054,6 +7977,7 @@
       <c r="E913" s="4"/>
       <c r="F913" s="4"/>
       <c r="G913" s="4"/>
+      <c r="H913" s="4"/>
     </row>
     <row r="914">
       <c r="C914" s="4"/>
@@ -7061,6 +7985,7 @@
       <c r="E914" s="4"/>
       <c r="F914" s="4"/>
       <c r="G914" s="4"/>
+      <c r="H914" s="4"/>
     </row>
     <row r="915">
       <c r="C915" s="4"/>
@@ -7068,6 +7993,7 @@
       <c r="E915" s="4"/>
       <c r="F915" s="4"/>
       <c r="G915" s="4"/>
+      <c r="H915" s="4"/>
     </row>
     <row r="916">
       <c r="C916" s="4"/>
@@ -7075,6 +8001,7 @@
       <c r="E916" s="4"/>
       <c r="F916" s="4"/>
       <c r="G916" s="4"/>
+      <c r="H916" s="4"/>
     </row>
     <row r="917">
       <c r="C917" s="4"/>
@@ -7082,6 +8009,7 @@
       <c r="E917" s="4"/>
       <c r="F917" s="4"/>
       <c r="G917" s="4"/>
+      <c r="H917" s="4"/>
     </row>
     <row r="918">
       <c r="C918" s="4"/>
@@ -7089,6 +8017,7 @@
       <c r="E918" s="4"/>
       <c r="F918" s="4"/>
       <c r="G918" s="4"/>
+      <c r="H918" s="4"/>
     </row>
     <row r="919">
       <c r="C919" s="4"/>
@@ -7096,6 +8025,7 @@
       <c r="E919" s="4"/>
       <c r="F919" s="4"/>
       <c r="G919" s="4"/>
+      <c r="H919" s="4"/>
     </row>
     <row r="920">
       <c r="C920" s="4"/>
@@ -7103,6 +8033,7 @@
       <c r="E920" s="4"/>
       <c r="F920" s="4"/>
       <c r="G920" s="4"/>
+      <c r="H920" s="4"/>
     </row>
     <row r="921">
       <c r="C921" s="4"/>
@@ -7110,6 +8041,7 @@
       <c r="E921" s="4"/>
       <c r="F921" s="4"/>
       <c r="G921" s="4"/>
+      <c r="H921" s="4"/>
     </row>
     <row r="922">
       <c r="C922" s="4"/>
@@ -7117,6 +8049,7 @@
       <c r="E922" s="4"/>
       <c r="F922" s="4"/>
       <c r="G922" s="4"/>
+      <c r="H922" s="4"/>
     </row>
     <row r="923">
       <c r="C923" s="4"/>
@@ -7124,6 +8057,7 @@
       <c r="E923" s="4"/>
       <c r="F923" s="4"/>
       <c r="G923" s="4"/>
+      <c r="H923" s="4"/>
     </row>
     <row r="924">
       <c r="C924" s="4"/>
@@ -7131,6 +8065,7 @@
       <c r="E924" s="4"/>
       <c r="F924" s="4"/>
       <c r="G924" s="4"/>
+      <c r="H924" s="4"/>
     </row>
     <row r="925">
       <c r="C925" s="4"/>
@@ -7138,6 +8073,7 @@
       <c r="E925" s="4"/>
       <c r="F925" s="4"/>
       <c r="G925" s="4"/>
+      <c r="H925" s="4"/>
     </row>
     <row r="926">
       <c r="C926" s="4"/>
@@ -7145,6 +8081,7 @@
       <c r="E926" s="4"/>
       <c r="F926" s="4"/>
       <c r="G926" s="4"/>
+      <c r="H926" s="4"/>
     </row>
     <row r="927">
       <c r="C927" s="4"/>
@@ -7152,6 +8089,7 @@
       <c r="E927" s="4"/>
       <c r="F927" s="4"/>
       <c r="G927" s="4"/>
+      <c r="H927" s="4"/>
     </row>
     <row r="928">
       <c r="C928" s="4"/>
@@ -7159,6 +8097,7 @@
       <c r="E928" s="4"/>
       <c r="F928" s="4"/>
       <c r="G928" s="4"/>
+      <c r="H928" s="4"/>
     </row>
     <row r="929">
       <c r="C929" s="4"/>
@@ -7166,6 +8105,7 @@
       <c r="E929" s="4"/>
       <c r="F929" s="4"/>
       <c r="G929" s="4"/>
+      <c r="H929" s="4"/>
     </row>
     <row r="930">
       <c r="C930" s="4"/>
@@ -7173,6 +8113,7 @@
       <c r="E930" s="4"/>
       <c r="F930" s="4"/>
       <c r="G930" s="4"/>
+      <c r="H930" s="4"/>
     </row>
     <row r="931">
       <c r="C931" s="4"/>
@@ -7180,6 +8121,7 @@
       <c r="E931" s="4"/>
       <c r="F931" s="4"/>
       <c r="G931" s="4"/>
+      <c r="H931" s="4"/>
     </row>
     <row r="932">
       <c r="C932" s="4"/>
@@ -7187,6 +8129,7 @@
       <c r="E932" s="4"/>
       <c r="F932" s="4"/>
       <c r="G932" s="4"/>
+      <c r="H932" s="4"/>
     </row>
     <row r="933">
       <c r="C933" s="4"/>
@@ -7194,6 +8137,7 @@
       <c r="E933" s="4"/>
       <c r="F933" s="4"/>
       <c r="G933" s="4"/>
+      <c r="H933" s="4"/>
     </row>
     <row r="934">
       <c r="C934" s="4"/>
@@ -7201,6 +8145,7 @@
       <c r="E934" s="4"/>
       <c r="F934" s="4"/>
       <c r="G934" s="4"/>
+      <c r="H934" s="4"/>
     </row>
     <row r="935">
       <c r="C935" s="4"/>
@@ -7208,6 +8153,7 @@
       <c r="E935" s="4"/>
       <c r="F935" s="4"/>
       <c r="G935" s="4"/>
+      <c r="H935" s="4"/>
     </row>
     <row r="936">
       <c r="C936" s="4"/>
@@ -7215,6 +8161,7 @@
       <c r="E936" s="4"/>
       <c r="F936" s="4"/>
       <c r="G936" s="4"/>
+      <c r="H936" s="4"/>
     </row>
     <row r="937">
       <c r="C937" s="4"/>
@@ -7222,6 +8169,7 @@
       <c r="E937" s="4"/>
       <c r="F937" s="4"/>
       <c r="G937" s="4"/>
+      <c r="H937" s="4"/>
     </row>
     <row r="938">
       <c r="C938" s="4"/>
@@ -7229,6 +8177,7 @@
       <c r="E938" s="4"/>
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
+      <c r="H938" s="4"/>
     </row>
     <row r="939">
       <c r="C939" s="4"/>
@@ -7236,6 +8185,7 @@
       <c r="E939" s="4"/>
       <c r="F939" s="4"/>
       <c r="G939" s="4"/>
+      <c r="H939" s="4"/>
     </row>
     <row r="940">
       <c r="C940" s="4"/>
@@ -7243,6 +8193,7 @@
       <c r="E940" s="4"/>
       <c r="F940" s="4"/>
       <c r="G940" s="4"/>
+      <c r="H940" s="4"/>
     </row>
     <row r="941">
       <c r="C941" s="4"/>
@@ -7250,6 +8201,7 @@
       <c r="E941" s="4"/>
       <c r="F941" s="4"/>
       <c r="G941" s="4"/>
+      <c r="H941" s="4"/>
     </row>
     <row r="942">
       <c r="C942" s="4"/>
@@ -7257,6 +8209,7 @@
       <c r="E942" s="4"/>
       <c r="F942" s="4"/>
       <c r="G942" s="4"/>
+      <c r="H942" s="4"/>
     </row>
     <row r="943">
       <c r="C943" s="4"/>
@@ -7264,6 +8217,7 @@
       <c r="E943" s="4"/>
       <c r="F943" s="4"/>
       <c r="G943" s="4"/>
+      <c r="H943" s="4"/>
     </row>
     <row r="944">
       <c r="C944" s="4"/>
@@ -7271,6 +8225,7 @@
       <c r="E944" s="4"/>
       <c r="F944" s="4"/>
       <c r="G944" s="4"/>
+      <c r="H944" s="4"/>
     </row>
     <row r="945">
       <c r="C945" s="4"/>
@@ -7278,6 +8233,7 @@
       <c r="E945" s="4"/>
       <c r="F945" s="4"/>
       <c r="G945" s="4"/>
+      <c r="H945" s="4"/>
     </row>
     <row r="946">
       <c r="C946" s="4"/>
@@ -7285,6 +8241,7 @@
       <c r="E946" s="4"/>
       <c r="F946" s="4"/>
       <c r="G946" s="4"/>
+      <c r="H946" s="4"/>
     </row>
     <row r="947">
       <c r="C947" s="4"/>
@@ -7292,6 +8249,7 @@
       <c r="E947" s="4"/>
       <c r="F947" s="4"/>
       <c r="G947" s="4"/>
+      <c r="H947" s="4"/>
     </row>
     <row r="948">
       <c r="C948" s="4"/>
@@ -7299,6 +8257,7 @@
       <c r="E948" s="4"/>
       <c r="F948" s="4"/>
       <c r="G948" s="4"/>
+      <c r="H948" s="4"/>
     </row>
     <row r="949">
       <c r="C949" s="4"/>
@@ -7306,6 +8265,7 @@
       <c r="E949" s="4"/>
       <c r="F949" s="4"/>
       <c r="G949" s="4"/>
+      <c r="H949" s="4"/>
     </row>
     <row r="950">
       <c r="C950" s="4"/>
@@ -7313,6 +8273,7 @@
       <c r="E950" s="4"/>
       <c r="F950" s="4"/>
       <c r="G950" s="4"/>
+      <c r="H950" s="4"/>
     </row>
     <row r="951">
       <c r="C951" s="4"/>
@@ -7320,6 +8281,7 @@
       <c r="E951" s="4"/>
       <c r="F951" s="4"/>
       <c r="G951" s="4"/>
+      <c r="H951" s="4"/>
     </row>
     <row r="952">
       <c r="C952" s="4"/>
@@ -7327,6 +8289,7 @@
       <c r="E952" s="4"/>
       <c r="F952" s="4"/>
       <c r="G952" s="4"/>
+      <c r="H952" s="4"/>
     </row>
     <row r="953">
       <c r="C953" s="4"/>
@@ -7334,6 +8297,7 @@
       <c r="E953" s="4"/>
       <c r="F953" s="4"/>
       <c r="G953" s="4"/>
+      <c r="H953" s="4"/>
     </row>
     <row r="954">
       <c r="C954" s="4"/>
@@ -7341,6 +8305,7 @@
       <c r="E954" s="4"/>
       <c r="F954" s="4"/>
       <c r="G954" s="4"/>
+      <c r="H954" s="4"/>
     </row>
     <row r="955">
       <c r="C955" s="4"/>
@@ -7348,6 +8313,7 @@
       <c r="E955" s="4"/>
       <c r="F955" s="4"/>
       <c r="G955" s="4"/>
+      <c r="H955" s="4"/>
     </row>
     <row r="956">
       <c r="C956" s="4"/>
@@ -7355,6 +8321,7 @@
       <c r="E956" s="4"/>
       <c r="F956" s="4"/>
       <c r="G956" s="4"/>
+      <c r="H956" s="4"/>
     </row>
     <row r="957">
       <c r="C957" s="4"/>
@@ -7362,6 +8329,7 @@
       <c r="E957" s="4"/>
       <c r="F957" s="4"/>
       <c r="G957" s="4"/>
+      <c r="H957" s="4"/>
     </row>
     <row r="958">
       <c r="C958" s="4"/>
@@ -7369,6 +8337,7 @@
       <c r="E958" s="4"/>
       <c r="F958" s="4"/>
       <c r="G958" s="4"/>
+      <c r="H958" s="4"/>
     </row>
     <row r="959">
       <c r="C959" s="4"/>
@@ -7376,6 +8345,7 @@
       <c r="E959" s="4"/>
       <c r="F959" s="4"/>
       <c r="G959" s="4"/>
+      <c r="H959" s="4"/>
     </row>
     <row r="960">
       <c r="C960" s="4"/>
@@ -7383,6 +8353,7 @@
       <c r="E960" s="4"/>
       <c r="F960" s="4"/>
       <c r="G960" s="4"/>
+      <c r="H960" s="4"/>
     </row>
     <row r="961">
       <c r="C961" s="4"/>
@@ -7390,6 +8361,7 @@
       <c r="E961" s="4"/>
       <c r="F961" s="4"/>
       <c r="G961" s="4"/>
+      <c r="H961" s="4"/>
     </row>
     <row r="962">
       <c r="C962" s="4"/>
@@ -7397,6 +8369,7 @@
       <c r="E962" s="4"/>
       <c r="F962" s="4"/>
       <c r="G962" s="4"/>
+      <c r="H962" s="4"/>
     </row>
     <row r="963">
       <c r="C963" s="4"/>
@@ -7404,6 +8377,7 @@
       <c r="E963" s="4"/>
       <c r="F963" s="4"/>
       <c r="G963" s="4"/>
+      <c r="H963" s="4"/>
     </row>
     <row r="964">
       <c r="C964" s="4"/>
@@ -7411,6 +8385,7 @@
       <c r="E964" s="4"/>
       <c r="F964" s="4"/>
       <c r="G964" s="4"/>
+      <c r="H964" s="4"/>
     </row>
     <row r="965">
       <c r="C965" s="4"/>
@@ -7418,6 +8393,7 @@
       <c r="E965" s="4"/>
       <c r="F965" s="4"/>
       <c r="G965" s="4"/>
+      <c r="H965" s="4"/>
     </row>
     <row r="966">
       <c r="C966" s="4"/>
@@ -7425,6 +8401,7 @@
       <c r="E966" s="4"/>
       <c r="F966" s="4"/>
       <c r="G966" s="4"/>
+      <c r="H966" s="4"/>
     </row>
     <row r="967">
       <c r="C967" s="4"/>
@@ -7432,6 +8409,7 @@
       <c r="E967" s="4"/>
       <c r="F967" s="4"/>
       <c r="G967" s="4"/>
+      <c r="H967" s="4"/>
     </row>
     <row r="968">
       <c r="C968" s="4"/>
@@ -7439,6 +8417,7 @@
       <c r="E968" s="4"/>
       <c r="F968" s="4"/>
       <c r="G968" s="4"/>
+      <c r="H968" s="4"/>
     </row>
     <row r="969">
       <c r="C969" s="4"/>
@@ -7446,6 +8425,7 @@
       <c r="E969" s="4"/>
       <c r="F969" s="4"/>
       <c r="G969" s="4"/>
+      <c r="H969" s="4"/>
     </row>
     <row r="970">
       <c r="C970" s="4"/>
@@ -7453,6 +8433,7 @@
       <c r="E970" s="4"/>
       <c r="F970" s="4"/>
       <c r="G970" s="4"/>
+      <c r="H970" s="4"/>
     </row>
     <row r="971">
       <c r="C971" s="4"/>
@@ -7460,6 +8441,7 @@
       <c r="E971" s="4"/>
       <c r="F971" s="4"/>
       <c r="G971" s="4"/>
+      <c r="H971" s="4"/>
     </row>
     <row r="972">
       <c r="C972" s="4"/>
@@ -7467,6 +8449,7 @@
       <c r="E972" s="4"/>
       <c r="F972" s="4"/>
       <c r="G972" s="4"/>
+      <c r="H972" s="4"/>
     </row>
     <row r="973">
       <c r="C973" s="4"/>
@@ -7474,6 +8457,7 @@
       <c r="E973" s="4"/>
       <c r="F973" s="4"/>
       <c r="G973" s="4"/>
+      <c r="H973" s="4"/>
     </row>
     <row r="974">
       <c r="C974" s="4"/>
@@ -7481,6 +8465,7 @@
       <c r="E974" s="4"/>
       <c r="F974" s="4"/>
       <c r="G974" s="4"/>
+      <c r="H974" s="4"/>
     </row>
     <row r="975">
       <c r="C975" s="4"/>
@@ -7488,6 +8473,7 @@
       <c r="E975" s="4"/>
       <c r="F975" s="4"/>
       <c r="G975" s="4"/>
+      <c r="H975" s="4"/>
     </row>
     <row r="976">
       <c r="C976" s="4"/>
@@ -7495,6 +8481,7 @@
       <c r="E976" s="4"/>
       <c r="F976" s="4"/>
       <c r="G976" s="4"/>
+      <c r="H976" s="4"/>
     </row>
     <row r="977">
       <c r="C977" s="4"/>
@@ -7502,6 +8489,7 @@
       <c r="E977" s="4"/>
       <c r="F977" s="4"/>
       <c r="G977" s="4"/>
+      <c r="H977" s="4"/>
     </row>
     <row r="978">
       <c r="C978" s="4"/>
@@ -7509,6 +8497,7 @@
       <c r="E978" s="4"/>
       <c r="F978" s="4"/>
       <c r="G978" s="4"/>
+      <c r="H978" s="4"/>
     </row>
     <row r="979">
       <c r="C979" s="4"/>
@@ -7516,6 +8505,7 @@
       <c r="E979" s="4"/>
       <c r="F979" s="4"/>
       <c r="G979" s="4"/>
+      <c r="H979" s="4"/>
     </row>
     <row r="980">
       <c r="C980" s="4"/>
@@ -7523,6 +8513,7 @@
       <c r="E980" s="4"/>
       <c r="F980" s="4"/>
       <c r="G980" s="4"/>
+      <c r="H980" s="4"/>
     </row>
     <row r="981">
       <c r="C981" s="4"/>
@@ -7530,6 +8521,7 @@
       <c r="E981" s="4"/>
       <c r="F981" s="4"/>
       <c r="G981" s="4"/>
+      <c r="H981" s="4"/>
     </row>
     <row r="982">
       <c r="C982" s="4"/>
@@ -7537,6 +8529,7 @@
       <c r="E982" s="4"/>
       <c r="F982" s="4"/>
       <c r="G982" s="4"/>
+      <c r="H982" s="4"/>
     </row>
     <row r="983">
       <c r="C983" s="4"/>
@@ -7544,6 +8537,7 @@
       <c r="E983" s="4"/>
       <c r="F983" s="4"/>
       <c r="G983" s="4"/>
+      <c r="H983" s="4"/>
     </row>
     <row r="984">
       <c r="C984" s="4"/>
@@ -7551,6 +8545,7 @@
       <c r="E984" s="4"/>
       <c r="F984" s="4"/>
       <c r="G984" s="4"/>
+      <c r="H984" s="4"/>
     </row>
     <row r="985">
       <c r="C985" s="4"/>
@@ -7558,6 +8553,7 @@
       <c r="E985" s="4"/>
       <c r="F985" s="4"/>
       <c r="G985" s="4"/>
+      <c r="H985" s="4"/>
     </row>
     <row r="986">
       <c r="C986" s="4"/>
@@ -7565,6 +8561,7 @@
       <c r="E986" s="4"/>
       <c r="F986" s="4"/>
       <c r="G986" s="4"/>
+      <c r="H986" s="4"/>
     </row>
     <row r="987">
       <c r="C987" s="4"/>
@@ -7572,6 +8569,7 @@
       <c r="E987" s="4"/>
       <c r="F987" s="4"/>
       <c r="G987" s="4"/>
+      <c r="H987" s="4"/>
     </row>
     <row r="988">
       <c r="C988" s="4"/>
@@ -7579,6 +8577,7 @@
       <c r="E988" s="4"/>
       <c r="F988" s="4"/>
       <c r="G988" s="4"/>
+      <c r="H988" s="4"/>
     </row>
     <row r="989">
       <c r="C989" s="4"/>
@@ -7586,6 +8585,7 @@
       <c r="E989" s="4"/>
       <c r="F989" s="4"/>
       <c r="G989" s="4"/>
+      <c r="H989" s="4"/>
     </row>
     <row r="990">
       <c r="C990" s="4"/>
@@ -7593,6 +8593,7 @@
       <c r="E990" s="4"/>
       <c r="F990" s="4"/>
       <c r="G990" s="4"/>
+      <c r="H990" s="4"/>
     </row>
     <row r="991">
       <c r="C991" s="4"/>
@@ -7600,6 +8601,7 @@
       <c r="E991" s="4"/>
       <c r="F991" s="4"/>
       <c r="G991" s="4"/>
+      <c r="H991" s="4"/>
     </row>
     <row r="992">
       <c r="C992" s="4"/>
@@ -7607,6 +8609,7 @@
       <c r="E992" s="4"/>
       <c r="F992" s="4"/>
       <c r="G992" s="4"/>
+      <c r="H992" s="4"/>
     </row>
     <row r="993">
       <c r="C993" s="4"/>
@@ -7614,6 +8617,7 @@
       <c r="E993" s="4"/>
       <c r="F993" s="4"/>
       <c r="G993" s="4"/>
+      <c r="H993" s="4"/>
     </row>
     <row r="994">
       <c r="C994" s="4"/>
@@ -7621,6 +8625,7 @@
       <c r="E994" s="4"/>
       <c r="F994" s="4"/>
       <c r="G994" s="4"/>
+      <c r="H994" s="4"/>
     </row>
     <row r="995">
       <c r="C995" s="4"/>
@@ -7628,6 +8633,7 @@
       <c r="E995" s="4"/>
       <c r="F995" s="4"/>
       <c r="G995" s="4"/>
+      <c r="H995" s="4"/>
     </row>
     <row r="996">
       <c r="C996" s="4"/>
@@ -7635,6 +8641,7 @@
       <c r="E996" s="4"/>
       <c r="F996" s="4"/>
       <c r="G996" s="4"/>
+      <c r="H996" s="4"/>
     </row>
     <row r="997">
       <c r="C997" s="4"/>
@@ -7642,6 +8649,7 @@
       <c r="E997" s="4"/>
       <c r="F997" s="4"/>
       <c r="G997" s="4"/>
+      <c r="H997" s="4"/>
     </row>
     <row r="998">
       <c r="C998" s="4"/>
@@ -7649,6 +8657,7 @@
       <c r="E998" s="4"/>
       <c r="F998" s="4"/>
       <c r="G998" s="4"/>
+      <c r="H998" s="4"/>
     </row>
     <row r="999">
       <c r="C999" s="4"/>
@@ -7656,6 +8665,7 @@
       <c r="E999" s="4"/>
       <c r="F999" s="4"/>
       <c r="G999" s="4"/>
+      <c r="H999" s="4"/>
     </row>
     <row r="1000">
       <c r="C1000" s="4"/>
@@ -7663,6 +8673,7 @@
       <c r="E1000" s="4"/>
       <c r="F1000" s="4"/>
       <c r="G1000" s="4"/>
+      <c r="H1000" s="4"/>
     </row>
     <row r="1001">
       <c r="C1001" s="4"/>
@@ -7670,6 +8681,7 @@
       <c r="E1001" s="4"/>
       <c r="F1001" s="4"/>
       <c r="G1001" s="4"/>
+      <c r="H1001" s="4"/>
     </row>
     <row r="1002">
       <c r="C1002" s="4"/>
@@ -7677,6 +8689,7 @@
       <c r="E1002" s="4"/>
       <c r="F1002" s="4"/>
       <c r="G1002" s="4"/>
+      <c r="H1002" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -7695,42 +8708,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!E5:G10),FLATTEN(Authors_Affiliations!E5:G10)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!F5:H10),FLATTEN(Authors_Affiliations!F5:H10)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
         <v>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B6" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Centre for Author Lists, University of LaTeX, AB12 3CD, UK")</f>
@@ -7739,7 +8752,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B7" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Community College, Greendale, CO, USA")</f>
@@ -7748,7 +8761,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana University, Bloomington, IN, USA")</f>
@@ -7757,7 +8770,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B9" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"{\""U}mlaut University, City, Country")</f>
@@ -7766,7 +8779,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"City College, Greendale, CO, USA")</f>
@@ -7775,7 +8788,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA")</f>
@@ -7784,7 +8797,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B12" s="6" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Springfield Elementary School, Springfield, State, USA")</f>

--- a/author-affiliation-example.xlsx
+++ b/author-affiliation-example.xlsx
@@ -8737,7 +8737,7 @@
         <v>56</v>
       </c>
       <c r="B5" s="6" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!F5:H10),FLATTEN(Authors_Affiliations!F5:H10)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!F5:H20),FLATTEN(Authors_Affiliations!F5:H20)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
         <v>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</v>
       </c>
     </row>

--- a/author-affiliation-example.xlsx
+++ b/author-affiliation-example.xlsx
@@ -12,21 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
-    <t>Enter names/affiliations as they should be written in LaTeX, e.g. Ren\'{e} for René</t>
+    <t># Enter names/affiliations as they should be written in LaTeX, e.g. Ren\'{e} for René</t>
   </si>
   <si>
-    <t>Additional affiliation columns can be added</t>
+    <t># Additional affiliation columns can be added</t>
   </si>
   <si>
-    <t>Order for first n authors can be set and changed whenever, the list does NOT need to be sorted.</t>
+    <t># Order for first n authors can be set and changed whenever, the list does NOT need to be sorted.</t>
   </si>
   <si>
-    <t>Any author with Order left blank will be sorted automatically in the alphabetical section of the author list</t>
+    <t># Any author with Order left blank will be sorted automatically in the alphabetical section of the author list</t>
   </si>
   <si>
-    <t>Check out: https://github.com/astro-sobrien/latex-author-affiliation-generator</t>
+    <t># Check out: https://github.com/astro-sobrien/latex-author-affiliation-generator</t>
+  </si>
+  <si>
+    <t># Include the hash (#) symbol at the start of any rows containing instructions to co-authors</t>
   </si>
   <si>
     <t>Order</t>
@@ -173,13 +176,13 @@
     <t>Terri</t>
   </si>
   <si>
-    <t>Change the ranges searched in cell B4 so that the entire affiliation range is searched. Currently D5:F9</t>
+    <t># Change the ranges searched in cell B4 so that the entire affiliation range is searched. Currently D5:F9</t>
   </si>
   <si>
-    <t>Ensure that none of the affiliations appear twice due to typos. Any typos must be fixed in the other sheet</t>
+    <t># Ensure that none of the affiliations appear twice due to typos. Any typos must be fixed in the other sheet</t>
   </si>
   <si>
-    <t>Set the commands below. Three-letter codes are not mandatory, avoid using already defined LaTeX commands</t>
+    <t># Set the commands below. Three-letter codes are not mandatory, avoid using already defined LaTeX commands</t>
   </si>
   <si>
     <t>Command</t>
@@ -579,161 +582,158 @@
       <c r="H5" s="3"/>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>19</v>
+      </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>28</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>29</v>
+        <v>5.0</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="5"/>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="5"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="5"/>
+        <v>20</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13">
       <c r="B13" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -743,141 +743,148 @@
         <v>36</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
     <row r="15">
       <c r="B15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
     <row r="16">
       <c r="B16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
     <row r="17">
       <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
     <row r="18">
       <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
     <row r="19">
       <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
     <row r="20">
       <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
     <row r="21">
       <c r="B21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D21" s="5"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
     <row r="22">
       <c r="B22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D22" s="5"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
     <row r="23">
-      <c r="C23" s="5"/>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
       <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
@@ -8728,6 +8735,14 @@
       <c r="F1004" s="5"/>
       <c r="G1004" s="5"/>
       <c r="H1004" s="5"/>
+    </row>
+    <row r="1005">
+      <c r="C1005" s="5"/>
+      <c r="D1005" s="5"/>
+      <c r="E1005" s="5"/>
+      <c r="F1005" s="5"/>
+      <c r="G1005" s="5"/>
+      <c r="H1005" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -8746,42 +8761,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!F7:H22),FLATTEN(Authors_Affiliations!F7:H22)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("UNIQUE(FILTER(FLATTEN(Authors_Affiliations!F8:H23),FLATTEN(Authors_Affiliations!F8:H23)&lt;&gt;""""))"),"Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK")</f>
         <v>Department of Affiliation Scripts, University of LaTeX, AB12 3CD, UK</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B6" s="8" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Centre for Author Lists, University of LaTeX, AB12 3CD, UK")</f>
@@ -8790,7 +8805,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Community College, Greendale, CO, USA")</f>
@@ -8799,7 +8814,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Indiana University, Bloomington, IN, USA")</f>
@@ -8808,7 +8823,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"{\""U}mlaut University, City, Country")</f>
@@ -8817,7 +8832,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B10" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"City College, Greendale, CO, USA")</f>
@@ -8826,7 +8841,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B11" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Greendale Air Conditioning Repair School, Greendale Community College, Greendale, CO, USA")</f>
@@ -8835,7 +8850,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B12" s="7" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Springfield Elementary School, Springfield, State, USA")</f>
